--- a/experiments/compas/results/all_results.xlsx
+++ b/experiments/compas/results/all_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\compas\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\experiments\compas\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB859BD8-D418-42F6-B2B7-991637CCCD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E32D036-C474-4E7F-A4A5-8BC586A19752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="12420" yWindow="2868" windowWidth="17280" windowHeight="8964" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="compas-one-client" sheetId="4" r:id="rId1"/>
@@ -1437,120 +1437,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1559,6 +1460,105 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1877,20 +1877,20 @@
   <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
@@ -1899,80 +1899,80 @@
     <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="5" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.28515625" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.33203125" customWidth="1"/>
+    <col min="30" max="30" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="154" t="s">
+    <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="151" t="s">
+      <c r="C1" s="155"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="144" t="s">
+      <c r="F1" s="155"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="144" t="s">
+      <c r="I1" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="144" t="s">
+      <c r="J1" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="148" t="s">
+      <c r="K1" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="149"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="151" t="s">
+      <c r="L1" s="160"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="152"/>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="151" t="s">
+      <c r="O1" s="155"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="152"/>
-      <c r="S1" s="153"/>
-      <c r="T1" s="151" t="s">
+      <c r="R1" s="155"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="152"/>
-      <c r="V1" s="153"/>
-      <c r="W1" s="151" t="s">
+      <c r="U1" s="155"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="152"/>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="144" t="s">
+      <c r="X1" s="155"/>
+      <c r="Y1" s="156"/>
+      <c r="Z1" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" s="145" t="s">
+      <c r="AA1" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="145" t="s">
+      <c r="AB1" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" s="145" t="s">
+      <c r="AC1" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="144" t="s">
+      <c r="AD1" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="182" t="s">
+      <c r="AF1" s="149" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="155"/>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" s="153"/>
       <c r="B2" s="141" t="s">
         <v>53</v>
       </c>
@@ -1991,9 +1991,9 @@
       <c r="G2" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
       <c r="K2" s="141" t="s">
         <v>53</v>
       </c>
@@ -2039,14 +2039,14 @@
       <c r="Y2" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="144"/>
-      <c r="AA2" s="146"/>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="146"/>
-      <c r="AD2" s="144"/>
-      <c r="AF2" s="183"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="147"/>
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="147"/>
+      <c r="AD2" s="148"/>
+      <c r="AF2" s="150"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="140" t="s">
         <v>3</v>
       </c>
@@ -2137,9 +2137,9 @@
       <c r="AD3" s="6">
         <v>5.31</v>
       </c>
-      <c r="AF3" s="183"/>
+      <c r="AF3" s="150"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="140" t="s">
         <v>48</v>
       </c>
@@ -2230,9 +2230,9 @@
       <c r="AD4" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AF4" s="183"/>
+      <c r="AF4" s="150"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="140" t="s">
         <v>9</v>
       </c>
@@ -2323,9 +2323,9 @@
       <c r="AD5" s="6">
         <v>7.35</v>
       </c>
-      <c r="AF5" s="183"/>
+      <c r="AF5" s="150"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="140" t="s">
         <v>10</v>
       </c>
@@ -2416,9 +2416,9 @@
       <c r="AD6" s="9">
         <v>9.73</v>
       </c>
-      <c r="AF6" s="183"/>
+      <c r="AF6" s="150"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="140" t="s">
         <v>11</v>
       </c>
@@ -2509,9 +2509,9 @@
       <c r="AD7" s="6">
         <v>9.27</v>
       </c>
-      <c r="AF7" s="183"/>
+      <c r="AF7" s="150"/>
     </row>
-    <row r="8" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="141" t="s">
         <v>84</v>
       </c>
@@ -2602,94 +2602,94 @@
       <c r="AD8" s="9">
         <v>98.24</v>
       </c>
-      <c r="AF8" s="184"/>
+      <c r="AF8" s="151"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AF9" s="181"/>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AF9" s="145"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="147" t="s">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
     </row>
-    <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="154" t="s">
+    <row r="11" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="152"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="151" t="s">
+      <c r="C12" s="155"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="152"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="156" t="s">
+      <c r="F12" s="155"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="157" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="156" t="s">
+      <c r="I12" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="144" t="s">
+      <c r="J12" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="144" t="s">
+      <c r="K12" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="144" t="s">
+      <c r="L12" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="148" t="s">
+      <c r="M12" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="149"/>
-      <c r="O12" s="150"/>
-      <c r="P12" s="151" t="s">
+      <c r="N12" s="160"/>
+      <c r="O12" s="161"/>
+      <c r="P12" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="Q12" s="152"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="151" t="s">
+      <c r="Q12" s="155"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="T12" s="152"/>
-      <c r="U12" s="153"/>
-      <c r="V12" s="151" t="s">
+      <c r="T12" s="155"/>
+      <c r="U12" s="156"/>
+      <c r="V12" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="W12" s="152"/>
-      <c r="X12" s="153"/>
-      <c r="Y12" s="151" t="s">
+      <c r="W12" s="155"/>
+      <c r="X12" s="156"/>
+      <c r="Y12" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="Z12" s="152"/>
-      <c r="AA12" s="153"/>
-      <c r="AB12" s="144" t="s">
+      <c r="Z12" s="155"/>
+      <c r="AA12" s="156"/>
+      <c r="AB12" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="AC12" s="145" t="s">
+      <c r="AC12" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="AD12" s="145" t="s">
+      <c r="AD12" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="AE12" s="145" t="s">
+      <c r="AE12" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="AF12" s="144" t="s">
+      <c r="AF12" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="AH12" s="182" t="s">
+      <c r="AH12" s="149" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="155"/>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A13" s="153"/>
       <c r="B13" s="142" t="s">
         <v>53</v>
       </c>
@@ -2708,11 +2708,11 @@
       <c r="G13" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="148"/>
       <c r="M13" s="142" t="s">
         <v>53</v>
       </c>
@@ -2758,23 +2758,35 @@
       <c r="AA13" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="AB13" s="144"/>
-      <c r="AC13" s="146"/>
-      <c r="AD13" s="146"/>
-      <c r="AE13" s="146"/>
-      <c r="AF13" s="144"/>
-      <c r="AH13" s="183"/>
+      <c r="AB13" s="148"/>
+      <c r="AC13" s="147"/>
+      <c r="AD13" s="147"/>
+      <c r="AE13" s="147"/>
+      <c r="AF13" s="148"/>
+      <c r="AH13" s="150"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
+      <c r="B14" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.57699999999999996</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="5"/>
@@ -2784,29 +2796,69 @@
       <c r="L14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="6"/>
-      <c r="AH14" s="183"/>
+      <c r="M14" s="6">
+        <v>38.1</v>
+      </c>
+      <c r="N14" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="O14" s="6">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="P14" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="R14" s="6">
+        <v>10.8</v>
+      </c>
+      <c r="S14" s="6">
+        <v>320</v>
+      </c>
+      <c r="T14" s="6">
+        <v>63.8</v>
+      </c>
+      <c r="U14" s="6">
+        <v>256.2</v>
+      </c>
+      <c r="V14" s="6">
+        <v>246.9</v>
+      </c>
+      <c r="W14" s="6">
+        <v>45.1</v>
+      </c>
+      <c r="X14" s="6">
+        <v>201.8</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>0.214</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>0.54</v>
+      </c>
+      <c r="AC14" s="12">
+        <v>-6.5299999999999997E-2</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>-4.4699999999999997E-2</v>
+      </c>
+      <c r="AE14" s="12">
+        <v>-4.3700000000000003E-2</v>
+      </c>
+      <c r="AF14" s="6">
+        <v>5.31</v>
+      </c>
+      <c r="AH14" s="150"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="143" t="s">
         <v>48</v>
       </c>
@@ -2903,9 +2955,9 @@
       <c r="AF15" s="7">
         <v>7.05</v>
       </c>
-      <c r="AH15" s="183"/>
+      <c r="AH15" s="150"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="143" t="s">
         <v>9</v>
       </c>
@@ -3002,9 +3054,9 @@
       <c r="AF16" s="6">
         <v>6.71</v>
       </c>
-      <c r="AH16" s="183"/>
+      <c r="AH16" s="150"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="143" t="s">
         <v>10</v>
       </c>
@@ -3095,9 +3147,9 @@
       <c r="AF17" s="9">
         <v>8</v>
       </c>
-      <c r="AH17" s="183"/>
+      <c r="AH17" s="150"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="143" t="s">
         <v>11</v>
       </c>
@@ -3132,9 +3184,9 @@
       <c r="AD18" s="12"/>
       <c r="AE18" s="12"/>
       <c r="AF18" s="6"/>
-      <c r="AH18" s="183"/>
+      <c r="AH18" s="150"/>
     </row>
-    <row r="19" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="142" t="s">
         <v>84</v>
       </c>
@@ -3169,21 +3221,32 @@
       <c r="AD19" s="9"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="9"/>
-      <c r="AH19" s="184"/>
+      <c r="AH19" s="151"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AH20" s="180"/>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AH20" s="144"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AH21" s="180"/>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AH21" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="AF12:AF13"/>
-    <mergeCell ref="AH12:AH19"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
     <mergeCell ref="AF1:AF8"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:D12"/>
@@ -3200,22 +3263,11 @@
     <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="AB12:AB13"/>
     <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="AH12:AH19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3232,152 +3284,152 @@
       <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="10" customWidth="1"/>
     <col min="3" max="13" width="6" style="10" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="22" max="45" width="6" style="85" customWidth="1"/>
     <col min="46" max="51" width="6" style="10" customWidth="1"/>
-    <col min="52" max="59" width="9.140625" style="10"/>
-    <col min="60" max="61" width="13.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.140625" style="10"/>
+    <col min="52" max="59" width="9.109375" style="10"/>
+    <col min="60" max="61" width="13.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="62" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A1" s="173" t="s">
+    <row r="1" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A1" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="171"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="171" t="s">
+      <c r="C1" s="169"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="171"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="171" t="s">
+      <c r="F1" s="169"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="171"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="171" t="s">
+      <c r="I1" s="169"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="171"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="162" t="s">
+      <c r="L1" s="169"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="158" t="s">
+      <c r="O1" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="158" t="s">
+      <c r="P1" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="158" t="s">
+      <c r="Q1" s="177" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="165" t="s">
+      <c r="R1" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="158" t="s">
+      <c r="S1" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="158" t="s">
+      <c r="T1" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="160" t="s">
+      <c r="U1" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="169" t="s">
+      <c r="V1" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="169"/>
-      <c r="X1" s="170"/>
-      <c r="Y1" s="169" t="s">
+      <c r="W1" s="173"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="170"/>
-      <c r="AB1" s="169" t="s">
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="174"/>
+      <c r="AB1" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="169"/>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="169" t="s">
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="169"/>
-      <c r="AG1" s="170"/>
-      <c r="AH1" s="169" t="s">
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="174"/>
+      <c r="AH1" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="169"/>
-      <c r="AJ1" s="170"/>
-      <c r="AK1" s="169" t="s">
+      <c r="AI1" s="173"/>
+      <c r="AJ1" s="174"/>
+      <c r="AK1" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="169"/>
-      <c r="AM1" s="170"/>
-      <c r="AN1" s="169" t="s">
+      <c r="AL1" s="173"/>
+      <c r="AM1" s="174"/>
+      <c r="AN1" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="169"/>
-      <c r="AP1" s="170"/>
-      <c r="AQ1" s="169" t="s">
+      <c r="AO1" s="173"/>
+      <c r="AP1" s="174"/>
+      <c r="AQ1" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="169"/>
-      <c r="AS1" s="170"/>
-      <c r="AT1" s="171" t="s">
+      <c r="AR1" s="173"/>
+      <c r="AS1" s="174"/>
+      <c r="AT1" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="171"/>
-      <c r="AV1" s="172"/>
-      <c r="AW1" s="171" t="s">
+      <c r="AU1" s="169"/>
+      <c r="AV1" s="170"/>
+      <c r="AW1" s="169" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="171"/>
-      <c r="AY1" s="172"/>
-      <c r="AZ1" s="167" t="s">
+      <c r="AX1" s="169"/>
+      <c r="AY1" s="170"/>
+      <c r="AZ1" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="BA1" s="167" t="s">
+      <c r="BA1" s="175" t="s">
         <v>43</v>
       </c>
-      <c r="BB1" s="167" t="s">
+      <c r="BB1" s="175" t="s">
         <v>60</v>
       </c>
-      <c r="BC1" s="167" t="s">
+      <c r="BC1" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="BD1" s="167" t="s">
+      <c r="BD1" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="BE1" s="167" t="s">
+      <c r="BE1" s="175" t="s">
         <v>63</v>
       </c>
-      <c r="BF1" s="167" t="s">
+      <c r="BF1" s="175" t="s">
         <v>64</v>
       </c>
-      <c r="BG1" s="167" t="s">
+      <c r="BG1" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="BH1" s="167" t="s">
+      <c r="BH1" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="BI1" s="167" t="s">
+      <c r="BI1" s="175" t="s">
         <v>47</v>
       </c>
       <c r="BJ1" s="41"/>
@@ -3455,8 +3507,8 @@
       <c r="ED1" s="41"/>
       <c r="EE1" s="41"/>
     </row>
-    <row r="2" spans="1:135" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="174"/>
+    <row r="2" spans="1:135" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="172"/>
       <c r="B2" s="29" t="s">
         <v>53</v>
       </c>
@@ -3493,14 +3545,14 @@
       <c r="M2" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="163"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="161"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="178"/>
+      <c r="Q2" s="178"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="178"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="166"/>
       <c r="V2" s="59" t="s">
         <v>53</v>
       </c>
@@ -3591,16 +3643,16 @@
       <c r="AY2" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="AZ2" s="168"/>
-      <c r="BA2" s="168"/>
-      <c r="BB2" s="168"/>
-      <c r="BC2" s="168"/>
-      <c r="BD2" s="168"/>
-      <c r="BE2" s="168"/>
-      <c r="BF2" s="168"/>
-      <c r="BG2" s="168"/>
-      <c r="BH2" s="168"/>
-      <c r="BI2" s="168"/>
+      <c r="AZ2" s="176"/>
+      <c r="BA2" s="176"/>
+      <c r="BB2" s="176"/>
+      <c r="BC2" s="176"/>
+      <c r="BD2" s="176"/>
+      <c r="BE2" s="176"/>
+      <c r="BF2" s="176"/>
+      <c r="BG2" s="176"/>
+      <c r="BH2" s="176"/>
+      <c r="BI2" s="176"/>
       <c r="BJ2" s="42"/>
       <c r="BK2" s="42"/>
       <c r="BL2" s="42"/>
@@ -3676,8 +3728,8 @@
       <c r="ED2" s="42"/>
       <c r="EE2" s="42"/>
     </row>
-    <row r="3" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A3" s="161" t="s">
+    <row r="3" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A3" s="166" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="15">
@@ -3928,8 +3980,8 @@
       <c r="ED3" s="41"/>
       <c r="EE3" s="41"/>
     </row>
-    <row r="4" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A4" s="161"/>
+    <row r="4" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A4" s="166"/>
       <c r="B4" s="7">
         <v>0.70699999999999996</v>
       </c>
@@ -4127,8 +4179,8 @@
       <c r="BZ4" s="41"/>
       <c r="CA4" s="41"/>
     </row>
-    <row r="5" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A5" s="161"/>
+    <row r="5" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A5" s="166"/>
       <c r="B5" s="7">
         <v>0.61699999999999999</v>
       </c>
@@ -4326,8 +4378,8 @@
       <c r="BZ5" s="41"/>
       <c r="CA5" s="41"/>
     </row>
-    <row r="6" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A6" s="161"/>
+    <row r="6" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A6" s="166"/>
       <c r="B6" s="7">
         <v>0.64300000000000002</v>
       </c>
@@ -4509,8 +4561,8 @@
         <v>4.6100000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A7" s="161"/>
+    <row r="7" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A7" s="166"/>
       <c r="B7" s="7">
         <v>0.65</v>
       </c>
@@ -4692,8 +4744,8 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:135" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="178"/>
+    <row r="8" spans="1:135" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="167"/>
       <c r="B8" s="46">
         <f>AVERAGE(B3:B7)</f>
         <v>0.66539999999999988</v>
@@ -4927,8 +4979,8 @@
         <v>4.3340000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A9" s="175" t="s">
+    <row r="9" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A9" s="163" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="15">
@@ -5112,8 +5164,8 @@
         <v>17.91</v>
       </c>
     </row>
-    <row r="10" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A10" s="176"/>
+    <row r="10" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A10" s="164"/>
       <c r="B10" s="7">
         <v>0.65</v>
       </c>
@@ -5295,8 +5347,8 @@
         <v>17.64</v>
       </c>
     </row>
-    <row r="11" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A11" s="176"/>
+    <row r="11" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A11" s="164"/>
       <c r="B11" s="7">
         <v>0.65700000000000003</v>
       </c>
@@ -5478,8 +5530,8 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A12" s="176"/>
+    <row r="12" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A12" s="164"/>
       <c r="B12" s="7">
         <v>0.69299999999999995</v>
       </c>
@@ -5661,8 +5713,8 @@
         <v>13.41</v>
       </c>
     </row>
-    <row r="13" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A13" s="176"/>
+    <row r="13" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A13" s="164"/>
       <c r="B13" s="7">
         <v>0.72</v>
       </c>
@@ -5844,8 +5896,8 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:135" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="177"/>
+    <row r="14" spans="1:135" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="165"/>
       <c r="B14" s="51">
         <f>AVERAGE(B9:B13)</f>
         <v>0.67400000000000004</v>
@@ -6080,8 +6132,8 @@
       </c>
       <c r="BJ14" s="131"/>
     </row>
-    <row r="15" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A15" s="161" t="s">
+    <row r="15" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A15" s="166" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="15">
@@ -6265,8 +6317,8 @@
         <v>9.14</v>
       </c>
     </row>
-    <row r="16" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A16" s="161"/>
+    <row r="16" spans="1:135" x14ac:dyDescent="0.3">
+      <c r="A16" s="166"/>
       <c r="B16" s="7">
         <v>0.65700000000000003</v>
       </c>
@@ -6448,8 +6500,8 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A17" s="161"/>
+    <row r="17" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A17" s="166"/>
       <c r="B17" s="7">
         <v>0.65</v>
       </c>
@@ -6631,8 +6683,8 @@
         <v>8.82</v>
       </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A18" s="161"/>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A18" s="166"/>
       <c r="B18" s="7">
         <v>0.63700000000000001</v>
       </c>
@@ -6814,8 +6866,8 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A19" s="161"/>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A19" s="166"/>
       <c r="B19" s="7">
         <v>0.67300000000000004</v>
       </c>
@@ -6997,8 +7049,8 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="178"/>
+    <row r="20" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="167"/>
       <c r="B20" s="46">
         <f>AVERAGE(B15:B19)</f>
         <v>0.65680000000000005</v>
@@ -7232,8 +7284,8 @@
         <v>8.0520000000000014</v>
       </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A21" s="179" t="s">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A21" s="168" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="15">
@@ -7417,8 +7469,8 @@
         <v>25.69</v>
       </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A22" s="161"/>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A22" s="166"/>
       <c r="B22" s="7">
         <v>0.71699999999999997</v>
       </c>
@@ -7600,8 +7652,8 @@
         <v>25.85</v>
       </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A23" s="161"/>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A23" s="166"/>
       <c r="B23" s="7">
         <v>0.7</v>
       </c>
@@ -7783,8 +7835,8 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A24" s="161"/>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A24" s="166"/>
       <c r="B24" s="7">
         <v>0.70299999999999996</v>
       </c>
@@ -7966,8 +8018,8 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A25" s="161"/>
+    <row r="25" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A25" s="166"/>
       <c r="B25" s="7">
         <v>0.67300000000000004</v>
       </c>
@@ -8149,8 +8201,8 @@
         <v>25.77</v>
       </c>
     </row>
-    <row r="26" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="178"/>
+    <row r="26" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="167"/>
       <c r="B26" s="51">
         <f>AVERAGE(B21:B25)</f>
         <v>0.68859999999999999</v>
@@ -8384,8 +8436,8 @@
         <v>25.892000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A27" s="179" t="s">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A27" s="168" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="15">
@@ -8569,8 +8621,8 @@
         <v>23.83</v>
       </c>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A28" s="161"/>
+    <row r="28" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A28" s="166"/>
       <c r="B28" s="7">
         <v>0.64300000000000002</v>
       </c>
@@ -8752,8 +8804,8 @@
         <v>19.46</v>
       </c>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A29" s="161"/>
+    <row r="29" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A29" s="166"/>
       <c r="B29" s="7">
         <v>0.67</v>
       </c>
@@ -8935,8 +8987,8 @@
         <v>20.23</v>
       </c>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A30" s="161"/>
+    <row r="30" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A30" s="166"/>
       <c r="B30" s="7">
         <v>0.62</v>
       </c>
@@ -9118,8 +9170,8 @@
         <v>19.38</v>
       </c>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A31" s="161"/>
+    <row r="31" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A31" s="166"/>
       <c r="B31" s="7">
         <v>0.68</v>
       </c>
@@ -9301,8 +9353,8 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="178"/>
+    <row r="32" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="167"/>
       <c r="B32" s="46">
         <f t="shared" ref="B32:M32" si="22">AVERAGE(B27:B31)</f>
         <v>0.65400000000000014</v>
@@ -9536,8 +9588,8 @@
         <v>20.445999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A33" s="175" t="s">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A33" s="163" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="15">
@@ -9721,8 +9773,8 @@
         <v>36.72</v>
       </c>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A34" s="176"/>
+    <row r="34" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A34" s="164"/>
       <c r="B34" s="7">
         <v>0.66700000000000004</v>
       </c>
@@ -9904,8 +9956,8 @@
         <v>34.340000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A35" s="176"/>
+    <row r="35" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A35" s="164"/>
       <c r="B35" s="7">
         <v>0.64300000000000002</v>
       </c>
@@ -10087,8 +10139,8 @@
         <v>35.06</v>
       </c>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A36" s="176"/>
+    <row r="36" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A36" s="164"/>
       <c r="B36" s="7">
         <v>0.64</v>
       </c>
@@ -10270,8 +10322,8 @@
         <v>33.950000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A37" s="176"/>
+    <row r="37" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A37" s="164"/>
       <c r="B37" s="7">
         <v>0.63</v>
       </c>
@@ -10453,8 +10505,8 @@
         <v>36.47</v>
       </c>
     </row>
-    <row r="38" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="177"/>
+    <row r="38" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="165"/>
       <c r="B38" s="51">
         <f t="shared" ref="B38:M38" si="24">AVERAGE(B33:B37)</f>
         <v>0.65659999999999996</v>
@@ -10688,60 +10740,29 @@
         <v>35.308</v>
       </c>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.3">
       <c r="AY39" s="40"/>
       <c r="BG39" s="41"/>
       <c r="BH39" s="41"/>
       <c r="BI39" s="41"/>
     </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:61" x14ac:dyDescent="0.3">
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
       <c r="H40" s="41"/>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.3">
       <c r="G41" s="41"/>
       <c r="H41" s="41"/>
       <c r="I41" s="41"/>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.3">
       <c r="G42" s="41"/>
       <c r="H42" s="41"/>
       <c r="I42" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="AW1:AY1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AZ1:AZ2"/>
-    <mergeCell ref="BA1:BA2"/>
-    <mergeCell ref="BB1:BB2"/>
-    <mergeCell ref="BC1:BC2"/>
-    <mergeCell ref="BD1:BD2"/>
-    <mergeCell ref="BE1:BE2"/>
-    <mergeCell ref="BF1:BF2"/>
-    <mergeCell ref="BG1:BG2"/>
-    <mergeCell ref="BH1:BH2"/>
-    <mergeCell ref="BI1:BI2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
@@ -10750,6 +10771,37 @@
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
+    <mergeCell ref="BE1:BE2"/>
+    <mergeCell ref="BF1:BF2"/>
+    <mergeCell ref="BG1:BG2"/>
+    <mergeCell ref="BH1:BH2"/>
+    <mergeCell ref="BI1:BI2"/>
+    <mergeCell ref="AZ1:AZ2"/>
+    <mergeCell ref="BA1:BA2"/>
+    <mergeCell ref="BB1:BB2"/>
+    <mergeCell ref="BC1:BC2"/>
+    <mergeCell ref="BD1:BD2"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiments/compas/results/all_results.xlsx
+++ b/experiments/compas/results/all_results.xlsx
@@ -5,16 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\compas\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\experiments\compas\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AB0B4F-BA43-41DA-AF1F-3F24422FB7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A18AE93-655F-45D8-ACB9-89B85D938952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="4656" yWindow="684" windowWidth="17280" windowHeight="8964" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="compas-one-client" sheetId="4" r:id="rId1"/>
     <sheet name="compas-two-clients" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="116">
   <si>
     <t>Model</t>
   </si>
@@ -313,6 +314,78 @@
   <si>
     <t>o:1e-5, i: 5e-4</t>
   </si>
+  <si>
+    <t>Accuracy 1</t>
+  </si>
+  <si>
+    <t>Accuracy 2</t>
+  </si>
+  <si>
+    <t>Error 1</t>
+  </si>
+  <si>
+    <t>Error 2</t>
+  </si>
+  <si>
+    <t>TP 1</t>
+  </si>
+  <si>
+    <t>TP 2</t>
+  </si>
+  <si>
+    <t>FP 1</t>
+  </si>
+  <si>
+    <t>FP 2</t>
+  </si>
+  <si>
+    <t>TN 1</t>
+  </si>
+  <si>
+    <t>TN 2</t>
+  </si>
+  <si>
+    <t>FN 1</t>
+  </si>
+  <si>
+    <t>FN 2</t>
+  </si>
+  <si>
+    <t>F1 1</t>
+  </si>
+  <si>
+    <t>F1 2</t>
+  </si>
+  <si>
+    <t>AUC 1</t>
+  </si>
+  <si>
+    <t>AUC 2</t>
+  </si>
+  <si>
+    <t>EOD 1</t>
+  </si>
+  <si>
+    <t>EOD 2</t>
+  </si>
+  <si>
+    <t>SPD 1</t>
+  </si>
+  <si>
+    <t>SPD 2</t>
+  </si>
+  <si>
+    <t>AOD 1</t>
+  </si>
+  <si>
+    <t>AOD 2</t>
+  </si>
+  <si>
+    <t>Train Time 1</t>
+  </si>
+  <si>
+    <t>Train Time 2</t>
+  </si>
 </sst>
 </file>
 
@@ -982,7 +1055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1391,37 +1464,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1433,12 +1479,90 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1448,9 +1572,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1458,48 +1579,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1517,10 +1596,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1823,20 +1898,20 @@
   <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
@@ -1845,80 +1920,80 @@
     <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="5" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.28515625" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.33203125" customWidth="1"/>
+    <col min="30" max="30" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+    <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="142" t="s">
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="143"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="139" t="s">
+      <c r="F1" s="151"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="139" t="s">
+      <c r="I1" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="139" t="s">
+      <c r="J1" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="146" t="s">
+      <c r="K1" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="147"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="142" t="s">
+      <c r="L1" s="156"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="143"/>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="142" t="s">
+      <c r="O1" s="151"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="143"/>
-      <c r="S1" s="144"/>
-      <c r="T1" s="142" t="s">
+      <c r="R1" s="151"/>
+      <c r="S1" s="152"/>
+      <c r="T1" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="143"/>
-      <c r="V1" s="144"/>
-      <c r="W1" s="142" t="s">
+      <c r="U1" s="151"/>
+      <c r="V1" s="152"/>
+      <c r="W1" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="143"/>
-      <c r="Y1" s="144"/>
-      <c r="Z1" s="139" t="s">
+      <c r="X1" s="151"/>
+      <c r="Y1" s="152"/>
+      <c r="Z1" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="140" t="s">
+      <c r="AA1" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" s="140" t="s">
+      <c r="AB1" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="140" t="s">
+      <c r="AC1" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" s="139" t="s">
+      <c r="AD1" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="151" t="s">
+      <c r="AF1" s="142" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="150"/>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" s="149"/>
       <c r="B2" s="133" t="s">
         <v>46</v>
       </c>
@@ -1937,9 +2012,9 @@
       <c r="G2" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
       <c r="K2" s="133" t="s">
         <v>46</v>
       </c>
@@ -1985,14 +2060,14 @@
       <c r="Y2" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="139"/>
-      <c r="AF2" s="152"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="146"/>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="146"/>
+      <c r="AD2" s="147"/>
+      <c r="AF2" s="143"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="132" t="s">
         <v>3</v>
       </c>
@@ -2083,9 +2158,9 @@
       <c r="AD3" s="6">
         <v>5.31</v>
       </c>
-      <c r="AF3" s="152"/>
+      <c r="AF3" s="143"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="132" t="s">
         <v>41</v>
       </c>
@@ -2176,9 +2251,9 @@
       <c r="AD4" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AF4" s="152"/>
+      <c r="AF4" s="143"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="132" t="s">
         <v>9</v>
       </c>
@@ -2269,9 +2344,9 @@
       <c r="AD5" s="6">
         <v>7.35</v>
       </c>
-      <c r="AF5" s="152"/>
+      <c r="AF5" s="143"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="132" t="s">
         <v>10</v>
       </c>
@@ -2362,9 +2437,9 @@
       <c r="AD6" s="9">
         <v>9.73</v>
       </c>
-      <c r="AF6" s="152"/>
+      <c r="AF6" s="143"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="132" t="s">
         <v>11</v>
       </c>
@@ -2455,9 +2530,9 @@
       <c r="AD7" s="6">
         <v>9.27</v>
       </c>
-      <c r="AF7" s="152"/>
+      <c r="AF7" s="143"/>
     </row>
-    <row r="8" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="133" t="s">
         <v>76</v>
       </c>
@@ -2548,94 +2623,94 @@
       <c r="AD8" s="9">
         <v>98.24</v>
       </c>
-      <c r="AF8" s="153"/>
+      <c r="AF8" s="144"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AF9" s="136"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="145" t="s">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="145"/>
-      <c r="C10" s="145"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="158"/>
     </row>
-    <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="149" t="s">
+    <row r="11" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="142" t="s">
+      <c r="C12" s="151"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="143"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="154" t="s">
+      <c r="F12" s="151"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="154" t="s">
+      <c r="I12" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="139" t="s">
+      <c r="J12" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="139" t="s">
+      <c r="K12" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="139" t="s">
+      <c r="L12" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="146" t="s">
+      <c r="M12" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="147"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="142" t="s">
+      <c r="N12" s="156"/>
+      <c r="O12" s="157"/>
+      <c r="P12" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="Q12" s="143"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="142" t="s">
+      <c r="Q12" s="151"/>
+      <c r="R12" s="152"/>
+      <c r="S12" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="T12" s="143"/>
-      <c r="U12" s="144"/>
-      <c r="V12" s="142" t="s">
+      <c r="T12" s="151"/>
+      <c r="U12" s="152"/>
+      <c r="V12" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="W12" s="143"/>
-      <c r="X12" s="144"/>
-      <c r="Y12" s="142" t="s">
+      <c r="W12" s="151"/>
+      <c r="X12" s="152"/>
+      <c r="Y12" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="Z12" s="143"/>
-      <c r="AA12" s="144"/>
-      <c r="AB12" s="139" t="s">
+      <c r="Z12" s="151"/>
+      <c r="AA12" s="152"/>
+      <c r="AB12" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="AC12" s="140" t="s">
+      <c r="AC12" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="AD12" s="140" t="s">
+      <c r="AD12" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="AE12" s="140" t="s">
+      <c r="AE12" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="AF12" s="139" t="s">
+      <c r="AF12" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="AH12" s="151" t="s">
+      <c r="AH12" s="142" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="150"/>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A13" s="149"/>
       <c r="B13" s="134" t="s">
         <v>46</v>
       </c>
@@ -2654,11 +2729,11 @@
       <c r="G13" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="139"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="147"/>
       <c r="M13" s="134" t="s">
         <v>46</v>
       </c>
@@ -2704,14 +2779,14 @@
       <c r="AA13" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="AB13" s="139"/>
-      <c r="AC13" s="141"/>
-      <c r="AD13" s="141"/>
-      <c r="AE13" s="141"/>
-      <c r="AF13" s="139"/>
-      <c r="AH13" s="152"/>
+      <c r="AB13" s="147"/>
+      <c r="AC13" s="146"/>
+      <c r="AD13" s="146"/>
+      <c r="AE13" s="146"/>
+      <c r="AF13" s="147"/>
+      <c r="AH13" s="143"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="135" t="s">
         <v>3</v>
       </c>
@@ -2808,9 +2883,9 @@
       <c r="AF14" s="6">
         <v>5.31</v>
       </c>
-      <c r="AH14" s="152"/>
+      <c r="AH14" s="143"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="135" t="s">
         <v>41</v>
       </c>
@@ -2907,9 +2982,9 @@
       <c r="AF15" s="7">
         <v>7.05</v>
       </c>
-      <c r="AH15" s="152"/>
+      <c r="AH15" s="143"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="135" t="s">
         <v>9</v>
       </c>
@@ -3006,10 +3081,10 @@
       <c r="AF16" s="6">
         <v>6.71</v>
       </c>
-      <c r="AH16" s="152"/>
+      <c r="AH16" s="143"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="176" t="s">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A17" s="141" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="7">
@@ -3105,9 +3180,9 @@
       <c r="AF17" s="9">
         <v>8</v>
       </c>
-      <c r="AH17" s="152"/>
+      <c r="AH17" s="143"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="137" t="s">
         <v>11</v>
       </c>
@@ -3204,9 +3279,9 @@
       <c r="AF18" s="6">
         <v>3.67</v>
       </c>
-      <c r="AH18" s="152"/>
+      <c r="AH18" s="143"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="138" t="s">
         <v>76</v>
       </c>
@@ -3251,9 +3326,9 @@
       <c r="AD19" s="9"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="9"/>
-      <c r="AH19" s="152"/>
+      <c r="AH19" s="143"/>
     </row>
-    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="138" t="s">
         <v>87</v>
       </c>
@@ -3350,9 +3425,9 @@
       <c r="AF20" s="6">
         <v>3.67</v>
       </c>
-      <c r="AH20" s="152"/>
+      <c r="AH20" s="143"/>
     </row>
-    <row r="21" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="137" t="s">
         <v>88</v>
       </c>
@@ -3387,15 +3462,26 @@
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
-      <c r="AH21" s="153"/>
+      <c r="AH21" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AH12:AH21"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
     <mergeCell ref="AF1:AF8"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:D12"/>
@@ -3412,22 +3498,11 @@
     <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="AB12:AB13"/>
     <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AH12:AH21"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="AF12:AF13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3444,140 +3519,140 @@
       <selection pane="bottomLeft" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="10" customWidth="1"/>
     <col min="3" max="13" width="6" style="10" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="19" max="42" width="6" style="84" customWidth="1"/>
     <col min="43" max="48" width="6" style="10" customWidth="1"/>
-    <col min="49" max="56" width="9.140625" style="10"/>
-    <col min="57" max="58" width="13.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="59" max="16384" width="9.140625" style="10"/>
+    <col min="49" max="56" width="9.109375" style="10"/>
+    <col min="57" max="58" width="13.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="59" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A1" s="169" t="s">
+    <row r="1" spans="1:132" x14ac:dyDescent="0.3">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="165" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="167" t="s">
+      <c r="C1" s="165"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="167"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="167" t="s">
+      <c r="F1" s="165"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="167"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="167" t="s">
+      <c r="I1" s="165"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="167"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="156" t="s">
+      <c r="L1" s="165"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="161" t="s">
+      <c r="O1" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="156" t="s">
+      <c r="P1" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="156" t="s">
+      <c r="Q1" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="158" t="s">
+      <c r="R1" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="165" t="s">
+      <c r="S1" s="169" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="165"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="165" t="s">
+      <c r="T1" s="169"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="165"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="165" t="s">
+      <c r="W1" s="169"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="166"/>
-      <c r="AB1" s="165" t="s">
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="170"/>
+      <c r="AB1" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="165"/>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="165" t="s">
+      <c r="AC1" s="169"/>
+      <c r="AD1" s="170"/>
+      <c r="AE1" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="165"/>
-      <c r="AG1" s="166"/>
-      <c r="AH1" s="165" t="s">
+      <c r="AF1" s="169"/>
+      <c r="AG1" s="170"/>
+      <c r="AH1" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="165"/>
-      <c r="AJ1" s="166"/>
-      <c r="AK1" s="165" t="s">
+      <c r="AI1" s="169"/>
+      <c r="AJ1" s="170"/>
+      <c r="AK1" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="165"/>
-      <c r="AM1" s="166"/>
-      <c r="AN1" s="165" t="s">
+      <c r="AL1" s="169"/>
+      <c r="AM1" s="170"/>
+      <c r="AN1" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="165"/>
-      <c r="AP1" s="166"/>
-      <c r="AQ1" s="167" t="s">
+      <c r="AO1" s="169"/>
+      <c r="AP1" s="170"/>
+      <c r="AQ1" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="167"/>
-      <c r="AS1" s="168"/>
-      <c r="AT1" s="167" t="s">
+      <c r="AR1" s="165"/>
+      <c r="AS1" s="166"/>
+      <c r="AT1" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="AU1" s="167"/>
-      <c r="AV1" s="168"/>
-      <c r="AW1" s="163" t="s">
+      <c r="AU1" s="165"/>
+      <c r="AV1" s="166"/>
+      <c r="AW1" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="AX1" s="163" t="s">
+      <c r="AX1" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="AY1" s="163" t="s">
+      <c r="AY1" s="171" t="s">
         <v>53</v>
       </c>
-      <c r="AZ1" s="163" t="s">
+      <c r="AZ1" s="171" t="s">
         <v>54</v>
       </c>
-      <c r="BA1" s="163" t="s">
+      <c r="BA1" s="171" t="s">
         <v>55</v>
       </c>
-      <c r="BB1" s="163" t="s">
+      <c r="BB1" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="BC1" s="163" t="s">
+      <c r="BC1" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="BD1" s="163" t="s">
+      <c r="BD1" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="BE1" s="163" t="s">
+      <c r="BE1" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="BF1" s="163" t="s">
+      <c r="BF1" s="171" t="s">
         <v>40</v>
       </c>
       <c r="BG1" s="40"/>
@@ -3655,8 +3730,8 @@
       <c r="EA1" s="40"/>
       <c r="EB1" s="40"/>
     </row>
-    <row r="2" spans="1:132" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="170"/>
+    <row r="2" spans="1:132" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="168"/>
       <c r="B2" s="28" t="s">
         <v>46</v>
       </c>
@@ -3693,11 +3768,11 @@
       <c r="M2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="160"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="159"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="162"/>
       <c r="S2" s="58" t="s">
         <v>46</v>
       </c>
@@ -3788,16 +3863,16 @@
       <c r="AV2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="AW2" s="164"/>
-      <c r="AX2" s="164"/>
-      <c r="AY2" s="164"/>
-      <c r="AZ2" s="164"/>
-      <c r="BA2" s="164"/>
-      <c r="BB2" s="164"/>
-      <c r="BC2" s="164"/>
-      <c r="BD2" s="164"/>
-      <c r="BE2" s="164"/>
-      <c r="BF2" s="164"/>
+      <c r="AW2" s="172"/>
+      <c r="AX2" s="172"/>
+      <c r="AY2" s="172"/>
+      <c r="AZ2" s="172"/>
+      <c r="BA2" s="172"/>
+      <c r="BB2" s="172"/>
+      <c r="BC2" s="172"/>
+      <c r="BD2" s="172"/>
+      <c r="BE2" s="172"/>
+      <c r="BF2" s="172"/>
       <c r="BG2" s="41"/>
       <c r="BH2" s="41"/>
       <c r="BI2" s="41"/>
@@ -3873,8 +3948,8 @@
       <c r="EA2" s="41"/>
       <c r="EB2" s="41"/>
     </row>
-    <row r="3" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A3" s="159" t="s">
+    <row r="3" spans="1:132" x14ac:dyDescent="0.3">
+      <c r="A3" s="162" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="15">
@@ -4116,8 +4191,8 @@
       <c r="EA3" s="40"/>
       <c r="EB3" s="40"/>
     </row>
-    <row r="4" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A4" s="159"/>
+    <row r="4" spans="1:132" x14ac:dyDescent="0.3">
+      <c r="A4" s="162"/>
       <c r="B4" s="7">
         <v>0.70699999999999996</v>
       </c>
@@ -4306,8 +4381,8 @@
       <c r="BW4" s="40"/>
       <c r="BX4" s="40"/>
     </row>
-    <row r="5" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A5" s="159"/>
+    <row r="5" spans="1:132" x14ac:dyDescent="0.3">
+      <c r="A5" s="162"/>
       <c r="B5" s="7">
         <v>0.61699999999999999</v>
       </c>
@@ -4496,8 +4571,8 @@
       <c r="BW5" s="40"/>
       <c r="BX5" s="40"/>
     </row>
-    <row r="6" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A6" s="159"/>
+    <row r="6" spans="1:132" x14ac:dyDescent="0.3">
+      <c r="A6" s="162"/>
       <c r="B6" s="7">
         <v>0.64300000000000002</v>
       </c>
@@ -4670,8 +4745,8 @@
         <v>4.6100000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A7" s="159"/>
+    <row r="7" spans="1:132" x14ac:dyDescent="0.3">
+      <c r="A7" s="162"/>
       <c r="B7" s="7">
         <v>0.65</v>
       </c>
@@ -4844,8 +4919,8 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:132" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="174"/>
+    <row r="8" spans="1:132" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="163"/>
       <c r="B8" s="45">
         <f>AVERAGE(B3:B7)</f>
         <v>0.66539999999999988</v>
@@ -5070,8 +5145,8 @@
         <v>4.3340000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A9" s="171" t="s">
+    <row r="9" spans="1:132" x14ac:dyDescent="0.3">
+      <c r="A9" s="159" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="15">
@@ -5246,8 +5321,8 @@
         <v>17.91</v>
       </c>
     </row>
-    <row r="10" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A10" s="172"/>
+    <row r="10" spans="1:132" x14ac:dyDescent="0.3">
+      <c r="A10" s="160"/>
       <c r="B10" s="7">
         <v>0.65</v>
       </c>
@@ -5420,8 +5495,8 @@
         <v>17.64</v>
       </c>
     </row>
-    <row r="11" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A11" s="172"/>
+    <row r="11" spans="1:132" x14ac:dyDescent="0.3">
+      <c r="A11" s="160"/>
       <c r="B11" s="7">
         <v>0.65700000000000003</v>
       </c>
@@ -5594,8 +5669,8 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A12" s="172"/>
+    <row r="12" spans="1:132" x14ac:dyDescent="0.3">
+      <c r="A12" s="160"/>
       <c r="B12" s="7">
         <v>0.69299999999999995</v>
       </c>
@@ -5768,8 +5843,8 @@
         <v>13.41</v>
       </c>
     </row>
-    <row r="13" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A13" s="172"/>
+    <row r="13" spans="1:132" x14ac:dyDescent="0.3">
+      <c r="A13" s="160"/>
       <c r="B13" s="7">
         <v>0.72</v>
       </c>
@@ -5942,8 +6017,8 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:132" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="173"/>
+    <row r="14" spans="1:132" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="161"/>
       <c r="B14" s="50">
         <f>AVERAGE(B9:B13)</f>
         <v>0.67400000000000004</v>
@@ -6169,8 +6244,8 @@
       </c>
       <c r="BG14" s="123"/>
     </row>
-    <row r="15" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A15" s="159" t="s">
+    <row r="15" spans="1:132" x14ac:dyDescent="0.3">
+      <c r="A15" s="162" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="15">
@@ -6345,8 +6420,8 @@
         <v>9.14</v>
       </c>
     </row>
-    <row r="16" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A16" s="159"/>
+    <row r="16" spans="1:132" x14ac:dyDescent="0.3">
+      <c r="A16" s="162"/>
       <c r="B16" s="7">
         <v>0.65700000000000003</v>
       </c>
@@ -6519,8 +6594,8 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A17" s="159"/>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A17" s="162"/>
       <c r="B17" s="7">
         <v>0.65</v>
       </c>
@@ -6693,8 +6768,8 @@
         <v>8.82</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A18" s="159"/>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A18" s="162"/>
       <c r="B18" s="7">
         <v>0.63700000000000001</v>
       </c>
@@ -6867,8 +6942,8 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A19" s="159"/>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A19" s="162"/>
       <c r="B19" s="7">
         <v>0.67300000000000004</v>
       </c>
@@ -7041,8 +7116,8 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="20" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="174"/>
+    <row r="20" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="163"/>
       <c r="B20" s="45">
         <f>AVERAGE(B15:B19)</f>
         <v>0.65680000000000005</v>
@@ -7267,8 +7342,8 @@
         <v>8.0520000000000014</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A21" s="175" t="s">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A21" s="164" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="15">
@@ -7443,8 +7518,8 @@
         <v>25.69</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A22" s="159"/>
+    <row r="22" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A22" s="162"/>
       <c r="B22" s="7">
         <v>0.71699999999999997</v>
       </c>
@@ -7617,8 +7692,8 @@
         <v>25.85</v>
       </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A23" s="159"/>
+    <row r="23" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A23" s="162"/>
       <c r="B23" s="7">
         <v>0.7</v>
       </c>
@@ -7791,8 +7866,8 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A24" s="159"/>
+    <row r="24" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A24" s="162"/>
       <c r="B24" s="7">
         <v>0.70299999999999996</v>
       </c>
@@ -7965,8 +8040,8 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A25" s="159"/>
+    <row r="25" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A25" s="162"/>
       <c r="B25" s="7">
         <v>0.67300000000000004</v>
       </c>
@@ -8139,8 +8214,8 @@
         <v>25.77</v>
       </c>
     </row>
-    <row r="26" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="174"/>
+    <row r="26" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="163"/>
       <c r="B26" s="50">
         <f>AVERAGE(B21:B25)</f>
         <v>0.68859999999999999</v>
@@ -8365,8 +8440,8 @@
         <v>25.892000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A27" s="175" t="s">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A27" s="164" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="15">
@@ -8541,8 +8616,8 @@
         <v>23.83</v>
       </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A28" s="159"/>
+    <row r="28" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A28" s="162"/>
       <c r="B28" s="7">
         <v>0.64300000000000002</v>
       </c>
@@ -8715,8 +8790,8 @@
         <v>19.46</v>
       </c>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A29" s="159"/>
+    <row r="29" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A29" s="162"/>
       <c r="B29" s="7">
         <v>0.67</v>
       </c>
@@ -8889,8 +8964,8 @@
         <v>20.23</v>
       </c>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A30" s="159"/>
+    <row r="30" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A30" s="162"/>
       <c r="B30" s="7">
         <v>0.62</v>
       </c>
@@ -9063,8 +9138,8 @@
         <v>19.38</v>
       </c>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A31" s="159"/>
+    <row r="31" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A31" s="162"/>
       <c r="B31" s="7">
         <v>0.68</v>
       </c>
@@ -9237,8 +9312,8 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="174"/>
+    <row r="32" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="163"/>
       <c r="B32" s="45">
         <f t="shared" ref="B32:M32" si="22">AVERAGE(B27:B31)</f>
         <v>0.65400000000000014</v>
@@ -9463,8 +9538,8 @@
         <v>20.445999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A33" s="171" t="s">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A33" s="159" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="15">
@@ -9639,8 +9714,8 @@
         <v>36.72</v>
       </c>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A34" s="172"/>
+    <row r="34" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A34" s="160"/>
       <c r="B34" s="7">
         <v>0.66700000000000004</v>
       </c>
@@ -9813,8 +9888,8 @@
         <v>34.340000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A35" s="172"/>
+    <row r="35" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A35" s="160"/>
       <c r="B35" s="7">
         <v>0.64300000000000002</v>
       </c>
@@ -9987,8 +10062,8 @@
         <v>35.06</v>
       </c>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A36" s="172"/>
+    <row r="36" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A36" s="160"/>
       <c r="B36" s="7">
         <v>0.64</v>
       </c>
@@ -10161,8 +10236,8 @@
         <v>33.950000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A37" s="172"/>
+    <row r="37" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A37" s="160"/>
       <c r="B37" s="7">
         <v>0.63</v>
       </c>
@@ -10335,8 +10410,8 @@
         <v>36.47</v>
       </c>
     </row>
-    <row r="38" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="173"/>
+    <row r="38" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="161"/>
       <c r="B38" s="50">
         <f t="shared" ref="B38:M38" si="24">AVERAGE(B33:B37)</f>
         <v>0.65659999999999996</v>
@@ -10561,65 +10636,65 @@
         <v>35.308</v>
       </c>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.3">
       <c r="AV39" s="39"/>
       <c r="BD39" s="40"/>
       <c r="BE39" s="40"/>
       <c r="BF39" s="40"/>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.3">
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.3">
       <c r="G41" s="40"/>
       <c r="H41" s="40"/>
       <c r="I41" s="40"/>
     </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.3">
       <c r="G42" s="40"/>
       <c r="H42" s="40"/>
       <c r="I42" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="BB1:BB2"/>
+    <mergeCell ref="BC1:BC2"/>
+    <mergeCell ref="BD1:BD2"/>
+    <mergeCell ref="BE1:BE2"/>
+    <mergeCell ref="BF1:BF2"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="AY1:AY2"/>
+    <mergeCell ref="AZ1:AZ2"/>
+    <mergeCell ref="BA1:BA2"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="A33:A38"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AW1:AW2"/>
-    <mergeCell ref="AX1:AX2"/>
-    <mergeCell ref="AY1:AY2"/>
-    <mergeCell ref="AZ1:AZ2"/>
-    <mergeCell ref="BA1:BA2"/>
-    <mergeCell ref="BB1:BB2"/>
-    <mergeCell ref="BC1:BC2"/>
-    <mergeCell ref="BD1:BD2"/>
-    <mergeCell ref="BE1:BE2"/>
-    <mergeCell ref="BF1:BF2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10628,4 +10703,1111 @@
     <ignoredError sqref="S3:T7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80701A8F-7759-45F4-A607-162CF246F76F}">
+  <dimension ref="A1:BD8"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AX7" sqref="AX7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="55" max="56" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A1" s="148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="150" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="150" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="151"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="150" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="151"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="150" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="151"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="147" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="147" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="147" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="156"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" s="156"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="150" t="s">
+        <v>98</v>
+      </c>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="152"/>
+      <c r="Z1" s="150" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="150" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="152"/>
+      <c r="AF1" s="150" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG1" s="151"/>
+      <c r="AH1" s="152"/>
+      <c r="AI1" s="150" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ1" s="151"/>
+      <c r="AK1" s="152"/>
+      <c r="AL1" s="150" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM1" s="151"/>
+      <c r="AN1" s="152"/>
+      <c r="AO1" s="150" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP1" s="151"/>
+      <c r="AQ1" s="152"/>
+      <c r="AR1" s="150" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS1" s="151"/>
+      <c r="AT1" s="152"/>
+      <c r="AU1" s="147" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV1" s="147" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW1" s="145" t="s">
+        <v>108</v>
+      </c>
+      <c r="AX1" s="145" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY1" s="145" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ1" s="145" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA1" s="145" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB1" s="145" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC1" s="147" t="s">
+        <v>114</v>
+      </c>
+      <c r="BD1" s="147" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A2" s="149"/>
+      <c r="B2" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB2" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD2" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE2" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG2" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH2" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI2" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ2" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK2" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL2" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM2" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN2" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO2" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP2" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ2" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR2" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS2" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT2" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU2" s="147"/>
+      <c r="AV2" s="147"/>
+      <c r="AW2" s="146"/>
+      <c r="AX2" s="146"/>
+      <c r="AY2" s="146"/>
+      <c r="AZ2" s="146"/>
+      <c r="BA2" s="146"/>
+      <c r="BB2" s="146"/>
+      <c r="BC2" s="147"/>
+      <c r="BD2" s="147"/>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A3" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>103.9</v>
+      </c>
+      <c r="R3" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="S3" s="6">
+        <v>95</v>
+      </c>
+      <c r="T3" s="6">
+        <v>40.6</v>
+      </c>
+      <c r="U3" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="V3" s="6">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="W3" s="6">
+        <v>50.7</v>
+      </c>
+      <c r="X3" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>13.9</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>80.3</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>22.5</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>57.8</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>172.6</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>41.5</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>131.1</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>10.1</v>
+      </c>
+      <c r="AK3" s="6">
+        <v>55</v>
+      </c>
+      <c r="AL3" s="6">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="AM3" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="AN3" s="6">
+        <v>53.3</v>
+      </c>
+      <c r="AO3" s="6">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="AP3" s="6">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="AQ3" s="6">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="AR3" s="6">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="AS3" s="6">
+        <v>0.443</v>
+      </c>
+      <c r="AT3" s="6">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="AU3" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AV3" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="AW3" s="12">
+        <v>-0.16489999999999999</v>
+      </c>
+      <c r="AX3" s="12">
+        <v>-2.1100000000000001E-2</v>
+      </c>
+      <c r="AY3" s="12">
+        <v>-0.1721</v>
+      </c>
+      <c r="AZ3" s="12">
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="BA3" s="12">
+        <v>-0.1285</v>
+      </c>
+      <c r="BB3" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="BD3" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A4" s="140" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>109</v>
+      </c>
+      <c r="R4" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="S4" s="7">
+        <v>101.2</v>
+      </c>
+      <c r="T4" s="7">
+        <v>51.1</v>
+      </c>
+      <c r="U4" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="V4" s="7">
+        <v>41</v>
+      </c>
+      <c r="W4" s="7">
+        <v>45.4</v>
+      </c>
+      <c r="X4" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>41.5</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>85.6</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>29.1</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>56.5</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>165.4</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>38.6</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>126.8</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>60</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>48.8</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>56.9</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>11.9</v>
+      </c>
+      <c r="AN4" s="7">
+        <v>45</v>
+      </c>
+      <c r="AO4" s="7">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="AQ4" s="7">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="AR4" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AS4" s="7">
+        <v>0.498</v>
+      </c>
+      <c r="AT4" s="7">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="AU4" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="AV4" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="AW4" s="130">
+        <v>-0.2641</v>
+      </c>
+      <c r="AX4" s="130">
+        <v>-1.77E-2</v>
+      </c>
+      <c r="AY4" s="130">
+        <v>-0.35039999999999999</v>
+      </c>
+      <c r="AZ4" s="130">
+        <v>1.18E-2</v>
+      </c>
+      <c r="BA4" s="130">
+        <v>-0.28470000000000001</v>
+      </c>
+      <c r="BB4" s="130">
+        <v>1.78E-2</v>
+      </c>
+      <c r="BC4" s="7">
+        <v>4.26</v>
+      </c>
+      <c r="BD4" s="7">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A5" s="140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.313</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>106.9</v>
+      </c>
+      <c r="R5" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S5" s="6">
+        <v>102</v>
+      </c>
+      <c r="T5" s="6">
+        <v>41.6</v>
+      </c>
+      <c r="U5" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="V5" s="6">
+        <v>34.5</v>
+      </c>
+      <c r="W5" s="6">
+        <v>42.8</v>
+      </c>
+      <c r="X5" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>40.6</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>19.7</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>88.2</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>30.8</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>57.4</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>172.3</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>42.3</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>130</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>62.1</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="AK5" s="6">
+        <v>48</v>
+      </c>
+      <c r="AL5" s="6">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="AM5" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="AN5" s="6">
+        <v>51.5</v>
+      </c>
+      <c r="AO5" s="6">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AP5" s="6">
+        <v>0.376</v>
+      </c>
+      <c r="AQ5" s="6">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="AR5" s="6">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="AS5" s="6">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="AT5" s="6">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="AU5" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="AV5" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="AW5" s="12">
+        <v>-0.42209999999999998</v>
+      </c>
+      <c r="AX5" s="12">
+        <v>-7.8399999999999997E-2</v>
+      </c>
+      <c r="AY5" s="12">
+        <v>-0.4385</v>
+      </c>
+      <c r="AZ5" s="12">
+        <v>-4.3299999999999998E-2</v>
+      </c>
+      <c r="BA5" s="12">
+        <v>-0.38490000000000002</v>
+      </c>
+      <c r="BB5" s="12">
+        <v>-4.0899999999999999E-2</v>
+      </c>
+      <c r="BC5" s="6">
+        <v>3.75</v>
+      </c>
+      <c r="BD5" s="6">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A6" s="140" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>107.6</v>
+      </c>
+      <c r="R6" s="9">
+        <v>7.3</v>
+      </c>
+      <c r="S6" s="9">
+        <v>100.3</v>
+      </c>
+      <c r="T6" s="9">
+        <v>49.7</v>
+      </c>
+      <c r="U6" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="V6" s="9">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="W6" s="9">
+        <v>43.1</v>
+      </c>
+      <c r="X6" s="9">
+        <v>3.9</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>23.9</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>7.6</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>16.3</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>87.9</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>29.1</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>58.8</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>168.1</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>39.4</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>61.4</v>
+      </c>
+      <c r="AJ6" s="9">
+        <v>11.7</v>
+      </c>
+      <c r="AK6" s="9">
+        <v>49.7</v>
+      </c>
+      <c r="AL6" s="9">
+        <v>58.3</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="AN6" s="9">
+        <v>45.8</v>
+      </c>
+      <c r="AO6" s="9">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>0.59</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="AU6" s="9">
+        <v>0.59</v>
+      </c>
+      <c r="AV6" s="9">
+        <v>0.66</v>
+      </c>
+      <c r="AW6" s="13">
+        <v>-0.28449999999999998</v>
+      </c>
+      <c r="AX6" s="13">
+        <v>-3.56E-2</v>
+      </c>
+      <c r="AY6" s="13">
+        <v>-0.34710000000000002</v>
+      </c>
+      <c r="AZ6" s="13">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="BA6" s="13">
+        <v>-0.28310000000000002</v>
+      </c>
+      <c r="BB6" s="13">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="BC6" s="9">
+        <v>5.19</v>
+      </c>
+      <c r="BD6" s="9">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A7" s="140" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A8" s="139" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="AZ1:AZ2"/>
+    <mergeCell ref="BB1:BB2"/>
+    <mergeCell ref="BD1:BD2"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="AY1:AY2"/>
+    <mergeCell ref="BA1:BA2"/>
+    <mergeCell ref="BC1:BC2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="AU1:AU2"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/experiments/compas/results/all_results.xlsx
+++ b/experiments/compas/results/all_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\experiments\compas\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\compas\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A18AE93-655F-45D8-ACB9-89B85D938952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B115AFCA-2C48-4DDA-AE30-4D32FA52A9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4656" yWindow="684" windowWidth="17280" windowHeight="8964" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="compas-one-client" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="119">
   <si>
     <t>Model</t>
   </si>
@@ -258,21 +258,12 @@
     <t>alpha</t>
   </si>
   <si>
-    <t>.003</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>weight decay</t>
   </si>
   <si>
     <t>NN + C + HN</t>
   </si>
   <si>
-    <t>.001</t>
-  </si>
-  <si>
     <t>o: 3e-2,i:5e-4</t>
   </si>
   <si>
@@ -294,12 +285,6 @@
     <t>o:3e-2, i:5e-4</t>
   </si>
   <si>
-    <t>.01</t>
-  </si>
-  <si>
-    <t>.002</t>
-  </si>
-  <si>
     <t xml:space="preserve">LR + C + dpHN </t>
   </si>
   <si>
@@ -309,9 +294,6 @@
     <t>o:5, i:25</t>
   </si>
   <si>
-    <t>o:.001, i:.001</t>
-  </si>
-  <si>
     <t>o:1e-5, i: 5e-4</t>
   </si>
   <si>
@@ -385,6 +367,33 @@
   </si>
   <si>
     <t>Train Time 2</t>
+  </si>
+  <si>
+    <t>o:5e-5, i1: 7e-3, i2: 1e-3</t>
+  </si>
+  <si>
+    <t>o:.003, i:5e-4</t>
+  </si>
+  <si>
+    <t>.0002</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>.0009</t>
+  </si>
+  <si>
+    <t>.0005</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1064,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1470,6 +1479,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1479,46 +1524,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1530,55 +1584,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1898,20 +1910,20 @@
   <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
@@ -1920,80 +1932,80 @@
     <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="5" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" customWidth="1"/>
-    <col min="30" max="30" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
+    <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="150" t="s">
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="151"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="147" t="s">
+      <c r="F1" s="146"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="147" t="s">
+      <c r="I1" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="147" t="s">
+      <c r="J1" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="155" t="s">
+      <c r="K1" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="156"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="150" t="s">
+      <c r="L1" s="150"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="151"/>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="150" t="s">
+      <c r="O1" s="146"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="151"/>
-      <c r="S1" s="152"/>
-      <c r="T1" s="150" t="s">
+      <c r="R1" s="146"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="151"/>
-      <c r="V1" s="152"/>
-      <c r="W1" s="150" t="s">
+      <c r="U1" s="146"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="152"/>
-      <c r="Z1" s="147" t="s">
+      <c r="X1" s="146"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="145" t="s">
+      <c r="AA1" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" s="145" t="s">
+      <c r="AB1" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="145" t="s">
+      <c r="AC1" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" s="147" t="s">
+      <c r="AD1" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="142" t="s">
-        <v>82</v>
+      <c r="AF1" s="154" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="149"/>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="153"/>
       <c r="B2" s="133" t="s">
         <v>46</v>
       </c>
@@ -2012,9 +2024,9 @@
       <c r="G2" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
       <c r="K2" s="133" t="s">
         <v>46</v>
       </c>
@@ -2060,14 +2072,14 @@
       <c r="Y2" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="146"/>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="146"/>
-      <c r="AD2" s="147"/>
-      <c r="AF2" s="143"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="144"/>
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="144"/>
+      <c r="AD2" s="142"/>
+      <c r="AF2" s="155"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="132" t="s">
         <v>3</v>
       </c>
@@ -2158,9 +2170,9 @@
       <c r="AD3" s="6">
         <v>5.31</v>
       </c>
-      <c r="AF3" s="143"/>
+      <c r="AF3" s="155"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="132" t="s">
         <v>41</v>
       </c>
@@ -2251,9 +2263,9 @@
       <c r="AD4" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AF4" s="143"/>
+      <c r="AF4" s="155"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="132" t="s">
         <v>9</v>
       </c>
@@ -2344,9 +2356,9 @@
       <c r="AD5" s="6">
         <v>7.35</v>
       </c>
-      <c r="AF5" s="143"/>
+      <c r="AF5" s="155"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="132" t="s">
         <v>10</v>
       </c>
@@ -2437,9 +2449,9 @@
       <c r="AD6" s="9">
         <v>9.73</v>
       </c>
-      <c r="AF6" s="143"/>
+      <c r="AF6" s="155"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="132" t="s">
         <v>11</v>
       </c>
@@ -2462,13 +2474,13 @@
         <v>0.314</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K7" s="6">
         <v>161</v>
@@ -2530,11 +2542,11 @@
       <c r="AD7" s="6">
         <v>9.27</v>
       </c>
-      <c r="AF7" s="143"/>
+      <c r="AF7" s="155"/>
     </row>
-    <row r="8" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="133" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="7">
         <v>0.67900000000000005</v>
@@ -2555,13 +2567,13 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K8" s="9">
         <v>164</v>
@@ -2623,94 +2635,94 @@
       <c r="AD8" s="9">
         <v>98.24</v>
       </c>
-      <c r="AF8" s="144"/>
+      <c r="AF8" s="156"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AF9" s="136"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A10" s="158" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="158"/>
-      <c r="C10" s="158"/>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="148" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="148"/>
+      <c r="C10" s="148"/>
     </row>
-    <row r="11" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="148" t="s">
+    <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="151"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="150" t="s">
+      <c r="C12" s="146"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="151"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="153" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="153" t="s">
+      <c r="F12" s="146"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="157" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="147" t="s">
+      <c r="J12" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="147" t="s">
+      <c r="K12" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="147" t="s">
+      <c r="L12" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="155" t="s">
+      <c r="M12" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="156"/>
-      <c r="O12" s="157"/>
-      <c r="P12" s="150" t="s">
+      <c r="N12" s="150"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="152"/>
-      <c r="S12" s="150" t="s">
+      <c r="Q12" s="146"/>
+      <c r="R12" s="147"/>
+      <c r="S12" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="T12" s="151"/>
-      <c r="U12" s="152"/>
-      <c r="V12" s="150" t="s">
+      <c r="T12" s="146"/>
+      <c r="U12" s="147"/>
+      <c r="V12" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="W12" s="151"/>
-      <c r="X12" s="152"/>
-      <c r="Y12" s="150" t="s">
+      <c r="W12" s="146"/>
+      <c r="X12" s="147"/>
+      <c r="Y12" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="Z12" s="151"/>
-      <c r="AA12" s="152"/>
-      <c r="AB12" s="147" t="s">
+      <c r="Z12" s="146"/>
+      <c r="AA12" s="147"/>
+      <c r="AB12" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="AC12" s="145" t="s">
+      <c r="AC12" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="AD12" s="145" t="s">
+      <c r="AD12" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="AE12" s="145" t="s">
+      <c r="AE12" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="AF12" s="147" t="s">
+      <c r="AF12" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="AH12" s="142" t="s">
-        <v>83</v>
+      <c r="AH12" s="154" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A13" s="149"/>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="153"/>
       <c r="B13" s="134" t="s">
         <v>46</v>
       </c>
@@ -2729,11 +2741,11 @@
       <c r="G13" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="147"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="142"/>
       <c r="M13" s="134" t="s">
         <v>46</v>
       </c>
@@ -2779,431 +2791,315 @@
       <c r="AA13" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="AB13" s="147"/>
-      <c r="AC13" s="146"/>
-      <c r="AD13" s="146"/>
-      <c r="AE13" s="146"/>
-      <c r="AF13" s="147"/>
-      <c r="AH13" s="143"/>
+      <c r="AB13" s="142"/>
+      <c r="AC13" s="144"/>
+      <c r="AD13" s="144"/>
+      <c r="AE13" s="144"/>
+      <c r="AF13" s="142"/>
+      <c r="AH13" s="155"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="135" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="3">
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="C14" s="3">
-        <v>0.59399999999999997</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D14" s="3">
-        <v>0.57699999999999996</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="E14" s="3">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="F14" s="3">
-        <v>0.59399999999999997</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="G14" s="1">
-        <v>0.57699999999999996</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="M14" s="6">
-        <v>38.1</v>
+        <v>52</v>
       </c>
       <c r="N14" s="6">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="O14" s="6">
-        <v>34.200000000000003</v>
+        <v>47</v>
       </c>
       <c r="P14" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q14" s="6">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="R14" s="6">
-        <v>10.8</v>
+        <v>13</v>
       </c>
       <c r="S14" s="6">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="T14" s="6">
-        <v>63.8</v>
+        <v>64</v>
       </c>
       <c r="U14" s="6">
-        <v>256.2</v>
+        <v>254</v>
       </c>
       <c r="V14" s="6">
-        <v>246.9</v>
+        <v>233</v>
       </c>
       <c r="W14" s="6">
-        <v>45.1</v>
+        <v>44</v>
       </c>
       <c r="X14" s="6">
-        <v>201.8</v>
+        <v>189</v>
       </c>
       <c r="Y14" s="6">
-        <v>0.214</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="Z14" s="6">
-        <v>0.13500000000000001</v>
+        <v>0.182</v>
       </c>
       <c r="AA14" s="6">
-        <v>0.22900000000000001</v>
+        <v>0.318</v>
       </c>
       <c r="AB14" s="6">
-        <v>0.54</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AC14" s="12">
-        <v>-6.5299999999999997E-2</v>
+        <v>-9.7100000000000006E-2</v>
       </c>
       <c r="AD14" s="12">
-        <v>-4.4699999999999997E-2</v>
+        <v>-6.6699999999999995E-2</v>
       </c>
       <c r="AE14" s="12">
-        <v>-4.3700000000000003E-2</v>
+        <v>-6.5199999999999994E-2</v>
       </c>
       <c r="AF14" s="6">
-        <v>5.31</v>
-      </c>
-      <c r="AH14" s="143"/>
+        <v>15.22</v>
+      </c>
+      <c r="AH14" s="155"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="135" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="7">
-        <v>0.61299999999999999</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="C15" s="7">
-        <v>0.61399999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="D15" s="7">
-        <v>0.61299999999999999</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="E15" s="7">
-        <v>0.38700000000000001</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F15" s="7">
-        <v>0.38600000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="G15" s="7">
-        <v>0.38700000000000001</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="H15" s="131">
-        <v>9.9999999999999995E-8</v>
+        <v>95</v>
       </c>
       <c r="I15" s="8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="M15" s="7">
-        <v>69.400000000000006</v>
+        <v>95</v>
       </c>
       <c r="N15" s="7">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="O15" s="7">
-        <v>61.9</v>
+        <v>82</v>
       </c>
       <c r="P15" s="7">
-        <v>23.2</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="7">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="R15" s="7">
-        <v>20.7</v>
+        <v>24</v>
       </c>
       <c r="S15" s="7">
-        <v>308.8</v>
+        <v>303</v>
       </c>
       <c r="T15" s="7">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="U15" s="7">
-        <v>246.3</v>
+        <v>243</v>
       </c>
       <c r="V15" s="7">
-        <v>215.6</v>
+        <v>190</v>
       </c>
       <c r="W15" s="7">
-        <v>41.5</v>
+        <v>36</v>
       </c>
       <c r="X15" s="7">
-        <v>174.1</v>
+        <v>154</v>
       </c>
       <c r="Y15" s="7">
-        <v>0.36399999999999999</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="Z15" s="7">
-        <v>0.25</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="AA15" s="7">
-        <v>0.38500000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="AB15" s="7">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="AC15" s="130">
-        <v>-0.10920000000000001</v>
+        <v>-8.2199999999999995E-2</v>
       </c>
       <c r="AD15" s="130">
-        <v>-7.6499999999999999E-2</v>
+        <v>-0.52800000000000002</v>
       </c>
       <c r="AE15" s="130">
-        <v>-7.4099999999999999E-2</v>
+        <v>-4.7600000000000003E-2</v>
       </c>
       <c r="AF15" s="7">
-        <v>7.05</v>
-      </c>
-      <c r="AH15" s="143"/>
+        <v>13.54</v>
+      </c>
+      <c r="AH15" s="155"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="2">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.41599999999999998</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="1">
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M16" s="6">
-        <v>51.2</v>
-      </c>
-      <c r="N16" s="6">
-        <v>6.7</v>
-      </c>
-      <c r="O16" s="6">
-        <v>44.5</v>
-      </c>
-      <c r="P16" s="6">
-        <v>20.5</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="R16" s="6">
-        <v>17.7</v>
-      </c>
-      <c r="S16" s="6">
-        <v>311.5</v>
-      </c>
-      <c r="T16" s="6">
-        <v>62.2</v>
-      </c>
-      <c r="U16" s="6">
-        <v>249.3</v>
-      </c>
-      <c r="V16" s="6">
-        <v>233.8</v>
-      </c>
-      <c r="W16" s="6">
-        <v>42.3</v>
-      </c>
-      <c r="X16" s="6">
-        <v>191.5</v>
-      </c>
-      <c r="Y16" s="6">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="Z16" s="6">
-        <v>0.216</v>
-      </c>
-      <c r="AA16" s="6">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="AB16" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AC16" s="12">
-        <v>-5.1799999999999999E-2</v>
-      </c>
-      <c r="AD16" s="12">
-        <v>-4.0300000000000002E-2</v>
-      </c>
-      <c r="AE16" s="12">
-        <v>-3.7499999999999999E-2</v>
-      </c>
-      <c r="AF16" s="6">
-        <v>6.71</v>
-      </c>
-      <c r="AH16" s="143"/>
+        <v>22</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="6"/>
+      <c r="AH16" s="155"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="7">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0.38300000000000001</v>
-      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="131">
-        <v>9.9999999999999995E-8</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="I17" s="8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="M17" s="9">
-        <v>74.7</v>
-      </c>
-      <c r="N17" s="9">
-        <v>8.6</v>
-      </c>
-      <c r="O17" s="9">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="P17" s="9">
-        <v>26.1</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>3.3</v>
-      </c>
-      <c r="R17" s="9">
-        <v>22.8</v>
-      </c>
-      <c r="S17" s="9">
-        <v>305.89999999999998</v>
-      </c>
-      <c r="T17" s="9">
-        <v>61.7</v>
-      </c>
-      <c r="U17" s="9">
-        <v>244.2</v>
-      </c>
-      <c r="V17" s="9">
-        <v>210.3</v>
-      </c>
-      <c r="W17" s="9">
-        <v>40.4</v>
-      </c>
-      <c r="X17" s="9">
-        <v>169.9</v>
-      </c>
-      <c r="Y17" s="9">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="Z17" s="9">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="AA17" s="9">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="AB17" s="9">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AC17" s="13">
-        <v>-0.1046</v>
-      </c>
-      <c r="AD17" s="13">
-        <v>-7.2400000000000006E-2</v>
-      </c>
-      <c r="AE17" s="13">
-        <v>-6.9599999999999995E-2</v>
-      </c>
-      <c r="AF17" s="9">
-        <v>8</v>
-      </c>
-      <c r="AH17" s="143"/>
+        <v>22</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="9"/>
+      <c r="AH17" s="155"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="2">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.33500000000000002</v>
-      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="1">
         <v>0</v>
       </c>
@@ -3211,79 +3107,39 @@
         <v>50</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="M18" s="6">
-        <v>155.80000000000001</v>
-      </c>
-      <c r="N18" s="6">
-        <v>22.7</v>
-      </c>
-      <c r="O18" s="6">
-        <v>133.1</v>
-      </c>
-      <c r="P18" s="6">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>11.4</v>
-      </c>
-      <c r="R18" s="6">
-        <v>65.5</v>
-      </c>
-      <c r="S18" s="6">
-        <v>255.1</v>
-      </c>
-      <c r="T18" s="6">
-        <v>53.6</v>
-      </c>
-      <c r="U18" s="6">
-        <v>201.5</v>
-      </c>
-      <c r="V18" s="6">
-        <v>129.19999999999999</v>
-      </c>
-      <c r="W18" s="6">
-        <v>26.3</v>
-      </c>
-      <c r="X18" s="6">
-        <v>102.9</v>
-      </c>
-      <c r="Y18" s="6">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="Z18" s="6">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="AA18" s="6">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="AB18" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="AC18" s="12">
-        <v>-0.1007</v>
-      </c>
-      <c r="AD18" s="12">
-        <v>-9.5699999999999993E-2</v>
-      </c>
-      <c r="AE18" s="12">
-        <v>-8.5300000000000001E-2</v>
-      </c>
-      <c r="AF18" s="6">
-        <v>3.67</v>
-      </c>
-      <c r="AH18" s="143"/>
+        <v>84</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="6"/>
+      <c r="AH18" s="155"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="138" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -3298,13 +3154,13 @@
         <v>15</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>21</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -3326,30 +3182,18 @@
       <c r="AD19" s="9"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="9"/>
-      <c r="AH19" s="143"/>
+      <c r="AH19" s="155"/>
     </row>
-    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="138" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.33500000000000002</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="1">
         <v>0</v>
       </c>
@@ -3357,79 +3201,39 @@
         <v>50</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="M20" s="6">
-        <v>155.80000000000001</v>
-      </c>
-      <c r="N20" s="6">
-        <v>22.7</v>
-      </c>
-      <c r="O20" s="6">
-        <v>133.1</v>
-      </c>
-      <c r="P20" s="6">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>11.4</v>
-      </c>
-      <c r="R20" s="6">
-        <v>65.5</v>
-      </c>
-      <c r="S20" s="6">
-        <v>255.1</v>
-      </c>
-      <c r="T20" s="6">
-        <v>53.6</v>
-      </c>
-      <c r="U20" s="6">
-        <v>201.5</v>
-      </c>
-      <c r="V20" s="6">
-        <v>129.19999999999999</v>
-      </c>
-      <c r="W20" s="6">
-        <v>26.3</v>
-      </c>
-      <c r="X20" s="6">
-        <v>102.9</v>
-      </c>
-      <c r="Y20" s="6">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="Z20" s="6">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="AA20" s="6">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="AB20" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="AC20" s="12">
-        <v>-0.1007</v>
-      </c>
-      <c r="AD20" s="12">
-        <v>-9.5699999999999993E-2</v>
-      </c>
-      <c r="AE20" s="12">
-        <v>-8.5300000000000001E-2</v>
-      </c>
-      <c r="AF20" s="6">
-        <v>3.67</v>
-      </c>
-      <c r="AH20" s="143"/>
+        <v>84</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="6"/>
+      <c r="AH20" s="155"/>
     </row>
-    <row r="21" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="137" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3437,11 +3241,21 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <v>15</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -3462,26 +3276,15 @@
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
-      <c r="AH21" s="144"/>
+      <c r="AH21" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="AH12:AH21"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="AF12:AF13"/>
     <mergeCell ref="AF1:AF8"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:D12"/>
@@ -3498,11 +3301,22 @@
     <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="AB12:AB13"/>
     <mergeCell ref="T1:V1"/>
-    <mergeCell ref="AH12:AH21"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3516,143 +3330,143 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1:N1048576"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="10" customWidth="1"/>
     <col min="3" max="13" width="6" style="10" customWidth="1"/>
-    <col min="14" max="14" width="21.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="19" max="42" width="6" style="84" customWidth="1"/>
     <col min="43" max="48" width="6" style="10" customWidth="1"/>
-    <col min="49" max="56" width="9.109375" style="10"/>
-    <col min="57" max="58" width="13.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="59" max="16384" width="9.109375" style="10"/>
+    <col min="49" max="56" width="9.140625" style="10"/>
+    <col min="57" max="58" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="59" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="A1" s="167" t="s">
+    <row r="1" spans="1:132" x14ac:dyDescent="0.25">
+      <c r="A1" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="170" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="165" t="s">
+      <c r="C1" s="170"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="165"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="165" t="s">
+      <c r="F1" s="170"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="165"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="165" t="s">
+      <c r="I1" s="170"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="165"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="173" t="s">
+      <c r="L1" s="170"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="177" t="s">
+      <c r="O1" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="173" t="s">
+      <c r="P1" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="173" t="s">
+      <c r="Q1" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="175" t="s">
+      <c r="R1" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="169" t="s">
+      <c r="S1" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="169"/>
-      <c r="U1" s="170"/>
-      <c r="V1" s="169" t="s">
+      <c r="T1" s="168"/>
+      <c r="U1" s="169"/>
+      <c r="V1" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="169"/>
-      <c r="X1" s="170"/>
-      <c r="Y1" s="169" t="s">
+      <c r="W1" s="168"/>
+      <c r="X1" s="169"/>
+      <c r="Y1" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="170"/>
-      <c r="AB1" s="169" t="s">
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="169"/>
+      <c r="AB1" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="169"/>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="169" t="s">
+      <c r="AC1" s="168"/>
+      <c r="AD1" s="169"/>
+      <c r="AE1" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="169"/>
-      <c r="AG1" s="170"/>
-      <c r="AH1" s="169" t="s">
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="169"/>
+      <c r="AH1" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="169"/>
-      <c r="AJ1" s="170"/>
-      <c r="AK1" s="169" t="s">
+      <c r="AI1" s="168"/>
+      <c r="AJ1" s="169"/>
+      <c r="AK1" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="169"/>
-      <c r="AM1" s="170"/>
-      <c r="AN1" s="169" t="s">
+      <c r="AL1" s="168"/>
+      <c r="AM1" s="169"/>
+      <c r="AN1" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="169"/>
-      <c r="AP1" s="170"/>
-      <c r="AQ1" s="165" t="s">
+      <c r="AO1" s="168"/>
+      <c r="AP1" s="169"/>
+      <c r="AQ1" s="170" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="165"/>
-      <c r="AS1" s="166"/>
-      <c r="AT1" s="165" t="s">
+      <c r="AR1" s="170"/>
+      <c r="AS1" s="171"/>
+      <c r="AT1" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="AU1" s="165"/>
-      <c r="AV1" s="166"/>
-      <c r="AW1" s="171" t="s">
+      <c r="AU1" s="170"/>
+      <c r="AV1" s="171"/>
+      <c r="AW1" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="AX1" s="171" t="s">
+      <c r="AX1" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="AY1" s="171" t="s">
+      <c r="AY1" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="AZ1" s="171" t="s">
+      <c r="AZ1" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="BA1" s="171" t="s">
+      <c r="BA1" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="BB1" s="171" t="s">
+      <c r="BB1" s="166" t="s">
         <v>56</v>
       </c>
-      <c r="BC1" s="171" t="s">
+      <c r="BC1" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="BD1" s="171" t="s">
+      <c r="BD1" s="166" t="s">
         <v>58</v>
       </c>
-      <c r="BE1" s="171" t="s">
+      <c r="BE1" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="BF1" s="171" t="s">
+      <c r="BF1" s="166" t="s">
         <v>40</v>
       </c>
       <c r="BG1" s="40"/>
@@ -3730,8 +3544,8 @@
       <c r="EA1" s="40"/>
       <c r="EB1" s="40"/>
     </row>
-    <row r="2" spans="1:132" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="168"/>
+    <row r="2" spans="1:132" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="173"/>
       <c r="B2" s="28" t="s">
         <v>46</v>
       </c>
@@ -3768,10 +3582,10 @@
       <c r="M2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="176"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
       <c r="R2" s="162"/>
       <c r="S2" s="58" t="s">
         <v>46</v>
@@ -3863,16 +3677,16 @@
       <c r="AV2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="AW2" s="172"/>
-      <c r="AX2" s="172"/>
-      <c r="AY2" s="172"/>
-      <c r="AZ2" s="172"/>
-      <c r="BA2" s="172"/>
-      <c r="BB2" s="172"/>
-      <c r="BC2" s="172"/>
-      <c r="BD2" s="172"/>
-      <c r="BE2" s="172"/>
-      <c r="BF2" s="172"/>
+      <c r="AW2" s="167"/>
+      <c r="AX2" s="167"/>
+      <c r="AY2" s="167"/>
+      <c r="AZ2" s="167"/>
+      <c r="BA2" s="167"/>
+      <c r="BB2" s="167"/>
+      <c r="BC2" s="167"/>
+      <c r="BD2" s="167"/>
+      <c r="BE2" s="167"/>
+      <c r="BF2" s="167"/>
       <c r="BG2" s="41"/>
       <c r="BH2" s="41"/>
       <c r="BI2" s="41"/>
@@ -3948,7 +3762,7 @@
       <c r="EA2" s="41"/>
       <c r="EB2" s="41"/>
     </row>
-    <row r="3" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A3" s="162" t="s">
         <v>3</v>
       </c>
@@ -4191,7 +4005,7 @@
       <c r="EA3" s="40"/>
       <c r="EB3" s="40"/>
     </row>
-    <row r="4" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A4" s="162"/>
       <c r="B4" s="7">
         <v>0.70699999999999996</v>
@@ -4381,7 +4195,7 @@
       <c r="BW4" s="40"/>
       <c r="BX4" s="40"/>
     </row>
-    <row r="5" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A5" s="162"/>
       <c r="B5" s="7">
         <v>0.61699999999999999</v>
@@ -4571,7 +4385,7 @@
       <c r="BW5" s="40"/>
       <c r="BX5" s="40"/>
     </row>
-    <row r="6" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A6" s="162"/>
       <c r="B6" s="7">
         <v>0.64300000000000002</v>
@@ -4745,7 +4559,7 @@
         <v>4.6100000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A7" s="162"/>
       <c r="B7" s="7">
         <v>0.65</v>
@@ -4919,8 +4733,8 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:132" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="163"/>
+    <row r="8" spans="1:132" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="177"/>
       <c r="B8" s="45">
         <f>AVERAGE(B3:B7)</f>
         <v>0.66539999999999988</v>
@@ -5145,8 +4959,8 @@
         <v>4.3340000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="A9" s="159" t="s">
+    <row r="9" spans="1:132" x14ac:dyDescent="0.25">
+      <c r="A9" s="174" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="15">
@@ -5321,8 +5135,8 @@
         <v>17.91</v>
       </c>
     </row>
-    <row r="10" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="A10" s="160"/>
+    <row r="10" spans="1:132" x14ac:dyDescent="0.25">
+      <c r="A10" s="175"/>
       <c r="B10" s="7">
         <v>0.65</v>
       </c>
@@ -5495,8 +5309,8 @@
         <v>17.64</v>
       </c>
     </row>
-    <row r="11" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="A11" s="160"/>
+    <row r="11" spans="1:132" x14ac:dyDescent="0.25">
+      <c r="A11" s="175"/>
       <c r="B11" s="7">
         <v>0.65700000000000003</v>
       </c>
@@ -5669,8 +5483,8 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="A12" s="160"/>
+    <row r="12" spans="1:132" x14ac:dyDescent="0.25">
+      <c r="A12" s="175"/>
       <c r="B12" s="7">
         <v>0.69299999999999995</v>
       </c>
@@ -5843,8 +5657,8 @@
         <v>13.41</v>
       </c>
     </row>
-    <row r="13" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="A13" s="160"/>
+    <row r="13" spans="1:132" x14ac:dyDescent="0.25">
+      <c r="A13" s="175"/>
       <c r="B13" s="7">
         <v>0.72</v>
       </c>
@@ -6017,8 +5831,8 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:132" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="161"/>
+    <row r="14" spans="1:132" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="176"/>
       <c r="B14" s="50">
         <f>AVERAGE(B9:B13)</f>
         <v>0.67400000000000004</v>
@@ -6244,7 +6058,7 @@
       </c>
       <c r="BG14" s="123"/>
     </row>
-    <row r="15" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A15" s="162" t="s">
         <v>9</v>
       </c>
@@ -6420,7 +6234,7 @@
         <v>9.14</v>
       </c>
     </row>
-    <row r="16" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A16" s="162"/>
       <c r="B16" s="7">
         <v>0.65700000000000003</v>
@@ -6594,7 +6408,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="162"/>
       <c r="B17" s="7">
         <v>0.65</v>
@@ -6768,7 +6582,7 @@
         <v>8.82</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="162"/>
       <c r="B18" s="7">
         <v>0.63700000000000001</v>
@@ -6942,7 +6756,7 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="162"/>
       <c r="B19" s="7">
         <v>0.67300000000000004</v>
@@ -7116,8 +6930,8 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="20" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="163"/>
+    <row r="20" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="177"/>
       <c r="B20" s="45">
         <f>AVERAGE(B15:B19)</f>
         <v>0.65680000000000005</v>
@@ -7342,8 +7156,8 @@
         <v>8.0520000000000014</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A21" s="164" t="s">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A21" s="178" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="15">
@@ -7518,7 +7332,7 @@
         <v>25.69</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="162"/>
       <c r="B22" s="7">
         <v>0.71699999999999997</v>
@@ -7692,7 +7506,7 @@
         <v>25.85</v>
       </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="162"/>
       <c r="B23" s="7">
         <v>0.7</v>
@@ -7866,7 +7680,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="162"/>
       <c r="B24" s="7">
         <v>0.70299999999999996</v>
@@ -8040,7 +7854,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="162"/>
       <c r="B25" s="7">
         <v>0.67300000000000004</v>
@@ -8214,8 +8028,8 @@
         <v>25.77</v>
       </c>
     </row>
-    <row r="26" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="163"/>
+    <row r="26" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="177"/>
       <c r="B26" s="50">
         <f>AVERAGE(B21:B25)</f>
         <v>0.68859999999999999</v>
@@ -8440,8 +8254,8 @@
         <v>25.892000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A27" s="164" t="s">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A27" s="178" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="15">
@@ -8616,7 +8430,7 @@
         <v>23.83</v>
       </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A28" s="162"/>
       <c r="B28" s="7">
         <v>0.64300000000000002</v>
@@ -8790,7 +8604,7 @@
         <v>19.46</v>
       </c>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A29" s="162"/>
       <c r="B29" s="7">
         <v>0.67</v>
@@ -8964,7 +8778,7 @@
         <v>20.23</v>
       </c>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A30" s="162"/>
       <c r="B30" s="7">
         <v>0.62</v>
@@ -9138,7 +8952,7 @@
         <v>19.38</v>
       </c>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A31" s="162"/>
       <c r="B31" s="7">
         <v>0.68</v>
@@ -9312,8 +9126,8 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="163"/>
+    <row r="32" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="177"/>
       <c r="B32" s="45">
         <f t="shared" ref="B32:M32" si="22">AVERAGE(B27:B31)</f>
         <v>0.65400000000000014</v>
@@ -9538,8 +9352,8 @@
         <v>20.445999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A33" s="159" t="s">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A33" s="174" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="15">
@@ -9714,8 +9528,8 @@
         <v>36.72</v>
       </c>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A34" s="160"/>
+    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A34" s="175"/>
       <c r="B34" s="7">
         <v>0.66700000000000004</v>
       </c>
@@ -9888,8 +9702,8 @@
         <v>34.340000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A35" s="160"/>
+    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A35" s="175"/>
       <c r="B35" s="7">
         <v>0.64300000000000002</v>
       </c>
@@ -10062,8 +9876,8 @@
         <v>35.06</v>
       </c>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A36" s="160"/>
+    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A36" s="175"/>
       <c r="B36" s="7">
         <v>0.64</v>
       </c>
@@ -10236,8 +10050,8 @@
         <v>33.950000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A37" s="160"/>
+    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A37" s="175"/>
       <c r="B37" s="7">
         <v>0.63</v>
       </c>
@@ -10410,8 +10224,8 @@
         <v>36.47</v>
       </c>
     </row>
-    <row r="38" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="161"/>
+    <row r="38" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="176"/>
       <c r="B38" s="50">
         <f t="shared" ref="B38:M38" si="24">AVERAGE(B33:B37)</f>
         <v>0.65659999999999996</v>
@@ -10636,65 +10450,65 @@
         <v>35.308</v>
       </c>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
       <c r="AV39" s="39"/>
       <c r="BD39" s="40"/>
       <c r="BE39" s="40"/>
       <c r="BF39" s="40"/>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
       <c r="G41" s="40"/>
       <c r="H41" s="40"/>
       <c r="I41" s="40"/>
     </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
       <c r="G42" s="40"/>
       <c r="H42" s="40"/>
       <c r="I42" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="BB1:BB2"/>
-    <mergeCell ref="BC1:BC2"/>
-    <mergeCell ref="BD1:BD2"/>
-    <mergeCell ref="BE1:BE2"/>
-    <mergeCell ref="BF1:BF2"/>
-    <mergeCell ref="AW1:AW2"/>
-    <mergeCell ref="AX1:AX2"/>
-    <mergeCell ref="AY1:AY2"/>
-    <mergeCell ref="AZ1:AZ2"/>
-    <mergeCell ref="BA1:BA2"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
     <mergeCell ref="A33:A38"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="AY1:AY2"/>
+    <mergeCell ref="AZ1:AZ2"/>
+    <mergeCell ref="BA1:BA2"/>
+    <mergeCell ref="BB1:BB2"/>
+    <mergeCell ref="BC1:BC2"/>
+    <mergeCell ref="BD1:BD2"/>
+    <mergeCell ref="BE1:BE2"/>
+    <mergeCell ref="BF1:BF2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10707,136 +10521,138 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80701A8F-7759-45F4-A607-162CF246F76F}">
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AX7" sqref="AX7"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="55" max="56" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="145" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="145" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="146"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="145" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="146"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="145" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="146"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="142" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="142" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="149" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" s="150"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="149" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="150"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="150" t="s">
+      <c r="X1" s="146"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="145" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="151"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="150" t="s">
+      <c r="AA1" s="146"/>
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="151"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="150" t="s">
+      <c r="AD1" s="146"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="151"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="147" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="147" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="147" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="155" t="s">
+      <c r="AG1" s="146"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="R1" s="156"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="155" t="s">
+      <c r="AJ1" s="146"/>
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="U1" s="156"/>
-      <c r="V1" s="157"/>
-      <c r="W1" s="150" t="s">
+      <c r="AM1" s="146"/>
+      <c r="AN1" s="147"/>
+      <c r="AO1" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="152"/>
-      <c r="Z1" s="150" t="s">
+      <c r="AP1" s="146"/>
+      <c r="AQ1" s="147"/>
+      <c r="AR1" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="151"/>
-      <c r="AB1" s="152"/>
-      <c r="AC1" s="150" t="s">
+      <c r="AS1" s="146"/>
+      <c r="AT1" s="147"/>
+      <c r="AU1" s="142" t="s">
         <v>100</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="152"/>
-      <c r="AF1" s="150" t="s">
+      <c r="AV1" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="AG1" s="151"/>
-      <c r="AH1" s="152"/>
-      <c r="AI1" s="150" t="s">
+      <c r="AW1" s="143" t="s">
         <v>102</v>
       </c>
-      <c r="AJ1" s="151"/>
-      <c r="AK1" s="152"/>
-      <c r="AL1" s="150" t="s">
+      <c r="AX1" s="143" t="s">
         <v>103</v>
       </c>
-      <c r="AM1" s="151"/>
-      <c r="AN1" s="152"/>
-      <c r="AO1" s="150" t="s">
+      <c r="AY1" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AP1" s="151"/>
-      <c r="AQ1" s="152"/>
-      <c r="AR1" s="150" t="s">
+      <c r="AZ1" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="AS1" s="151"/>
-      <c r="AT1" s="152"/>
-      <c r="AU1" s="147" t="s">
+      <c r="BA1" s="143" t="s">
         <v>106</v>
       </c>
-      <c r="AV1" s="147" t="s">
+      <c r="BB1" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="AW1" s="145" t="s">
+      <c r="BC1" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="AX1" s="145" t="s">
+      <c r="BD1" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="AY1" s="145" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ1" s="145" t="s">
-        <v>111</v>
-      </c>
-      <c r="BA1" s="145" t="s">
-        <v>112</v>
-      </c>
-      <c r="BB1" s="145" t="s">
-        <v>113</v>
-      </c>
-      <c r="BC1" s="147" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD1" s="147" t="s">
-        <v>115</v>
-      </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A2" s="149"/>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A2" s="153"/>
       <c r="B2" s="139" t="s">
         <v>46</v>
       </c>
@@ -10873,9 +10689,9 @@
       <c r="M2" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
       <c r="Q2" s="139" t="s">
         <v>46</v>
       </c>
@@ -10966,18 +10782,18 @@
       <c r="AT2" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" s="147"/>
-      <c r="AV2" s="147"/>
-      <c r="AW2" s="146"/>
-      <c r="AX2" s="146"/>
-      <c r="AY2" s="146"/>
-      <c r="AZ2" s="146"/>
-      <c r="BA2" s="146"/>
-      <c r="BB2" s="146"/>
-      <c r="BC2" s="147"/>
-      <c r="BD2" s="147"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="142"/>
+      <c r="AW2" s="144"/>
+      <c r="AX2" s="144"/>
+      <c r="AY2" s="144"/>
+      <c r="AZ2" s="144"/>
+      <c r="BA2" s="144"/>
+      <c r="BB2" s="144"/>
+      <c r="BC2" s="142"/>
+      <c r="BD2" s="142"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="140" t="s">
         <v>3</v>
       </c>
@@ -11147,7 +10963,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="140" t="s">
         <v>41</v>
       </c>
@@ -11317,7 +11133,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="140" t="s">
         <v>9</v>
       </c>
@@ -11487,7 +11303,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="140" t="s">
         <v>10</v>
       </c>
@@ -11657,7 +11473,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="140" t="s">
         <v>11</v>
       </c>
@@ -11673,9 +11489,15 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -11717,9 +11539,9 @@
       <c r="BC7" s="6"/>
       <c r="BD7" s="6"/>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="139" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -11777,8 +11599,57 @@
       <c r="BC8" s="9"/>
       <c r="BD8" s="9"/>
     </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="F15" s="40"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="40"/>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="F16" s="40"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+    </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="AU1:AU2"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AV1:AV2"/>
     <mergeCell ref="AX1:AX2"/>
     <mergeCell ref="AZ1:AZ2"/>
@@ -11788,25 +11659,6 @@
     <mergeCell ref="AY1:AY2"/>
     <mergeCell ref="BA1:BA2"/>
     <mergeCell ref="BC1:BC2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="AU1:AU2"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/experiments/compas/results/all_results.xlsx
+++ b/experiments/compas/results/all_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\compas\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B115AFCA-2C48-4DDA-AE30-4D32FA52A9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E274C1-1B3A-4E28-A0A2-DECB2FC66C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="117">
   <si>
     <t>Model</t>
   </si>
@@ -387,13 +387,7 @@
     <t>.0005</t>
   </si>
   <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>.001</t>
   </si>
 </sst>
 </file>
@@ -1479,40 +1473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1524,12 +1485,90 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1539,9 +1578,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1549,48 +1585,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1910,7 +1904,7 @@
   <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,74 +1932,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="145" t="s">
+      <c r="C1" s="152"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="146"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="142" t="s">
+      <c r="F1" s="152"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="142" t="s">
+      <c r="I1" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="142" t="s">
+      <c r="J1" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="149" t="s">
+      <c r="K1" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="150"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="145" t="s">
+      <c r="L1" s="157"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="146"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="145" t="s">
+      <c r="O1" s="152"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="146"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="145" t="s">
+      <c r="R1" s="152"/>
+      <c r="S1" s="153"/>
+      <c r="T1" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="146"/>
-      <c r="V1" s="147"/>
-      <c r="W1" s="145" t="s">
+      <c r="U1" s="152"/>
+      <c r="V1" s="153"/>
+      <c r="W1" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="147"/>
-      <c r="Z1" s="142" t="s">
+      <c r="X1" s="152"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="143" t="s">
+      <c r="AA1" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" s="143" t="s">
+      <c r="AB1" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="143" t="s">
+      <c r="AC1" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" s="142" t="s">
+      <c r="AD1" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="154" t="s">
+      <c r="AF1" s="143" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="153"/>
+      <c r="A2" s="150"/>
       <c r="B2" s="133" t="s">
         <v>46</v>
       </c>
@@ -2024,9 +2018,9 @@
       <c r="G2" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
       <c r="K2" s="133" t="s">
         <v>46</v>
       </c>
@@ -2072,12 +2066,12 @@
       <c r="Y2" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="144"/>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="144"/>
-      <c r="AD2" s="142"/>
-      <c r="AF2" s="155"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="147"/>
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="147"/>
+      <c r="AD2" s="148"/>
+      <c r="AF2" s="144"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="132" t="s">
@@ -2170,7 +2164,7 @@
       <c r="AD3" s="6">
         <v>5.31</v>
       </c>
-      <c r="AF3" s="155"/>
+      <c r="AF3" s="144"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="132" t="s">
@@ -2263,7 +2257,7 @@
       <c r="AD4" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AF4" s="155"/>
+      <c r="AF4" s="144"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="132" t="s">
@@ -2356,7 +2350,7 @@
       <c r="AD5" s="6">
         <v>7.35</v>
       </c>
-      <c r="AF5" s="155"/>
+      <c r="AF5" s="144"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="132" t="s">
@@ -2449,7 +2443,7 @@
       <c r="AD6" s="9">
         <v>9.73</v>
       </c>
-      <c r="AF6" s="155"/>
+      <c r="AF6" s="144"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="132" t="s">
@@ -2542,7 +2536,7 @@
       <c r="AD7" s="6">
         <v>9.27</v>
       </c>
-      <c r="AF7" s="155"/>
+      <c r="AF7" s="144"/>
     </row>
     <row r="8" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="133" t="s">
@@ -2635,94 +2629,94 @@
       <c r="AD8" s="9">
         <v>98.24</v>
       </c>
-      <c r="AF8" s="156"/>
+      <c r="AF8" s="145"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AF9" s="136"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="148" t="s">
+      <c r="A10" s="159" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="148"/>
-      <c r="C10" s="148"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="159"/>
     </row>
     <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="152" t="s">
+      <c r="A12" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="145" t="s">
+      <c r="B12" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="146"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="145" t="s">
+      <c r="C12" s="152"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="146"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="157" t="s">
+      <c r="F12" s="152"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="154" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="157" t="s">
+      <c r="I12" s="154" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="142" t="s">
+      <c r="J12" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="142" t="s">
+      <c r="K12" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="142" t="s">
+      <c r="L12" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="149" t="s">
+      <c r="M12" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="150"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="145" t="s">
+      <c r="N12" s="157"/>
+      <c r="O12" s="158"/>
+      <c r="P12" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="145" t="s">
+      <c r="Q12" s="152"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="T12" s="146"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="145" t="s">
+      <c r="T12" s="152"/>
+      <c r="U12" s="153"/>
+      <c r="V12" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="W12" s="146"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="145" t="s">
+      <c r="W12" s="152"/>
+      <c r="X12" s="153"/>
+      <c r="Y12" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="Z12" s="146"/>
-      <c r="AA12" s="147"/>
-      <c r="AB12" s="142" t="s">
+      <c r="Z12" s="152"/>
+      <c r="AA12" s="153"/>
+      <c r="AB12" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="AC12" s="143" t="s">
+      <c r="AC12" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="AD12" s="143" t="s">
+      <c r="AD12" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="AE12" s="143" t="s">
+      <c r="AE12" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="AF12" s="142" t="s">
+      <c r="AF12" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="AH12" s="154" t="s">
+      <c r="AH12" s="143" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="153"/>
+      <c r="A13" s="150"/>
       <c r="B13" s="134" t="s">
         <v>46</v>
       </c>
@@ -2741,11 +2735,11 @@
       <c r="G13" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="142"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="148"/>
       <c r="M13" s="134" t="s">
         <v>46</v>
       </c>
@@ -2791,12 +2785,12 @@
       <c r="AA13" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="AB13" s="142"/>
-      <c r="AC13" s="144"/>
-      <c r="AD13" s="144"/>
-      <c r="AE13" s="144"/>
-      <c r="AF13" s="142"/>
-      <c r="AH13" s="155"/>
+      <c r="AB13" s="148"/>
+      <c r="AC13" s="147"/>
+      <c r="AD13" s="147"/>
+      <c r="AE13" s="147"/>
+      <c r="AF13" s="148"/>
+      <c r="AH13" s="144"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="135" t="s">
@@ -2895,7 +2889,7 @@
       <c r="AF14" s="6">
         <v>15.22</v>
       </c>
-      <c r="AH14" s="155"/>
+      <c r="AH14" s="144"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="135" t="s">
@@ -2919,20 +2913,20 @@
       <c r="G15" s="7">
         <v>0.35399999999999998</v>
       </c>
-      <c r="H15" s="131">
-        <v>95</v>
+      <c r="H15" s="8">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="I15" s="8">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>116</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
         <v>95</v>
@@ -2994,18 +2988,30 @@
       <c r="AF15" s="7">
         <v>13.54</v>
       </c>
-      <c r="AH15" s="155"/>
+      <c r="AH15" s="144"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="B16" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.40400000000000003</v>
+      </c>
       <c r="H16" s="1">
         <v>0</v>
       </c>
@@ -3021,27 +3027,67 @@
       <c r="L16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="6"/>
-      <c r="AH16" s="155"/>
+      <c r="M16" s="6">
+        <v>60</v>
+      </c>
+      <c r="N16" s="6">
+        <v>7</v>
+      </c>
+      <c r="O16" s="6">
+        <v>53</v>
+      </c>
+      <c r="P16" s="6">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>2</v>
+      </c>
+      <c r="R16" s="6">
+        <v>20</v>
+      </c>
+      <c r="S16" s="6">
+        <v>310</v>
+      </c>
+      <c r="T16" s="6">
+        <v>63</v>
+      </c>
+      <c r="U16" s="6">
+        <v>247</v>
+      </c>
+      <c r="V16" s="6">
+        <v>225</v>
+      </c>
+      <c r="W16" s="6">
+        <v>42</v>
+      </c>
+      <c r="X16" s="6">
+        <v>183</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AC16" s="12">
+        <v>-8.1699999999999995E-2</v>
+      </c>
+      <c r="AD16" s="12">
+        <v>-6.6199999999999995E-2</v>
+      </c>
+      <c r="AE16" s="12">
+        <v>-6.2899999999999998E-2</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>12.61</v>
+      </c>
+      <c r="AH16" s="144"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="141" t="s">
@@ -3088,7 +3134,7 @@
       <c r="AD17" s="13"/>
       <c r="AE17" s="13"/>
       <c r="AF17" s="9"/>
-      <c r="AH17" s="155"/>
+      <c r="AH17" s="144"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="137" t="s">
@@ -3135,7 +3181,7 @@
       <c r="AD18" s="12"/>
       <c r="AE18" s="12"/>
       <c r="AF18" s="6"/>
-      <c r="AH18" s="155"/>
+      <c r="AH18" s="144"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="138" t="s">
@@ -3182,7 +3228,7 @@
       <c r="AD19" s="9"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="9"/>
-      <c r="AH19" s="155"/>
+      <c r="AH19" s="144"/>
     </row>
     <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="138" t="s">
@@ -3229,7 +3275,7 @@
       <c r="AD20" s="12"/>
       <c r="AE20" s="12"/>
       <c r="AF20" s="6"/>
-      <c r="AH20" s="155"/>
+      <c r="AH20" s="144"/>
     </row>
     <row r="21" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="137" t="s">
@@ -3276,15 +3322,26 @@
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
-      <c r="AH21" s="156"/>
+      <c r="AH21" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AH12:AH21"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
     <mergeCell ref="AF1:AF8"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:D12"/>
@@ -3301,22 +3358,11 @@
     <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="AB12:AB13"/>
     <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AH12:AH21"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="AF12:AF13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3351,122 +3397,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="170"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="170" t="s">
+      <c r="C1" s="166"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="170"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="170" t="s">
+      <c r="F1" s="166"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="170"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="170" t="s">
+      <c r="I1" s="166"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="170"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="159" t="s">
+      <c r="L1" s="166"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="164" t="s">
+      <c r="O1" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="159" t="s">
+      <c r="P1" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="159" t="s">
+      <c r="Q1" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="161" t="s">
+      <c r="R1" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="168" t="s">
+      <c r="S1" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="168"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="168" t="s">
+      <c r="T1" s="170"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="168"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="168" t="s">
+      <c r="W1" s="170"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="169"/>
-      <c r="AB1" s="168" t="s">
+      <c r="Z1" s="170"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="168" t="s">
+      <c r="AC1" s="170"/>
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="169"/>
-      <c r="AH1" s="168" t="s">
+      <c r="AF1" s="170"/>
+      <c r="AG1" s="171"/>
+      <c r="AH1" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="168"/>
-      <c r="AJ1" s="169"/>
-      <c r="AK1" s="168" t="s">
+      <c r="AI1" s="170"/>
+      <c r="AJ1" s="171"/>
+      <c r="AK1" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="168"/>
-      <c r="AM1" s="169"/>
-      <c r="AN1" s="168" t="s">
+      <c r="AL1" s="170"/>
+      <c r="AM1" s="171"/>
+      <c r="AN1" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="168"/>
-      <c r="AP1" s="169"/>
-      <c r="AQ1" s="170" t="s">
+      <c r="AO1" s="170"/>
+      <c r="AP1" s="171"/>
+      <c r="AQ1" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="170"/>
-      <c r="AS1" s="171"/>
-      <c r="AT1" s="170" t="s">
+      <c r="AR1" s="166"/>
+      <c r="AS1" s="167"/>
+      <c r="AT1" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="AU1" s="170"/>
-      <c r="AV1" s="171"/>
-      <c r="AW1" s="166" t="s">
+      <c r="AU1" s="166"/>
+      <c r="AV1" s="167"/>
+      <c r="AW1" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="AX1" s="166" t="s">
+      <c r="AX1" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="AY1" s="166" t="s">
+      <c r="AY1" s="172" t="s">
         <v>53</v>
       </c>
-      <c r="AZ1" s="166" t="s">
+      <c r="AZ1" s="172" t="s">
         <v>54</v>
       </c>
-      <c r="BA1" s="166" t="s">
+      <c r="BA1" s="172" t="s">
         <v>55</v>
       </c>
-      <c r="BB1" s="166" t="s">
+      <c r="BB1" s="172" t="s">
         <v>56</v>
       </c>
-      <c r="BC1" s="166" t="s">
+      <c r="BC1" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="BD1" s="166" t="s">
+      <c r="BD1" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="BE1" s="166" t="s">
+      <c r="BE1" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="BF1" s="166" t="s">
+      <c r="BF1" s="172" t="s">
         <v>40</v>
       </c>
       <c r="BG1" s="40"/>
@@ -3545,7 +3591,7 @@
       <c r="EB1" s="40"/>
     </row>
     <row r="2" spans="1:132" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="173"/>
+      <c r="A2" s="169"/>
       <c r="B2" s="28" t="s">
         <v>46</v>
       </c>
@@ -3582,11 +3628,11 @@
       <c r="M2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="163"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="162"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="163"/>
       <c r="S2" s="58" t="s">
         <v>46</v>
       </c>
@@ -3677,16 +3723,16 @@
       <c r="AV2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="AW2" s="167"/>
-      <c r="AX2" s="167"/>
-      <c r="AY2" s="167"/>
-      <c r="AZ2" s="167"/>
-      <c r="BA2" s="167"/>
-      <c r="BB2" s="167"/>
-      <c r="BC2" s="167"/>
-      <c r="BD2" s="167"/>
-      <c r="BE2" s="167"/>
-      <c r="BF2" s="167"/>
+      <c r="AW2" s="173"/>
+      <c r="AX2" s="173"/>
+      <c r="AY2" s="173"/>
+      <c r="AZ2" s="173"/>
+      <c r="BA2" s="173"/>
+      <c r="BB2" s="173"/>
+      <c r="BC2" s="173"/>
+      <c r="BD2" s="173"/>
+      <c r="BE2" s="173"/>
+      <c r="BF2" s="173"/>
       <c r="BG2" s="41"/>
       <c r="BH2" s="41"/>
       <c r="BI2" s="41"/>
@@ -3763,7 +3809,7 @@
       <c r="EB2" s="41"/>
     </row>
     <row r="3" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="163" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="15">
@@ -4006,7 +4052,7 @@
       <c r="EB3" s="40"/>
     </row>
     <row r="4" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A4" s="162"/>
+      <c r="A4" s="163"/>
       <c r="B4" s="7">
         <v>0.70699999999999996</v>
       </c>
@@ -4196,7 +4242,7 @@
       <c r="BX4" s="40"/>
     </row>
     <row r="5" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A5" s="162"/>
+      <c r="A5" s="163"/>
       <c r="B5" s="7">
         <v>0.61699999999999999</v>
       </c>
@@ -4386,7 +4432,7 @@
       <c r="BX5" s="40"/>
     </row>
     <row r="6" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A6" s="162"/>
+      <c r="A6" s="163"/>
       <c r="B6" s="7">
         <v>0.64300000000000002</v>
       </c>
@@ -4560,7 +4606,7 @@
       </c>
     </row>
     <row r="7" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A7" s="162"/>
+      <c r="A7" s="163"/>
       <c r="B7" s="7">
         <v>0.65</v>
       </c>
@@ -4734,7 +4780,7 @@
       </c>
     </row>
     <row r="8" spans="1:132" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="177"/>
+      <c r="A8" s="164"/>
       <c r="B8" s="45">
         <f>AVERAGE(B3:B7)</f>
         <v>0.66539999999999988</v>
@@ -4960,7 +5006,7 @@
       </c>
     </row>
     <row r="9" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A9" s="174" t="s">
+      <c r="A9" s="160" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="15">
@@ -5136,7 +5182,7 @@
       </c>
     </row>
     <row r="10" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A10" s="175"/>
+      <c r="A10" s="161"/>
       <c r="B10" s="7">
         <v>0.65</v>
       </c>
@@ -5310,7 +5356,7 @@
       </c>
     </row>
     <row r="11" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A11" s="175"/>
+      <c r="A11" s="161"/>
       <c r="B11" s="7">
         <v>0.65700000000000003</v>
       </c>
@@ -5484,7 +5530,7 @@
       </c>
     </row>
     <row r="12" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A12" s="175"/>
+      <c r="A12" s="161"/>
       <c r="B12" s="7">
         <v>0.69299999999999995</v>
       </c>
@@ -5658,7 +5704,7 @@
       </c>
     </row>
     <row r="13" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A13" s="175"/>
+      <c r="A13" s="161"/>
       <c r="B13" s="7">
         <v>0.72</v>
       </c>
@@ -5832,7 +5878,7 @@
       </c>
     </row>
     <row r="14" spans="1:132" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="176"/>
+      <c r="A14" s="162"/>
       <c r="B14" s="50">
         <f>AVERAGE(B9:B13)</f>
         <v>0.67400000000000004</v>
@@ -6059,7 +6105,7 @@
       <c r="BG14" s="123"/>
     </row>
     <row r="15" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A15" s="162" t="s">
+      <c r="A15" s="163" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="15">
@@ -6235,7 +6281,7 @@
       </c>
     </row>
     <row r="16" spans="1:132" x14ac:dyDescent="0.25">
-      <c r="A16" s="162"/>
+      <c r="A16" s="163"/>
       <c r="B16" s="7">
         <v>0.65700000000000003</v>
       </c>
@@ -6409,7 +6455,7 @@
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A17" s="162"/>
+      <c r="A17" s="163"/>
       <c r="B17" s="7">
         <v>0.65</v>
       </c>
@@ -6583,7 +6629,7 @@
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A18" s="162"/>
+      <c r="A18" s="163"/>
       <c r="B18" s="7">
         <v>0.63700000000000001</v>
       </c>
@@ -6757,7 +6803,7 @@
       </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A19" s="162"/>
+      <c r="A19" s="163"/>
       <c r="B19" s="7">
         <v>0.67300000000000004</v>
       </c>
@@ -6931,7 +6977,7 @@
       </c>
     </row>
     <row r="20" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="177"/>
+      <c r="A20" s="164"/>
       <c r="B20" s="45">
         <f>AVERAGE(B15:B19)</f>
         <v>0.65680000000000005</v>
@@ -7157,7 +7203,7 @@
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A21" s="178" t="s">
+      <c r="A21" s="165" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="15">
@@ -7333,7 +7379,7 @@
       </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A22" s="162"/>
+      <c r="A22" s="163"/>
       <c r="B22" s="7">
         <v>0.71699999999999997</v>
       </c>
@@ -7507,7 +7553,7 @@
       </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A23" s="162"/>
+      <c r="A23" s="163"/>
       <c r="B23" s="7">
         <v>0.7</v>
       </c>
@@ -7681,7 +7727,7 @@
       </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A24" s="162"/>
+      <c r="A24" s="163"/>
       <c r="B24" s="7">
         <v>0.70299999999999996</v>
       </c>
@@ -7855,7 +7901,7 @@
       </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A25" s="162"/>
+      <c r="A25" s="163"/>
       <c r="B25" s="7">
         <v>0.67300000000000004</v>
       </c>
@@ -8029,7 +8075,7 @@
       </c>
     </row>
     <row r="26" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="177"/>
+      <c r="A26" s="164"/>
       <c r="B26" s="50">
         <f>AVERAGE(B21:B25)</f>
         <v>0.68859999999999999</v>
@@ -8255,7 +8301,7 @@
       </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A27" s="178" t="s">
+      <c r="A27" s="165" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="15">
@@ -8431,7 +8477,7 @@
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A28" s="162"/>
+      <c r="A28" s="163"/>
       <c r="B28" s="7">
         <v>0.64300000000000002</v>
       </c>
@@ -8605,7 +8651,7 @@
       </c>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A29" s="162"/>
+      <c r="A29" s="163"/>
       <c r="B29" s="7">
         <v>0.67</v>
       </c>
@@ -8779,7 +8825,7 @@
       </c>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A30" s="162"/>
+      <c r="A30" s="163"/>
       <c r="B30" s="7">
         <v>0.62</v>
       </c>
@@ -8953,7 +8999,7 @@
       </c>
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A31" s="162"/>
+      <c r="A31" s="163"/>
       <c r="B31" s="7">
         <v>0.68</v>
       </c>
@@ -9127,7 +9173,7 @@
       </c>
     </row>
     <row r="32" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="177"/>
+      <c r="A32" s="164"/>
       <c r="B32" s="45">
         <f t="shared" ref="B32:M32" si="22">AVERAGE(B27:B31)</f>
         <v>0.65400000000000014</v>
@@ -9353,7 +9399,7 @@
       </c>
     </row>
     <row r="33" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A33" s="174" t="s">
+      <c r="A33" s="160" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="15">
@@ -9529,7 +9575,7 @@
       </c>
     </row>
     <row r="34" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A34" s="175"/>
+      <c r="A34" s="161"/>
       <c r="B34" s="7">
         <v>0.66700000000000004</v>
       </c>
@@ -9703,7 +9749,7 @@
       </c>
     </row>
     <row r="35" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A35" s="175"/>
+      <c r="A35" s="161"/>
       <c r="B35" s="7">
         <v>0.64300000000000002</v>
       </c>
@@ -9877,7 +9923,7 @@
       </c>
     </row>
     <row r="36" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A36" s="175"/>
+      <c r="A36" s="161"/>
       <c r="B36" s="7">
         <v>0.64</v>
       </c>
@@ -10051,7 +10097,7 @@
       </c>
     </row>
     <row r="37" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A37" s="175"/>
+      <c r="A37" s="161"/>
       <c r="B37" s="7">
         <v>0.63</v>
       </c>
@@ -10225,7 +10271,7 @@
       </c>
     </row>
     <row r="38" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="176"/>
+      <c r="A38" s="162"/>
       <c r="B38" s="50">
         <f t="shared" ref="B38:M38" si="24">AVERAGE(B33:B37)</f>
         <v>0.65659999999999996</v>
@@ -10473,42 +10519,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="BB1:BB2"/>
+    <mergeCell ref="BC1:BC2"/>
+    <mergeCell ref="BD1:BD2"/>
+    <mergeCell ref="BE1:BE2"/>
+    <mergeCell ref="BF1:BF2"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="AY1:AY2"/>
+    <mergeCell ref="AZ1:AZ2"/>
+    <mergeCell ref="BA1:BA2"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="A33:A38"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AW1:AW2"/>
-    <mergeCell ref="AX1:AX2"/>
-    <mergeCell ref="AY1:AY2"/>
-    <mergeCell ref="AZ1:AZ2"/>
-    <mergeCell ref="BA1:BA2"/>
-    <mergeCell ref="BB1:BB2"/>
-    <mergeCell ref="BC1:BC2"/>
-    <mergeCell ref="BD1:BD2"/>
-    <mergeCell ref="BE1:BE2"/>
-    <mergeCell ref="BF1:BF2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10538,121 +10584,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="145" t="s">
+      <c r="C1" s="152"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="146"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="145" t="s">
+      <c r="F1" s="152"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="146"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="145" t="s">
+      <c r="I1" s="152"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="151" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="146"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="142" t="s">
+      <c r="L1" s="152"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="142" t="s">
+      <c r="O1" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="142" t="s">
+      <c r="P1" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="149" t="s">
+      <c r="Q1" s="156" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="150"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="149" t="s">
+      <c r="R1" s="157"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="U1" s="150"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="145" t="s">
+      <c r="U1" s="157"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="151" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="147"/>
-      <c r="Z1" s="145" t="s">
+      <c r="X1" s="152"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="AA1" s="146"/>
-      <c r="AB1" s="147"/>
-      <c r="AC1" s="145" t="s">
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="153"/>
+      <c r="AC1" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="145" t="s">
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="153"/>
+      <c r="AF1" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="AG1" s="146"/>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="145" t="s">
+      <c r="AG1" s="152"/>
+      <c r="AH1" s="153"/>
+      <c r="AI1" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="AJ1" s="146"/>
-      <c r="AK1" s="147"/>
-      <c r="AL1" s="145" t="s">
+      <c r="AJ1" s="152"/>
+      <c r="AK1" s="153"/>
+      <c r="AL1" s="151" t="s">
         <v>97</v>
       </c>
-      <c r="AM1" s="146"/>
-      <c r="AN1" s="147"/>
-      <c r="AO1" s="145" t="s">
+      <c r="AM1" s="152"/>
+      <c r="AN1" s="153"/>
+      <c r="AO1" s="151" t="s">
         <v>98</v>
       </c>
-      <c r="AP1" s="146"/>
-      <c r="AQ1" s="147"/>
-      <c r="AR1" s="145" t="s">
+      <c r="AP1" s="152"/>
+      <c r="AQ1" s="153"/>
+      <c r="AR1" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="AS1" s="146"/>
-      <c r="AT1" s="147"/>
-      <c r="AU1" s="142" t="s">
+      <c r="AS1" s="152"/>
+      <c r="AT1" s="153"/>
+      <c r="AU1" s="148" t="s">
         <v>100</v>
       </c>
-      <c r="AV1" s="142" t="s">
+      <c r="AV1" s="148" t="s">
         <v>101</v>
       </c>
-      <c r="AW1" s="143" t="s">
+      <c r="AW1" s="146" t="s">
         <v>102</v>
       </c>
-      <c r="AX1" s="143" t="s">
+      <c r="AX1" s="146" t="s">
         <v>103</v>
       </c>
-      <c r="AY1" s="143" t="s">
+      <c r="AY1" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="AZ1" s="143" t="s">
+      <c r="AZ1" s="146" t="s">
         <v>105</v>
       </c>
-      <c r="BA1" s="143" t="s">
+      <c r="BA1" s="146" t="s">
         <v>106</v>
       </c>
-      <c r="BB1" s="143" t="s">
+      <c r="BB1" s="146" t="s">
         <v>107</v>
       </c>
-      <c r="BC1" s="142" t="s">
+      <c r="BC1" s="148" t="s">
         <v>108</v>
       </c>
-      <c r="BD1" s="142" t="s">
+      <c r="BD1" s="148" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A2" s="153"/>
+      <c r="A2" s="150"/>
       <c r="B2" s="139" t="s">
         <v>46</v>
       </c>
@@ -10689,9 +10735,9 @@
       <c r="M2" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
       <c r="Q2" s="139" t="s">
         <v>46</v>
       </c>
@@ -10782,16 +10828,16 @@
       <c r="AT2" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="142"/>
-      <c r="AW2" s="144"/>
-      <c r="AX2" s="144"/>
-      <c r="AY2" s="144"/>
-      <c r="AZ2" s="144"/>
-      <c r="BA2" s="144"/>
-      <c r="BB2" s="144"/>
-      <c r="BC2" s="142"/>
-      <c r="BD2" s="142"/>
+      <c r="AU2" s="148"/>
+      <c r="AV2" s="148"/>
+      <c r="AW2" s="147"/>
+      <c r="AX2" s="147"/>
+      <c r="AY2" s="147"/>
+      <c r="AZ2" s="147"/>
+      <c r="BA2" s="147"/>
+      <c r="BB2" s="147"/>
+      <c r="BC2" s="148"/>
+      <c r="BD2" s="148"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="140" t="s">
@@ -11606,12 +11652,12 @@
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="F15" s="40"/>
-      <c r="G15" s="179"/>
+      <c r="G15" s="142"/>
       <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="F16" s="40"/>
-      <c r="G16" s="179"/>
+      <c r="G16" s="142"/>
       <c r="H16" s="40"/>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.25">
@@ -11631,6 +11677,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="AZ1:AZ2"/>
+    <mergeCell ref="BB1:BB2"/>
+    <mergeCell ref="BD1:BD2"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="AY1:AY2"/>
+    <mergeCell ref="BA1:BA2"/>
+    <mergeCell ref="BC1:BC2"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="AX1:AX2"/>
     <mergeCell ref="AR1:AT1"/>
     <mergeCell ref="AU1:AU2"/>
     <mergeCell ref="AO1:AQ1"/>
@@ -11647,18 +11705,6 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="AX1:AX2"/>
-    <mergeCell ref="AZ1:AZ2"/>
-    <mergeCell ref="BB1:BB2"/>
-    <mergeCell ref="BD1:BD2"/>
-    <mergeCell ref="AW1:AW2"/>
-    <mergeCell ref="AY1:AY2"/>
-    <mergeCell ref="BA1:BA2"/>
-    <mergeCell ref="BC1:BC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/experiments/compas/results/all_results.xlsx
+++ b/experiments/compas/results/all_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\compas\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49E94C9-AD04-4BD8-A8D0-D20930185429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322BFE61-216F-46E1-9D92-CFEDFA299AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="30240" yWindow="585" windowWidth="24960" windowHeight="14055" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="compas-one-client" sheetId="4" r:id="rId1"/>
@@ -591,13 +591,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -609,38 +627,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
@@ -650,18 +662,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -979,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91775286-5ED5-4E96-8261-8DCB4AC2C91F}">
   <dimension ref="A1:AH21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH5" sqref="AH5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,74 +1008,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="30" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="27" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="30" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="30" t="s">
+      <c r="O1" s="37"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="30" t="s">
+      <c r="R1" s="37"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="31"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="30" t="s">
+      <c r="U1" s="37"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="27" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AA1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AB1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AC1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AD1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AF1" s="39" t="s">
+      <c r="AF1" s="28" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="16" t="s">
         <v>25</v>
       </c>
@@ -1094,9 +1094,9 @@
       <c r="G2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
       <c r="K2" s="16" t="s">
         <v>25</v>
       </c>
@@ -1142,34 +1142,34 @@
       <c r="Y2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="27"/>
-      <c r="AF2" s="40"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="33"/>
+      <c r="AF2" s="29"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="C3" s="3">
         <v>0.68400000000000005</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.68200000000000005</v>
-      </c>
       <c r="D3" s="3">
-        <v>0.68500000000000005</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="E3" s="3">
+        <v>0.313</v>
+      </c>
+      <c r="F3" s="3">
         <v>0.316</v>
       </c>
-      <c r="F3" s="3">
-        <v>0.318</v>
-      </c>
       <c r="G3" s="1">
-        <v>0.315</v>
+        <v>0.312</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>21</v>
@@ -1181,88 +1181,88 @@
         <v>17</v>
       </c>
       <c r="K3" s="6">
-        <v>161.80000000000001</v>
+        <v>157</v>
       </c>
       <c r="L3" s="6">
-        <v>19.3</v>
+        <v>18</v>
       </c>
       <c r="M3" s="6">
-        <v>142.5</v>
+        <v>139</v>
       </c>
       <c r="N3" s="6">
-        <v>71.599999999999994</v>
+        <v>65</v>
       </c>
       <c r="O3" s="6">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="P3" s="6">
-        <v>65.099999999999994</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="6">
-        <v>260.39999999999998</v>
+        <v>267</v>
       </c>
       <c r="R3" s="6">
-        <v>58.5</v>
+        <v>60</v>
       </c>
       <c r="S3" s="6">
-        <v>201.9</v>
+        <v>207</v>
       </c>
       <c r="T3" s="6">
-        <v>123.2</v>
+        <v>128</v>
       </c>
       <c r="U3" s="6">
-        <v>29.7</v>
+        <v>31</v>
       </c>
       <c r="V3" s="6">
-        <v>93.5</v>
+        <v>97</v>
       </c>
       <c r="W3" s="6">
-        <v>0.624</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="X3" s="6">
-        <v>0.51400000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="Y3" s="6">
-        <v>0.64200000000000002</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="Z3" s="6">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="AA3" s="11">
-        <v>-0.2099</v>
+        <v>-0.22159999999999999</v>
       </c>
       <c r="AB3" s="11">
-        <v>-0.18640000000000001</v>
+        <v>-0.19389999999999999</v>
       </c>
       <c r="AC3" s="11">
-        <v>-0.1769</v>
+        <v>-0.1847</v>
       </c>
       <c r="AD3" s="6">
-        <v>5.31</v>
-      </c>
-      <c r="AF3" s="40"/>
+        <v>5.14</v>
+      </c>
+      <c r="AF3" s="29"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="7">
-        <v>0.68600000000000005</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="C4" s="7">
-        <v>0.68799999999999994</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="D4" s="7">
-        <v>0.68600000000000005</v>
+        <v>0.68</v>
       </c>
       <c r="E4" s="7">
-        <v>0.314</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="F4" s="7">
-        <v>0.312</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="G4" s="7">
-        <v>0.314</v>
+        <v>0.32</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>15</v>
@@ -1274,89 +1274,77 @@
         <v>17</v>
       </c>
       <c r="K4" s="7">
-        <v>165.9</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7">
-        <v>21.6</v>
+        <v>20</v>
       </c>
       <c r="M4" s="7">
-        <v>144.30000000000001</v>
+        <v>144</v>
       </c>
       <c r="N4" s="7">
-        <v>74.5</v>
+        <v>77</v>
       </c>
       <c r="O4" s="7">
-        <v>8.1999999999999993</v>
+        <v>8</v>
       </c>
       <c r="P4" s="7">
-        <v>66.3</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="7">
-        <v>257.5</v>
+        <v>255</v>
       </c>
       <c r="R4" s="7">
-        <v>56.8</v>
+        <v>57</v>
       </c>
       <c r="S4" s="7">
-        <v>200.7</v>
+        <v>198</v>
       </c>
       <c r="T4" s="7">
-        <v>119.1</v>
+        <v>121</v>
       </c>
       <c r="U4" s="7">
-        <v>27.4</v>
+        <v>29</v>
       </c>
       <c r="V4" s="7">
-        <v>91.7</v>
+        <v>92</v>
       </c>
       <c r="W4" s="7">
-        <v>0.63100000000000001</v>
+        <v>0.624</v>
       </c>
       <c r="X4" s="7">
-        <v>0.54800000000000004</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="Y4" s="7">
-        <v>0.64600000000000002</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="Z4" s="7">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="AA4" s="13">
-        <v>-0.1706</v>
+        <v>-0.20200000000000001</v>
       </c>
       <c r="AB4" s="13">
-        <v>-0.1573</v>
+        <v>-0.17780000000000001</v>
       </c>
       <c r="AC4" s="13">
-        <v>-0.1464</v>
+        <v>-0.16869999999999999</v>
       </c>
       <c r="AD4" s="7">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AF4" s="40"/>
+        <v>8.24</v>
+      </c>
+      <c r="AF4" s="29"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.314</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.312</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1366,67 +1354,27 @@
       <c r="J5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="6">
-        <v>158.5</v>
-      </c>
-      <c r="L5" s="6">
-        <v>17</v>
-      </c>
-      <c r="M5" s="6">
-        <v>141.5</v>
-      </c>
-      <c r="N5" s="6">
-        <v>67.2</v>
-      </c>
-      <c r="O5" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="P5" s="6">
-        <v>62.4</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>264.8</v>
-      </c>
-      <c r="R5" s="6">
-        <v>60.2</v>
-      </c>
-      <c r="S5" s="6">
-        <v>204.6</v>
-      </c>
-      <c r="T5" s="6">
-        <v>126.5</v>
-      </c>
-      <c r="U5" s="6">
-        <v>32</v>
-      </c>
-      <c r="V5" s="6">
-        <v>94.5</v>
-      </c>
-      <c r="W5" s="6">
-        <v>0.621</v>
-      </c>
-      <c r="X5" s="6">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="Y5" s="6">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="Z5" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="AA5" s="11">
-        <v>-0.25259999999999999</v>
-      </c>
-      <c r="AB5" s="11">
-        <v>-0.21410000000000001</v>
-      </c>
-      <c r="AC5" s="11">
-        <v>-0.20619999999999999</v>
-      </c>
-      <c r="AD5" s="6">
-        <v>7.35</v>
-      </c>
-      <c r="AF5" s="40"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="6"/>
+      <c r="AF5" s="29"/>
       <c r="AH5" t="s">
         <v>82</v>
       </c>
@@ -1435,24 +1383,12 @@
       <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.68</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.317</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.307</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.32</v>
-      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="10" t="s">
         <v>15</v>
       </c>
@@ -1462,90 +1398,38 @@
       <c r="J6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="9">
-        <v>163.80000000000001</v>
-      </c>
-      <c r="L6" s="9">
-        <v>21.2</v>
-      </c>
-      <c r="M6" s="9">
-        <v>142.6</v>
-      </c>
-      <c r="N6" s="9">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="O6" s="9">
-        <v>7.2</v>
-      </c>
-      <c r="P6" s="9">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>257.39999999999998</v>
-      </c>
-      <c r="R6" s="9">
-        <v>57.8</v>
-      </c>
-      <c r="S6" s="9">
-        <v>199.6</v>
-      </c>
-      <c r="T6" s="9">
-        <v>121.2</v>
-      </c>
-      <c r="U6" s="9">
-        <v>27.8</v>
-      </c>
-      <c r="V6" s="9">
-        <v>93.4</v>
-      </c>
-      <c r="W6" s="9">
-        <v>0.626</v>
-      </c>
-      <c r="X6" s="9">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>0.64</v>
-      </c>
-      <c r="AA6" s="12">
-        <v>-0.1716</v>
-      </c>
-      <c r="AB6" s="12">
-        <v>-0.16839999999999999</v>
-      </c>
-      <c r="AC6" s="12">
-        <v>-0.15659999999999999</v>
-      </c>
-      <c r="AD6" s="9">
-        <v>9.73</v>
-      </c>
-      <c r="AF6" s="40"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="9"/>
+      <c r="AF6" s="29"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.316</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.314</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="4" t="s">
         <v>33</v>
       </c>
@@ -1555,90 +1439,38 @@
       <c r="J7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="6">
-        <v>161</v>
-      </c>
-      <c r="L7" s="6">
-        <v>16.5</v>
-      </c>
-      <c r="M7" s="6">
-        <v>144.5</v>
-      </c>
-      <c r="N7" s="6">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="O7" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="P7" s="6">
-        <v>66.2</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>261.10000000000002</v>
-      </c>
-      <c r="R7" s="6">
-        <v>60.3</v>
-      </c>
-      <c r="S7" s="6">
-        <v>200.8</v>
-      </c>
-      <c r="T7" s="6">
-        <v>124</v>
-      </c>
-      <c r="U7" s="6">
-        <v>32.5</v>
-      </c>
-      <c r="V7" s="6">
-        <v>91.5</v>
-      </c>
-      <c r="W7" s="6">
-        <v>0.623</v>
-      </c>
-      <c r="X7" s="6">
-        <v>0.47</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="Z7" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="AA7" s="11">
-        <v>-0.27560000000000001</v>
-      </c>
-      <c r="AB7" s="11">
-        <v>-0.2329</v>
-      </c>
-      <c r="AC7" s="11">
-        <v>-0.22559999999999999</v>
-      </c>
-      <c r="AD7" s="6">
-        <v>9.27</v>
-      </c>
-      <c r="AF7" s="40"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="6"/>
+      <c r="AF7" s="29"/>
     </row>
     <row r="8" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="7">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.316</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.32200000000000001</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="10" t="s">
         <v>39</v>
       </c>
@@ -1648,154 +1480,114 @@
       <c r="J8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="9">
-        <v>164</v>
-      </c>
-      <c r="L8" s="9">
-        <v>21</v>
-      </c>
-      <c r="M8" s="9">
-        <v>143</v>
-      </c>
-      <c r="N8" s="9">
-        <v>77</v>
-      </c>
-      <c r="O8" s="9">
-        <v>8</v>
-      </c>
-      <c r="P8" s="9">
-        <v>69</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>255</v>
-      </c>
-      <c r="R8" s="9">
-        <v>57</v>
-      </c>
-      <c r="S8" s="9">
-        <v>198</v>
-      </c>
-      <c r="T8" s="9">
-        <v>121</v>
-      </c>
-      <c r="U8" s="9">
-        <v>28</v>
-      </c>
-      <c r="V8" s="9">
-        <v>93</v>
-      </c>
-      <c r="W8" s="9">
-        <v>0.622</v>
-      </c>
-      <c r="X8" s="9">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="Y8" s="9">
-        <v>0.63700000000000001</v>
-      </c>
-      <c r="Z8" s="9">
-        <v>0.66</v>
-      </c>
-      <c r="AA8" s="9">
-        <v>-0.1774</v>
-      </c>
-      <c r="AB8" s="9">
-        <v>-0.1671</v>
-      </c>
-      <c r="AC8" s="9">
-        <v>-0.15640000000000001</v>
-      </c>
-      <c r="AD8" s="9">
-        <v>98.24</v>
-      </c>
-      <c r="AF8" s="41"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AF8" s="30"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AF9" s="19"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
     </row>
     <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="30" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="42" t="s">
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="27" t="s">
+      <c r="L12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="34" t="s">
+      <c r="M12" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="30" t="s">
+      <c r="N12" s="42"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="30" t="s">
+      <c r="Q12" s="37"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="T12" s="31"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="30" t="s">
+      <c r="T12" s="37"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="W12" s="31"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="30" t="s">
+      <c r="W12" s="37"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="27" t="s">
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AC12" s="28" t="s">
+      <c r="AC12" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="AD12" s="28" t="s">
+      <c r="AD12" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="AE12" s="28" t="s">
+      <c r="AE12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AF12" s="27" t="s">
+      <c r="AF12" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AH12" s="39" t="s">
+      <c r="AH12" s="28" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="17" t="s">
         <v>25</v>
       </c>
@@ -1814,11 +1606,11 @@
       <c r="G13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
       <c r="M13" s="17" t="s">
         <v>25</v>
       </c>
@@ -1864,12 +1656,12 @@
       <c r="AA13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="27"/>
-      <c r="AH13" s="40"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="33"/>
+      <c r="AH13" s="29"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -1968,7 +1760,7 @@
       <c r="AF14" s="6">
         <v>15.22</v>
       </c>
-      <c r="AH14" s="40"/>
+      <c r="AH14" s="29"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
@@ -2067,7 +1859,7 @@
       <c r="AF15" s="7">
         <v>13.54</v>
       </c>
-      <c r="AH15" s="40"/>
+      <c r="AH15" s="29"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
@@ -2166,7 +1958,7 @@
       <c r="AF16" s="6">
         <v>12.61</v>
       </c>
-      <c r="AH16" s="40"/>
+      <c r="AH16" s="29"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
@@ -2265,7 +2057,7 @@
       <c r="AF17" s="9">
         <v>15.31</v>
       </c>
-      <c r="AH17" s="40"/>
+      <c r="AH17" s="29"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
@@ -2364,7 +2156,7 @@
       <c r="AF18" s="6">
         <v>1.62</v>
       </c>
-      <c r="AH18" s="40"/>
+      <c r="AH18" s="29"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
@@ -2463,7 +2255,7 @@
       <c r="AF19" s="9">
         <v>22.7</v>
       </c>
-      <c r="AH19" s="40"/>
+      <c r="AH19" s="29"/>
     </row>
     <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -2562,7 +2354,7 @@
       <c r="AF20" s="6">
         <v>1.61</v>
       </c>
-      <c r="AH20" s="40"/>
+      <c r="AH20" s="29"/>
     </row>
     <row r="21" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
@@ -2661,15 +2453,26 @@
       <c r="AF21" s="9">
         <v>22.56</v>
       </c>
-      <c r="AH21" s="41"/>
+      <c r="AH21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AH12:AH21"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
     <mergeCell ref="AF1:AF8"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:D12"/>
@@ -2686,22 +2489,11 @@
     <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="AB12:AB13"/>
     <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AH12:AH21"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="AF12:AF13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2712,7 +2504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80701A8F-7759-45F4-A607-162CF246F76F}">
   <dimension ref="A1:BH33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="BC8" sqref="BC8"/>
     </sheetView>
   </sheetViews>
@@ -2720,7 +2512,7 @@
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" style="27" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -2728,124 +2520,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="30" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="30" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="30" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="27" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="35"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="34" t="s">
+      <c r="R1" s="42"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="35"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="30" t="s">
+      <c r="U1" s="42"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="30" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="30" t="s">
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="30" t="s">
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="30" t="s">
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="30" t="s">
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="30" t="s">
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="30" t="s">
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="27" t="s">
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="AV1" s="27" t="s">
+      <c r="AV1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AW1" s="28" t="s">
+      <c r="AW1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="AX1" s="28" t="s">
+      <c r="AX1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="AY1" s="28" t="s">
+      <c r="AY1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="AZ1" s="28" t="s">
+      <c r="AZ1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="BA1" s="28" t="s">
+      <c r="BA1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="BB1" s="28" t="s">
+      <c r="BB1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="BC1" s="27" t="s">
+      <c r="BC1" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="BD1" s="27" t="s">
+      <c r="BD1" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="BF1" s="44" t="s">
+      <c r="BF1" s="48" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
@@ -2882,9 +2674,9 @@
       <c r="M2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
       <c r="Q2" s="22" t="s">
         <v>25</v>
       </c>
@@ -2975,17 +2767,17 @@
       <c r="AT2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="29"/>
-      <c r="AX2" s="29"/>
-      <c r="AY2" s="29"/>
-      <c r="AZ2" s="29"/>
-      <c r="BA2" s="29"/>
-      <c r="BB2" s="29"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="27"/>
-      <c r="BF2" s="45"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="32"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="32"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="33"/>
+      <c r="BD2" s="33"/>
+      <c r="BF2" s="49"/>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -3156,7 +2948,7 @@
       <c r="BD3" s="6">
         <v>2.58</v>
       </c>
-      <c r="BF3" s="45"/>
+      <c r="BF3" s="49"/>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -3327,7 +3119,7 @@
       <c r="BD4" s="7">
         <v>4.1900000000000004</v>
       </c>
-      <c r="BF4" s="45"/>
+      <c r="BF4" s="49"/>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
@@ -3498,7 +3290,7 @@
       <c r="BD5" s="6">
         <v>3.76</v>
       </c>
-      <c r="BF5" s="45"/>
+      <c r="BF5" s="49"/>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
@@ -3669,7 +3461,7 @@
       <c r="BD6" s="9">
         <v>4.87</v>
       </c>
-      <c r="BF6" s="45"/>
+      <c r="BF6" s="49"/>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -3840,7 +3632,7 @@
       <c r="BD7" s="6">
         <v>3.55</v>
       </c>
-      <c r="BF7" s="45"/>
+      <c r="BF7" s="49"/>
     </row>
     <row r="8" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
@@ -3907,134 +3699,134 @@
       <c r="BB8" s="9"/>
       <c r="BC8" s="9"/>
       <c r="BD8" s="9"/>
-      <c r="BF8" s="46"/>
+      <c r="BF8" s="50"/>
     </row>
     <row r="11" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="30" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="30" t="s">
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="30" t="s">
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="42" t="s">
+      <c r="L12" s="37"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="O12" s="42" t="s">
+      <c r="O12" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="27" t="s">
+      <c r="P12" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="27" t="s">
+      <c r="Q12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="R12" s="27" t="s">
+      <c r="R12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="34" t="s">
+      <c r="S12" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="T12" s="35"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="34" t="s">
+      <c r="T12" s="42"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="W12" s="35"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="30" t="s">
+      <c r="W12" s="42"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="30" t="s">
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="30" t="s">
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="32"/>
-      <c r="AH12" s="30" t="s">
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="30" t="s">
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="AL12" s="31"/>
-      <c r="AM12" s="32"/>
-      <c r="AN12" s="30" t="s">
+      <c r="AL12" s="37"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="AO12" s="31"/>
-      <c r="AP12" s="32"/>
-      <c r="AQ12" s="30" t="s">
+      <c r="AO12" s="37"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="AR12" s="31"/>
-      <c r="AS12" s="32"/>
-      <c r="AT12" s="30" t="s">
+      <c r="AR12" s="37"/>
+      <c r="AS12" s="38"/>
+      <c r="AT12" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AU12" s="31"/>
-      <c r="AV12" s="32"/>
-      <c r="AW12" s="27" t="s">
+      <c r="AU12" s="37"/>
+      <c r="AV12" s="38"/>
+      <c r="AW12" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="AX12" s="27" t="s">
+      <c r="AX12" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AY12" s="28" t="s">
+      <c r="AY12" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="AZ12" s="28" t="s">
+      <c r="AZ12" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="BA12" s="28" t="s">
+      <c r="BA12" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="BB12" s="28" t="s">
+      <c r="BB12" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="BC12" s="28" t="s">
+      <c r="BC12" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="BD12" s="28" t="s">
+      <c r="BD12" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="BE12" s="27" t="s">
+      <c r="BE12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="BF12" s="27" t="s">
+      <c r="BF12" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="BH12" s="47" t="s">
+      <c r="BH12" s="45" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="25" t="s">
         <v>25</v>
       </c>
@@ -4071,11 +3863,11 @@
       <c r="M13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
       <c r="S13" s="25" t="s">
         <v>25</v>
       </c>
@@ -4166,17 +3958,17 @@
       <c r="AV13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AW13" s="27"/>
-      <c r="AX13" s="27"/>
-      <c r="AY13" s="29"/>
-      <c r="AZ13" s="29"/>
-      <c r="BA13" s="29"/>
-      <c r="BB13" s="29"/>
-      <c r="BC13" s="29"/>
-      <c r="BD13" s="29"/>
-      <c r="BE13" s="27"/>
-      <c r="BF13" s="27"/>
-      <c r="BH13" s="48"/>
+      <c r="AW13" s="33"/>
+      <c r="AX13" s="33"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="32"/>
+      <c r="BA13" s="32"/>
+      <c r="BB13" s="32"/>
+      <c r="BC13" s="32"/>
+      <c r="BD13" s="32"/>
+      <c r="BE13" s="33"/>
+      <c r="BF13" s="33"/>
+      <c r="BH13" s="46"/>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
@@ -4249,7 +4041,7 @@
       <c r="BD14" s="11"/>
       <c r="BE14" s="6"/>
       <c r="BF14" s="6"/>
-      <c r="BH14" s="48"/>
+      <c r="BH14" s="46"/>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
@@ -4318,7 +4110,7 @@
       <c r="BD15" s="13"/>
       <c r="BE15" s="7"/>
       <c r="BF15" s="7"/>
-      <c r="BH15" s="48"/>
+      <c r="BH15" s="46"/>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
@@ -4387,7 +4179,7 @@
       <c r="BD16" s="11"/>
       <c r="BE16" s="6"/>
       <c r="BF16" s="6"/>
-      <c r="BH16" s="48"/>
+      <c r="BH16" s="46"/>
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
@@ -4456,7 +4248,7 @@
       <c r="BD17" s="12"/>
       <c r="BE17" s="9"/>
       <c r="BF17" s="9"/>
-      <c r="BH17" s="48"/>
+      <c r="BH17" s="46"/>
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
@@ -4525,7 +4317,7 @@
       <c r="BD18" s="11"/>
       <c r="BE18" s="6"/>
       <c r="BF18" s="6"/>
-      <c r="BH18" s="48"/>
+      <c r="BH18" s="46"/>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
@@ -4594,7 +4386,7 @@
       <c r="BD19" s="9"/>
       <c r="BE19" s="9"/>
       <c r="BF19" s="9"/>
-      <c r="BH19" s="48"/>
+      <c r="BH19" s="46"/>
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
@@ -4663,7 +4455,7 @@
       <c r="BD20" s="11"/>
       <c r="BE20" s="6"/>
       <c r="BF20" s="6"/>
-      <c r="BH20" s="48"/>
+      <c r="BH20" s="46"/>
     </row>
     <row r="21" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
@@ -4732,35 +4524,35 @@
       <c r="BD21" s="9"/>
       <c r="BE21" s="9"/>
       <c r="BF21" s="9"/>
-      <c r="BH21" s="49"/>
+      <c r="BH21" s="47"/>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="31" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
@@ -4889,6 +4681,56 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="AZ1:AZ2"/>
+    <mergeCell ref="BB1:BB2"/>
+    <mergeCell ref="BD1:BD2"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="AY1:AY2"/>
+    <mergeCell ref="BA1:BA2"/>
+    <mergeCell ref="BC1:BC2"/>
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="AU1:AU2"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="BF1:BF8"/>
+    <mergeCell ref="BE12:BE13"/>
+    <mergeCell ref="BF12:BF13"/>
+    <mergeCell ref="AW12:AW13"/>
+    <mergeCell ref="AX12:AX13"/>
+    <mergeCell ref="AY12:AY13"/>
+    <mergeCell ref="AZ12:AZ13"/>
+    <mergeCell ref="BA12:BA13"/>
     <mergeCell ref="BH12:BH21"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
@@ -4899,62 +4741,12 @@
     <mergeCell ref="BB12:BB13"/>
     <mergeCell ref="BC12:BC13"/>
     <mergeCell ref="BD12:BD13"/>
-    <mergeCell ref="BF1:BF8"/>
-    <mergeCell ref="BE12:BE13"/>
-    <mergeCell ref="BF12:BF13"/>
-    <mergeCell ref="AW12:AW13"/>
-    <mergeCell ref="AX12:AX13"/>
-    <mergeCell ref="AY12:AY13"/>
-    <mergeCell ref="AZ12:AZ13"/>
-    <mergeCell ref="BA12:BA13"/>
     <mergeCell ref="AK12:AM12"/>
     <mergeCell ref="AN12:AP12"/>
     <mergeCell ref="AQ12:AS12"/>
     <mergeCell ref="AT12:AV12"/>
     <mergeCell ref="V12:X12"/>
     <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="AX1:AX2"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="AU1:AU2"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="AZ1:AZ2"/>
-    <mergeCell ref="BB1:BB2"/>
-    <mergeCell ref="BD1:BD2"/>
-    <mergeCell ref="AW1:AW2"/>
-    <mergeCell ref="AY1:AY2"/>
-    <mergeCell ref="BA1:BA2"/>
-    <mergeCell ref="BC1:BC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/experiments/compas/results/all_results.xlsx
+++ b/experiments/compas/results/all_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\compas\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322BFE61-216F-46E1-9D92-CFEDFA299AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A04751-FA33-4999-BEB5-13914AB5E49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="585" windowWidth="24960" windowHeight="14055" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="29820" yWindow="630" windowWidth="24960" windowHeight="14055" activeTab="1" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="compas-one-client" sheetId="4" r:id="rId1"/>
@@ -35,8 +35,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={02E102A8-1AB9-431A-A12B-7788F3761BB3}</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{02E102A8-1AB9-431A-A12B-7788F3761BB3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    we want these results to be equivalent to the plain one since there is no distribution shift experienced by the client themselves.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="88">
   <si>
     <t>Model</t>
   </si>
@@ -287,16 +305,19 @@
     <t>need to rerun with seed everything in the right place</t>
   </si>
   <si>
-    <t>1:  1e-4, 2:1e-4</t>
-  </si>
-  <si>
     <t>1: 1.5e-3, 2: 1e-3</t>
   </si>
   <si>
-    <t>1: 1.1e-3, 2: 3e-3</t>
-  </si>
-  <si>
-    <t>o:1e-5, i1: .058, i2: .017</t>
+    <t>1: 100, 2: 150</t>
+  </si>
+  <si>
+    <t>1: 1.1e-3, 2: 5e-3</t>
+  </si>
+  <si>
+    <t>1: 100, 2: 60</t>
+  </si>
+  <si>
+    <t>1: 1e-4, 2:1.1e-4</t>
   </si>
 </sst>
 </file>
@@ -306,7 +327,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +360,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -594,6 +621,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -603,47 +666,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -653,15 +689,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,6 +705,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Alycia Carey" id="{65FBD110-50DD-4D4B-9744-3B20C8A2AC53}" userId="S::ancarey@uark.edu::30147368-90ec-45ea-b74c-104efeaf6ef4" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -975,107 +1008,116 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A5" dT="2022-04-03T19:42:23.91" personId="{65FBD110-50DD-4D4B-9744-3B20C8A2AC53}" id="{02E102A8-1AB9-431A-A12B-7788F3761BB3}">
+    <text>we want these results to be equivalent to the plain one since there is no distribution shift experienced by the client themselves.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91775286-5ED5-4E96-8261-8DCB4AC2C91F}">
   <dimension ref="A1:AH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" customWidth="1"/>
+    <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="7" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8.28515625" customWidth="1"/>
     <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="36" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="36" t="s">
+      <c r="O1" s="32"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="36" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="37"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="36" t="s">
+      <c r="U1" s="32"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="33" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="31" t="s">
+      <c r="AA1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="31" t="s">
+      <c r="AB1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="31" t="s">
+      <c r="AC1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AD1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AF1" s="40" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="16" t="s">
         <v>25</v>
       </c>
@@ -1094,9 +1136,9 @@
       <c r="G2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
       <c r="K2" s="16" t="s">
         <v>25</v>
       </c>
@@ -1142,12 +1184,12 @@
       <c r="Y2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="33"/>
-      <c r="AF2" s="29"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="28"/>
+      <c r="AF2" s="41"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -1240,7 +1282,7 @@
       <c r="AD3" s="6">
         <v>5.14</v>
       </c>
-      <c r="AF3" s="29"/>
+      <c r="AF3" s="41"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -1333,18 +1375,30 @@
       <c r="AD4" s="7">
         <v>8.24</v>
       </c>
-      <c r="AF4" s="29"/>
+      <c r="AF4" s="41"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="B5" s="2">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.316</v>
+      </c>
       <c r="H5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1354,27 +1408,67 @@
       <c r="J5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="6"/>
-      <c r="AF5" s="29"/>
+      <c r="K5" s="6">
+        <v>157</v>
+      </c>
+      <c r="L5" s="6">
+        <v>16</v>
+      </c>
+      <c r="M5" s="6">
+        <v>141</v>
+      </c>
+      <c r="N5" s="6">
+        <v>69</v>
+      </c>
+      <c r="O5" s="6">
+        <v>5</v>
+      </c>
+      <c r="P5" s="6">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>263</v>
+      </c>
+      <c r="R5" s="6">
+        <v>60</v>
+      </c>
+      <c r="S5" s="6">
+        <v>203</v>
+      </c>
+      <c r="T5" s="6">
+        <v>128</v>
+      </c>
+      <c r="U5" s="6">
+        <v>33</v>
+      </c>
+      <c r="V5" s="6">
+        <v>95</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>-0.27089999999999997</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>-0.2233</v>
+      </c>
+      <c r="AC5" s="11">
+        <v>-0.21690000000000001</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>7.58</v>
+      </c>
+      <c r="AF5" s="41"/>
       <c r="AH5" t="s">
         <v>82</v>
       </c>
@@ -1383,12 +1477,24 @@
       <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="B6" s="7">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.311</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.314</v>
+      </c>
       <c r="H6" s="10" t="s">
         <v>15</v>
       </c>
@@ -1398,38 +1504,90 @@
       <c r="J6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="9"/>
-      <c r="AF6" s="29"/>
+      <c r="K6" s="9">
+        <v>164</v>
+      </c>
+      <c r="L6" s="9">
+        <v>22</v>
+      </c>
+      <c r="M6" s="9">
+        <v>142</v>
+      </c>
+      <c r="N6" s="9">
+        <v>71</v>
+      </c>
+      <c r="O6" s="9">
+        <v>7</v>
+      </c>
+      <c r="P6" s="9">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>261</v>
+      </c>
+      <c r="R6" s="9">
+        <v>58</v>
+      </c>
+      <c r="S6" s="9">
+        <v>203</v>
+      </c>
+      <c r="T6" s="9">
+        <v>121</v>
+      </c>
+      <c r="U6" s="9">
+        <v>27</v>
+      </c>
+      <c r="V6" s="9">
+        <v>94</v>
+      </c>
+      <c r="W6" s="9">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="X6" s="9">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0.61</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>-0.1527</v>
+      </c>
+      <c r="AB6" s="12">
+        <v>-0.1552</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>-0.1424</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>9.64</v>
+      </c>
+      <c r="AF6" s="41"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="B7" s="2">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.316</v>
+      </c>
       <c r="H7" s="4" t="s">
         <v>33</v>
       </c>
@@ -1439,38 +1597,90 @@
       <c r="J7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="6"/>
-      <c r="AF7" s="29"/>
+      <c r="K7" s="6">
+        <v>158</v>
+      </c>
+      <c r="L7" s="6">
+        <v>15</v>
+      </c>
+      <c r="M7" s="6">
+        <v>143</v>
+      </c>
+      <c r="N7" s="6">
+        <v>71</v>
+      </c>
+      <c r="O7" s="6">
+        <v>5</v>
+      </c>
+      <c r="P7" s="6">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>261</v>
+      </c>
+      <c r="R7" s="6">
+        <v>60</v>
+      </c>
+      <c r="S7" s="6">
+        <v>201</v>
+      </c>
+      <c r="T7" s="6">
+        <v>127</v>
+      </c>
+      <c r="U7" s="6">
+        <v>34</v>
+      </c>
+      <c r="V7" s="6">
+        <v>93</v>
+      </c>
+      <c r="W7" s="6">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="X7" s="6">
+        <v>0.435</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>-0.29980000000000001</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>-0.24010000000000001</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>-0.23499999999999999</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>9.36</v>
+      </c>
+      <c r="AF7" s="41"/>
     </row>
     <row r="8" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="B8" s="7">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.316</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.316</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.316</v>
+      </c>
       <c r="H8" s="10" t="s">
         <v>39</v>
       </c>
@@ -1480,114 +1690,154 @@
       <c r="J8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AF8" s="30"/>
+      <c r="K8" s="9">
+        <v>176</v>
+      </c>
+      <c r="L8" s="9">
+        <v>21</v>
+      </c>
+      <c r="M8" s="9">
+        <v>155</v>
+      </c>
+      <c r="N8" s="9">
+        <v>86</v>
+      </c>
+      <c r="O8" s="9">
+        <v>8</v>
+      </c>
+      <c r="P8" s="9">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>246</v>
+      </c>
+      <c r="R8" s="9">
+        <v>57</v>
+      </c>
+      <c r="S8" s="9">
+        <v>189</v>
+      </c>
+      <c r="T8" s="9">
+        <v>109</v>
+      </c>
+      <c r="U8" s="9">
+        <v>28</v>
+      </c>
+      <c r="V8" s="9">
+        <v>81</v>
+      </c>
+      <c r="W8" s="9">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="X8" s="9">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0.64</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>-0.22819999999999999</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>-0.20880000000000001</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>-0.1986</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>100.81</v>
+      </c>
+      <c r="AF8" s="42"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AF9" s="19"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
     </row>
     <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="36" t="s">
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39" t="s">
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="33" t="s">
+      <c r="L12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="41" t="s">
+      <c r="M12" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="42"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="36" t="s">
+      <c r="N12" s="36"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="36" t="s">
+      <c r="Q12" s="32"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="T12" s="37"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="36" t="s">
+      <c r="T12" s="32"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="W12" s="37"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="36" t="s">
+      <c r="W12" s="32"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="33" t="s">
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AC12" s="31" t="s">
+      <c r="AC12" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="AD12" s="31" t="s">
+      <c r="AD12" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AE12" s="31" t="s">
+      <c r="AE12" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AF12" s="33" t="s">
+      <c r="AF12" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AH12" s="28" t="s">
+      <c r="AH12" s="40" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="17" t="s">
         <v>25</v>
       </c>
@@ -1606,11 +1856,11 @@
       <c r="G13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
       <c r="M13" s="17" t="s">
         <v>25</v>
       </c>
@@ -1656,12 +1906,12 @@
       <c r="AA13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="32"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="33"/>
-      <c r="AH13" s="29"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="28"/>
+      <c r="AH13" s="41"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -1760,7 +2010,7 @@
       <c r="AF14" s="6">
         <v>15.22</v>
       </c>
-      <c r="AH14" s="29"/>
+      <c r="AH14" s="41"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
@@ -1859,7 +2109,7 @@
       <c r="AF15" s="7">
         <v>13.54</v>
       </c>
-      <c r="AH15" s="29"/>
+      <c r="AH15" s="41"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
@@ -1958,7 +2208,7 @@
       <c r="AF16" s="6">
         <v>12.61</v>
       </c>
-      <c r="AH16" s="29"/>
+      <c r="AH16" s="41"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
@@ -2057,7 +2307,7 @@
       <c r="AF17" s="9">
         <v>15.31</v>
       </c>
-      <c r="AH17" s="29"/>
+      <c r="AH17" s="41"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
@@ -2156,7 +2406,7 @@
       <c r="AF18" s="6">
         <v>1.62</v>
       </c>
-      <c r="AH18" s="29"/>
+      <c r="AH18" s="41"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
@@ -2255,7 +2505,7 @@
       <c r="AF19" s="9">
         <v>22.7</v>
       </c>
-      <c r="AH19" s="29"/>
+      <c r="AH19" s="41"/>
     </row>
     <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -2354,7 +2604,7 @@
       <c r="AF20" s="6">
         <v>1.61</v>
       </c>
-      <c r="AH20" s="29"/>
+      <c r="AH20" s="41"/>
     </row>
     <row r="21" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
@@ -2453,26 +2703,15 @@
       <c r="AF21" s="9">
         <v>22.56</v>
       </c>
-      <c r="AH21" s="30"/>
+      <c r="AH21" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="AH12:AH21"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="AF12:AF13"/>
     <mergeCell ref="AF1:AF8"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:D12"/>
@@ -2489,11 +2728,22 @@
     <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="AB12:AB13"/>
     <mergeCell ref="T1:V1"/>
-    <mergeCell ref="AH12:AH21"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2501,11 +2751,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80701A8F-7759-45F4-A607-162CF246F76F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80701A8F-7759-45F4-A607-162CF246F76F}">
   <dimension ref="A1:BH33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BC8" sqref="BC8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2520,124 +2770,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="36" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="36" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="42"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="41" t="s">
+      <c r="R1" s="36"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="42"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="36" t="s">
+      <c r="U1" s="36"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="36" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="36" t="s">
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="36" t="s">
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="36" t="s">
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="36" t="s">
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="36" t="s">
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="36" t="s">
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="33" t="s">
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AV1" s="33" t="s">
+      <c r="AV1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="AW1" s="31" t="s">
+      <c r="AW1" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AX1" s="31" t="s">
+      <c r="AX1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AY1" s="31" t="s">
+      <c r="AY1" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AZ1" s="31" t="s">
+      <c r="AZ1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="BA1" s="31" t="s">
+      <c r="BA1" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="BB1" s="31" t="s">
+      <c r="BB1" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="BC1" s="33" t="s">
+      <c r="BC1" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="BD1" s="33" t="s">
+      <c r="BD1" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="BF1" s="48" t="s">
+      <c r="BF1" s="45" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
@@ -2674,9 +2924,9 @@
       <c r="M2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
       <c r="Q2" s="22" t="s">
         <v>25</v>
       </c>
@@ -2767,17 +3017,17 @@
       <c r="AT2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32"/>
-      <c r="BC2" s="33"/>
-      <c r="BD2" s="33"/>
-      <c r="BF2" s="49"/>
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="30"/>
+      <c r="AZ2" s="30"/>
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="30"/>
+      <c r="BC2" s="28"/>
+      <c r="BD2" s="28"/>
+      <c r="BF2" s="46"/>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -2948,7 +3198,7 @@
       <c r="BD3" s="6">
         <v>2.58</v>
       </c>
-      <c r="BF3" s="49"/>
+      <c r="BF3" s="46"/>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -2991,7 +3241,7 @@
         <v>0.26800000000000002</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O4" s="10" t="s">
         <v>16</v>
@@ -3119,83 +3369,83 @@
       <c r="BD4" s="7">
         <v>4.1900000000000004</v>
       </c>
-      <c r="BF4" s="49"/>
+      <c r="BF4" s="46"/>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>0.68</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="C5" s="2">
-        <v>0.73099999999999998</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="D5" s="2">
-        <v>0.66900000000000004</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="E5" s="2">
         <v>0.71699999999999997</v>
       </c>
       <c r="F5" s="2">
-        <v>0.69599999999999995</v>
+        <v>0.71</v>
       </c>
       <c r="G5" s="2">
-        <v>0.72299999999999998</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="H5" s="2">
-        <v>0.32</v>
+        <v>0.317</v>
       </c>
       <c r="I5" s="2">
-        <v>0.26900000000000002</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="J5" s="2">
-        <v>0.33100000000000002</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="K5" s="2">
         <v>0.28299999999999997</v>
       </c>
       <c r="L5" s="2">
-        <v>0.30399999999999999</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M5" s="2">
-        <v>0.27700000000000002</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="6">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="R5" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S5" s="6">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="T5" s="6">
         <v>39</v>
       </c>
       <c r="U5" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V5" s="6">
+        <v>33</v>
+      </c>
+      <c r="W5" s="6">
+        <v>38</v>
+      </c>
+      <c r="X5" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="6">
         <v>34</v>
-      </c>
-      <c r="W5" s="6">
-        <v>32</v>
-      </c>
-      <c r="X5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="6">
-        <v>31</v>
       </c>
       <c r="Z5" s="6">
         <v>16</v>
@@ -3207,13 +3457,13 @@
         <v>12</v>
       </c>
       <c r="AC5" s="6">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AD5" s="6">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE5" s="6">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AF5" s="6">
         <v>176</v>
@@ -3225,112 +3475,112 @@
         <v>133</v>
       </c>
       <c r="AI5" s="6">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="AJ5" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK5" s="6">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AL5" s="6">
         <v>69</v>
       </c>
       <c r="AM5" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN5" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AO5" s="6">
-        <v>0.68600000000000005</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="AP5" s="6">
-        <v>0.46200000000000002</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="AQ5" s="6">
-        <v>0.70699999999999996</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="AR5" s="6">
         <v>0.47899999999999998</v>
       </c>
       <c r="AS5" s="6">
-        <v>0.32300000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="AT5" s="6">
-        <v>0.51500000000000001</v>
+        <v>0.504</v>
       </c>
       <c r="AU5" s="6">
-        <v>0.68600000000000005</v>
+        <v>0.64</v>
       </c>
       <c r="AV5" s="6">
         <v>0.64</v>
       </c>
       <c r="AW5" s="11">
-        <v>-0.34420000000000001</v>
+        <v>-0.27229999999999999</v>
       </c>
       <c r="AX5" s="11">
-        <v>-0.1681</v>
+        <v>-0.111</v>
       </c>
       <c r="AY5" s="11">
-        <v>-0.3896</v>
+        <v>-0.32569999999999999</v>
       </c>
       <c r="AZ5" s="11">
-        <v>-6.8699999999999997E-2</v>
+        <v>-4.99E-2</v>
       </c>
       <c r="BA5" s="11">
-        <v>-0.31509999999999999</v>
+        <v>-0.249</v>
       </c>
       <c r="BB5" s="11">
-        <v>-8.2900000000000001E-2</v>
+        <v>-5.4300000000000001E-2</v>
       </c>
       <c r="BC5" s="6">
-        <v>6.06</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="BD5" s="6">
-        <v>3.76</v>
-      </c>
-      <c r="BF5" s="49"/>
+        <v>26.24</v>
+      </c>
+      <c r="BF5" s="46"/>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="7">
-        <v>0.69299999999999995</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="C6" s="7">
-        <v>0.69199999999999995</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="D6" s="7">
-        <v>0.69399999999999995</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="E6" s="7">
-        <v>0.73699999999999999</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="F6" s="7">
         <v>0.73899999999999999</v>
       </c>
       <c r="G6" s="7">
-        <v>0.73599999999999999</v>
+        <v>0.745</v>
       </c>
       <c r="H6" s="7">
-        <v>0.307</v>
+        <v>0.313</v>
       </c>
       <c r="I6" s="7">
-        <v>0.308</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="J6" s="7">
-        <v>0.30599999999999999</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="K6" s="7">
-        <v>0.26300000000000001</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="L6" s="7">
         <v>0.26100000000000001</v>
       </c>
       <c r="M6" s="7">
-        <v>0.26400000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="N6" s="25" t="s">
         <v>85</v>
@@ -3339,300 +3589,190 @@
         <v>16</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Q6" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R6" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S6" s="9">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="T6" s="9">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="U6" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V6" s="9">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W6" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="X6" s="9">
         <v>2</v>
       </c>
       <c r="Y6" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z6" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA6" s="9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB6" s="9">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AC6" s="9">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AD6" s="9">
         <v>31</v>
       </c>
       <c r="AE6" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AF6" s="9">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AG6" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AH6" s="9">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AI6" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ6" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK6" s="9">
         <v>33</v>
       </c>
       <c r="AL6" s="9">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AM6" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AN6" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AO6" s="9">
-        <v>0.72599999999999998</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="AP6" s="9">
-        <v>0.38500000000000001</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="AQ6" s="9">
-        <v>0.755</v>
+        <v>0.748</v>
       </c>
       <c r="AR6" s="9">
-        <v>0.59499999999999997</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="AS6" s="9">
-        <v>0.59099999999999997</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AT6" s="9">
-        <v>0.59599999999999997</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="AU6" s="9">
         <v>0.65</v>
       </c>
       <c r="AV6" s="9">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="AW6" s="12">
-        <v>-0.51680000000000004</v>
+        <v>-0.4642</v>
       </c>
       <c r="AX6" s="12">
-        <v>6.7699999999999996E-2</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="AY6" s="12">
-        <v>-0.51049999999999995</v>
+        <v>-0.50339999999999996</v>
       </c>
       <c r="AZ6" s="12">
-        <v>3.7499999999999999E-2</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="BA6" s="12">
-        <v>-0.44750000000000001</v>
+        <v>-0.4365</v>
       </c>
       <c r="BB6" s="12">
-        <v>6.0600000000000001E-2</v>
+        <v>3.78E-2</v>
       </c>
       <c r="BC6" s="9">
-        <v>5.04</v>
+        <v>19.510000000000002</v>
       </c>
       <c r="BD6" s="9">
-        <v>4.87</v>
-      </c>
-      <c r="BF6" s="49"/>
+        <v>11.15</v>
+      </c>
+      <c r="BF6" s="46"/>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>126</v>
-      </c>
-      <c r="R7" s="6">
-        <v>7</v>
-      </c>
-      <c r="S7" s="6">
-        <v>119</v>
-      </c>
-      <c r="T7" s="6">
-        <v>41</v>
-      </c>
-      <c r="U7" s="6">
-        <v>7</v>
-      </c>
-      <c r="V7" s="6">
-        <v>34</v>
-      </c>
-      <c r="W7" s="6">
-        <v>53</v>
-      </c>
-      <c r="X7" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>51</v>
-      </c>
-      <c r="Z7" s="6">
-        <v>17</v>
-      </c>
-      <c r="AA7" s="6">
-        <v>6</v>
-      </c>
-      <c r="AB7" s="6">
-        <v>11</v>
-      </c>
-      <c r="AC7" s="6">
-        <v>78</v>
-      </c>
-      <c r="AD7" s="6">
-        <v>31</v>
-      </c>
-      <c r="AE7" s="6">
-        <v>47</v>
-      </c>
-      <c r="AF7" s="6">
-        <v>175</v>
-      </c>
-      <c r="AG7" s="6">
-        <v>41</v>
-      </c>
-      <c r="AH7" s="6">
-        <v>134</v>
-      </c>
-      <c r="AI7" s="6">
-        <v>43</v>
-      </c>
-      <c r="AJ7" s="6">
-        <v>12</v>
-      </c>
-      <c r="AK7" s="6">
-        <v>31</v>
-      </c>
-      <c r="AL7" s="6">
-        <v>67</v>
-      </c>
-      <c r="AM7" s="6">
-        <v>15</v>
-      </c>
-      <c r="AN7" s="6">
-        <v>52</v>
-      </c>
-      <c r="AO7" s="6">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="AP7" s="6">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="AQ7" s="6">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="AR7" s="6">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="AS7" s="6">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="AT7" s="6">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="AU7" s="6">
-        <v>0.66</v>
-      </c>
-      <c r="AV7" s="6">
-        <v>0.64</v>
-      </c>
-      <c r="AW7" s="11">
-        <v>-0.4249</v>
-      </c>
-      <c r="AX7" s="11">
-        <v>-7.7200000000000005E-2</v>
-      </c>
-      <c r="AY7" s="11">
-        <v>-0.51239999999999997</v>
-      </c>
-      <c r="AZ7" s="11">
-        <v>-6.4000000000000003E-3</v>
-      </c>
-      <c r="BA7" s="11">
-        <v>-0.44240000000000002</v>
-      </c>
-      <c r="BB7" s="11">
-        <v>-1.2699999999999999E-2</v>
-      </c>
-      <c r="BC7" s="6">
-        <v>3.54</v>
-      </c>
-      <c r="BD7" s="6">
-        <v>3.55</v>
-      </c>
-      <c r="BF7" s="49"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BF7" s="46"/>
     </row>
     <row r="8" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
@@ -3699,134 +3839,134 @@
       <c r="BB8" s="9"/>
       <c r="BC8" s="9"/>
       <c r="BD8" s="9"/>
-      <c r="BF8" s="50"/>
+      <c r="BF8" s="47"/>
     </row>
     <row r="11" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="36" t="s">
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="36" t="s">
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="36" t="s">
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="37"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="39" t="s">
+      <c r="L12" s="32"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="O12" s="39" t="s">
+      <c r="O12" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="33" t="s">
+      <c r="P12" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="33" t="s">
+      <c r="Q12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="R12" s="33" t="s">
+      <c r="R12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="41" t="s">
+      <c r="S12" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="T12" s="42"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="41" t="s">
+      <c r="T12" s="36"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="W12" s="42"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="36" t="s">
+      <c r="W12" s="36"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="36" t="s">
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="36" t="s">
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="36" t="s">
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="36" t="s">
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="33"/>
+      <c r="AK12" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="AL12" s="37"/>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="36" t="s">
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="36" t="s">
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="33"/>
+      <c r="AQ12" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="AR12" s="37"/>
-      <c r="AS12" s="38"/>
-      <c r="AT12" s="36" t="s">
+      <c r="AR12" s="32"/>
+      <c r="AS12" s="33"/>
+      <c r="AT12" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="AU12" s="37"/>
-      <c r="AV12" s="38"/>
-      <c r="AW12" s="33" t="s">
+      <c r="AU12" s="32"/>
+      <c r="AV12" s="33"/>
+      <c r="AW12" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AX12" s="33" t="s">
+      <c r="AX12" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="AY12" s="31" t="s">
+      <c r="AY12" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AZ12" s="31" t="s">
+      <c r="AZ12" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="BA12" s="31" t="s">
+      <c r="BA12" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="BB12" s="31" t="s">
+      <c r="BB12" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="BC12" s="31" t="s">
+      <c r="BC12" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="BD12" s="31" t="s">
+      <c r="BD12" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="BE12" s="33" t="s">
+      <c r="BE12" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="BF12" s="33" t="s">
+      <c r="BF12" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="BH12" s="45" t="s">
+      <c r="BH12" s="48" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="25" t="s">
         <v>25</v>
       </c>
@@ -3863,11 +4003,11 @@
       <c r="M13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
       <c r="S13" s="25" t="s">
         <v>25</v>
       </c>
@@ -3958,17 +4098,17 @@
       <c r="AV13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AW13" s="33"/>
-      <c r="AX13" s="33"/>
-      <c r="AY13" s="32"/>
-      <c r="AZ13" s="32"/>
-      <c r="BA13" s="32"/>
-      <c r="BB13" s="32"/>
-      <c r="BC13" s="32"/>
-      <c r="BD13" s="32"/>
-      <c r="BE13" s="33"/>
-      <c r="BF13" s="33"/>
-      <c r="BH13" s="46"/>
+      <c r="AW13" s="28"/>
+      <c r="AX13" s="28"/>
+      <c r="AY13" s="30"/>
+      <c r="AZ13" s="30"/>
+      <c r="BA13" s="30"/>
+      <c r="BB13" s="30"/>
+      <c r="BC13" s="30"/>
+      <c r="BD13" s="30"/>
+      <c r="BE13" s="28"/>
+      <c r="BF13" s="28"/>
+      <c r="BH13" s="49"/>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
@@ -4041,7 +4181,7 @@
       <c r="BD14" s="11"/>
       <c r="BE14" s="6"/>
       <c r="BF14" s="6"/>
-      <c r="BH14" s="46"/>
+      <c r="BH14" s="49"/>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
@@ -4110,7 +4250,7 @@
       <c r="BD15" s="13"/>
       <c r="BE15" s="7"/>
       <c r="BF15" s="7"/>
-      <c r="BH15" s="46"/>
+      <c r="BH15" s="49"/>
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
@@ -4179,7 +4319,7 @@
       <c r="BD16" s="11"/>
       <c r="BE16" s="6"/>
       <c r="BF16" s="6"/>
-      <c r="BH16" s="46"/>
+      <c r="BH16" s="49"/>
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
@@ -4248,7 +4388,7 @@
       <c r="BD17" s="12"/>
       <c r="BE17" s="9"/>
       <c r="BF17" s="9"/>
-      <c r="BH17" s="46"/>
+      <c r="BH17" s="49"/>
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
@@ -4317,7 +4457,7 @@
       <c r="BD18" s="11"/>
       <c r="BE18" s="6"/>
       <c r="BF18" s="6"/>
-      <c r="BH18" s="46"/>
+      <c r="BH18" s="49"/>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
@@ -4386,7 +4526,7 @@
       <c r="BD19" s="9"/>
       <c r="BE19" s="9"/>
       <c r="BF19" s="9"/>
-      <c r="BH19" s="46"/>
+      <c r="BH19" s="49"/>
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
@@ -4455,7 +4595,7 @@
       <c r="BD20" s="11"/>
       <c r="BE20" s="6"/>
       <c r="BF20" s="6"/>
-      <c r="BH20" s="46"/>
+      <c r="BH20" s="49"/>
     </row>
     <row r="21" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
@@ -4524,35 +4664,35 @@
       <c r="BD21" s="9"/>
       <c r="BE21" s="9"/>
       <c r="BF21" s="9"/>
-      <c r="BH21" s="47"/>
+      <c r="BH21" s="50"/>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="29" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
@@ -4681,56 +4821,6 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="AZ1:AZ2"/>
-    <mergeCell ref="BB1:BB2"/>
-    <mergeCell ref="BD1:BD2"/>
-    <mergeCell ref="AW1:AW2"/>
-    <mergeCell ref="AY1:AY2"/>
-    <mergeCell ref="BA1:BA2"/>
-    <mergeCell ref="BC1:BC2"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="AX1:AX2"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="AU1:AU2"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="BF1:BF8"/>
-    <mergeCell ref="BE12:BE13"/>
-    <mergeCell ref="BF12:BF13"/>
-    <mergeCell ref="AW12:AW13"/>
-    <mergeCell ref="AX12:AX13"/>
-    <mergeCell ref="AY12:AY13"/>
-    <mergeCell ref="AZ12:AZ13"/>
-    <mergeCell ref="BA12:BA13"/>
     <mergeCell ref="BH12:BH21"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
@@ -4747,8 +4837,59 @@
     <mergeCell ref="AT12:AV12"/>
     <mergeCell ref="V12:X12"/>
     <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="BF1:BF8"/>
+    <mergeCell ref="BE12:BE13"/>
+    <mergeCell ref="BF12:BF13"/>
+    <mergeCell ref="AW12:AW13"/>
+    <mergeCell ref="AX12:AX13"/>
+    <mergeCell ref="AY12:AY13"/>
+    <mergeCell ref="AZ12:AZ13"/>
+    <mergeCell ref="BA12:BA13"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="AZ1:AZ2"/>
+    <mergeCell ref="BB1:BB2"/>
+    <mergeCell ref="BD1:BD2"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="AY1:AY2"/>
+    <mergeCell ref="BA1:BA2"/>
+    <mergeCell ref="BC1:BC2"/>
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="AU1:AU2"/>
+    <mergeCell ref="AO1:AQ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/experiments/compas/results/all_results.xlsx
+++ b/experiments/compas/results/all_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\compas\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\experiments\compas\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A04751-FA33-4999-BEB5-13914AB5E49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0F0CBD-7657-4AC4-985A-86AE9148DE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29820" yWindow="630" windowWidth="24960" windowHeight="14055" activeTab="1" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="4656" yWindow="684" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="compas-one-client" sheetId="4" r:id="rId1"/>
@@ -327,7 +327,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,12 +360,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -621,13 +615,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -639,38 +648,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
@@ -680,15 +683,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1024,100 +1018,100 @@
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="7" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="5" max="7" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.28515625" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.33203125" customWidth="1"/>
+    <col min="30" max="30" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="31" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="28" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="31" t="s">
+      <c r="O1" s="37"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="31" t="s">
+      <c r="R1" s="37"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="32"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="31" t="s">
+      <c r="U1" s="37"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="28" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AA1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AB1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="AC1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AD1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AF1" s="40" t="s">
+      <c r="AF1" s="28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
       <c r="B2" s="16" t="s">
         <v>25</v>
       </c>
@@ -1136,9 +1130,9 @@
       <c r="G2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
       <c r="K2" s="16" t="s">
         <v>25</v>
       </c>
@@ -1184,14 +1178,14 @@
       <c r="Y2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="28"/>
-      <c r="AF2" s="41"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="33"/>
+      <c r="AF2" s="29"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
@@ -1282,9 +1276,9 @@
       <c r="AD3" s="6">
         <v>5.14</v>
       </c>
-      <c r="AF3" s="41"/>
+      <c r="AF3" s="29"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>20</v>
       </c>
@@ -1375,9 +1369,9 @@
       <c r="AD4" s="7">
         <v>8.24</v>
       </c>
-      <c r="AF4" s="41"/>
+      <c r="AF4" s="29"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
@@ -1468,12 +1462,12 @@
       <c r="AD5" s="6">
         <v>7.58</v>
       </c>
-      <c r="AF5" s="41"/>
+      <c r="AF5" s="29"/>
       <c r="AH5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
@@ -1564,9 +1558,9 @@
       <c r="AD6" s="9">
         <v>9.64</v>
       </c>
-      <c r="AF6" s="41"/>
+      <c r="AF6" s="29"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
@@ -1657,9 +1651,9 @@
       <c r="AD7" s="6">
         <v>9.36</v>
       </c>
-      <c r="AF7" s="41"/>
+      <c r="AF7" s="29"/>
     </row>
-    <row r="8" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>32</v>
       </c>
@@ -1750,94 +1744,94 @@
       <c r="AD8" s="9">
         <v>100.81</v>
       </c>
-      <c r="AF8" s="42"/>
+      <c r="AF8" s="30"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AF9" s="19"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
     </row>
-    <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+    <row r="11" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="31" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="43" t="s">
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="35" t="s">
+      <c r="M12" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="36"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="31" t="s">
+      <c r="N12" s="42"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="31" t="s">
+      <c r="Q12" s="37"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="T12" s="32"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="31" t="s">
+      <c r="T12" s="37"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="W12" s="32"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="31" t="s">
+      <c r="W12" s="37"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="28" t="s">
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AC12" s="29" t="s">
+      <c r="AC12" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="AD12" s="29" t="s">
+      <c r="AD12" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="AE12" s="29" t="s">
+      <c r="AE12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AF12" s="28" t="s">
+      <c r="AF12" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AH12" s="40" t="s">
+      <c r="AH12" s="28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
       <c r="B13" s="17" t="s">
         <v>25</v>
       </c>
@@ -1856,11 +1850,11 @@
       <c r="G13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
       <c r="M13" s="17" t="s">
         <v>25</v>
       </c>
@@ -1906,14 +1900,14 @@
       <c r="AA13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="28"/>
-      <c r="AH13" s="41"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="33"/>
+      <c r="AH13" s="29"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>3</v>
       </c>
@@ -2010,9 +2004,9 @@
       <c r="AF14" s="6">
         <v>15.22</v>
       </c>
-      <c r="AH14" s="41"/>
+      <c r="AH14" s="29"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>20</v>
       </c>
@@ -2109,9 +2103,9 @@
       <c r="AF15" s="7">
         <v>13.54</v>
       </c>
-      <c r="AH15" s="41"/>
+      <c r="AH15" s="29"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>8</v>
       </c>
@@ -2208,9 +2202,9 @@
       <c r="AF16" s="6">
         <v>12.61</v>
       </c>
-      <c r="AH16" s="41"/>
+      <c r="AH16" s="29"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>9</v>
       </c>
@@ -2307,9 +2301,9 @@
       <c r="AF17" s="9">
         <v>15.31</v>
       </c>
-      <c r="AH17" s="41"/>
+      <c r="AH17" s="29"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>10</v>
       </c>
@@ -2406,9 +2400,9 @@
       <c r="AF18" s="6">
         <v>1.62</v>
       </c>
-      <c r="AH18" s="41"/>
+      <c r="AH18" s="29"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -2505,9 +2499,9 @@
       <c r="AF19" s="9">
         <v>22.7</v>
       </c>
-      <c r="AH19" s="41"/>
+      <c r="AH19" s="29"/>
     </row>
-    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>40</v>
       </c>
@@ -2604,9 +2598,9 @@
       <c r="AF20" s="6">
         <v>1.61</v>
       </c>
-      <c r="AH20" s="41"/>
+      <c r="AH20" s="29"/>
     </row>
-    <row r="21" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
         <v>41</v>
       </c>
@@ -2703,15 +2697,26 @@
       <c r="AF21" s="9">
         <v>22.56</v>
       </c>
-      <c r="AH21" s="42"/>
+      <c r="AH21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AH12:AH21"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
     <mergeCell ref="AF1:AF8"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:D12"/>
@@ -2728,22 +2733,11 @@
     <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="AB12:AB13"/>
     <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AH12:AH21"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="AF12:AF13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2758,136 +2752,136 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="31" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="31" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="31" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="28" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="Q1" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="35" t="s">
+      <c r="R1" s="42"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="31" t="s">
+      <c r="U1" s="42"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="31" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="31" t="s">
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="31" t="s">
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="31" t="s">
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="31" t="s">
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="31" t="s">
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="31" t="s">
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="28" t="s">
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="AV1" s="28" t="s">
+      <c r="AV1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AW1" s="29" t="s">
+      <c r="AW1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="AX1" s="29" t="s">
+      <c r="AX1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="AY1" s="29" t="s">
+      <c r="AY1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="AZ1" s="29" t="s">
+      <c r="AZ1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="BA1" s="29" t="s">
+      <c r="BA1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="BB1" s="29" t="s">
+      <c r="BB1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="BC1" s="28" t="s">
+      <c r="BC1" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="BD1" s="28" t="s">
+      <c r="BD1" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="BF1" s="45" t="s">
+      <c r="BF1" s="48" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
@@ -2924,9 +2918,9 @@
       <c r="M2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
       <c r="Q2" s="22" t="s">
         <v>25</v>
       </c>
@@ -3017,19 +3011,19 @@
       <c r="AT2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="28"/>
-      <c r="BD2" s="28"/>
-      <c r="BF2" s="46"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="32"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="32"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="33"/>
+      <c r="BD2" s="33"/>
+      <c r="BF2" s="49"/>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
@@ -3198,9 +3192,9 @@
       <c r="BD3" s="6">
         <v>2.58</v>
       </c>
-      <c r="BF3" s="46"/>
+      <c r="BF3" s="49"/>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>20</v>
       </c>
@@ -3369,9 +3363,9 @@
       <c r="BD4" s="7">
         <v>4.1900000000000004</v>
       </c>
-      <c r="BF4" s="46"/>
+      <c r="BF4" s="49"/>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
@@ -3540,9 +3534,9 @@
       <c r="BD5" s="6">
         <v>26.24</v>
       </c>
-      <c r="BF5" s="46"/>
+      <c r="BF5" s="49"/>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
@@ -3711,9 +3705,9 @@
       <c r="BD6" s="9">
         <v>11.15</v>
       </c>
-      <c r="BF6" s="46"/>
+      <c r="BF6" s="49"/>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
@@ -3772,9 +3766,9 @@
       <c r="BB7" s="11"/>
       <c r="BC7" s="6"/>
       <c r="BD7" s="6"/>
-      <c r="BF7" s="46"/>
+      <c r="BF7" s="49"/>
     </row>
-    <row r="8" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>32</v>
       </c>
@@ -3839,134 +3833,134 @@
       <c r="BB8" s="9"/>
       <c r="BC8" s="9"/>
       <c r="BD8" s="9"/>
-      <c r="BF8" s="47"/>
+      <c r="BF8" s="50"/>
     </row>
-    <row r="11" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+    <row r="11" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="31" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="31" t="s">
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="31" t="s">
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="43" t="s">
+      <c r="L12" s="37"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="O12" s="43" t="s">
+      <c r="O12" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="28" t="s">
+      <c r="P12" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="28" t="s">
+      <c r="Q12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="R12" s="28" t="s">
+      <c r="R12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="35" t="s">
+      <c r="S12" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="T12" s="36"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="35" t="s">
+      <c r="T12" s="42"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="W12" s="36"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="31" t="s">
+      <c r="W12" s="42"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="31" t="s">
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="31" t="s">
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="AF12" s="32"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="31" t="s">
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="31" t="s">
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="31" t="s">
+      <c r="AL12" s="37"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="AO12" s="32"/>
-      <c r="AP12" s="33"/>
-      <c r="AQ12" s="31" t="s">
+      <c r="AO12" s="37"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="AR12" s="32"/>
-      <c r="AS12" s="33"/>
-      <c r="AT12" s="31" t="s">
+      <c r="AR12" s="37"/>
+      <c r="AS12" s="38"/>
+      <c r="AT12" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AU12" s="32"/>
-      <c r="AV12" s="33"/>
-      <c r="AW12" s="28" t="s">
+      <c r="AU12" s="37"/>
+      <c r="AV12" s="38"/>
+      <c r="AW12" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="AX12" s="28" t="s">
+      <c r="AX12" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AY12" s="29" t="s">
+      <c r="AY12" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="AZ12" s="29" t="s">
+      <c r="AZ12" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="BA12" s="29" t="s">
+      <c r="BA12" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="BB12" s="29" t="s">
+      <c r="BB12" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="BC12" s="29" t="s">
+      <c r="BC12" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="BD12" s="29" t="s">
+      <c r="BD12" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="BE12" s="28" t="s">
+      <c r="BE12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="BF12" s="28" t="s">
+      <c r="BF12" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="BH12" s="48" t="s">
+      <c r="BH12" s="45" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
       <c r="B13" s="25" t="s">
         <v>25</v>
       </c>
@@ -4003,11 +3997,11 @@
       <c r="M13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
       <c r="S13" s="25" t="s">
         <v>25</v>
       </c>
@@ -4098,19 +4092,19 @@
       <c r="AV13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AW13" s="28"/>
-      <c r="AX13" s="28"/>
-      <c r="AY13" s="30"/>
-      <c r="AZ13" s="30"/>
-      <c r="BA13" s="30"/>
-      <c r="BB13" s="30"/>
-      <c r="BC13" s="30"/>
-      <c r="BD13" s="30"/>
-      <c r="BE13" s="28"/>
-      <c r="BF13" s="28"/>
-      <c r="BH13" s="49"/>
+      <c r="AW13" s="33"/>
+      <c r="AX13" s="33"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="32"/>
+      <c r="BA13" s="32"/>
+      <c r="BB13" s="32"/>
+      <c r="BC13" s="32"/>
+      <c r="BD13" s="32"/>
+      <c r="BE13" s="33"/>
+      <c r="BF13" s="33"/>
+      <c r="BH13" s="46"/>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>3</v>
       </c>
@@ -4181,9 +4175,9 @@
       <c r="BD14" s="11"/>
       <c r="BE14" s="6"/>
       <c r="BF14" s="6"/>
-      <c r="BH14" s="49"/>
+      <c r="BH14" s="46"/>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>20</v>
       </c>
@@ -4250,9 +4244,9 @@
       <c r="BD15" s="13"/>
       <c r="BE15" s="7"/>
       <c r="BF15" s="7"/>
-      <c r="BH15" s="49"/>
+      <c r="BH15" s="46"/>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>8</v>
       </c>
@@ -4319,9 +4313,9 @@
       <c r="BD16" s="11"/>
       <c r="BE16" s="6"/>
       <c r="BF16" s="6"/>
-      <c r="BH16" s="49"/>
+      <c r="BH16" s="46"/>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>9</v>
       </c>
@@ -4388,9 +4382,9 @@
       <c r="BD17" s="12"/>
       <c r="BE17" s="9"/>
       <c r="BF17" s="9"/>
-      <c r="BH17" s="49"/>
+      <c r="BH17" s="46"/>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>10</v>
       </c>
@@ -4457,9 +4451,9 @@
       <c r="BD18" s="11"/>
       <c r="BE18" s="6"/>
       <c r="BF18" s="6"/>
-      <c r="BH18" s="49"/>
+      <c r="BH18" s="46"/>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>32</v>
       </c>
@@ -4526,9 +4520,9 @@
       <c r="BD19" s="9"/>
       <c r="BE19" s="9"/>
       <c r="BF19" s="9"/>
-      <c r="BH19" s="49"/>
+      <c r="BH19" s="46"/>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>75</v>
       </c>
@@ -4595,9 +4589,9 @@
       <c r="BD20" s="11"/>
       <c r="BE20" s="6"/>
       <c r="BF20" s="6"/>
-      <c r="BH20" s="49"/>
+      <c r="BH20" s="46"/>
     </row>
-    <row r="21" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
         <v>41</v>
       </c>
@@ -4664,37 +4658,37 @@
       <c r="BD21" s="9"/>
       <c r="BE21" s="9"/>
       <c r="BF21" s="9"/>
-      <c r="BH21" s="50"/>
+      <c r="BH21" s="47"/>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
+    <row r="26" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>-0.16489999999999999</v>
       </c>
@@ -4714,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>-0.2641</v>
       </c>
@@ -4734,7 +4728,7 @@
         <v>1.78E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>-0.42209999999999998</v>
       </c>
@@ -4754,7 +4748,7 @@
         <v>-4.0899999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>-0.28449999999999998</v>
       </c>
@@ -4774,7 +4768,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>-0.44419999999999998</v>
       </c>
@@ -4794,7 +4788,7 @@
         <v>9.9099999999999994E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>-0.2989</v>
       </c>
@@ -4814,13 +4808,63 @@
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I33" s="10" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="AZ1:AZ2"/>
+    <mergeCell ref="BB1:BB2"/>
+    <mergeCell ref="BD1:BD2"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="AY1:AY2"/>
+    <mergeCell ref="BA1:BA2"/>
+    <mergeCell ref="BC1:BC2"/>
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="AU1:AU2"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="BF1:BF8"/>
+    <mergeCell ref="BE12:BE13"/>
+    <mergeCell ref="BF12:BF13"/>
+    <mergeCell ref="AW12:AW13"/>
+    <mergeCell ref="AX12:AX13"/>
+    <mergeCell ref="AY12:AY13"/>
+    <mergeCell ref="AZ12:AZ13"/>
+    <mergeCell ref="BA12:BA13"/>
     <mergeCell ref="BH12:BH21"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
@@ -4837,56 +4881,6 @@
     <mergeCell ref="AT12:AV12"/>
     <mergeCell ref="V12:X12"/>
     <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="BF1:BF8"/>
-    <mergeCell ref="BE12:BE13"/>
-    <mergeCell ref="BF12:BF13"/>
-    <mergeCell ref="AW12:AW13"/>
-    <mergeCell ref="AX12:AX13"/>
-    <mergeCell ref="AY12:AY13"/>
-    <mergeCell ref="AZ12:AZ13"/>
-    <mergeCell ref="BA12:BA13"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="AZ1:AZ2"/>
-    <mergeCell ref="BB1:BB2"/>
-    <mergeCell ref="BD1:BD2"/>
-    <mergeCell ref="AW1:AW2"/>
-    <mergeCell ref="AY1:AY2"/>
-    <mergeCell ref="BA1:BA2"/>
-    <mergeCell ref="BC1:BC2"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="AX1:AX2"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="AU1:AU2"/>
-    <mergeCell ref="AO1:AQ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/experiments/compas/results/all_results.xlsx
+++ b/experiments/compas/results/all_results.xlsx
@@ -5,16 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\experiments\compas\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\compas\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0F0CBD-7657-4AC4-985A-86AE9148DE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B55093-7590-4A85-9296-BAD151069848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4656" yWindow="684" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
-    <sheet name="compas-one-client" sheetId="4" r:id="rId1"/>
-    <sheet name="compas-two-client" sheetId="5" r:id="rId2"/>
+    <sheet name="compas-cfl" sheetId="4" r:id="rId1"/>
+    <sheet name="compas-decentralized" sheetId="6" r:id="rId2"/>
+    <sheet name="compas-two-client" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="121">
   <si>
     <t>Model</t>
   </si>
@@ -287,24 +288,12 @@
     <t>weigtht decay</t>
   </si>
   <si>
-    <t>1: 6e-4, 2: 1e-6</t>
-  </si>
-  <si>
-    <t>1: 150, 2:100</t>
-  </si>
-  <si>
     <t>1: 100, 2: 100</t>
   </si>
   <si>
     <t>1: 150, 2: 100</t>
   </si>
   <si>
-    <t>1: 7e-3, 2: 5e-2</t>
-  </si>
-  <si>
-    <t>need to rerun with seed everything in the right place</t>
-  </si>
-  <si>
     <t>1: 1.5e-3, 2: 1e-3</t>
   </si>
   <si>
@@ -318,6 +307,117 @@
   </si>
   <si>
     <t>1: 1e-4, 2:1.1e-4</t>
+  </si>
+  <si>
+    <t>1: 7e-3, 2:7e-3</t>
+  </si>
+  <si>
+    <t>LR + dp</t>
+  </si>
+  <si>
+    <t>NN + dp</t>
+  </si>
+  <si>
+    <t>Accuracy 3</t>
+  </si>
+  <si>
+    <t>Error 3</t>
+  </si>
+  <si>
+    <t>TP 3</t>
+  </si>
+  <si>
+    <t>FP 3</t>
+  </si>
+  <si>
+    <t>TN 3</t>
+  </si>
+  <si>
+    <t>FN 3</t>
+  </si>
+  <si>
+    <t>F1 3</t>
+  </si>
+  <si>
+    <t>AUC 3</t>
+  </si>
+  <si>
+    <t>EOD 3</t>
+  </si>
+  <si>
+    <t>SPD 3</t>
+  </si>
+  <si>
+    <t>AOD 3</t>
+  </si>
+  <si>
+    <t>Train Time 3</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Final Results</t>
+  </si>
+  <si>
+    <t>.00025</t>
+  </si>
+  <si>
+    <t>LR + eo</t>
+  </si>
+  <si>
+    <t>NN + eo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">for EO we had to use bs 256 </t>
+  </si>
+  <si>
+    <t>.0003</t>
+  </si>
+  <si>
+    <t>1:8e-4, 2: 7e-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: 100, 2: 90 </t>
+  </si>
+  <si>
+    <t>1: 70, 2: 2</t>
+  </si>
+  <si>
+    <t>1:50, 2: 1</t>
+  </si>
+  <si>
+    <t>1:1e-4, 2:1e-4</t>
+  </si>
+  <si>
+    <t>all: 7e-3</t>
+  </si>
+  <si>
+    <t>1,3: 150, 2:100</t>
+  </si>
+  <si>
+    <t>1: .0015, 2: .001, 3: .0005</t>
+  </si>
+  <si>
+    <t>all: 100</t>
+  </si>
+  <si>
+    <t>all: 10</t>
+  </si>
+  <si>
+    <t>1: 7e-4, 2,3: 7e-3</t>
+  </si>
+  <si>
+    <t>1: .0015, 2: .001, 3:.0005</t>
+  </si>
+  <si>
+    <t>1: 60, 2,3: 100</t>
+  </si>
+  <si>
+    <t>1,2: 10, 3: 20</t>
   </si>
 </sst>
 </file>
@@ -376,7 +476,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -528,11 +628,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -615,28 +772,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -648,10 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -663,8 +811,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -675,14 +850,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,106 +1223,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91775286-5ED5-4E96-8261-8DCB4AC2C91F}">
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AL33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" customWidth="1"/>
-    <col min="5" max="7" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" customWidth="1"/>
-    <col min="14" max="14" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" customWidth="1"/>
-    <col min="30" max="30" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="36" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="36" t="s">
+      <c r="O1" s="35"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="36" t="s">
+      <c r="R1" s="35"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="37"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="36" t="s">
+      <c r="U1" s="35"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="33" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="31" t="s">
+      <c r="AA1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="31" t="s">
+      <c r="AB1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="31" t="s">
+      <c r="AC1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AD1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AF1" s="43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="42"/>
       <c r="B2" s="16" t="s">
         <v>25</v>
       </c>
@@ -1130,9 +1341,9 @@
       <c r="G2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
       <c r="K2" s="16" t="s">
         <v>25</v>
       </c>
@@ -1178,108 +1389,108 @@
       <c r="Y2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="33"/>
-      <c r="AF2" s="29"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="31"/>
+      <c r="AF2" s="44"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="63">
         <v>0.68700000000000006</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="63">
         <v>0.68400000000000005</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="63">
         <v>0.68799999999999994</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="63">
         <v>0.313</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="63">
         <v>0.316</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="8">
         <v>0.312</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="9">
         <v>157</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="9">
         <v>18</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="9">
         <v>139</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="9">
         <v>65</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="9">
         <v>5</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="9">
         <v>60</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="9">
         <v>267</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="9">
         <v>60</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="9">
         <v>207</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="9">
         <v>128</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="9">
         <v>31</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="9">
         <v>97</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="9">
         <v>0.61899999999999999</v>
       </c>
-      <c r="X3" s="6">
+      <c r="X3" s="9">
         <v>0.5</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Y3" s="9">
         <v>0.63900000000000001</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="Z3" s="9">
         <v>0.66</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AA3" s="12">
         <v>-0.22159999999999999</v>
       </c>
-      <c r="AB3" s="11">
+      <c r="AB3" s="12">
         <v>-0.19389999999999999</v>
       </c>
-      <c r="AC3" s="11">
+      <c r="AC3" s="12">
         <v>-0.1847</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AD3" s="9">
         <v>5.14</v>
       </c>
-      <c r="AF3" s="29"/>
+      <c r="AF3" s="44"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="7">
@@ -1369,9 +1580,9 @@
       <c r="AD4" s="7">
         <v>8.24</v>
       </c>
-      <c r="AF4" s="29"/>
+      <c r="AF4" s="44"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
@@ -1462,12 +1673,9 @@
       <c r="AD5" s="6">
         <v>7.58</v>
       </c>
-      <c r="AF5" s="29"/>
-      <c r="AH5" t="s">
-        <v>82</v>
-      </c>
+      <c r="AF5" s="44"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
@@ -1558,9 +1766,9 @@
       <c r="AD6" s="9">
         <v>9.64</v>
       </c>
-      <c r="AF6" s="29"/>
+      <c r="AF6" s="44"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
@@ -1651,9 +1859,9 @@
       <c r="AD7" s="6">
         <v>9.36</v>
       </c>
-      <c r="AF7" s="29"/>
+      <c r="AF7" s="44"/>
     </row>
-    <row r="8" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>32</v>
       </c>
@@ -1744,94 +1952,94 @@
       <c r="AD8" s="9">
         <v>100.81</v>
       </c>
-      <c r="AF8" s="30"/>
+      <c r="AF8" s="45"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AF9" s="19"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
     </row>
-    <row r="11" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+    <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="36" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="33" t="s">
+      <c r="L12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="41" t="s">
+      <c r="M12" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="42"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="36" t="s">
+      <c r="N12" s="39"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="36" t="s">
+      <c r="Q12" s="35"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="T12" s="37"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="36" t="s">
+      <c r="T12" s="35"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="W12" s="37"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="36" t="s">
+      <c r="W12" s="35"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="33" t="s">
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AC12" s="31" t="s">
+      <c r="AC12" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AD12" s="31" t="s">
+      <c r="AD12" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AE12" s="31" t="s">
+      <c r="AE12" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AF12" s="33" t="s">
+      <c r="AF12" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AH12" s="28" t="s">
+      <c r="AH12" s="43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
       <c r="B13" s="17" t="s">
         <v>25</v>
       </c>
@@ -1850,11 +2058,11 @@
       <c r="G13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
       <c r="M13" s="17" t="s">
         <v>25</v>
       </c>
@@ -1900,114 +2108,114 @@
       <c r="AA13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="32"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="33"/>
-      <c r="AH13" s="29"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="31"/>
+      <c r="AH13" s="44"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="63">
         <v>0.6</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="63">
         <v>0.60499999999999998</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="63">
         <v>0.59799999999999998</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="63">
         <v>0.4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="63">
         <v>0.39500000000000002</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="8">
         <v>0.40200000000000002</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="8">
         <v>0</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="8">
         <v>1</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="9">
         <v>52</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="9">
         <v>5</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="9">
         <v>47</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="9">
         <v>14</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="9">
         <v>1</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="9">
         <v>13</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="9">
         <v>318</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="9">
         <v>64</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="9">
         <v>254</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V14" s="9">
         <v>233</v>
       </c>
-      <c r="W14" s="6">
+      <c r="W14" s="9">
         <v>44</v>
       </c>
-      <c r="X14" s="6">
+      <c r="X14" s="9">
         <v>189</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="Y14" s="9">
         <v>0.29599999999999999</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="Z14" s="9">
         <v>0.182</v>
       </c>
-      <c r="AA14" s="6">
+      <c r="AA14" s="9">
         <v>0.318</v>
       </c>
-      <c r="AB14" s="6">
+      <c r="AB14" s="9">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AC14" s="11">
+      <c r="AC14" s="12">
         <v>-9.7100000000000006E-2</v>
       </c>
-      <c r="AD14" s="11">
+      <c r="AD14" s="12">
         <v>-6.6699999999999995E-2</v>
       </c>
-      <c r="AE14" s="11">
+      <c r="AE14" s="12">
         <v>-6.5199999999999994E-2</v>
       </c>
-      <c r="AF14" s="6">
+      <c r="AF14" s="9">
         <v>15.22</v>
       </c>
-      <c r="AH14" s="29"/>
+      <c r="AH14" s="44"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="56" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="7">
@@ -2095,7 +2303,7 @@
         <v>-8.2199999999999995E-2</v>
       </c>
       <c r="AD15" s="13">
-        <v>-0.52800000000000002</v>
+        <v>-5.28E-2</v>
       </c>
       <c r="AE15" s="13">
         <v>-4.7600000000000003E-2</v>
@@ -2103,9 +2311,9 @@
       <c r="AF15" s="7">
         <v>13.54</v>
       </c>
-      <c r="AH15" s="29"/>
+      <c r="AH15" s="44"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>8</v>
       </c>
@@ -2202,9 +2410,9 @@
       <c r="AF16" s="6">
         <v>12.61</v>
       </c>
-      <c r="AH16" s="29"/>
+      <c r="AH16" s="44"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>9</v>
       </c>
@@ -2301,9 +2509,9 @@
       <c r="AF17" s="9">
         <v>15.31</v>
       </c>
-      <c r="AH17" s="29"/>
+      <c r="AH17" s="44"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>10</v>
       </c>
@@ -2400,9 +2608,9 @@
       <c r="AF18" s="6">
         <v>1.62</v>
       </c>
-      <c r="AH18" s="29"/>
+      <c r="AH18" s="44"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
@@ -2499,9 +2707,9 @@
       <c r="AF19" s="9">
         <v>22.7</v>
       </c>
-      <c r="AH19" s="29"/>
+      <c r="AH19" s="44"/>
     </row>
-    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>40</v>
       </c>
@@ -2598,9 +2806,9 @@
       <c r="AF20" s="6">
         <v>1.61</v>
       </c>
-      <c r="AH20" s="29"/>
+      <c r="AH20" s="44"/>
     </row>
-    <row r="21" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>41</v>
       </c>
@@ -2697,26 +2905,815 @@
       <c r="AF21" s="9">
         <v>22.56</v>
       </c>
-      <c r="AH21" s="30"/>
+      <c r="AH21" s="45"/>
+    </row>
+    <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="67"/>
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="67"/>
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="67"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="39"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="T26" s="35"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="W26" s="35"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC26" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD26" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE26" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF26" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="O27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="S27" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="T27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="U27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="V27" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="W27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="X27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y27" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="33"/>
+      <c r="AE27" s="33"/>
+      <c r="AF27" s="31"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A28" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.313</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.316</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.312</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="6">
+        <v>157</v>
+      </c>
+      <c r="N28" s="6">
+        <v>18</v>
+      </c>
+      <c r="O28" s="6">
+        <v>139</v>
+      </c>
+      <c r="P28" s="6">
+        <v>65</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>5</v>
+      </c>
+      <c r="R28" s="6">
+        <v>60</v>
+      </c>
+      <c r="S28" s="6">
+        <v>267</v>
+      </c>
+      <c r="T28" s="6">
+        <v>60</v>
+      </c>
+      <c r="U28" s="6">
+        <v>207</v>
+      </c>
+      <c r="V28" s="6">
+        <v>128</v>
+      </c>
+      <c r="W28" s="6">
+        <v>31</v>
+      </c>
+      <c r="X28" s="6">
+        <v>97</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="Z28" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AA28" s="6">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="AB28" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="AC28" s="11">
+        <v>-0.22159999999999999</v>
+      </c>
+      <c r="AD28" s="11">
+        <v>-0.19389999999999999</v>
+      </c>
+      <c r="AE28" s="11">
+        <v>-0.1847</v>
+      </c>
+      <c r="AF28" s="6">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A29" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="7">
+        <v>164</v>
+      </c>
+      <c r="N29" s="7">
+        <v>20</v>
+      </c>
+      <c r="O29" s="7">
+        <v>144</v>
+      </c>
+      <c r="P29" s="7">
+        <v>77</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>8</v>
+      </c>
+      <c r="R29" s="7">
+        <v>69</v>
+      </c>
+      <c r="S29" s="7">
+        <v>255</v>
+      </c>
+      <c r="T29" s="7">
+        <v>57</v>
+      </c>
+      <c r="U29" s="7">
+        <v>198</v>
+      </c>
+      <c r="V29" s="7">
+        <v>121</v>
+      </c>
+      <c r="W29" s="7">
+        <v>29</v>
+      </c>
+      <c r="X29" s="7">
+        <v>92</v>
+      </c>
+      <c r="Y29" s="7">
+        <v>0.624</v>
+      </c>
+      <c r="Z29" s="7">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="AA29" s="7">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="AB29" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="AC29" s="13">
+        <v>-0.20200000000000001</v>
+      </c>
+      <c r="AD29" s="13">
+        <v>-0.17780000000000001</v>
+      </c>
+      <c r="AE29" s="13">
+        <v>-0.16869999999999999</v>
+      </c>
+      <c r="AF29" s="7">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A30" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>70</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M30" s="6">
+        <v>81</v>
+      </c>
+      <c r="N30" s="6">
+        <v>12</v>
+      </c>
+      <c r="O30" s="6">
+        <v>69</v>
+      </c>
+      <c r="P30" s="6">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>3</v>
+      </c>
+      <c r="R30" s="6">
+        <v>30</v>
+      </c>
+      <c r="S30" s="6">
+        <v>299</v>
+      </c>
+      <c r="T30" s="6">
+        <v>62</v>
+      </c>
+      <c r="U30" s="6">
+        <v>237</v>
+      </c>
+      <c r="V30" s="6">
+        <v>204</v>
+      </c>
+      <c r="W30" s="6">
+        <v>37</v>
+      </c>
+      <c r="X30" s="6">
+        <v>167</v>
+      </c>
+      <c r="Y30" s="6">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="Z30" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="AA30" s="6">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="AB30" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AC30" s="11">
+        <v>-4.7500000000000001E-2</v>
+      </c>
+      <c r="AD30" s="11">
+        <v>-6.5199999999999994E-2</v>
+      </c>
+      <c r="AE30" s="11">
+        <v>-5.6800000000000003E-2</v>
+      </c>
+      <c r="AF30" s="6">
+        <v>20.49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A31" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.623</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.377</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="H31" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I31" s="8">
+        <v>70</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="7">
+        <v>84</v>
+      </c>
+      <c r="N31" s="7">
+        <v>11</v>
+      </c>
+      <c r="O31" s="7">
+        <v>73</v>
+      </c>
+      <c r="P31" s="7">
+        <v>35</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>5</v>
+      </c>
+      <c r="R31" s="7">
+        <v>30</v>
+      </c>
+      <c r="S31" s="7">
+        <v>297</v>
+      </c>
+      <c r="T31" s="7">
+        <v>60</v>
+      </c>
+      <c r="U31" s="7">
+        <v>237</v>
+      </c>
+      <c r="V31" s="7">
+        <v>201</v>
+      </c>
+      <c r="W31" s="7">
+        <v>38</v>
+      </c>
+      <c r="X31" s="7">
+        <v>163</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="Z31" s="7">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="AA31" s="7">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AC31" s="13">
+        <v>-8.48E-2</v>
+      </c>
+      <c r="AD31" s="13">
+        <v>-6.4399999999999999E-2</v>
+      </c>
+      <c r="AE31" s="13">
+        <v>-6.0100000000000001E-2</v>
+      </c>
+      <c r="AF31" s="7">
+        <v>18.829999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A32" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>5</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M32" s="6">
+        <v>161</v>
+      </c>
+      <c r="N32" s="6">
+        <v>27</v>
+      </c>
+      <c r="O32" s="6">
+        <v>134</v>
+      </c>
+      <c r="P32" s="6">
+        <v>76</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>11</v>
+      </c>
+      <c r="R32" s="6">
+        <v>65</v>
+      </c>
+      <c r="S32" s="6">
+        <v>256</v>
+      </c>
+      <c r="T32" s="6">
+        <v>54</v>
+      </c>
+      <c r="U32" s="6">
+        <v>202</v>
+      </c>
+      <c r="V32" s="6">
+        <v>124</v>
+      </c>
+      <c r="W32" s="6">
+        <v>22</v>
+      </c>
+      <c r="X32" s="6">
+        <v>102</v>
+      </c>
+      <c r="Y32" s="6">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z32" s="6">
+        <v>0.621</v>
+      </c>
+      <c r="AA32" s="6">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="AB32" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="AC32" s="11">
+        <v>-1.6799999999999999E-2</v>
+      </c>
+      <c r="AD32" s="11">
+        <v>-6.2799999999999995E-2</v>
+      </c>
+      <c r="AE32" s="11">
+        <v>-4.5499999999999999E-2</v>
+      </c>
+      <c r="AF32" s="6">
+        <v>22.45</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH32" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI32" s="69"/>
+      <c r="AJ32" s="69"/>
+      <c r="AK32" s="69"/>
+      <c r="AL32" s="69"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A33" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.316</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="H33" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I33" s="8">
+        <v>15</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="7">
+        <v>150</v>
+      </c>
+      <c r="N33" s="7">
+        <v>24</v>
+      </c>
+      <c r="O33" s="7">
+        <v>126</v>
+      </c>
+      <c r="P33" s="7">
+        <v>78</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>11</v>
+      </c>
+      <c r="R33" s="7">
+        <v>67</v>
+      </c>
+      <c r="S33" s="7">
+        <v>254</v>
+      </c>
+      <c r="T33" s="7">
+        <v>54</v>
+      </c>
+      <c r="U33" s="7">
+        <v>200</v>
+      </c>
+      <c r="V33" s="7">
+        <v>135</v>
+      </c>
+      <c r="W33" s="7">
+        <v>25</v>
+      </c>
+      <c r="X33" s="7">
+        <v>110</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="Z33" s="7">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="AA33" s="7">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="AC33" s="13">
+        <v>-4.41E-2</v>
+      </c>
+      <c r="AD33" s="13">
+        <v>-7.6700000000000004E-2</v>
+      </c>
+      <c r="AE33" s="13">
+        <v>-6.2899999999999998E-2</v>
+      </c>
+      <c r="AF33" s="7">
+        <v>15.53</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+  <mergeCells count="56">
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="AH32:AL32"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="AH12:AH21"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="AF12:AF13"/>
     <mergeCell ref="AF1:AF8"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:D12"/>
@@ -2733,11 +3730,22 @@
     <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="AB12:AB13"/>
     <mergeCell ref="T1:V1"/>
-    <mergeCell ref="AH12:AH21"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2745,143 +3753,2917 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F36F75-A634-464E-A051-8B59E553208C}">
+  <dimension ref="A1:CE23"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" style="68" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="68"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="83" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="39"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="39"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX1" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY1" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ1" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA1" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB1" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC1" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD1" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE1" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A2" s="42"/>
+      <c r="B2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="47"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33"/>
+      <c r="AZ2" s="33"/>
+      <c r="BA2" s="33"/>
+      <c r="BB2" s="33"/>
+      <c r="BC2" s="33"/>
+      <c r="BD2" s="31"/>
+      <c r="BE2" s="31"/>
+    </row>
+    <row r="3" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R3" s="6">
+        <v>124</v>
+      </c>
+      <c r="S3" s="6">
+        <v>6</v>
+      </c>
+      <c r="T3" s="6">
+        <v>118</v>
+      </c>
+      <c r="U3" s="6">
+        <v>44</v>
+      </c>
+      <c r="V3" s="6">
+        <v>8</v>
+      </c>
+      <c r="W3" s="6">
+        <v>36</v>
+      </c>
+      <c r="X3" s="6">
+        <v>56</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>54</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>22</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>16</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>75</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>31</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>44</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>170</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>41</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>129</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>45</v>
+      </c>
+      <c r="AK3" s="6">
+        <v>13</v>
+      </c>
+      <c r="AL3" s="6">
+        <v>32</v>
+      </c>
+      <c r="AM3" s="6">
+        <v>64</v>
+      </c>
+      <c r="AN3" s="6">
+        <v>14</v>
+      </c>
+      <c r="AO3" s="6">
+        <v>50</v>
+      </c>
+      <c r="AP3" s="6">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="AQ3" s="6">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="AR3" s="6">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="AS3" s="6">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="AT3" s="6">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="AU3" s="6">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="AV3" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="AW3" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="AX3" s="11">
+        <v>-0.47089999999999999</v>
+      </c>
+      <c r="AY3" s="11">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="AZ3" s="11">
+        <v>-0.53969999999999996</v>
+      </c>
+      <c r="BA3" s="11">
+        <v>-2.2200000000000001E-2</v>
+      </c>
+      <c r="BB3" s="11">
+        <v>-0.48060000000000003</v>
+      </c>
+      <c r="BC3" s="11">
+        <v>-1.8800000000000001E-2</v>
+      </c>
+      <c r="BD3" s="6">
+        <v>5.16</v>
+      </c>
+      <c r="BE3" s="6">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.313</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="7">
+        <v>120</v>
+      </c>
+      <c r="S4" s="7">
+        <v>7</v>
+      </c>
+      <c r="T4" s="7">
+        <v>113</v>
+      </c>
+      <c r="U4" s="7">
+        <v>49</v>
+      </c>
+      <c r="V4" s="7">
+        <v>11</v>
+      </c>
+      <c r="W4" s="7">
+        <v>38</v>
+      </c>
+      <c r="X4" s="7">
+        <v>45</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>43</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>7</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>20</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>86</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>31</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>55</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>165</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>40</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>125</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>49</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>12</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>37</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>59</v>
+      </c>
+      <c r="AN4" s="7">
+        <v>11</v>
+      </c>
+      <c r="AO4" s="7">
+        <v>48</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="AQ4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AR4" s="7">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="AS4" s="7">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="AT4" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU4" s="7">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="AV4" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="AW4" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="AX4" s="13">
+        <v>-0.38490000000000002</v>
+      </c>
+      <c r="AY4" s="13">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="AZ4" s="13">
+        <v>-0.45600000000000002</v>
+      </c>
+      <c r="BA4" s="13">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="BB4" s="13">
+        <v>-0.38150000000000001</v>
+      </c>
+      <c r="BC4" s="13">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="BD4" s="7">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="BE4" s="7">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:83" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="58">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="C5" s="58">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="D5" s="58">
+        <v>0.625</v>
+      </c>
+      <c r="E5" s="58">
+        <v>0.7</v>
+      </c>
+      <c r="F5" s="58">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="G5" s="58">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="H5" s="58">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="I5" s="58">
+        <v>0.442</v>
+      </c>
+      <c r="J5" s="58">
+        <v>0.375</v>
+      </c>
+      <c r="K5" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="L5" s="58">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="M5" s="58">
+        <v>0.307</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="R5" s="58">
+        <v>133</v>
+      </c>
+      <c r="S5" s="58">
+        <v>15</v>
+      </c>
+      <c r="T5" s="58">
+        <v>118</v>
+      </c>
+      <c r="U5" s="58">
+        <v>35</v>
+      </c>
+      <c r="V5" s="58">
+        <v>7</v>
+      </c>
+      <c r="W5" s="58">
+        <v>28</v>
+      </c>
+      <c r="X5" s="58">
+        <v>80</v>
+      </c>
+      <c r="Y5" s="58">
+        <v>19</v>
+      </c>
+      <c r="Z5" s="58">
+        <v>61</v>
+      </c>
+      <c r="AA5" s="58">
+        <v>17</v>
+      </c>
+      <c r="AB5" s="58">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="58">
+        <v>13</v>
+      </c>
+      <c r="AD5" s="58">
+        <v>51</v>
+      </c>
+      <c r="AE5" s="58">
+        <v>14</v>
+      </c>
+      <c r="AF5" s="58">
+        <v>37</v>
+      </c>
+      <c r="AG5" s="58">
+        <v>175</v>
+      </c>
+      <c r="AH5" s="58">
+        <v>43</v>
+      </c>
+      <c r="AI5" s="58">
+        <v>132</v>
+      </c>
+      <c r="AJ5" s="58">
+        <v>36</v>
+      </c>
+      <c r="AK5" s="58">
+        <v>4</v>
+      </c>
+      <c r="AL5" s="58">
+        <v>32</v>
+      </c>
+      <c r="AM5" s="58">
+        <v>73</v>
+      </c>
+      <c r="AN5" s="58">
+        <v>15</v>
+      </c>
+      <c r="AO5" s="58">
+        <v>58</v>
+      </c>
+      <c r="AP5" s="58">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="AQ5" s="58">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="AR5" s="58">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="AS5" s="58">
+        <v>0.438</v>
+      </c>
+      <c r="AT5" s="58">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="AU5" s="58">
+        <v>0.441</v>
+      </c>
+      <c r="AV5" s="58">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW5" s="58">
+        <v>0.63</v>
+      </c>
+      <c r="AX5" s="58">
+        <v>2.8E-3</v>
+      </c>
+      <c r="AY5" s="58">
+        <v>-7.4000000000000003E-3</v>
+      </c>
+      <c r="AZ5" s="58">
+        <v>-6.7900000000000002E-2</v>
+      </c>
+      <c r="BA5" s="58">
+        <v>-1.8100000000000002E-2</v>
+      </c>
+      <c r="BB5" s="58">
+        <v>-2.1899999999999999E-2</v>
+      </c>
+      <c r="BC5" s="58">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="BD5" s="58">
+        <v>10.25</v>
+      </c>
+      <c r="BE5" s="58">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:83" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="59">
+        <v>0.62</v>
+      </c>
+      <c r="C6" s="59">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="D6" s="59">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="E6" s="59">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="F6" s="59">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="G6" s="59">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="H6" s="59">
+        <v>0.38</v>
+      </c>
+      <c r="I6" s="59">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="J6" s="59">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="K6" s="59">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="L6" s="59">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="M6" s="59">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="O6" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="P6" s="59">
+        <v>0.45</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="59">
+        <v>133</v>
+      </c>
+      <c r="S6" s="59">
+        <v>15</v>
+      </c>
+      <c r="T6" s="59">
+        <v>118</v>
+      </c>
+      <c r="U6" s="59">
+        <v>50</v>
+      </c>
+      <c r="V6" s="59">
+        <v>10</v>
+      </c>
+      <c r="W6" s="59">
+        <v>40</v>
+      </c>
+      <c r="X6" s="59">
+        <v>78</v>
+      </c>
+      <c r="Y6" s="59">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="59">
+        <v>58</v>
+      </c>
+      <c r="AA6" s="59">
+        <v>22</v>
+      </c>
+      <c r="AB6" s="59">
+        <v>7</v>
+      </c>
+      <c r="AC6" s="59">
+        <v>15</v>
+      </c>
+      <c r="AD6" s="59">
+        <v>53</v>
+      </c>
+      <c r="AE6" s="59">
+        <v>13</v>
+      </c>
+      <c r="AF6" s="59">
+        <v>40</v>
+      </c>
+      <c r="AG6" s="59">
+        <v>170</v>
+      </c>
+      <c r="AH6" s="59">
+        <v>40</v>
+      </c>
+      <c r="AI6" s="59">
+        <v>130</v>
+      </c>
+      <c r="AJ6" s="59">
+        <v>36</v>
+      </c>
+      <c r="AK6" s="59">
+        <v>4</v>
+      </c>
+      <c r="AL6" s="59">
+        <v>32</v>
+      </c>
+      <c r="AM6" s="59">
+        <v>58</v>
+      </c>
+      <c r="AN6" s="59">
+        <v>12</v>
+      </c>
+      <c r="AO6" s="59">
+        <v>46</v>
+      </c>
+      <c r="AP6" s="59">
+        <v>0.7</v>
+      </c>
+      <c r="AQ6" s="59">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AR6" s="59">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="AS6" s="59">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AT6" s="59">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="AU6" s="59">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="AV6" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="AW6" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="AX6" s="59">
+        <v>2.8E-3</v>
+      </c>
+      <c r="AY6" s="59">
+        <v>-1.06E-2</v>
+      </c>
+      <c r="AZ6" s="59">
+        <v>-3.6600000000000001E-2</v>
+      </c>
+      <c r="BA6" s="59">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="BB6" s="59">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="BC6" s="59">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="BD6" s="59">
+        <v>12</v>
+      </c>
+      <c r="BE6" s="59">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="58"/>
+      <c r="AF7" s="58"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="58"/>
+      <c r="AI7" s="58"/>
+      <c r="AJ7" s="58"/>
+      <c r="AK7" s="58"/>
+      <c r="AL7" s="58"/>
+      <c r="AM7" s="58"/>
+      <c r="AN7" s="58"/>
+      <c r="AO7" s="58"/>
+      <c r="AP7" s="58"/>
+      <c r="AQ7" s="58"/>
+      <c r="AR7" s="58"/>
+      <c r="AS7" s="58"/>
+      <c r="AT7" s="58"/>
+      <c r="AU7" s="58"/>
+      <c r="AV7" s="58"/>
+      <c r="AW7" s="58"/>
+      <c r="AX7" s="58"/>
+      <c r="AY7" s="58"/>
+      <c r="AZ7" s="58"/>
+      <c r="BA7" s="58"/>
+      <c r="BB7" s="58"/>
+      <c r="BC7" s="58"/>
+      <c r="BD7" s="58"/>
+      <c r="BE7" s="58"/>
+    </row>
+    <row r="8" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="59"/>
+      <c r="AJ8" s="59"/>
+      <c r="AK8" s="59"/>
+      <c r="AL8" s="59"/>
+      <c r="AM8" s="59"/>
+      <c r="AN8" s="59"/>
+      <c r="AO8" s="59"/>
+      <c r="AP8" s="59"/>
+      <c r="AQ8" s="59"/>
+      <c r="AR8" s="59"/>
+      <c r="AS8" s="59"/>
+      <c r="AT8" s="59"/>
+      <c r="AU8" s="59"/>
+      <c r="AV8" s="59"/>
+      <c r="AW8" s="59"/>
+      <c r="AX8" s="59"/>
+      <c r="AY8" s="59"/>
+      <c r="AZ8" s="59"/>
+      <c r="BA8" s="59"/>
+      <c r="BB8" s="59"/>
+      <c r="BC8" s="59"/>
+      <c r="BD8" s="59"/>
+      <c r="BE8" s="59"/>
+    </row>
+    <row r="11" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="35"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="35"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="R11" s="41"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="X11" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN11" s="35"/>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ11" s="35"/>
+      <c r="AR11" s="36"/>
+      <c r="AS11" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT11" s="35"/>
+      <c r="AU11" s="36"/>
+      <c r="AV11" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW11" s="35"/>
+      <c r="AX11" s="36"/>
+      <c r="AY11" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ11" s="35"/>
+      <c r="BA11" s="36"/>
+      <c r="BB11" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC11" s="35"/>
+      <c r="BD11" s="36"/>
+      <c r="BE11" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF11" s="35"/>
+      <c r="BG11" s="36"/>
+      <c r="BH11" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI11" s="35"/>
+      <c r="BJ11" s="36"/>
+      <c r="BK11" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="BL11" s="35"/>
+      <c r="BM11" s="36"/>
+      <c r="BN11" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO11" s="35"/>
+      <c r="BP11" s="36"/>
+      <c r="BQ11" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR11" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="BS11" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT11" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="BU11" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="BV11" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW11" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="BX11" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="BY11" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="BZ11" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="CA11" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="CB11" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC11" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="CD11" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="CE11" s="31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="47"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="BD12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="BG12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="BI12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="BJ12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="BL12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="BM12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="BN12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="BO12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="BP12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="BQ12" s="31"/>
+      <c r="BR12" s="31"/>
+      <c r="BS12" s="47"/>
+      <c r="BT12" s="33"/>
+      <c r="BU12" s="33"/>
+      <c r="BV12" s="33"/>
+      <c r="BW12" s="33"/>
+      <c r="BX12" s="33"/>
+      <c r="BY12" s="33"/>
+      <c r="BZ12" s="33"/>
+      <c r="CA12" s="33"/>
+      <c r="CB12" s="33"/>
+      <c r="CC12" s="31"/>
+      <c r="CD12" s="31"/>
+      <c r="CE12" s="31"/>
+    </row>
+    <row r="13" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.753</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.214</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.247</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="X13" s="6">
+        <v>76</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>66</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>9</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>9</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>43</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>40</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>20</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI13" s="6">
+        <v>18</v>
+      </c>
+      <c r="AJ13" s="6">
+        <v>4</v>
+      </c>
+      <c r="AK13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="6">
+        <v>4</v>
+      </c>
+      <c r="AM13" s="6">
+        <v>22</v>
+      </c>
+      <c r="AN13" s="6">
+        <v>2</v>
+      </c>
+      <c r="AO13" s="6">
+        <v>20</v>
+      </c>
+      <c r="AP13" s="6">
+        <v>2</v>
+      </c>
+      <c r="AQ13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="6">
+        <v>66</v>
+      </c>
+      <c r="AT13" s="6">
+        <v>14</v>
+      </c>
+      <c r="AU13" s="6">
+        <v>52</v>
+      </c>
+      <c r="AV13" s="6">
+        <v>24</v>
+      </c>
+      <c r="AW13" s="6">
+        <v>11</v>
+      </c>
+      <c r="AX13" s="6">
+        <v>13</v>
+      </c>
+      <c r="AY13" s="6">
+        <v>2</v>
+      </c>
+      <c r="AZ13" s="6">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="6">
+        <v>1</v>
+      </c>
+      <c r="BB13" s="6">
+        <v>21</v>
+      </c>
+      <c r="BC13" s="6">
+        <v>5</v>
+      </c>
+      <c r="BD13" s="6">
+        <v>16</v>
+      </c>
+      <c r="BE13" s="6">
+        <v>11</v>
+      </c>
+      <c r="BF13" s="6">
+        <v>5</v>
+      </c>
+      <c r="BG13" s="6">
+        <v>6</v>
+      </c>
+      <c r="BH13" s="6">
+        <v>0.874</v>
+      </c>
+      <c r="BI13" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="BJ13" s="6">
+        <v>0.874</v>
+      </c>
+      <c r="BK13" s="6">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="BL13" s="6">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="6">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="BN13" s="6">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="BO13" s="6">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="BP13" s="6">
+        <v>0.755</v>
+      </c>
+      <c r="BQ13" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="BR13" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="BS13" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="BT13" s="11">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="BU13" s="11">
+        <v>-0.36</v>
+      </c>
+      <c r="BV13" s="11">
+        <v>-0.49459999999999998</v>
+      </c>
+      <c r="BW13" s="11">
+        <v>-0.1196</v>
+      </c>
+      <c r="BX13" s="11">
+        <v>-0.1605</v>
+      </c>
+      <c r="BY13" s="11">
+        <v>-0.52139999999999997</v>
+      </c>
+      <c r="BZ13" s="11">
+        <v>-0.17829999999999999</v>
+      </c>
+      <c r="CA13" s="11">
+        <v>-0.2157</v>
+      </c>
+      <c r="CB13" s="11">
+        <v>-0.47339999999999999</v>
+      </c>
+      <c r="CC13" s="6">
+        <v>1.77</v>
+      </c>
+      <c r="CD13" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="CE13" s="6">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.753</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0.221</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0.247</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="U14" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X14" s="7">
+        <v>75</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>65</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>11</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>43</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>39</v>
+      </c>
+      <c r="AG14" s="7">
+        <v>20</v>
+      </c>
+      <c r="AH14" s="7">
+        <v>3</v>
+      </c>
+      <c r="AI14" s="7">
+        <v>17</v>
+      </c>
+      <c r="AJ14" s="7">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="7">
+        <v>5</v>
+      </c>
+      <c r="AM14" s="7">
+        <v>21</v>
+      </c>
+      <c r="AN14" s="7">
+        <v>5</v>
+      </c>
+      <c r="AO14" s="7">
+        <v>16</v>
+      </c>
+      <c r="AP14" s="7">
+        <v>2</v>
+      </c>
+      <c r="AQ14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="7">
+        <v>2</v>
+      </c>
+      <c r="AS14" s="7">
+        <v>65</v>
+      </c>
+      <c r="AT14" s="7">
+        <v>14</v>
+      </c>
+      <c r="AU14" s="7">
+        <v>51</v>
+      </c>
+      <c r="AV14" s="7">
+        <v>25</v>
+      </c>
+      <c r="AW14" s="7">
+        <v>8</v>
+      </c>
+      <c r="AX14" s="7">
+        <v>17</v>
+      </c>
+      <c r="AY14" s="7">
+        <v>3</v>
+      </c>
+      <c r="AZ14" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA14" s="7">
+        <v>2</v>
+      </c>
+      <c r="BB14" s="7">
+        <v>19</v>
+      </c>
+      <c r="BC14" s="7">
+        <v>4</v>
+      </c>
+      <c r="BD14" s="7">
+        <v>15</v>
+      </c>
+      <c r="BE14" s="7">
+        <v>11</v>
+      </c>
+      <c r="BF14" s="7">
+        <v>4</v>
+      </c>
+      <c r="BG14" s="7">
+        <v>7</v>
+      </c>
+      <c r="BH14" s="7">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="BI14" s="7">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="BJ14" s="7">
+        <v>0.872</v>
+      </c>
+      <c r="BK14" s="7">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="BL14" s="7">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="BM14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="BN14" s="7">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="BO14" s="7">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="BP14" s="7">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="BQ14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="BR14" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="BS14" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="BT14" s="13">
+        <v>-6.1100000000000002E-2</v>
+      </c>
+      <c r="BU14" s="13">
+        <v>-0.2</v>
+      </c>
+      <c r="BV14" s="13">
+        <v>-0.34749999999999998</v>
+      </c>
+      <c r="BW14" s="13">
+        <v>-2.4899999999999999E-2</v>
+      </c>
+      <c r="BX14" s="13">
+        <v>-0.1326</v>
+      </c>
+      <c r="BY14" s="13">
+        <v>-0.2676</v>
+      </c>
+      <c r="BZ14" s="13">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="CA14" s="13">
+        <v>-0.14460000000000001</v>
+      </c>
+      <c r="CB14" s="13">
+        <v>-0.224</v>
+      </c>
+      <c r="CC14" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="CD14" s="7">
+        <v>4.25</v>
+      </c>
+      <c r="CE14" s="7">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:83" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="58">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="C15" s="58">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D15" s="58">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E15" s="58">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="F15" s="58">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="G15" s="58">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="H15" s="58">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="I15" s="58">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="J15" s="58">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="K15" s="58">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="L15" s="58">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="M15" s="58">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="N15" s="58">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="O15" s="58">
+        <v>0.184</v>
+      </c>
+      <c r="P15" s="58">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="Q15" s="58">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="R15" s="58">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="S15" s="58">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="T15" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="X15" s="58">
+        <v>99</v>
+      </c>
+      <c r="Y15" s="58">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="58">
+        <v>89</v>
+      </c>
+      <c r="AA15" s="58">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="58">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="58">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="58">
+        <v>68</v>
+      </c>
+      <c r="AE15" s="58">
+        <v>7</v>
+      </c>
+      <c r="AF15" s="58">
+        <v>61</v>
+      </c>
+      <c r="AG15" s="58">
+        <v>29</v>
+      </c>
+      <c r="AH15" s="58">
+        <v>7</v>
+      </c>
+      <c r="AI15" s="58">
+        <v>22</v>
+      </c>
+      <c r="AJ15" s="58">
+        <v>2</v>
+      </c>
+      <c r="AK15" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="58">
+        <v>2</v>
+      </c>
+      <c r="AM15" s="58">
+        <v>53</v>
+      </c>
+      <c r="AN15" s="58">
+        <v>18</v>
+      </c>
+      <c r="AO15" s="58">
+        <v>35</v>
+      </c>
+      <c r="AP15" s="58">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="58">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="58">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="58">
+        <v>90</v>
+      </c>
+      <c r="AT15" s="58">
+        <v>40</v>
+      </c>
+      <c r="AU15" s="58">
+        <v>50</v>
+      </c>
+      <c r="AV15" s="58">
+        <v>6</v>
+      </c>
+      <c r="AW15" s="58">
+        <v>2</v>
+      </c>
+      <c r="AX15" s="58">
+        <v>4</v>
+      </c>
+      <c r="AY15" s="58">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="58">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="58">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="58">
+        <v>33</v>
+      </c>
+      <c r="BC15" s="58">
+        <v>9</v>
+      </c>
+      <c r="BD15" s="58">
+        <v>24</v>
+      </c>
+      <c r="BE15" s="58">
+        <v>1</v>
+      </c>
+      <c r="BF15" s="58">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="58">
+        <v>1</v>
+      </c>
+      <c r="BH15" s="58">
+        <v>0.872</v>
+      </c>
+      <c r="BI15" s="58">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="BJ15" s="58">
+        <v>0.89</v>
+      </c>
+      <c r="BK15" s="58">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="BL15" s="58">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="58">
+        <v>0.188</v>
+      </c>
+      <c r="BN15" s="58">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="BO15" s="58">
+        <v>0.438</v>
+      </c>
+      <c r="BP15" s="58">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="BQ15" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="BR15" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="BS15" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="BT15" s="58">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="58">
+        <v>-0.1111</v>
+      </c>
+      <c r="BV15" s="58">
+        <v>1.61E-2</v>
+      </c>
+      <c r="BW15" s="58">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="58">
+        <v>-6.3299999999999995E-2</v>
+      </c>
+      <c r="BY15" s="58">
+        <v>-2.46E-2</v>
+      </c>
+      <c r="BZ15" s="58">
+        <v>0</v>
+      </c>
+      <c r="CA15" s="58">
+        <v>-7.4800000000000005E-2</v>
+      </c>
+      <c r="CB15" s="58">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="CC15" s="58">
+        <v>3.63</v>
+      </c>
+      <c r="CD15" s="58">
+        <v>5.5</v>
+      </c>
+      <c r="CE15" s="58">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:83" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="59">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="C16" s="59">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D16" s="59">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E16" s="59">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="F16" s="59">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="G16" s="59">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="H16" s="59">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="I16" s="59">
+        <v>0.37</v>
+      </c>
+      <c r="J16" s="59">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="K16" s="59">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="L16" s="59">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="M16" s="59">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="N16" s="59">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="O16" s="59">
+        <v>0.184</v>
+      </c>
+      <c r="P16" s="59">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="Q16" s="59">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="R16" s="59">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="S16" s="59">
+        <v>0.317</v>
+      </c>
+      <c r="T16" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="U16" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="V16" s="59">
+        <v>0.45</v>
+      </c>
+      <c r="W16" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="X16" s="59">
+        <v>99</v>
+      </c>
+      <c r="Y16" s="59">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="59">
+        <v>89</v>
+      </c>
+      <c r="AA16" s="59">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="59">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="59">
+        <v>60</v>
+      </c>
+      <c r="AE16" s="59">
+        <v>5</v>
+      </c>
+      <c r="AF16" s="59">
+        <v>55</v>
+      </c>
+      <c r="AG16" s="59">
+        <v>29</v>
+      </c>
+      <c r="AH16" s="59">
+        <v>7</v>
+      </c>
+      <c r="AI16" s="59">
+        <v>22</v>
+      </c>
+      <c r="AJ16" s="59">
+        <v>2</v>
+      </c>
+      <c r="AK16" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="59">
+        <v>2</v>
+      </c>
+      <c r="AM16" s="59">
+        <v>40</v>
+      </c>
+      <c r="AN16" s="59">
+        <v>15</v>
+      </c>
+      <c r="AO16" s="59">
+        <v>25</v>
+      </c>
+      <c r="AP16" s="59">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="59">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="59">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="59">
+        <v>90</v>
+      </c>
+      <c r="AT16" s="59">
+        <v>40</v>
+      </c>
+      <c r="AU16" s="59">
+        <v>50</v>
+      </c>
+      <c r="AV16" s="59">
+        <v>19</v>
+      </c>
+      <c r="AW16" s="59">
+        <v>5</v>
+      </c>
+      <c r="AX16" s="59">
+        <v>14</v>
+      </c>
+      <c r="AY16" s="59">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="59">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="59">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="59">
+        <v>34</v>
+      </c>
+      <c r="BC16" s="59">
+        <v>9</v>
+      </c>
+      <c r="BD16" s="59">
+        <v>25</v>
+      </c>
+      <c r="BE16" s="59">
+        <v>9</v>
+      </c>
+      <c r="BF16" s="59">
+        <v>2</v>
+      </c>
+      <c r="BG16" s="59">
+        <v>7</v>
+      </c>
+      <c r="BH16" s="59">
+        <v>0.872</v>
+      </c>
+      <c r="BI16" s="59">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="BJ16" s="59">
+        <v>0.89</v>
+      </c>
+      <c r="BK16" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="BL16" s="59">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="59">
+        <v>0.129</v>
+      </c>
+      <c r="BN16" s="59">
+        <v>0.71</v>
+      </c>
+      <c r="BO16" s="59">
+        <v>0.37</v>
+      </c>
+      <c r="BP16" s="59">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="BQ16" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="BR16" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="BS16" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="BT16" s="59">
+        <v>0</v>
+      </c>
+      <c r="BU16" s="59">
+        <v>-7.4099999999999999E-2</v>
+      </c>
+      <c r="BV16" s="59">
+        <v>-0.17280000000000001</v>
+      </c>
+      <c r="BW16" s="59">
+        <v>0</v>
+      </c>
+      <c r="BX16" s="59">
+        <v>-5.0599999999999999E-2</v>
+      </c>
+      <c r="BY16" s="59">
+        <v>-5.1299999999999998E-2</v>
+      </c>
+      <c r="BZ16" s="59">
+        <v>0</v>
+      </c>
+      <c r="CA16" s="59">
+        <v>-5.6300000000000003E-2</v>
+      </c>
+      <c r="CB16" s="59">
+        <v>-3.1899999999999998E-2</v>
+      </c>
+      <c r="CC16" s="59">
+        <v>6.69</v>
+      </c>
+      <c r="CD16" s="59">
+        <v>7.14</v>
+      </c>
+      <c r="CE16" s="59">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:83" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="58"/>
+      <c r="AI17" s="58"/>
+      <c r="AJ17" s="58"/>
+      <c r="AK17" s="58"/>
+      <c r="AL17" s="58"/>
+      <c r="AM17" s="58"/>
+      <c r="AN17" s="58"/>
+      <c r="AO17" s="58"/>
+      <c r="AP17" s="58"/>
+      <c r="AQ17" s="58"/>
+      <c r="AR17" s="58"/>
+      <c r="AS17" s="58"/>
+      <c r="AT17" s="58"/>
+      <c r="AU17" s="58"/>
+      <c r="AV17" s="58"/>
+      <c r="AW17" s="58"/>
+      <c r="AX17" s="58"/>
+      <c r="AY17" s="58"/>
+      <c r="AZ17" s="58"/>
+      <c r="BA17" s="58"/>
+      <c r="BB17" s="58"/>
+      <c r="BC17" s="58"/>
+      <c r="BD17" s="58"/>
+      <c r="BE17" s="58"/>
+      <c r="BF17" s="58"/>
+      <c r="BG17" s="58"/>
+      <c r="BH17" s="58"/>
+      <c r="BI17" s="58"/>
+      <c r="BJ17" s="58"/>
+      <c r="BK17" s="58"/>
+      <c r="BL17" s="58"/>
+      <c r="BM17" s="58"/>
+      <c r="BN17" s="58"/>
+      <c r="BO17" s="58"/>
+      <c r="BP17" s="58"/>
+      <c r="BQ17" s="58"/>
+      <c r="BR17" s="58"/>
+      <c r="BS17" s="58"/>
+      <c r="BT17" s="58"/>
+      <c r="BU17" s="58"/>
+      <c r="BV17" s="58"/>
+      <c r="BW17" s="58"/>
+      <c r="BX17" s="58"/>
+      <c r="BY17" s="58"/>
+      <c r="BZ17" s="58"/>
+      <c r="CA17" s="58"/>
+      <c r="CB17" s="58"/>
+      <c r="CC17" s="58"/>
+      <c r="CD17" s="58"/>
+      <c r="CE17" s="58"/>
+    </row>
+    <row r="18" spans="1:83" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="59"/>
+      <c r="AJ18" s="59"/>
+      <c r="AK18" s="59"/>
+      <c r="AL18" s="59"/>
+      <c r="AM18" s="59"/>
+      <c r="AN18" s="59"/>
+      <c r="AO18" s="59"/>
+      <c r="AP18" s="59"/>
+      <c r="AQ18" s="59"/>
+      <c r="AR18" s="59"/>
+      <c r="AS18" s="59"/>
+      <c r="AT18" s="59"/>
+      <c r="AU18" s="59"/>
+      <c r="AV18" s="59"/>
+      <c r="AW18" s="59"/>
+      <c r="AX18" s="59"/>
+      <c r="AY18" s="59"/>
+      <c r="AZ18" s="59"/>
+      <c r="BA18" s="59"/>
+      <c r="BB18" s="59"/>
+      <c r="BC18" s="59"/>
+      <c r="BD18" s="59"/>
+      <c r="BE18" s="59"/>
+      <c r="BF18" s="59"/>
+      <c r="BG18" s="59"/>
+      <c r="BH18" s="59"/>
+      <c r="BI18" s="59"/>
+      <c r="BJ18" s="59"/>
+      <c r="BK18" s="59"/>
+      <c r="BL18" s="59"/>
+      <c r="BM18" s="59"/>
+      <c r="BN18" s="59"/>
+      <c r="BO18" s="59"/>
+      <c r="BP18" s="59"/>
+      <c r="BQ18" s="59"/>
+      <c r="BR18" s="59"/>
+      <c r="BS18" s="59"/>
+      <c r="BT18" s="59"/>
+      <c r="BU18" s="59"/>
+      <c r="BV18" s="59"/>
+      <c r="BW18" s="59"/>
+      <c r="BX18" s="59"/>
+      <c r="BY18" s="59"/>
+      <c r="BZ18" s="59"/>
+      <c r="CA18" s="59"/>
+      <c r="CB18" s="59"/>
+      <c r="CC18" s="59"/>
+      <c r="CD18" s="59"/>
+      <c r="CE18" s="59"/>
+    </row>
+    <row r="20" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+    </row>
+    <row r="21" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A21" s="70"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+    </row>
+    <row r="22" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+    </row>
+    <row r="23" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="70">
+    <mergeCell ref="BZ11:BZ12"/>
+    <mergeCell ref="CA11:CA12"/>
+    <mergeCell ref="CB11:CB12"/>
+    <mergeCell ref="CC11:CC12"/>
+    <mergeCell ref="CD11:CD12"/>
+    <mergeCell ref="CE11:CE12"/>
+    <mergeCell ref="BT11:BT12"/>
+    <mergeCell ref="BU11:BU12"/>
+    <mergeCell ref="BV11:BV12"/>
+    <mergeCell ref="BW11:BW12"/>
+    <mergeCell ref="BX11:BX12"/>
+    <mergeCell ref="BY11:BY12"/>
+    <mergeCell ref="BH11:BJ11"/>
+    <mergeCell ref="BK11:BM11"/>
+    <mergeCell ref="BN11:BP11"/>
+    <mergeCell ref="BQ11:BQ12"/>
+    <mergeCell ref="BR11:BR12"/>
+    <mergeCell ref="BS11:BS12"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="AS11:AU11"/>
+    <mergeCell ref="AV11:AX11"/>
+    <mergeCell ref="AY11:BA11"/>
+    <mergeCell ref="BB11:BD11"/>
+    <mergeCell ref="BE11:BG11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="AG11:AI11"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="AM11:AO11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="BB1:BB2"/>
+    <mergeCell ref="BC1:BC2"/>
+    <mergeCell ref="BD1:BD2"/>
+    <mergeCell ref="BE1:BE2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="AY1:AY2"/>
+    <mergeCell ref="AZ1:AZ2"/>
+    <mergeCell ref="BA1:BA2"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="O1:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80701A8F-7759-45F4-A607-162CF246F76F}">
-  <dimension ref="A1:BH33"/>
+  <dimension ref="A1:BI39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="36" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="36" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="42"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="41" t="s">
+      <c r="R1" s="39"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="42"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="36" t="s">
+      <c r="U1" s="39"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="36" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="36" t="s">
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="36" t="s">
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="36" t="s">
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="36" t="s">
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="36" t="s">
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="36" t="s">
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="33" t="s">
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="AV1" s="33" t="s">
+      <c r="AV1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="AW1" s="31" t="s">
+      <c r="AW1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="AX1" s="31" t="s">
+      <c r="AX1" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="AY1" s="31" t="s">
+      <c r="AY1" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="AZ1" s="31" t="s">
+      <c r="AZ1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="BA1" s="31" t="s">
+      <c r="BA1" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="BB1" s="31" t="s">
+      <c r="BB1" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="BC1" s="33" t="s">
+      <c r="BC1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="BD1" s="33" t="s">
+      <c r="BD1" s="31" t="s">
         <v>65</v>
       </c>
       <c r="BF1" s="48" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
+    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A2" s="42"/>
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
@@ -2918,9 +6700,9 @@
       <c r="M2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
       <c r="Q2" s="22" t="s">
         <v>25</v>
       </c>
@@ -3011,20 +6793,20 @@
       <c r="AT2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32"/>
-      <c r="BC2" s="33"/>
-      <c r="BD2" s="33"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33"/>
+      <c r="AZ2" s="33"/>
+      <c r="BA2" s="33"/>
+      <c r="BB2" s="33"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31"/>
       <c r="BF2" s="49"/>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
@@ -3040,10 +6822,10 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="F3" s="3">
-        <v>0.68100000000000005</v>
+        <v>0.71</v>
       </c>
       <c r="G3" s="3">
-        <v>0.72299999999999998</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="H3" s="3">
         <v>0.33700000000000002</v>
@@ -3058,19 +6840,19 @@
         <v>0.28699999999999998</v>
       </c>
       <c r="L3" s="3">
-        <v>0.31900000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>0.27700000000000002</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="6">
         <v>124</v>
@@ -3082,13 +6864,13 @@
         <v>118</v>
       </c>
       <c r="T3" s="6">
+        <v>44</v>
+      </c>
+      <c r="U3" s="6">
+        <v>8</v>
+      </c>
+      <c r="V3" s="6">
         <v>36</v>
-      </c>
-      <c r="U3" s="6">
-        <v>4</v>
-      </c>
-      <c r="V3" s="6">
-        <v>32</v>
       </c>
       <c r="W3" s="6">
         <v>56</v>
@@ -3100,13 +6882,13 @@
         <v>54</v>
       </c>
       <c r="Z3" s="6">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AA3" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB3" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AC3" s="6">
         <v>75</v>
@@ -3118,13 +6900,13 @@
         <v>44</v>
       </c>
       <c r="AF3" s="6">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AG3" s="6">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AH3" s="6">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AI3" s="6">
         <v>45</v>
@@ -3136,13 +6918,13 @@
         <v>32</v>
       </c>
       <c r="AL3" s="6">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="AM3" s="6">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AN3" s="6">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AO3" s="6">
         <v>0.71099999999999997</v>
@@ -3154,48 +6936,48 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="AR3" s="6">
-        <v>0.45600000000000002</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="AS3" s="6">
-        <v>0.26700000000000002</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="AT3" s="6">
-        <v>0.5</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="AU3" s="6">
         <v>0.64</v>
       </c>
       <c r="AV3" s="6">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AW3" s="11">
         <v>-0.47089999999999999</v>
       </c>
       <c r="AX3" s="11">
-        <v>-0.1903</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="AY3" s="11">
         <v>-0.53969999999999996</v>
       </c>
       <c r="AZ3" s="11">
-        <v>-6.59E-2</v>
+        <v>-2.2200000000000001E-2</v>
       </c>
       <c r="BA3" s="11">
         <v>-0.48060000000000003</v>
       </c>
       <c r="BB3" s="11">
-        <v>-8.7099999999999997E-2</v>
+        <v>-1.8800000000000001E-2</v>
       </c>
       <c r="BC3" s="6">
         <v>5.16</v>
       </c>
       <c r="BD3" s="6">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="BF3" s="49"/>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="7">
@@ -3208,13 +6990,13 @@
         <v>0.67700000000000005</v>
       </c>
       <c r="E4" s="7">
-        <v>0.73699999999999999</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="F4" s="7">
-        <v>0.754</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="G4" s="7">
-        <v>0.73199999999999998</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="H4" s="7">
         <v>0.313</v>
@@ -3226,22 +7008,22 @@
         <v>0.32300000000000001</v>
       </c>
       <c r="K4" s="7">
-        <v>0.26300000000000001</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="L4" s="7">
-        <v>0.246</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="M4" s="7">
-        <v>0.26800000000000002</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="O4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="7">
         <v>120</v>
@@ -3253,13 +7035,13 @@
         <v>113</v>
       </c>
       <c r="T4" s="7">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="U4" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V4" s="7">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="W4" s="7">
         <v>45</v>
@@ -3271,13 +7053,13 @@
         <v>43</v>
       </c>
       <c r="Z4" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA4" s="7">
         <v>7</v>
       </c>
       <c r="AB4" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC4" s="7">
         <v>86</v>
@@ -3289,13 +7071,13 @@
         <v>55</v>
       </c>
       <c r="AF4" s="7">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG4" s="7">
         <v>40</v>
       </c>
       <c r="AH4" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AI4" s="7">
         <v>49</v>
@@ -3307,13 +7089,13 @@
         <v>37</v>
       </c>
       <c r="AL4" s="7">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="AM4" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN4" s="7">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AO4" s="7">
         <v>0.71899999999999997</v>
@@ -3325,48 +7107,48 @@
         <v>0.73899999999999999</v>
       </c>
       <c r="AR4" s="7">
-        <v>0.58199999999999996</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="AS4" s="7">
-        <v>0.58499999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AT4" s="7">
-        <v>0.58099999999999996</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="AU4" s="7">
         <v>0.66</v>
       </c>
       <c r="AV4" s="7">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="AW4" s="13">
         <v>-0.38490000000000002</v>
       </c>
       <c r="AX4" s="13">
-        <v>4.5499999999999999E-2</v>
+        <v>5.8099999999999999E-2</v>
       </c>
       <c r="AY4" s="13">
         <v>-0.45600000000000002</v>
       </c>
       <c r="AZ4" s="13">
-        <v>7.0000000000000001E-3</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="BA4" s="13">
         <v>-0.38150000000000001</v>
       </c>
       <c r="BB4" s="13">
-        <v>3.1699999999999999E-2</v>
+        <v>3.4599999999999999E-2</v>
       </c>
       <c r="BC4" s="7">
         <v>4.3600000000000003</v>
       </c>
       <c r="BD4" s="7">
-        <v>4.1900000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="BF4" s="49"/>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2">
@@ -3379,13 +7161,13 @@
         <v>0.67700000000000005</v>
       </c>
       <c r="E5" s="2">
-        <v>0.71699999999999997</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="F5" s="2">
         <v>0.71</v>
       </c>
       <c r="G5" s="2">
-        <v>0.71899999999999997</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="H5" s="2">
         <v>0.317</v>
@@ -3397,22 +7179,22 @@
         <v>0.32300000000000001</v>
       </c>
       <c r="K5" s="2">
-        <v>0.28299999999999997</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="L5" s="2">
         <v>0.28999999999999998</v>
       </c>
       <c r="M5" s="2">
-        <v>0.28100000000000003</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="6">
         <v>112</v>
@@ -3424,13 +7206,13 @@
         <v>104</v>
       </c>
       <c r="T5" s="6">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U5" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V5" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W5" s="6">
         <v>38</v>
@@ -3442,13 +7224,13 @@
         <v>34</v>
       </c>
       <c r="Z5" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AA5" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB5" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC5" s="6">
         <v>93</v>
@@ -3460,13 +7242,13 @@
         <v>64</v>
       </c>
       <c r="AF5" s="6">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AG5" s="6">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AH5" s="6">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AI5" s="6">
         <v>57</v>
@@ -3478,13 +7260,13 @@
         <v>46</v>
       </c>
       <c r="AL5" s="6">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AM5" s="6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AN5" s="6">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO5" s="6">
         <v>0.70199999999999996</v>
@@ -3496,48 +7278,48 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="AR5" s="6">
-        <v>0.47899999999999998</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="AS5" s="6">
-        <v>0.375</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="AT5" s="6">
-        <v>0.504</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="AU5" s="6">
         <v>0.64</v>
       </c>
       <c r="AV5" s="6">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="AW5" s="11">
         <v>-0.27229999999999999</v>
       </c>
       <c r="AX5" s="11">
-        <v>-0.111</v>
+        <v>-3.1699999999999999E-2</v>
       </c>
       <c r="AY5" s="11">
         <v>-0.32569999999999999</v>
       </c>
       <c r="AZ5" s="11">
-        <v>-4.99E-2</v>
+        <v>-4.8999999999999998E-3</v>
       </c>
       <c r="BA5" s="11">
         <v>-0.249</v>
       </c>
       <c r="BB5" s="11">
-        <v>-5.4300000000000001E-2</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
       <c r="BC5" s="6">
         <v>18.420000000000002</v>
       </c>
       <c r="BD5" s="6">
-        <v>26.24</v>
+        <v>26.55</v>
       </c>
       <c r="BF5" s="49"/>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="7">
@@ -3550,13 +7332,13 @@
         <v>0.68100000000000005</v>
       </c>
       <c r="E6" s="7">
-        <v>0.74299999999999999</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="F6" s="7">
         <v>0.73899999999999999</v>
       </c>
       <c r="G6" s="7">
-        <v>0.745</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="H6" s="7">
         <v>0.313</v>
@@ -3568,22 +7350,22 @@
         <v>0.31900000000000001</v>
       </c>
       <c r="K6" s="7">
-        <v>0.25700000000000001</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="L6" s="7">
         <v>0.26100000000000001</v>
       </c>
       <c r="M6" s="7">
-        <v>0.255</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="N6" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q6" s="9">
         <v>123</v>
@@ -3598,10 +7380,10 @@
         <v>52</v>
       </c>
       <c r="U6" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V6" s="9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W6" s="9">
         <v>48</v>
@@ -3613,13 +7395,13 @@
         <v>46</v>
       </c>
       <c r="Z6" s="9">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="9">
         <v>21</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>7</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>14</v>
       </c>
       <c r="AC6" s="9">
         <v>83</v>
@@ -3631,13 +7413,13 @@
         <v>52</v>
       </c>
       <c r="AF6" s="9">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AG6" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AH6" s="9">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="AI6" s="9">
         <v>46</v>
@@ -3652,10 +7434,10 @@
         <v>56</v>
       </c>
       <c r="AM6" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AN6" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AO6" s="9">
         <v>0.72399999999999998</v>
@@ -3667,47 +7449,47 @@
         <v>0.748</v>
       </c>
       <c r="AR6" s="9">
-        <v>0.57499999999999996</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="AS6" s="9">
-        <v>0.55000000000000004</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="AT6" s="9">
-        <v>0.58199999999999996</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="AU6" s="9">
         <v>0.65</v>
       </c>
       <c r="AV6" s="9">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="AW6" s="12">
         <v>-0.4642</v>
       </c>
       <c r="AX6" s="12">
-        <v>2.3300000000000001E-2</v>
+        <v>0.13739999999999999</v>
       </c>
       <c r="AY6" s="12">
         <v>-0.50339999999999996</v>
       </c>
       <c r="AZ6" s="12">
-        <v>2.2800000000000001E-2</v>
+        <v>5.91E-2</v>
       </c>
       <c r="BA6" s="12">
         <v>-0.4365</v>
       </c>
       <c r="BB6" s="12">
-        <v>3.78E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="BC6" s="9">
         <v>19.510000000000002</v>
       </c>
       <c r="BD6" s="9">
-        <v>11.15</v>
+        <v>11.52</v>
       </c>
       <c r="BF6" s="49"/>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>10</v>
       </c>
@@ -3768,7 +7550,7 @@
       <c r="BD7" s="6"/>
       <c r="BF7" s="49"/>
     </row>
-    <row r="8" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>32</v>
       </c>
@@ -3835,132 +7617,132 @@
       <c r="BD8" s="9"/>
       <c r="BF8" s="50"/>
     </row>
-    <row r="11" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+    <row r="11" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="36" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="36" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="36" t="s">
+      <c r="I12" s="35"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="37"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="39" t="s">
+      <c r="L12" s="35"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="O12" s="39" t="s">
+      <c r="O12" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="33" t="s">
+      <c r="P12" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="33" t="s">
+      <c r="Q12" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="R12" s="33" t="s">
+      <c r="R12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="41" t="s">
+      <c r="S12" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="T12" s="42"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="41" t="s">
+      <c r="T12" s="39"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="W12" s="42"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="36" t="s">
+      <c r="W12" s="39"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="36" t="s">
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="36" t="s">
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="36" t="s">
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="36" t="s">
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="AL12" s="37"/>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="36" t="s">
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="36" t="s">
+      <c r="AO12" s="35"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="AR12" s="37"/>
-      <c r="AS12" s="38"/>
-      <c r="AT12" s="36" t="s">
+      <c r="AR12" s="35"/>
+      <c r="AS12" s="36"/>
+      <c r="AT12" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="AU12" s="37"/>
-      <c r="AV12" s="38"/>
-      <c r="AW12" s="33" t="s">
+      <c r="AU12" s="35"/>
+      <c r="AV12" s="36"/>
+      <c r="AW12" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="AX12" s="33" t="s">
+      <c r="AX12" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="AY12" s="31" t="s">
+      <c r="AY12" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="AZ12" s="31" t="s">
+      <c r="AZ12" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="BA12" s="31" t="s">
+      <c r="BA12" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="BB12" s="31" t="s">
+      <c r="BB12" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="BC12" s="31" t="s">
+      <c r="BC12" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="BD12" s="31" t="s">
+      <c r="BD12" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="BE12" s="33" t="s">
+      <c r="BE12" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="BF12" s="33" t="s">
+      <c r="BF12" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="BH12" s="45" t="s">
+      <c r="BH12" s="51" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
       <c r="B13" s="25" t="s">
         <v>25</v>
       </c>
@@ -3997,11 +7779,11 @@
       <c r="M13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
       <c r="S13" s="25" t="s">
         <v>25</v>
       </c>
@@ -4092,161 +7874,377 @@
       <c r="AV13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AW13" s="33"/>
-      <c r="AX13" s="33"/>
-      <c r="AY13" s="32"/>
-      <c r="AZ13" s="32"/>
-      <c r="BA13" s="32"/>
-      <c r="BB13" s="32"/>
-      <c r="BC13" s="32"/>
-      <c r="BD13" s="32"/>
-      <c r="BE13" s="33"/>
-      <c r="BF13" s="33"/>
-      <c r="BH13" s="46"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="33"/>
+      <c r="AZ13" s="33"/>
+      <c r="BA13" s="33"/>
+      <c r="BB13" s="33"/>
+      <c r="BC13" s="33"/>
+      <c r="BD13" s="33"/>
+      <c r="BE13" s="31"/>
+      <c r="BF13" s="31"/>
+      <c r="BH13" s="52"/>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1">
+      <c r="B14" s="58">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="C14" s="58">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="D14" s="58">
+        <v>0.625</v>
+      </c>
+      <c r="E14" s="58">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="58">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="G14" s="58">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="H14" s="58">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="I14" s="58">
+        <v>0.442</v>
+      </c>
+      <c r="J14" s="58">
+        <v>0.375</v>
+      </c>
+      <c r="K14" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="L14" s="58">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="M14" s="58">
+        <v>0.307</v>
+      </c>
+      <c r="N14" s="58">
         <v>0</v>
       </c>
-      <c r="O14" s="1">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="4" t="s">
+      <c r="O14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P14" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q14" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="6"/>
-      <c r="AV14" s="6"/>
-      <c r="AW14" s="6"/>
-      <c r="AX14" s="6"/>
-      <c r="AY14" s="11"/>
-      <c r="AZ14" s="11"/>
-      <c r="BA14" s="11"/>
-      <c r="BB14" s="11"/>
-      <c r="BC14" s="11"/>
-      <c r="BD14" s="11"/>
-      <c r="BE14" s="6"/>
-      <c r="BF14" s="6"/>
-      <c r="BH14" s="46"/>
+      <c r="R14" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="S14" s="58">
+        <v>133</v>
+      </c>
+      <c r="T14" s="58">
+        <v>15</v>
+      </c>
+      <c r="U14" s="58">
+        <v>118</v>
+      </c>
+      <c r="V14" s="58">
+        <v>35</v>
+      </c>
+      <c r="W14" s="58">
+        <v>7</v>
+      </c>
+      <c r="X14" s="58">
+        <v>28</v>
+      </c>
+      <c r="Y14" s="58">
+        <v>80</v>
+      </c>
+      <c r="Z14" s="58">
+        <v>19</v>
+      </c>
+      <c r="AA14" s="58">
+        <v>61</v>
+      </c>
+      <c r="AB14" s="58">
+        <v>17</v>
+      </c>
+      <c r="AC14" s="58">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="58">
+        <v>13</v>
+      </c>
+      <c r="AE14" s="58">
+        <v>51</v>
+      </c>
+      <c r="AF14" s="58">
+        <v>14</v>
+      </c>
+      <c r="AG14" s="58">
+        <v>37</v>
+      </c>
+      <c r="AH14" s="58">
+        <v>175</v>
+      </c>
+      <c r="AI14" s="58">
+        <v>43</v>
+      </c>
+      <c r="AJ14" s="58">
+        <v>132</v>
+      </c>
+      <c r="AK14" s="58">
+        <v>36</v>
+      </c>
+      <c r="AL14" s="58">
+        <v>4</v>
+      </c>
+      <c r="AM14" s="58">
+        <v>32</v>
+      </c>
+      <c r="AN14" s="58">
+        <v>73</v>
+      </c>
+      <c r="AO14" s="58">
+        <v>15</v>
+      </c>
+      <c r="AP14" s="58">
+        <v>58</v>
+      </c>
+      <c r="AQ14" s="58">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="AR14" s="58">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="AS14" s="58">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="AT14" s="58">
+        <v>0.438</v>
+      </c>
+      <c r="AU14" s="58">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="AV14" s="58">
+        <v>0.441</v>
+      </c>
+      <c r="AW14" s="58">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AX14" s="58">
+        <v>0.63</v>
+      </c>
+      <c r="AY14" s="58">
+        <v>2.8E-3</v>
+      </c>
+      <c r="AZ14" s="58">
+        <v>-7.4000000000000003E-3</v>
+      </c>
+      <c r="BA14" s="58">
+        <v>-6.7900000000000002E-2</v>
+      </c>
+      <c r="BB14" s="58">
+        <v>-1.8100000000000002E-2</v>
+      </c>
+      <c r="BC14" s="58">
+        <v>-2.1899999999999999E-2</v>
+      </c>
+      <c r="BD14" s="58">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="BE14" s="58">
+        <v>10.25</v>
+      </c>
+      <c r="BF14" s="58">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="BG14" s="55"/>
+      <c r="BH14" s="52"/>
+      <c r="BI14" s="30"/>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="10" t="s">
+      <c r="B15" s="59">
+        <v>0.62</v>
+      </c>
+      <c r="C15" s="59">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="D15" s="59">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="E15" s="59">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="F15" s="59">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="G15" s="59">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="H15" s="59">
+        <v>0.38</v>
+      </c>
+      <c r="I15" s="59">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="J15" s="59">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="K15" s="59">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="L15" s="59">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="M15" s="59">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="N15" s="59">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="O15" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="P15" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q15" s="59">
+        <v>0.45</v>
+      </c>
+      <c r="R15" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="S15" s="59">
+        <v>133</v>
+      </c>
+      <c r="T15" s="59">
         <v>15</v>
       </c>
-      <c r="Q15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="R15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="7"/>
-      <c r="AK15" s="7"/>
-      <c r="AL15" s="7"/>
-      <c r="AM15" s="7"/>
-      <c r="AN15" s="7"/>
-      <c r="AO15" s="7"/>
-      <c r="AP15" s="7"/>
-      <c r="AQ15" s="7"/>
-      <c r="AR15" s="7"/>
-      <c r="AS15" s="7"/>
-      <c r="AT15" s="7"/>
-      <c r="AU15" s="7"/>
-      <c r="AV15" s="7"/>
-      <c r="AW15" s="7"/>
-      <c r="AX15" s="7"/>
-      <c r="AY15" s="13"/>
-      <c r="AZ15" s="13"/>
-      <c r="BA15" s="13"/>
-      <c r="BB15" s="13"/>
-      <c r="BC15" s="13"/>
-      <c r="BD15" s="13"/>
-      <c r="BE15" s="7"/>
-      <c r="BF15" s="7"/>
-      <c r="BH15" s="46"/>
+      <c r="U15" s="59">
+        <v>118</v>
+      </c>
+      <c r="V15" s="59">
+        <v>50</v>
+      </c>
+      <c r="W15" s="59">
+        <v>10</v>
+      </c>
+      <c r="X15" s="59">
+        <v>40</v>
+      </c>
+      <c r="Y15" s="59">
+        <v>78</v>
+      </c>
+      <c r="Z15" s="59">
+        <v>20</v>
+      </c>
+      <c r="AA15" s="59">
+        <v>58</v>
+      </c>
+      <c r="AB15" s="59">
+        <v>22</v>
+      </c>
+      <c r="AC15" s="59">
+        <v>7</v>
+      </c>
+      <c r="AD15" s="59">
+        <v>15</v>
+      </c>
+      <c r="AE15" s="59">
+        <v>53</v>
+      </c>
+      <c r="AF15" s="59">
+        <v>13</v>
+      </c>
+      <c r="AG15" s="59">
+        <v>40</v>
+      </c>
+      <c r="AH15" s="59">
+        <v>170</v>
+      </c>
+      <c r="AI15" s="59">
+        <v>40</v>
+      </c>
+      <c r="AJ15" s="59">
+        <v>130</v>
+      </c>
+      <c r="AK15" s="59">
+        <v>36</v>
+      </c>
+      <c r="AL15" s="59">
+        <v>4</v>
+      </c>
+      <c r="AM15" s="59">
+        <v>32</v>
+      </c>
+      <c r="AN15" s="59">
+        <v>58</v>
+      </c>
+      <c r="AO15" s="59">
+        <v>12</v>
+      </c>
+      <c r="AP15" s="59">
+        <v>46</v>
+      </c>
+      <c r="AQ15" s="59">
+        <v>0.7</v>
+      </c>
+      <c r="AR15" s="59">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AS15" s="59">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="AT15" s="59">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AU15" s="59">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="AV15" s="59">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="AW15" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="AX15" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="AY15" s="59">
+        <v>2.8E-3</v>
+      </c>
+      <c r="AZ15" s="59">
+        <v>-1.06E-2</v>
+      </c>
+      <c r="BA15" s="59">
+        <v>-3.6600000000000001E-2</v>
+      </c>
+      <c r="BB15" s="59">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="BC15" s="59">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="BD15" s="59">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="BE15" s="59">
+        <v>12</v>
+      </c>
+      <c r="BF15" s="59">
+        <v>6.6</v>
+      </c>
+      <c r="BG15" s="29"/>
+      <c r="BH15" s="52"/>
+      <c r="BI15" s="30"/>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>8</v>
       </c>
@@ -4313,9 +8311,9 @@
       <c r="BD16" s="11"/>
       <c r="BE16" s="6"/>
       <c r="BF16" s="6"/>
-      <c r="BH16" s="46"/>
+      <c r="BH16" s="52"/>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>9</v>
       </c>
@@ -4382,9 +8380,9 @@
       <c r="BD17" s="12"/>
       <c r="BE17" s="9"/>
       <c r="BF17" s="9"/>
-      <c r="BH17" s="46"/>
+      <c r="BH17" s="52"/>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>10</v>
       </c>
@@ -4451,9 +8449,9 @@
       <c r="BD18" s="11"/>
       <c r="BE18" s="6"/>
       <c r="BF18" s="6"/>
-      <c r="BH18" s="46"/>
+      <c r="BH18" s="52"/>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>32</v>
       </c>
@@ -4520,9 +8518,9 @@
       <c r="BD19" s="9"/>
       <c r="BE19" s="9"/>
       <c r="BF19" s="9"/>
-      <c r="BH19" s="46"/>
+      <c r="BH19" s="52"/>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>75</v>
       </c>
@@ -4589,9 +8587,9 @@
       <c r="BD20" s="11"/>
       <c r="BE20" s="6"/>
       <c r="BF20" s="6"/>
-      <c r="BH20" s="46"/>
+      <c r="BH20" s="52"/>
     </row>
-    <row r="21" spans="1:60" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>41</v>
       </c>
@@ -4658,163 +8656,186 @@
       <c r="BD21" s="9"/>
       <c r="BE21" s="9"/>
       <c r="BF21" s="9"/>
-      <c r="BH21" s="47"/>
+      <c r="BH21" s="53"/>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="B25" s="27"/>
+    </row>
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B26" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C26" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D26" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E26" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F26" s="32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
+    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
-        <v>-0.16489999999999999</v>
-      </c>
-      <c r="B27" s="11">
-        <v>-2.1100000000000001E-2</v>
-      </c>
-      <c r="C27" s="11">
-        <v>-0.1721</v>
-      </c>
-      <c r="D27" s="11">
-        <v>-7.4999999999999997E-3</v>
-      </c>
-      <c r="E27" s="11">
-        <v>-0.1285</v>
-      </c>
-      <c r="F27" s="11">
-        <v>0</v>
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>-0.47089999999999999</v>
+      </c>
+      <c r="B28" s="11">
+        <v>-0.1903</v>
+      </c>
+      <c r="C28" s="11">
+        <v>-0.53969999999999996</v>
+      </c>
+      <c r="D28" s="11">
+        <v>-6.59E-2</v>
+      </c>
+      <c r="E28" s="11">
+        <v>-0.48060000000000003</v>
+      </c>
+      <c r="F28" s="11">
+        <v>-8.7099999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
-        <v>-0.2641</v>
-      </c>
-      <c r="B28" s="13">
-        <v>-1.77E-2</v>
-      </c>
-      <c r="C28" s="13">
-        <v>-0.35039999999999999</v>
-      </c>
-      <c r="D28" s="13">
-        <v>1.18E-2</v>
-      </c>
-      <c r="E28" s="13">
-        <v>-0.28470000000000001</v>
-      </c>
-      <c r="F28" s="13">
-        <v>1.78E-2</v>
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>-0.38490000000000002</v>
+      </c>
+      <c r="B29" s="13">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="C29" s="13">
+        <v>-0.45600000000000002</v>
+      </c>
+      <c r="D29" s="13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E29" s="13">
+        <v>-0.38150000000000001</v>
+      </c>
+      <c r="F29" s="13">
+        <v>3.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
-        <v>-0.42209999999999998</v>
-      </c>
-      <c r="B29" s="11">
-        <v>-7.8399999999999997E-2</v>
-      </c>
-      <c r="C29" s="11">
-        <v>-0.4385</v>
-      </c>
-      <c r="D29" s="11">
-        <v>-4.3299999999999998E-2</v>
-      </c>
-      <c r="E29" s="11">
-        <v>-0.38490000000000002</v>
-      </c>
-      <c r="F29" s="11">
-        <v>-4.0899999999999999E-2</v>
+    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>-0.27229999999999999</v>
+      </c>
+      <c r="B30" s="11">
+        <v>-0.111</v>
+      </c>
+      <c r="C30" s="11">
+        <v>-0.32569999999999999</v>
+      </c>
+      <c r="D30" s="11">
+        <v>-4.99E-2</v>
+      </c>
+      <c r="E30" s="11">
+        <v>-0.249</v>
+      </c>
+      <c r="F30" s="11">
+        <v>-5.4300000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
-        <v>-0.28449999999999998</v>
-      </c>
-      <c r="B30" s="12">
-        <v>-3.56E-2</v>
-      </c>
-      <c r="C30" s="12">
-        <v>-0.34710000000000002</v>
-      </c>
-      <c r="D30" s="12">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="E30" s="12">
-        <v>-0.28310000000000002</v>
-      </c>
-      <c r="F30" s="12">
-        <v>6.7999999999999996E-3</v>
+    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>-0.4642</v>
+      </c>
+      <c r="B31" s="12">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="C31" s="12">
+        <v>-0.50339999999999996</v>
+      </c>
+      <c r="D31" s="12">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="E31" s="12">
+        <v>-0.4365</v>
+      </c>
+      <c r="F31" s="12">
+        <v>3.78E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
-        <v>-0.44419999999999998</v>
-      </c>
-      <c r="B31" s="11">
-        <v>8.14E-2</v>
-      </c>
-      <c r="C31" s="11">
-        <v>-0.51549999999999996</v>
-      </c>
-      <c r="D31" s="11">
-        <v>8.9399999999999993E-2</v>
-      </c>
-      <c r="E31" s="11">
-        <v>-0.45710000000000001</v>
-      </c>
-      <c r="F31" s="11">
-        <v>9.9099999999999994E-2</v>
-      </c>
+    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="B32" s="27"/>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
-        <v>-0.2989</v>
-      </c>
-      <c r="B32" s="9">
-        <v>-7.4000000000000003E-3</v>
-      </c>
-      <c r="C32" s="9">
-        <v>-0.41249999999999998</v>
-      </c>
-      <c r="D32" s="9">
-        <v>-8.0000000000000004E-4</v>
-      </c>
-      <c r="E32" s="9">
-        <v>-0.33350000000000002</v>
-      </c>
-      <c r="F32" s="9">
-        <v>7.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="27"/>
       <c r="I33" s="10" t="s">
         <v>73</v>
       </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="BH12:BH21"/>
+    <mergeCell ref="BB12:BB13"/>
+    <mergeCell ref="BC12:BC13"/>
+    <mergeCell ref="BD12:BD13"/>
+    <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="AN12:AP12"/>
+    <mergeCell ref="AQ12:AS12"/>
+    <mergeCell ref="AT12:AV12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="BF1:BF8"/>
+    <mergeCell ref="BE12:BE13"/>
+    <mergeCell ref="BF12:BF13"/>
+    <mergeCell ref="AW12:AW13"/>
+    <mergeCell ref="AX12:AX13"/>
+    <mergeCell ref="AY12:AY13"/>
+    <mergeCell ref="AZ12:AZ13"/>
+    <mergeCell ref="BA12:BA13"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AZ1:AZ2"/>
     <mergeCell ref="BB1:BB2"/>
@@ -4828,59 +8849,6 @@
     <mergeCell ref="AR1:AT1"/>
     <mergeCell ref="AU1:AU2"/>
     <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="BF1:BF8"/>
-    <mergeCell ref="BE12:BE13"/>
-    <mergeCell ref="BF12:BF13"/>
-    <mergeCell ref="AW12:AW13"/>
-    <mergeCell ref="AX12:AX13"/>
-    <mergeCell ref="AY12:AY13"/>
-    <mergeCell ref="AZ12:AZ13"/>
-    <mergeCell ref="BA12:BA13"/>
-    <mergeCell ref="BH12:BH21"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="BB12:BB13"/>
-    <mergeCell ref="BC12:BC13"/>
-    <mergeCell ref="BD12:BD13"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="AN12:AP12"/>
-    <mergeCell ref="AQ12:AS12"/>
-    <mergeCell ref="AT12:AV12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/experiments/compas/results/all_results.xlsx
+++ b/experiments/compas/results/all_results.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\compas\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B55093-7590-4A85-9296-BAD151069848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54676E8A-7A23-4A75-AAB3-B58AAAD0398E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="compas-cfl" sheetId="4" r:id="rId1"/>
     <sheet name="compas-decentralized" sheetId="6" r:id="rId2"/>
-    <sheet name="compas-two-client" sheetId="5" r:id="rId3"/>
+    <sheet name="compas-FFL-via-FedAvg" sheetId="7" r:id="rId3"/>
+    <sheet name="Param and Arch" sheetId="8" r:id="rId4"/>
+    <sheet name="compas-two-client" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="182">
   <si>
     <t>Model</t>
   </si>
@@ -418,6 +421,189 @@
   </si>
   <si>
     <t>1,2: 10, 3: 20</t>
+  </si>
+  <si>
+    <t>Accuracy Global</t>
+  </si>
+  <si>
+    <t>Error Global</t>
+  </si>
+  <si>
+    <t>TP Global</t>
+  </si>
+  <si>
+    <t>FP Global</t>
+  </si>
+  <si>
+    <t>TN Global</t>
+  </si>
+  <si>
+    <t>FN Global</t>
+  </si>
+  <si>
+    <t>F1 Global</t>
+  </si>
+  <si>
+    <t>AUC Global</t>
+  </si>
+  <si>
+    <t>EOD Global</t>
+  </si>
+  <si>
+    <t>SPD Global</t>
+  </si>
+  <si>
+    <t>AOD Global</t>
+  </si>
+  <si>
+    <t>clients: 5e-4, global: 5e-4</t>
+  </si>
+  <si>
+    <t>clients: 10, global: 10</t>
+  </si>
+  <si>
+    <t>Update Time Global</t>
+  </si>
+  <si>
+    <t>bs</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>1: 70, 2: .5</t>
+  </si>
+  <si>
+    <t>clients: 7e-3, global: 5e-4</t>
+  </si>
+  <si>
+    <t>client: 10, global: 10</t>
+  </si>
+  <si>
+    <t>clients: 1e-3, global:1e-3</t>
+  </si>
+  <si>
+    <t>clients: 25, global: 10</t>
+  </si>
+  <si>
+    <t>LR + eo &amp; dp</t>
+  </si>
+  <si>
+    <t>NN + eo &amp; dp</t>
+  </si>
+  <si>
+    <t>clients:25, global:10</t>
+  </si>
+  <si>
+    <t>clients: 1e-3, global: 1e-3</t>
+  </si>
+  <si>
+    <t>1: 50, 2: 5</t>
+  </si>
+  <si>
+    <t>COMPAS</t>
+  </si>
+  <si>
+    <t>Model Type</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>LR - HN</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>NN - HN</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Batch Size</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Hidden Activation</t>
+  </si>
+  <si>
+    <t>LeakyReLU</t>
+  </si>
+  <si>
+    <t>Hidden Size</t>
+  </si>
+  <si>
+    <t>NO DP</t>
+  </si>
+  <si>
+    <t>anything with context needs to be rerun if we are reporting this. Needs to be 100 dim not 10.</t>
+  </si>
+  <si>
+    <t>For all non-fair cases we used BCELoss as the criterion, sigmoid for the output activation, and Adam as the optimizer.</t>
+  </si>
+  <si>
+    <t>1 client</t>
+  </si>
+  <si>
+    <t>2 clients</t>
+  </si>
+  <si>
+    <t>3 clients</t>
+  </si>
+  <si>
+    <t>.0004</t>
+  </si>
+  <si>
+    <t>1: .0007, 2&amp;3: .007</t>
+  </si>
+  <si>
+    <t>1&amp;2: 150, 3: 100</t>
+  </si>
+  <si>
+    <t>1: .0015, 2: .001</t>
+  </si>
+  <si>
+    <t>h: .03, c: .0005</t>
+  </si>
+  <si>
+    <t>h: 10, c: 10</t>
+  </si>
+  <si>
+    <t>For all non-fair cases we used BCELoss as the criterion, sigmoid for the output activation, and Adam as the optimizer. h = hypernetwork, c =  client</t>
+  </si>
+  <si>
+    <t>h: 5, c: 50</t>
+  </si>
+  <si>
+    <t>Weight Decay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 clients </t>
+  </si>
+  <si>
+    <t>1: .0008, 2: .007</t>
+  </si>
+  <si>
+    <t>all: .0001</t>
+  </si>
+  <si>
+    <t>1: 50, 2: 1</t>
+  </si>
+  <si>
+    <t>all: .007</t>
+  </si>
+  <si>
+    <t>1: 60, 2&amp;3: 100</t>
+  </si>
+  <si>
+    <t>1&amp;2: 10, 2:20</t>
+  </si>
+  <si>
+    <t>1: 100, 2: 90</t>
   </si>
 </sst>
 </file>
@@ -689,7 +875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -784,6 +970,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -832,6 +1073,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
@@ -853,47 +1103,32 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1226,7 +1461,7 @@
   <dimension ref="A1:AL33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,13 +1469,14 @@
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
@@ -1254,75 +1490,75 @@
     <col min="32" max="32" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="34" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="31" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="34" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="34" t="s">
+      <c r="O1" s="56"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="35"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="34" t="s">
+      <c r="R1" s="56"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="35"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="34" t="s">
+      <c r="U1" s="56"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="31" t="s">
+      <c r="X1" s="56"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="32" t="s">
+      <c r="AA1" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AB1" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AC1" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="31" t="s">
+      <c r="AD1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="AF1" s="43" t="s">
+      <c r="AF1" s="64" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="63"/>
       <c r="B2" s="16" t="s">
         <v>25</v>
       </c>
@@ -1341,9 +1577,9 @@
       <c r="G2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
       <c r="K2" s="16" t="s">
         <v>25</v>
       </c>
@@ -1389,36 +1625,36 @@
       <c r="Y2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="31"/>
-      <c r="AF2" s="44"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="52"/>
+      <c r="AF2" s="65"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="40">
         <v>0.68700000000000006</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="40">
         <v>0.68400000000000005</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="40">
         <v>0.68799999999999994</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="40">
         <v>0.313</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="40">
         <v>0.316</v>
       </c>
       <c r="G3" s="8">
         <v>0.312</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="41" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="10" t="s">
@@ -1487,10 +1723,10 @@
       <c r="AD3" s="9">
         <v>5.14</v>
       </c>
-      <c r="AF3" s="44"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="AF3" s="65"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="7">
@@ -1580,9 +1816,9 @@
       <c r="AD4" s="7">
         <v>8.24</v>
       </c>
-      <c r="AF4" s="44"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF4" s="65"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
@@ -1673,9 +1909,14 @@
       <c r="AD5" s="6">
         <v>7.58</v>
       </c>
-      <c r="AF5" s="44"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF5" s="65"/>
+      <c r="AJ5" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK5" s="69"/>
+      <c r="AL5" s="69"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
@@ -1766,9 +2007,12 @@
       <c r="AD6" s="9">
         <v>9.64</v>
       </c>
-      <c r="AF6" s="44"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF6" s="65"/>
+      <c r="AJ6" s="69"/>
+      <c r="AK6" s="69"/>
+      <c r="AL6" s="69"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
@@ -1859,9 +2103,12 @@
       <c r="AD7" s="6">
         <v>9.36</v>
       </c>
-      <c r="AF7" s="44"/>
-    </row>
-    <row r="8" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF7" s="65"/>
+      <c r="AJ7" s="69"/>
+      <c r="AK7" s="69"/>
+      <c r="AL7" s="69"/>
+    </row>
+    <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>32</v>
       </c>
@@ -1952,94 +2199,110 @@
       <c r="AD8" s="9">
         <v>100.81</v>
       </c>
-      <c r="AF8" s="45"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF8" s="66"/>
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="69"/>
+      <c r="AL8" s="69"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AF9" s="19"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="AJ9" s="69"/>
+      <c r="AK9" s="69"/>
+      <c r="AL9" s="69"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-    </row>
-    <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="69"/>
+      <c r="AL10" s="69"/>
+    </row>
+    <row r="11" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="69"/>
+      <c r="AL11" s="69"/>
+    </row>
+    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="34" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="46" t="s">
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="38" t="s">
+      <c r="M12" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="39"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="34" t="s">
+      <c r="N12" s="60"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="34" t="s">
+      <c r="Q12" s="56"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="T12" s="35"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="34" t="s">
+      <c r="T12" s="56"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="W12" s="35"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="34" t="s">
+      <c r="W12" s="56"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="31" t="s">
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="AC12" s="32" t="s">
+      <c r="AC12" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="AD12" s="32" t="s">
+      <c r="AD12" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AE12" s="32" t="s">
+      <c r="AE12" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="AF12" s="31" t="s">
+      <c r="AF12" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="AH12" s="43" t="s">
+      <c r="AH12" s="64" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="69"/>
+      <c r="AL12" s="69"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="63"/>
       <c r="B13" s="17" t="s">
         <v>25</v>
       </c>
@@ -2058,11 +2321,11 @@
       <c r="G13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
       <c r="M13" s="17" t="s">
         <v>25</v>
       </c>
@@ -2108,30 +2371,33 @@
       <c r="AA13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="31"/>
-      <c r="AH13" s="44"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="52"/>
+      <c r="AH13" s="65"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="69"/>
+      <c r="AL13" s="69"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="63">
+      <c r="B14" s="40">
         <v>0.6</v>
       </c>
-      <c r="C14" s="63">
+      <c r="C14" s="40">
         <v>0.60499999999999998</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="40">
         <v>0.59799999999999998</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="40">
         <v>0.4</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="40">
         <v>0.39500000000000002</v>
       </c>
       <c r="G14" s="8">
@@ -2143,7 +2409,7 @@
       <c r="I14" s="8">
         <v>1</v>
       </c>
-      <c r="J14" s="64" t="s">
+      <c r="J14" s="41" t="s">
         <v>67</v>
       </c>
       <c r="K14" s="10" t="s">
@@ -2212,10 +2478,10 @@
       <c r="AF14" s="9">
         <v>15.22</v>
       </c>
-      <c r="AH14" s="44"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
+      <c r="AH14" s="65"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="7">
@@ -2311,9 +2577,9 @@
       <c r="AF15" s="7">
         <v>13.54</v>
       </c>
-      <c r="AH15" s="44"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH15" s="65"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>8</v>
       </c>
@@ -2410,7 +2676,7 @@
       <c r="AF16" s="6">
         <v>12.61</v>
       </c>
-      <c r="AH16" s="44"/>
+      <c r="AH16" s="65"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
@@ -2509,7 +2775,7 @@
       <c r="AF17" s="9">
         <v>15.31</v>
       </c>
-      <c r="AH17" s="44"/>
+      <c r="AH17" s="65"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
@@ -2608,7 +2874,7 @@
       <c r="AF18" s="6">
         <v>1.62</v>
       </c>
-      <c r="AH18" s="44"/>
+      <c r="AH18" s="65"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
@@ -2707,7 +2973,7 @@
       <c r="AF19" s="9">
         <v>22.7</v>
       </c>
-      <c r="AH19" s="44"/>
+      <c r="AH19" s="65"/>
     </row>
     <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -2806,7 +3072,7 @@
       <c r="AF20" s="6">
         <v>1.61</v>
       </c>
-      <c r="AH20" s="44"/>
+      <c r="AH20" s="65"/>
     </row>
     <row r="21" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
@@ -2905,117 +3171,117 @@
       <c r="AF21" s="9">
         <v>22.56</v>
       </c>
-      <c r="AH21" s="45"/>
+      <c r="AH21" s="66"/>
     </row>
     <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="67"/>
-      <c r="Z24" s="67"/>
-      <c r="AA24" s="67"/>
-      <c r="AB24" s="67"/>
-      <c r="AC24" s="67"/>
-      <c r="AD24" s="67"/>
-      <c r="AE24" s="67"/>
-      <c r="AF24" s="67"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="44"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="34" t="s">
+      <c r="C26" s="56"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="46" t="s">
+      <c r="F26" s="56"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="46" t="s">
+      <c r="I26" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="31" t="s">
+      <c r="K26" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="31" t="s">
+      <c r="L26" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="M26" s="38" t="s">
+      <c r="M26" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="N26" s="39"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="34" t="s">
+      <c r="N26" s="60"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="34" t="s">
+      <c r="Q26" s="56"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="T26" s="35"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="34" t="s">
+      <c r="T26" s="56"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="W26" s="35"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="34" t="s">
+      <c r="W26" s="56"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="31" t="s">
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="AC26" s="32" t="s">
+      <c r="AC26" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="AD26" s="32" t="s">
+      <c r="AD26" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AE26" s="32" t="s">
+      <c r="AE26" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="AF26" s="31" t="s">
+      <c r="AF26" s="52" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="28" t="s">
         <v>25</v>
       </c>
@@ -3034,11 +3300,11 @@
       <c r="G27" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
       <c r="M27" s="28" t="s">
         <v>25</v>
       </c>
@@ -3084,14 +3350,14 @@
       <c r="AA27" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="31"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="54"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="54"/>
+      <c r="AF27" s="52"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="3">
@@ -3189,7 +3455,7 @@
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="7">
@@ -3287,7 +3553,7 @@
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="35" t="s">
         <v>85</v>
       </c>
       <c r="B30" s="3">
@@ -3385,7 +3651,7 @@
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="35" t="s">
         <v>86</v>
       </c>
       <c r="B31" s="7">
@@ -3483,7 +3749,7 @@
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="35" t="s">
         <v>102</v>
       </c>
       <c r="B32" s="3">
@@ -3591,7 +3857,7 @@
       <c r="AL32" s="69"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="35" t="s">
         <v>103</v>
       </c>
       <c r="B33" s="7">
@@ -3689,7 +3955,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="57">
+    <mergeCell ref="AJ5:AL13"/>
     <mergeCell ref="AF26:AF27"/>
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="I26:I27"/>
@@ -3757,141 +4024,157 @@
   <dimension ref="A1:CE23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A11" sqref="A11:CE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="68"/>
-    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" style="45" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="45" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="23.7109375" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="24" max="29" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="3.85546875" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="3.42578125" hidden="1" customWidth="1"/>
+    <col min="32" max="33" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="3.42578125" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="4.42578125" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="3.85546875" hidden="1" customWidth="1"/>
+    <col min="37" max="38" width="3.42578125" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="3.85546875" hidden="1" customWidth="1"/>
+    <col min="40" max="41" width="3.42578125" hidden="1" customWidth="1"/>
+    <col min="42" max="47" width="6.5703125" hidden="1" customWidth="1"/>
+    <col min="48" max="55" width="0" hidden="1" customWidth="1"/>
+    <col min="56" max="57" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="58" max="68" width="0" hidden="1" customWidth="1"/>
     <col min="81" max="83" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="34" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="34" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="34" t="s">
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="46" t="s">
+      <c r="L1" s="56"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="38" t="s">
+      <c r="S1" s="60"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="34" t="s">
+      <c r="V1" s="60"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="34" t="s">
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="34" t="s">
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="34" t="s">
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="34" t="s">
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="34" t="s">
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="34" t="s">
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="34" t="s">
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="31" t="s">
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="AW1" s="31" t="s">
+      <c r="AW1" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="AX1" s="32" t="s">
+      <c r="AX1" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="AY1" s="32" t="s">
+      <c r="AY1" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="AZ1" s="32" t="s">
+      <c r="AZ1" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="BA1" s="32" t="s">
+      <c r="BA1" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="BB1" s="32" t="s">
+      <c r="BB1" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="BC1" s="32" t="s">
+      <c r="BC1" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="BD1" s="31" t="s">
+      <c r="BD1" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="BE1" s="31" t="s">
+      <c r="BE1" s="52" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
+      <c r="A2" s="63"/>
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
@@ -3928,10 +4211,10 @@
       <c r="M2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
       <c r="R2" s="28" t="s">
         <v>25</v>
       </c>
@@ -4022,19 +4305,19 @@
       <c r="AU2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="33"/>
-      <c r="AY2" s="33"/>
-      <c r="AZ2" s="33"/>
-      <c r="BA2" s="33"/>
-      <c r="BB2" s="33"/>
-      <c r="BC2" s="33"/>
-      <c r="BD2" s="31"/>
-      <c r="BE2" s="31"/>
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="52"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="54"/>
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="52"/>
+      <c r="BE2" s="52"/>
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
@@ -4207,7 +4490,7 @@
       </c>
     </row>
     <row r="4" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="7">
@@ -4379,643 +4662,643 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="5" spans="1:83" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+    <row r="5" spans="1:83" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="37">
         <v>0.61299999999999999</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="37">
         <v>0.55800000000000005</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="37">
         <v>0.625</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="37">
         <v>0.7</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="37">
         <v>0.72499999999999998</v>
       </c>
-      <c r="G5" s="58">
+      <c r="G5" s="37">
         <v>0.69299999999999995</v>
       </c>
-      <c r="H5" s="58">
+      <c r="H5" s="37">
         <v>0.38700000000000001</v>
       </c>
-      <c r="I5" s="58">
+      <c r="I5" s="37">
         <v>0.442</v>
       </c>
-      <c r="J5" s="58">
+      <c r="J5" s="37">
         <v>0.375</v>
       </c>
-      <c r="K5" s="58">
+      <c r="K5" s="37">
         <v>0.3</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="37">
         <v>0.27500000000000002</v>
       </c>
-      <c r="M5" s="58">
+      <c r="M5" s="37">
         <v>0.307</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O5" s="58" t="s">
+      <c r="O5" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="P5" s="58" t="s">
+      <c r="P5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="58" t="s">
+      <c r="Q5" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="R5" s="58">
+      <c r="R5" s="37">
         <v>133</v>
       </c>
-      <c r="S5" s="58">
+      <c r="S5" s="37">
         <v>15</v>
       </c>
-      <c r="T5" s="58">
+      <c r="T5" s="37">
         <v>118</v>
       </c>
-      <c r="U5" s="58">
+      <c r="U5" s="37">
         <v>35</v>
       </c>
-      <c r="V5" s="58">
+      <c r="V5" s="37">
         <v>7</v>
       </c>
-      <c r="W5" s="58">
+      <c r="W5" s="37">
         <v>28</v>
       </c>
-      <c r="X5" s="58">
+      <c r="X5" s="37">
         <v>80</v>
       </c>
-      <c r="Y5" s="58">
+      <c r="Y5" s="37">
         <v>19</v>
       </c>
-      <c r="Z5" s="58">
+      <c r="Z5" s="37">
         <v>61</v>
       </c>
-      <c r="AA5" s="58">
+      <c r="AA5" s="37">
         <v>17</v>
       </c>
-      <c r="AB5" s="58">
+      <c r="AB5" s="37">
         <v>4</v>
       </c>
-      <c r="AC5" s="58">
+      <c r="AC5" s="37">
         <v>13</v>
       </c>
-      <c r="AD5" s="58">
+      <c r="AD5" s="37">
         <v>51</v>
       </c>
-      <c r="AE5" s="58">
+      <c r="AE5" s="37">
         <v>14</v>
       </c>
-      <c r="AF5" s="58">
+      <c r="AF5" s="37">
         <v>37</v>
       </c>
-      <c r="AG5" s="58">
+      <c r="AG5" s="37">
         <v>175</v>
       </c>
-      <c r="AH5" s="58">
+      <c r="AH5" s="37">
         <v>43</v>
       </c>
-      <c r="AI5" s="58">
+      <c r="AI5" s="37">
         <v>132</v>
       </c>
-      <c r="AJ5" s="58">
+      <c r="AJ5" s="37">
         <v>36</v>
       </c>
-      <c r="AK5" s="58">
+      <c r="AK5" s="37">
         <v>4</v>
       </c>
-      <c r="AL5" s="58">
+      <c r="AL5" s="37">
         <v>32</v>
       </c>
-      <c r="AM5" s="58">
+      <c r="AM5" s="37">
         <v>73</v>
       </c>
-      <c r="AN5" s="58">
+      <c r="AN5" s="37">
         <v>15</v>
       </c>
-      <c r="AO5" s="58">
+      <c r="AO5" s="37">
         <v>58</v>
       </c>
-      <c r="AP5" s="58">
+      <c r="AP5" s="37">
         <v>0.69599999999999995</v>
       </c>
-      <c r="AQ5" s="58">
+      <c r="AQ5" s="37">
         <v>0.56599999999999995</v>
       </c>
-      <c r="AR5" s="58">
+      <c r="AR5" s="37">
         <v>0.71699999999999997</v>
       </c>
-      <c r="AS5" s="58">
+      <c r="AS5" s="37">
         <v>0.438</v>
       </c>
-      <c r="AT5" s="58">
+      <c r="AT5" s="37">
         <v>0.42399999999999999</v>
       </c>
-      <c r="AU5" s="58">
+      <c r="AU5" s="37">
         <v>0.441</v>
       </c>
-      <c r="AV5" s="58">
+      <c r="AV5" s="37">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW5" s="58">
+      <c r="AW5" s="37">
         <v>0.63</v>
       </c>
-      <c r="AX5" s="58">
+      <c r="AX5" s="37">
         <v>2.8E-3</v>
       </c>
-      <c r="AY5" s="58">
+      <c r="AY5" s="37">
         <v>-7.4000000000000003E-3</v>
       </c>
-      <c r="AZ5" s="58">
+      <c r="AZ5" s="37">
         <v>-6.7900000000000002E-2</v>
       </c>
-      <c r="BA5" s="58">
+      <c r="BA5" s="37">
         <v>-1.8100000000000002E-2</v>
       </c>
-      <c r="BB5" s="58">
+      <c r="BB5" s="37">
         <v>-2.1899999999999999E-2</v>
       </c>
-      <c r="BC5" s="58">
+      <c r="BC5" s="37">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="BD5" s="58">
+      <c r="BD5" s="37">
         <v>10.25</v>
       </c>
-      <c r="BE5" s="58">
+      <c r="BE5" s="37">
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:83" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+    <row r="6" spans="1:83" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="59">
+      <c r="B6" s="38">
         <v>0.62</v>
       </c>
-      <c r="C6" s="59">
+      <c r="C6" s="38">
         <v>0.53800000000000003</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D6" s="38">
         <v>0.63700000000000001</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="38">
         <v>0.73299999999999998</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="38">
         <v>0.72499999999999998</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="38">
         <v>0.73599999999999999</v>
       </c>
-      <c r="H6" s="59">
+      <c r="H6" s="38">
         <v>0.38</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="38">
         <v>0.46200000000000002</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="38">
         <v>0.36299999999999999</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="38">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L6" s="59">
+      <c r="L6" s="38">
         <v>0.27500000000000002</v>
       </c>
-      <c r="M6" s="59">
+      <c r="M6" s="38">
         <v>0.26400000000000001</v>
       </c>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="O6" s="59" t="s">
+      <c r="O6" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="59">
+      <c r="P6" s="38">
         <v>0.45</v>
       </c>
-      <c r="Q6" s="59" t="s">
+      <c r="Q6" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="R6" s="59">
+      <c r="R6" s="38">
         <v>133</v>
       </c>
-      <c r="S6" s="59">
+      <c r="S6" s="38">
         <v>15</v>
       </c>
-      <c r="T6" s="59">
+      <c r="T6" s="38">
         <v>118</v>
       </c>
-      <c r="U6" s="59">
+      <c r="U6" s="38">
         <v>50</v>
       </c>
-      <c r="V6" s="59">
+      <c r="V6" s="38">
         <v>10</v>
       </c>
-      <c r="W6" s="59">
+      <c r="W6" s="38">
         <v>40</v>
       </c>
-      <c r="X6" s="59">
+      <c r="X6" s="38">
         <v>78</v>
       </c>
-      <c r="Y6" s="59">
+      <c r="Y6" s="38">
         <v>20</v>
       </c>
-      <c r="Z6" s="59">
+      <c r="Z6" s="38">
         <v>58</v>
       </c>
-      <c r="AA6" s="59">
+      <c r="AA6" s="38">
         <v>22</v>
       </c>
-      <c r="AB6" s="59">
+      <c r="AB6" s="38">
         <v>7</v>
       </c>
-      <c r="AC6" s="59">
+      <c r="AC6" s="38">
         <v>15</v>
       </c>
-      <c r="AD6" s="59">
+      <c r="AD6" s="38">
         <v>53</v>
       </c>
-      <c r="AE6" s="59">
+      <c r="AE6" s="38">
         <v>13</v>
       </c>
-      <c r="AF6" s="59">
+      <c r="AF6" s="38">
         <v>40</v>
       </c>
-      <c r="AG6" s="59">
+      <c r="AG6" s="38">
         <v>170</v>
       </c>
-      <c r="AH6" s="59">
+      <c r="AH6" s="38">
         <v>40</v>
       </c>
-      <c r="AI6" s="59">
+      <c r="AI6" s="38">
         <v>130</v>
       </c>
-      <c r="AJ6" s="59">
+      <c r="AJ6" s="38">
         <v>36</v>
       </c>
-      <c r="AK6" s="59">
+      <c r="AK6" s="38">
         <v>4</v>
       </c>
-      <c r="AL6" s="59">
+      <c r="AL6" s="38">
         <v>32</v>
       </c>
-      <c r="AM6" s="59">
+      <c r="AM6" s="38">
         <v>58</v>
       </c>
-      <c r="AN6" s="59">
+      <c r="AN6" s="38">
         <v>12</v>
       </c>
-      <c r="AO6" s="59">
+      <c r="AO6" s="38">
         <v>46</v>
       </c>
-      <c r="AP6" s="59">
+      <c r="AP6" s="38">
         <v>0.7</v>
       </c>
-      <c r="AQ6" s="59">
+      <c r="AQ6" s="38">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AR6" s="59">
+      <c r="AR6" s="38">
         <v>0.72399999999999998</v>
       </c>
-      <c r="AS6" s="59">
+      <c r="AS6" s="38">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AT6" s="59">
+      <c r="AT6" s="38">
         <v>0.51300000000000001</v>
       </c>
-      <c r="AU6" s="59">
+      <c r="AU6" s="38">
         <v>0.56699999999999995</v>
       </c>
-      <c r="AV6" s="59">
+      <c r="AV6" s="38">
         <v>0.5</v>
       </c>
-      <c r="AW6" s="59">
+      <c r="AW6" s="38">
         <v>0.5</v>
       </c>
-      <c r="AX6" s="59">
+      <c r="AX6" s="38">
         <v>2.8E-3</v>
       </c>
-      <c r="AY6" s="59">
+      <c r="AY6" s="38">
         <v>-1.06E-2</v>
       </c>
-      <c r="AZ6" s="59">
+      <c r="AZ6" s="38">
         <v>-3.6600000000000001E-2</v>
       </c>
-      <c r="BA6" s="59">
+      <c r="BA6" s="38">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="BB6" s="59">
+      <c r="BB6" s="38">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="BC6" s="59">
+      <c r="BC6" s="38">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="BD6" s="59">
+      <c r="BD6" s="38">
         <v>12</v>
       </c>
-      <c r="BE6" s="59">
+      <c r="BE6" s="38">
         <v>6.6</v>
       </c>
     </row>
     <row r="7" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="58"/>
-      <c r="AF7" s="58"/>
-      <c r="AG7" s="58"/>
-      <c r="AH7" s="58"/>
-      <c r="AI7" s="58"/>
-      <c r="AJ7" s="58"/>
-      <c r="AK7" s="58"/>
-      <c r="AL7" s="58"/>
-      <c r="AM7" s="58"/>
-      <c r="AN7" s="58"/>
-      <c r="AO7" s="58"/>
-      <c r="AP7" s="58"/>
-      <c r="AQ7" s="58"/>
-      <c r="AR7" s="58"/>
-      <c r="AS7" s="58"/>
-      <c r="AT7" s="58"/>
-      <c r="AU7" s="58"/>
-      <c r="AV7" s="58"/>
-      <c r="AW7" s="58"/>
-      <c r="AX7" s="58"/>
-      <c r="AY7" s="58"/>
-      <c r="AZ7" s="58"/>
-      <c r="BA7" s="58"/>
-      <c r="BB7" s="58"/>
-      <c r="BC7" s="58"/>
-      <c r="BD7" s="58"/>
-      <c r="BE7" s="58"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="37"/>
+      <c r="AM7" s="37"/>
+      <c r="AN7" s="37"/>
+      <c r="AO7" s="37"/>
+      <c r="AP7" s="37"/>
+      <c r="AQ7" s="37"/>
+      <c r="AR7" s="37"/>
+      <c r="AS7" s="37"/>
+      <c r="AT7" s="37"/>
+      <c r="AU7" s="37"/>
+      <c r="AV7" s="37"/>
+      <c r="AW7" s="37"/>
+      <c r="AX7" s="37"/>
+      <c r="AY7" s="37"/>
+      <c r="AZ7" s="37"/>
+      <c r="BA7" s="37"/>
+      <c r="BB7" s="37"/>
+      <c r="BC7" s="37"/>
+      <c r="BD7" s="37"/>
+      <c r="BE7" s="37"/>
     </row>
     <row r="8" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="59"/>
-      <c r="AJ8" s="59"/>
-      <c r="AK8" s="59"/>
-      <c r="AL8" s="59"/>
-      <c r="AM8" s="59"/>
-      <c r="AN8" s="59"/>
-      <c r="AO8" s="59"/>
-      <c r="AP8" s="59"/>
-      <c r="AQ8" s="59"/>
-      <c r="AR8" s="59"/>
-      <c r="AS8" s="59"/>
-      <c r="AT8" s="59"/>
-      <c r="AU8" s="59"/>
-      <c r="AV8" s="59"/>
-      <c r="AW8" s="59"/>
-      <c r="AX8" s="59"/>
-      <c r="AY8" s="59"/>
-      <c r="AZ8" s="59"/>
-      <c r="BA8" s="59"/>
-      <c r="BB8" s="59"/>
-      <c r="BC8" s="59"/>
-      <c r="BD8" s="59"/>
-      <c r="BE8" s="59"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38"/>
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="38"/>
+      <c r="AM8" s="38"/>
+      <c r="AN8" s="38"/>
+      <c r="AO8" s="38"/>
+      <c r="AP8" s="38"/>
+      <c r="AQ8" s="38"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="38"/>
+      <c r="AT8" s="38"/>
+      <c r="AU8" s="38"/>
+      <c r="AV8" s="38"/>
+      <c r="AW8" s="38"/>
+      <c r="AX8" s="38"/>
+      <c r="AY8" s="38"/>
+      <c r="AZ8" s="38"/>
+      <c r="BA8" s="38"/>
+      <c r="BB8" s="38"/>
+      <c r="BC8" s="38"/>
+      <c r="BD8" s="38"/>
+      <c r="BE8" s="38"/>
     </row>
     <row r="11" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="34" t="s">
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="34" t="s">
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="34" t="s">
+      <c r="I11" s="56"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="34" t="s">
+      <c r="L11" s="56"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="O11" s="35"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="61" t="s">
+      <c r="O11" s="56"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="R11" s="41"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="46" t="s">
+      <c r="R11" s="62"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="U11" s="31" t="s">
+      <c r="U11" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="V11" s="31" t="s">
+      <c r="V11" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="W11" s="31" t="s">
+      <c r="W11" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="X11" s="38" t="s">
+      <c r="X11" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="38" t="s">
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="38" t="s">
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="61"/>
+      <c r="AD11" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="34" t="s">
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="61"/>
+      <c r="AG11" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="34" t="s">
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="57"/>
+      <c r="AJ11" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="36"/>
-      <c r="AM11" s="34" t="s">
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="57"/>
+      <c r="AM11" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="36"/>
-      <c r="AP11" s="34" t="s">
+      <c r="AN11" s="56"/>
+      <c r="AO11" s="57"/>
+      <c r="AP11" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AQ11" s="35"/>
-      <c r="AR11" s="36"/>
-      <c r="AS11" s="34" t="s">
+      <c r="AQ11" s="56"/>
+      <c r="AR11" s="57"/>
+      <c r="AS11" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="AT11" s="35"/>
-      <c r="AU11" s="36"/>
-      <c r="AV11" s="34" t="s">
+      <c r="AT11" s="56"/>
+      <c r="AU11" s="57"/>
+      <c r="AV11" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="AW11" s="35"/>
-      <c r="AX11" s="36"/>
-      <c r="AY11" s="34" t="s">
+      <c r="AW11" s="56"/>
+      <c r="AX11" s="57"/>
+      <c r="AY11" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="AZ11" s="35"/>
-      <c r="BA11" s="36"/>
-      <c r="BB11" s="34" t="s">
+      <c r="AZ11" s="56"/>
+      <c r="BA11" s="57"/>
+      <c r="BB11" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="BC11" s="35"/>
-      <c r="BD11" s="36"/>
-      <c r="BE11" s="34" t="s">
+      <c r="BC11" s="56"/>
+      <c r="BD11" s="57"/>
+      <c r="BE11" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="BF11" s="35"/>
-      <c r="BG11" s="36"/>
-      <c r="BH11" s="34" t="s">
+      <c r="BF11" s="56"/>
+      <c r="BG11" s="57"/>
+      <c r="BH11" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="BI11" s="35"/>
-      <c r="BJ11" s="36"/>
-      <c r="BK11" s="34" t="s">
+      <c r="BI11" s="56"/>
+      <c r="BJ11" s="57"/>
+      <c r="BK11" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="BL11" s="35"/>
-      <c r="BM11" s="36"/>
-      <c r="BN11" s="34" t="s">
+      <c r="BL11" s="56"/>
+      <c r="BM11" s="57"/>
+      <c r="BN11" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="BO11" s="35"/>
-      <c r="BP11" s="36"/>
-      <c r="BQ11" s="31" t="s">
+      <c r="BO11" s="56"/>
+      <c r="BP11" s="57"/>
+      <c r="BQ11" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="BR11" s="31" t="s">
+      <c r="BR11" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="BS11" s="46" t="s">
+      <c r="BS11" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="BT11" s="32" t="s">
+      <c r="BT11" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="BU11" s="32" t="s">
+      <c r="BU11" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="BV11" s="32" t="s">
+      <c r="BV11" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="BW11" s="32" t="s">
+      <c r="BW11" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="BX11" s="32" t="s">
+      <c r="BX11" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="BY11" s="32" t="s">
+      <c r="BY11" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="BZ11" s="32" t="s">
+      <c r="BZ11" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="CA11" s="32" t="s">
+      <c r="CA11" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="CB11" s="32" t="s">
+      <c r="CB11" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="CC11" s="31" t="s">
+      <c r="CC11" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="CD11" s="31" t="s">
+      <c r="CD11" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="CE11" s="31" t="s">
+      <c r="CE11" s="52" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="28" t="s">
         <v>25</v>
       </c>
@@ -5070,10 +5353,10 @@
       <c r="S12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="47"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
       <c r="X12" s="28" t="s">
         <v>25</v>
       </c>
@@ -5209,24 +5492,24 @@
       <c r="BP12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="BQ12" s="31"/>
-      <c r="BR12" s="31"/>
-      <c r="BS12" s="47"/>
-      <c r="BT12" s="33"/>
-      <c r="BU12" s="33"/>
-      <c r="BV12" s="33"/>
-      <c r="BW12" s="33"/>
-      <c r="BX12" s="33"/>
-      <c r="BY12" s="33"/>
-      <c r="BZ12" s="33"/>
-      <c r="CA12" s="33"/>
-      <c r="CB12" s="33"/>
-      <c r="CC12" s="31"/>
-      <c r="CD12" s="31"/>
-      <c r="CE12" s="31"/>
+      <c r="BQ12" s="52"/>
+      <c r="BR12" s="52"/>
+      <c r="BS12" s="68"/>
+      <c r="BT12" s="54"/>
+      <c r="BU12" s="54"/>
+      <c r="BV12" s="54"/>
+      <c r="BW12" s="54"/>
+      <c r="BX12" s="54"/>
+      <c r="BY12" s="54"/>
+      <c r="BZ12" s="54"/>
+      <c r="CA12" s="54"/>
+      <c r="CB12" s="54"/>
+      <c r="CC12" s="52"/>
+      <c r="CD12" s="52"/>
+      <c r="CE12" s="52"/>
     </row>
     <row r="13" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3">
@@ -5477,7 +5760,7 @@
       </c>
     </row>
     <row r="14" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="7">
@@ -5727,65 +6010,65 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:83" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+    <row r="15" spans="1:83" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="58">
+      <c r="B15" s="37">
         <v>0.77300000000000002</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="37">
         <v>0.58799999999999997</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="37">
         <v>0.80200000000000005</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="37">
         <v>0.72699999999999998</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="37">
         <v>0.81599999999999995</v>
       </c>
-      <c r="G15" s="58">
+      <c r="G15" s="37">
         <v>0.67100000000000004</v>
       </c>
-      <c r="H15" s="58">
+      <c r="H15" s="37">
         <v>0.57799999999999996</v>
       </c>
-      <c r="I15" s="58">
+      <c r="I15" s="37">
         <v>0.33300000000000002</v>
       </c>
-      <c r="J15" s="58">
+      <c r="J15" s="37">
         <v>0.64400000000000002</v>
       </c>
-      <c r="K15" s="58">
+      <c r="K15" s="37">
         <v>0.22700000000000001</v>
       </c>
-      <c r="L15" s="58">
+      <c r="L15" s="37">
         <v>0.41199999999999998</v>
       </c>
-      <c r="M15" s="58">
+      <c r="M15" s="37">
         <v>0.19800000000000001</v>
       </c>
-      <c r="N15" s="58">
+      <c r="N15" s="37">
         <v>0.27300000000000002</v>
       </c>
-      <c r="O15" s="58">
+      <c r="O15" s="37">
         <v>0.184</v>
       </c>
-      <c r="P15" s="58">
+      <c r="P15" s="37">
         <v>0.32900000000000001</v>
       </c>
-      <c r="Q15" s="58">
+      <c r="Q15" s="37">
         <v>0.42199999999999999</v>
       </c>
-      <c r="R15" s="58">
+      <c r="R15" s="37">
         <v>0.66700000000000004</v>
       </c>
-      <c r="S15" s="58">
+      <c r="S15" s="37">
         <v>0.35599999999999998</v>
       </c>
-      <c r="T15" s="58" t="s">
+      <c r="T15" s="37" t="s">
         <v>116</v>
       </c>
       <c r="U15" s="1" t="s">
@@ -5797,663 +6080,658 @@
       <c r="W15" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="X15" s="58">
+      <c r="X15" s="37">
         <v>99</v>
       </c>
-      <c r="Y15" s="58">
+      <c r="Y15" s="37">
         <v>10</v>
       </c>
-      <c r="Z15" s="58">
+      <c r="Z15" s="37">
         <v>89</v>
       </c>
-      <c r="AA15" s="58">
+      <c r="AA15" s="37">
         <v>3</v>
       </c>
-      <c r="AB15" s="58">
+      <c r="AB15" s="37">
         <v>0</v>
       </c>
-      <c r="AC15" s="58">
+      <c r="AC15" s="37">
         <v>3</v>
       </c>
-      <c r="AD15" s="58">
+      <c r="AD15" s="37">
         <v>68</v>
       </c>
-      <c r="AE15" s="58">
+      <c r="AE15" s="37">
         <v>7</v>
       </c>
-      <c r="AF15" s="58">
+      <c r="AF15" s="37">
         <v>61</v>
       </c>
-      <c r="AG15" s="58">
+      <c r="AG15" s="37">
         <v>29</v>
       </c>
-      <c r="AH15" s="58">
+      <c r="AH15" s="37">
         <v>7</v>
       </c>
-      <c r="AI15" s="58">
+      <c r="AI15" s="37">
         <v>22</v>
       </c>
-      <c r="AJ15" s="58">
+      <c r="AJ15" s="37">
         <v>2</v>
       </c>
-      <c r="AK15" s="58">
+      <c r="AK15" s="37">
         <v>0</v>
       </c>
-      <c r="AL15" s="58">
+      <c r="AL15" s="37">
         <v>2</v>
       </c>
-      <c r="AM15" s="58">
+      <c r="AM15" s="37">
         <v>53</v>
       </c>
-      <c r="AN15" s="58">
+      <c r="AN15" s="37">
         <v>18</v>
       </c>
-      <c r="AO15" s="58">
+      <c r="AO15" s="37">
         <v>35</v>
       </c>
-      <c r="AP15" s="58">
+      <c r="AP15" s="37">
         <v>0</v>
       </c>
-      <c r="AQ15" s="58">
+      <c r="AQ15" s="37">
         <v>0</v>
       </c>
-      <c r="AR15" s="58">
+      <c r="AR15" s="37">
         <v>0</v>
       </c>
-      <c r="AS15" s="58">
+      <c r="AS15" s="37">
         <v>90</v>
       </c>
-      <c r="AT15" s="58">
+      <c r="AT15" s="37">
         <v>40</v>
       </c>
-      <c r="AU15" s="58">
+      <c r="AU15" s="37">
         <v>50</v>
       </c>
-      <c r="AV15" s="58">
+      <c r="AV15" s="37">
         <v>6</v>
       </c>
-      <c r="AW15" s="58">
+      <c r="AW15" s="37">
         <v>2</v>
       </c>
-      <c r="AX15" s="58">
+      <c r="AX15" s="37">
         <v>4</v>
       </c>
-      <c r="AY15" s="58">
+      <c r="AY15" s="37">
         <v>0</v>
       </c>
-      <c r="AZ15" s="58">
+      <c r="AZ15" s="37">
         <v>0</v>
       </c>
-      <c r="BA15" s="58">
+      <c r="BA15" s="37">
         <v>0</v>
       </c>
-      <c r="BB15" s="58">
+      <c r="BB15" s="37">
         <v>33</v>
       </c>
-      <c r="BC15" s="58">
+      <c r="BC15" s="37">
         <v>9</v>
       </c>
-      <c r="BD15" s="58">
+      <c r="BD15" s="37">
         <v>24</v>
       </c>
-      <c r="BE15" s="58">
+      <c r="BE15" s="37">
         <v>1</v>
       </c>
-      <c r="BF15" s="58">
+      <c r="BF15" s="37">
         <v>0</v>
       </c>
-      <c r="BG15" s="58">
+      <c r="BG15" s="37">
         <v>1</v>
       </c>
-      <c r="BH15" s="58">
+      <c r="BH15" s="37">
         <v>0.872</v>
       </c>
-      <c r="BI15" s="58">
+      <c r="BI15" s="37">
         <v>0.74099999999999999</v>
       </c>
-      <c r="BJ15" s="58">
+      <c r="BJ15" s="37">
         <v>0.89</v>
       </c>
-      <c r="BK15" s="58">
+      <c r="BK15" s="37">
         <v>0.14599999999999999</v>
       </c>
-      <c r="BL15" s="58">
+      <c r="BL15" s="37">
         <v>0</v>
       </c>
-      <c r="BM15" s="58">
+      <c r="BM15" s="37">
         <v>0.188</v>
       </c>
-      <c r="BN15" s="58">
+      <c r="BN15" s="37">
         <v>0.71599999999999997</v>
       </c>
-      <c r="BO15" s="58">
+      <c r="BO15" s="37">
         <v>0.438</v>
       </c>
-      <c r="BP15" s="58">
+      <c r="BP15" s="37">
         <v>0.77200000000000002</v>
       </c>
-      <c r="BQ15" s="58">
+      <c r="BQ15" s="37">
         <v>0.5</v>
       </c>
-      <c r="BR15" s="58">
+      <c r="BR15" s="37">
         <v>0.5</v>
       </c>
-      <c r="BS15" s="58">
+      <c r="BS15" s="37">
         <v>0.5</v>
       </c>
-      <c r="BT15" s="58">
+      <c r="BT15" s="37">
         <v>0</v>
       </c>
-      <c r="BU15" s="58">
+      <c r="BU15" s="37">
         <v>-0.1111</v>
       </c>
-      <c r="BV15" s="58">
+      <c r="BV15" s="37">
         <v>1.61E-2</v>
       </c>
-      <c r="BW15" s="58">
+      <c r="BW15" s="37">
         <v>0</v>
       </c>
-      <c r="BX15" s="58">
+      <c r="BX15" s="37">
         <v>-6.3299999999999995E-2</v>
       </c>
-      <c r="BY15" s="58">
+      <c r="BY15" s="37">
         <v>-2.46E-2</v>
       </c>
-      <c r="BZ15" s="58">
+      <c r="BZ15" s="37">
         <v>0</v>
       </c>
-      <c r="CA15" s="58">
+      <c r="CA15" s="37">
         <v>-7.4800000000000005E-2</v>
       </c>
-      <c r="CB15" s="58">
+      <c r="CB15" s="37">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="CC15" s="58">
+      <c r="CC15" s="37">
         <v>3.63</v>
       </c>
-      <c r="CD15" s="58">
+      <c r="CD15" s="37">
         <v>5.5</v>
       </c>
-      <c r="CE15" s="58">
+      <c r="CE15" s="37">
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:83" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+    <row r="16" spans="1:83" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="59">
+      <c r="B16" s="38">
         <v>0.77300000000000002</v>
       </c>
-      <c r="C16" s="59">
+      <c r="C16" s="38">
         <v>0.58799999999999997</v>
       </c>
-      <c r="D16" s="59">
+      <c r="D16" s="38">
         <v>0.80200000000000005</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="38">
         <v>0.71899999999999997</v>
       </c>
-      <c r="F16" s="59">
+      <c r="F16" s="38">
         <v>0.81599999999999995</v>
       </c>
-      <c r="G16" s="59">
+      <c r="G16" s="38">
         <v>0.65800000000000003</v>
       </c>
-      <c r="H16" s="59">
+      <c r="H16" s="38">
         <v>0.61699999999999999</v>
       </c>
-      <c r="I16" s="59">
+      <c r="I16" s="38">
         <v>0.37</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="38">
         <v>0.68300000000000005</v>
       </c>
-      <c r="K16" s="59">
+      <c r="K16" s="38">
         <v>0.22700000000000001</v>
       </c>
-      <c r="L16" s="59">
+      <c r="L16" s="38">
         <v>0.41199999999999998</v>
       </c>
-      <c r="M16" s="59">
+      <c r="M16" s="38">
         <v>0.19800000000000001</v>
       </c>
-      <c r="N16" s="59">
+      <c r="N16" s="38">
         <v>0.28100000000000003</v>
       </c>
-      <c r="O16" s="59">
+      <c r="O16" s="38">
         <v>0.184</v>
       </c>
-      <c r="P16" s="59">
+      <c r="P16" s="38">
         <v>0.34200000000000003</v>
       </c>
-      <c r="Q16" s="59">
+      <c r="Q16" s="38">
         <v>0.38300000000000001</v>
       </c>
-      <c r="R16" s="59">
+      <c r="R16" s="38">
         <v>0.60299999999999998</v>
       </c>
-      <c r="S16" s="59">
+      <c r="S16" s="38">
         <v>0.317</v>
       </c>
-      <c r="T16" s="59" t="s">
+      <c r="T16" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="U16" s="59" t="s">
+      <c r="U16" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="V16" s="59">
+      <c r="V16" s="38">
         <v>0.45</v>
       </c>
-      <c r="W16" s="59" t="s">
+      <c r="W16" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="X16" s="59">
+      <c r="X16" s="38">
         <v>99</v>
       </c>
-      <c r="Y16" s="59">
+      <c r="Y16" s="38">
         <v>10</v>
       </c>
-      <c r="Z16" s="59">
+      <c r="Z16" s="38">
         <v>89</v>
       </c>
-      <c r="AA16" s="59">
+      <c r="AA16" s="38">
         <v>2</v>
       </c>
-      <c r="AB16" s="59">
+      <c r="AB16" s="38">
         <v>0</v>
       </c>
-      <c r="AC16" s="59">
+      <c r="AC16" s="38">
         <v>2</v>
       </c>
-      <c r="AD16" s="59">
+      <c r="AD16" s="38">
         <v>60</v>
       </c>
-      <c r="AE16" s="59">
+      <c r="AE16" s="38">
         <v>5</v>
       </c>
-      <c r="AF16" s="59">
+      <c r="AF16" s="38">
         <v>55</v>
       </c>
-      <c r="AG16" s="59">
+      <c r="AG16" s="38">
         <v>29</v>
       </c>
-      <c r="AH16" s="59">
+      <c r="AH16" s="38">
         <v>7</v>
       </c>
-      <c r="AI16" s="59">
+      <c r="AI16" s="38">
         <v>22</v>
       </c>
-      <c r="AJ16" s="59">
+      <c r="AJ16" s="38">
         <v>2</v>
       </c>
-      <c r="AK16" s="59">
+      <c r="AK16" s="38">
         <v>0</v>
       </c>
-      <c r="AL16" s="59">
+      <c r="AL16" s="38">
         <v>2</v>
       </c>
-      <c r="AM16" s="59">
+      <c r="AM16" s="38">
         <v>40</v>
       </c>
-      <c r="AN16" s="59">
+      <c r="AN16" s="38">
         <v>15</v>
       </c>
-      <c r="AO16" s="59">
+      <c r="AO16" s="38">
         <v>25</v>
       </c>
-      <c r="AP16" s="59">
+      <c r="AP16" s="38">
         <v>0</v>
       </c>
-      <c r="AQ16" s="59">
+      <c r="AQ16" s="38">
         <v>0</v>
       </c>
-      <c r="AR16" s="59">
+      <c r="AR16" s="38">
         <v>0</v>
       </c>
-      <c r="AS16" s="59">
+      <c r="AS16" s="38">
         <v>90</v>
       </c>
-      <c r="AT16" s="59">
+      <c r="AT16" s="38">
         <v>40</v>
       </c>
-      <c r="AU16" s="59">
+      <c r="AU16" s="38">
         <v>50</v>
       </c>
-      <c r="AV16" s="59">
+      <c r="AV16" s="38">
         <v>19</v>
       </c>
-      <c r="AW16" s="59">
+      <c r="AW16" s="38">
         <v>5</v>
       </c>
-      <c r="AX16" s="59">
+      <c r="AX16" s="38">
         <v>14</v>
       </c>
-      <c r="AY16" s="59">
+      <c r="AY16" s="38">
         <v>0</v>
       </c>
-      <c r="AZ16" s="59">
+      <c r="AZ16" s="38">
         <v>0</v>
       </c>
-      <c r="BA16" s="59">
+      <c r="BA16" s="38">
         <v>0</v>
       </c>
-      <c r="BB16" s="59">
+      <c r="BB16" s="38">
         <v>34</v>
       </c>
-      <c r="BC16" s="59">
+      <c r="BC16" s="38">
         <v>9</v>
       </c>
-      <c r="BD16" s="59">
+      <c r="BD16" s="38">
         <v>25</v>
       </c>
-      <c r="BE16" s="59">
+      <c r="BE16" s="38">
         <v>9</v>
       </c>
-      <c r="BF16" s="59">
+      <c r="BF16" s="38">
         <v>2</v>
       </c>
-      <c r="BG16" s="59">
+      <c r="BG16" s="38">
         <v>7</v>
       </c>
-      <c r="BH16" s="59">
+      <c r="BH16" s="38">
         <v>0.872</v>
       </c>
-      <c r="BI16" s="59">
+      <c r="BI16" s="38">
         <v>0.74099999999999999</v>
       </c>
-      <c r="BJ16" s="59">
+      <c r="BJ16" s="38">
         <v>0.89</v>
       </c>
-      <c r="BK16" s="59">
+      <c r="BK16" s="38">
         <v>0.1</v>
       </c>
-      <c r="BL16" s="59">
+      <c r="BL16" s="38">
         <v>0</v>
       </c>
-      <c r="BM16" s="59">
+      <c r="BM16" s="38">
         <v>0.129</v>
       </c>
-      <c r="BN16" s="59">
+      <c r="BN16" s="38">
         <v>0.71</v>
       </c>
-      <c r="BO16" s="59">
+      <c r="BO16" s="38">
         <v>0.37</v>
       </c>
-      <c r="BP16" s="59">
+      <c r="BP16" s="38">
         <v>0.77500000000000002</v>
       </c>
-      <c r="BQ16" s="59">
+      <c r="BQ16" s="38">
         <v>0.5</v>
       </c>
-      <c r="BR16" s="59">
+      <c r="BR16" s="38">
         <v>0.5</v>
       </c>
-      <c r="BS16" s="59">
+      <c r="BS16" s="38">
         <v>0.5</v>
       </c>
-      <c r="BT16" s="59">
+      <c r="BT16" s="38">
         <v>0</v>
       </c>
-      <c r="BU16" s="59">
+      <c r="BU16" s="38">
         <v>-7.4099999999999999E-2</v>
       </c>
-      <c r="BV16" s="59">
+      <c r="BV16" s="38">
         <v>-0.17280000000000001</v>
       </c>
-      <c r="BW16" s="59">
+      <c r="BW16" s="38">
         <v>0</v>
       </c>
-      <c r="BX16" s="59">
+      <c r="BX16" s="38">
         <v>-5.0599999999999999E-2</v>
       </c>
-      <c r="BY16" s="59">
+      <c r="BY16" s="38">
         <v>-5.1299999999999998E-2</v>
       </c>
-      <c r="BZ16" s="59">
+      <c r="BZ16" s="38">
         <v>0</v>
       </c>
-      <c r="CA16" s="59">
+      <c r="CA16" s="38">
         <v>-5.6300000000000003E-2</v>
       </c>
-      <c r="CB16" s="59">
+      <c r="CB16" s="38">
         <v>-3.1899999999999998E-2</v>
       </c>
-      <c r="CC16" s="59">
+      <c r="CC16" s="38">
         <v>6.69</v>
       </c>
-      <c r="CD16" s="59">
+      <c r="CD16" s="38">
         <v>7.14</v>
       </c>
-      <c r="CE16" s="59">
+      <c r="CE16" s="38">
         <v>3.61</v>
       </c>
     </row>
-    <row r="17" spans="1:83" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+    <row r="17" spans="1:83" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="58"/>
-      <c r="AL17" s="58"/>
-      <c r="AM17" s="58"/>
-      <c r="AN17" s="58"/>
-      <c r="AO17" s="58"/>
-      <c r="AP17" s="58"/>
-      <c r="AQ17" s="58"/>
-      <c r="AR17" s="58"/>
-      <c r="AS17" s="58"/>
-      <c r="AT17" s="58"/>
-      <c r="AU17" s="58"/>
-      <c r="AV17" s="58"/>
-      <c r="AW17" s="58"/>
-      <c r="AX17" s="58"/>
-      <c r="AY17" s="58"/>
-      <c r="AZ17" s="58"/>
-      <c r="BA17" s="58"/>
-      <c r="BB17" s="58"/>
-      <c r="BC17" s="58"/>
-      <c r="BD17" s="58"/>
-      <c r="BE17" s="58"/>
-      <c r="BF17" s="58"/>
-      <c r="BG17" s="58"/>
-      <c r="BH17" s="58"/>
-      <c r="BI17" s="58"/>
-      <c r="BJ17" s="58"/>
-      <c r="BK17" s="58"/>
-      <c r="BL17" s="58"/>
-      <c r="BM17" s="58"/>
-      <c r="BN17" s="58"/>
-      <c r="BO17" s="58"/>
-      <c r="BP17" s="58"/>
-      <c r="BQ17" s="58"/>
-      <c r="BR17" s="58"/>
-      <c r="BS17" s="58"/>
-      <c r="BT17" s="58"/>
-      <c r="BU17" s="58"/>
-      <c r="BV17" s="58"/>
-      <c r="BW17" s="58"/>
-      <c r="BX17" s="58"/>
-      <c r="BY17" s="58"/>
-      <c r="BZ17" s="58"/>
-      <c r="CA17" s="58"/>
-      <c r="CB17" s="58"/>
-      <c r="CC17" s="58"/>
-      <c r="CD17" s="58"/>
-      <c r="CE17" s="58"/>
-    </row>
-    <row r="18" spans="1:83" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="37"/>
+      <c r="AM17" s="37"/>
+      <c r="AN17" s="37"/>
+      <c r="AO17" s="37"/>
+      <c r="AP17" s="37"/>
+      <c r="AQ17" s="37"/>
+      <c r="AR17" s="37"/>
+      <c r="AS17" s="37"/>
+      <c r="AT17" s="37"/>
+      <c r="AU17" s="37"/>
+      <c r="AV17" s="37"/>
+      <c r="AW17" s="37"/>
+      <c r="AX17" s="37"/>
+      <c r="AY17" s="37"/>
+      <c r="AZ17" s="37"/>
+      <c r="BA17" s="37"/>
+      <c r="BB17" s="37"/>
+      <c r="BC17" s="37"/>
+      <c r="BD17" s="37"/>
+      <c r="BE17" s="37"/>
+      <c r="BF17" s="37"/>
+      <c r="BG17" s="37"/>
+      <c r="BH17" s="37"/>
+      <c r="BI17" s="37"/>
+      <c r="BJ17" s="37"/>
+      <c r="BK17" s="37"/>
+      <c r="BL17" s="37"/>
+      <c r="BM17" s="37"/>
+      <c r="BN17" s="37"/>
+      <c r="BO17" s="37"/>
+      <c r="BP17" s="37"/>
+      <c r="BQ17" s="37"/>
+      <c r="BR17" s="37"/>
+      <c r="BS17" s="37"/>
+      <c r="BT17" s="37"/>
+      <c r="BU17" s="37"/>
+      <c r="BV17" s="37"/>
+      <c r="BW17" s="37"/>
+      <c r="BX17" s="37"/>
+      <c r="BY17" s="37"/>
+      <c r="BZ17" s="37"/>
+      <c r="CA17" s="37"/>
+      <c r="CB17" s="37"/>
+      <c r="CC17" s="37"/>
+      <c r="CD17" s="37"/>
+      <c r="CE17" s="37"/>
+    </row>
+    <row r="18" spans="1:83" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="59"/>
-      <c r="AJ18" s="59"/>
-      <c r="AK18" s="59"/>
-      <c r="AL18" s="59"/>
-      <c r="AM18" s="59"/>
-      <c r="AN18" s="59"/>
-      <c r="AO18" s="59"/>
-      <c r="AP18" s="59"/>
-      <c r="AQ18" s="59"/>
-      <c r="AR18" s="59"/>
-      <c r="AS18" s="59"/>
-      <c r="AT18" s="59"/>
-      <c r="AU18" s="59"/>
-      <c r="AV18" s="59"/>
-      <c r="AW18" s="59"/>
-      <c r="AX18" s="59"/>
-      <c r="AY18" s="59"/>
-      <c r="AZ18" s="59"/>
-      <c r="BA18" s="59"/>
-      <c r="BB18" s="59"/>
-      <c r="BC18" s="59"/>
-      <c r="BD18" s="59"/>
-      <c r="BE18" s="59"/>
-      <c r="BF18" s="59"/>
-      <c r="BG18" s="59"/>
-      <c r="BH18" s="59"/>
-      <c r="BI18" s="59"/>
-      <c r="BJ18" s="59"/>
-      <c r="BK18" s="59"/>
-      <c r="BL18" s="59"/>
-      <c r="BM18" s="59"/>
-      <c r="BN18" s="59"/>
-      <c r="BO18" s="59"/>
-      <c r="BP18" s="59"/>
-      <c r="BQ18" s="59"/>
-      <c r="BR18" s="59"/>
-      <c r="BS18" s="59"/>
-      <c r="BT18" s="59"/>
-      <c r="BU18" s="59"/>
-      <c r="BV18" s="59"/>
-      <c r="BW18" s="59"/>
-      <c r="BX18" s="59"/>
-      <c r="BY18" s="59"/>
-      <c r="BZ18" s="59"/>
-      <c r="CA18" s="59"/>
-      <c r="CB18" s="59"/>
-      <c r="CC18" s="59"/>
-      <c r="CD18" s="59"/>
-      <c r="CE18" s="59"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="38"/>
+      <c r="AP18" s="38"/>
+      <c r="AQ18" s="38"/>
+      <c r="AR18" s="38"/>
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38"/>
+      <c r="AU18" s="38"/>
+      <c r="AV18" s="38"/>
+      <c r="AW18" s="38"/>
+      <c r="AX18" s="38"/>
+      <c r="AY18" s="38"/>
+      <c r="AZ18" s="38"/>
+      <c r="BA18" s="38"/>
+      <c r="BB18" s="38"/>
+      <c r="BC18" s="38"/>
+      <c r="BD18" s="38"/>
+      <c r="BE18" s="38"/>
+      <c r="BF18" s="38"/>
+      <c r="BG18" s="38"/>
+      <c r="BH18" s="38"/>
+      <c r="BI18" s="38"/>
+      <c r="BJ18" s="38"/>
+      <c r="BK18" s="38"/>
+      <c r="BL18" s="38"/>
+      <c r="BM18" s="38"/>
+      <c r="BN18" s="38"/>
+      <c r="BO18" s="38"/>
+      <c r="BP18" s="38"/>
+      <c r="BQ18" s="38"/>
+      <c r="BR18" s="38"/>
+      <c r="BS18" s="38"/>
+      <c r="BT18" s="38"/>
+      <c r="BU18" s="38"/>
+      <c r="BV18" s="38"/>
+      <c r="BW18" s="38"/>
+      <c r="BX18" s="38"/>
+      <c r="BY18" s="38"/>
+      <c r="BZ18" s="38"/>
+      <c r="CA18" s="38"/>
+      <c r="CB18" s="38"/>
+      <c r="CC18" s="38"/>
+      <c r="CD18" s="38"/>
+      <c r="CE18" s="38"/>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
     </row>
     <row r="23" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="BZ11:BZ12"/>
-    <mergeCell ref="CA11:CA12"/>
-    <mergeCell ref="CB11:CB12"/>
-    <mergeCell ref="CC11:CC12"/>
-    <mergeCell ref="CD11:CD12"/>
     <mergeCell ref="CE11:CE12"/>
     <mergeCell ref="BT11:BT12"/>
     <mergeCell ref="BU11:BU12"/>
@@ -6461,11 +6739,11 @@
     <mergeCell ref="BW11:BW12"/>
     <mergeCell ref="BX11:BX12"/>
     <mergeCell ref="BY11:BY12"/>
-    <mergeCell ref="BH11:BJ11"/>
-    <mergeCell ref="BK11:BM11"/>
-    <mergeCell ref="BN11:BP11"/>
-    <mergeCell ref="BQ11:BQ12"/>
-    <mergeCell ref="BR11:BR12"/>
+    <mergeCell ref="BZ11:BZ12"/>
+    <mergeCell ref="CA11:CA12"/>
+    <mergeCell ref="CB11:CB12"/>
+    <mergeCell ref="CC11:CC12"/>
+    <mergeCell ref="CD11:CD12"/>
     <mergeCell ref="BS11:BS12"/>
     <mergeCell ref="AP11:AR11"/>
     <mergeCell ref="AS11:AU11"/>
@@ -6473,11 +6751,11 @@
     <mergeCell ref="AY11:BA11"/>
     <mergeCell ref="BB11:BD11"/>
     <mergeCell ref="BE11:BG11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="AG11:AI11"/>
-    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="BH11:BJ11"/>
+    <mergeCell ref="BK11:BM11"/>
+    <mergeCell ref="BN11:BP11"/>
+    <mergeCell ref="BQ11:BQ12"/>
+    <mergeCell ref="BR11:BR12"/>
     <mergeCell ref="AM11:AO11"/>
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="Q11:S11"/>
@@ -6485,16 +6763,16 @@
     <mergeCell ref="U11:U12"/>
     <mergeCell ref="V11:V12"/>
     <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="AG11:AI11"/>
+    <mergeCell ref="AJ11:AL11"/>
     <mergeCell ref="BB1:BB2"/>
     <mergeCell ref="BC1:BC2"/>
     <mergeCell ref="BD1:BD2"/>
     <mergeCell ref="BE1:BE2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
     <mergeCell ref="AV1:AV2"/>
     <mergeCell ref="AW1:AW2"/>
     <mergeCell ref="AX1:AX2"/>
@@ -6506,6 +6784,11 @@
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
     <mergeCell ref="AS1:AU1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
@@ -6513,12 +6796,12 @@
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
-    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6526,11 +6809,2830 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D74B599-10D3-4569-8FD7-5A56CD4EBC72}">
+  <dimension ref="A1:CF16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="CE10" sqref="A1:CE10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="23.42578125" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="0" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="19.5703125" hidden="1" customWidth="1"/>
+    <col min="25" max="69" width="0" hidden="1" customWidth="1"/>
+    <col min="71" max="71" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="18.7109375" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="56"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="56"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="62"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="X1" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ1" s="56"/>
+      <c r="BK1" s="57"/>
+      <c r="BL1" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="BM1" s="56"/>
+      <c r="BN1" s="57"/>
+      <c r="BO1" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP1" s="56"/>
+      <c r="BQ1" s="57"/>
+      <c r="BR1" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS1" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="BT1" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="BU1" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="BV1" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="BW1" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="BX1" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="BY1" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="BZ1" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="CA1" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="CB1" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="CC1" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="CD1" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="CE1" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="CF1" s="52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A2" s="63"/>
+      <c r="B2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="68"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="BG2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="BH2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="BJ2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="BK2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="BM2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="BN2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="BO2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="BQ2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="BR2" s="52"/>
+      <c r="BS2" s="52"/>
+      <c r="BT2" s="68"/>
+      <c r="BU2" s="54"/>
+      <c r="BV2" s="54"/>
+      <c r="BW2" s="54"/>
+      <c r="BX2" s="54"/>
+      <c r="BY2" s="54"/>
+      <c r="BZ2" s="54"/>
+      <c r="CA2" s="54"/>
+      <c r="CB2" s="54"/>
+      <c r="CC2" s="54"/>
+      <c r="CD2" s="52"/>
+      <c r="CE2" s="52"/>
+      <c r="CF2" s="52"/>
+    </row>
+    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.314</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>99</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>94</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>33</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>139</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>12</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>127</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>41</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>37</v>
+      </c>
+      <c r="AK3" s="6">
+        <v>18</v>
+      </c>
+      <c r="AL3" s="6">
+        <v>5</v>
+      </c>
+      <c r="AM3" s="6">
+        <v>13</v>
+      </c>
+      <c r="AN3" s="6">
+        <v>61</v>
+      </c>
+      <c r="AO3" s="6">
+        <v>9</v>
+      </c>
+      <c r="AP3" s="6">
+        <v>52</v>
+      </c>
+      <c r="AQ3" s="6">
+        <v>90</v>
+      </c>
+      <c r="AR3" s="6">
+        <v>29</v>
+      </c>
+      <c r="AS3" s="6">
+        <v>61</v>
+      </c>
+      <c r="AT3" s="6">
+        <v>174</v>
+      </c>
+      <c r="AU3" s="6">
+        <v>42</v>
+      </c>
+      <c r="AV3" s="6">
+        <v>132</v>
+      </c>
+      <c r="AW3" s="6">
+        <v>262</v>
+      </c>
+      <c r="AX3" s="6">
+        <v>71</v>
+      </c>
+      <c r="AY3" s="6">
+        <v>191</v>
+      </c>
+      <c r="AZ3" s="6">
+        <v>70</v>
+      </c>
+      <c r="BA3" s="6">
+        <v>14</v>
+      </c>
+      <c r="BB3" s="6">
+        <v>56</v>
+      </c>
+      <c r="BC3" s="6">
+        <v>68</v>
+      </c>
+      <c r="BD3" s="6">
+        <v>15</v>
+      </c>
+      <c r="BE3" s="6">
+        <v>53</v>
+      </c>
+      <c r="BF3" s="6">
+        <v>138</v>
+      </c>
+      <c r="BG3" s="6">
+        <v>29</v>
+      </c>
+      <c r="BH3" s="6">
+        <v>109</v>
+      </c>
+      <c r="BI3" s="6">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="BJ3" s="6">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="BK3" s="6">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="BL3" s="6">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="BM3" s="6">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="BN3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="BO3" s="6">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="BP3" s="6">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="BQ3" s="6">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="BR3" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="BS3" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="BT3" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="BU3" s="11">
+        <v>-0.36349999999999999</v>
+      </c>
+      <c r="BV3" s="11">
+        <v>-6.5500000000000003E-2</v>
+      </c>
+      <c r="BW3" s="11">
+        <v>-0.2455</v>
+      </c>
+      <c r="BX3" s="11">
+        <v>-0.35510000000000003</v>
+      </c>
+      <c r="BY3" s="11">
+        <v>-2.52E-2</v>
+      </c>
+      <c r="BZ3" s="11">
+        <v>-0.2001</v>
+      </c>
+      <c r="CA3" s="11">
+        <v>-0.30990000000000001</v>
+      </c>
+      <c r="CB3" s="11">
+        <v>-2.4400000000000002E-2</v>
+      </c>
+      <c r="CC3" s="11">
+        <v>-0.17349999999999999</v>
+      </c>
+      <c r="CD3" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="CE3" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="CF3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0.315</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>115</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>107</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>63</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>12</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>51</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>183</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>23</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>160</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>44</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>41</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>41</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>12</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>29</v>
+      </c>
+      <c r="AN4" s="7">
+        <v>92</v>
+      </c>
+      <c r="AO4" s="7">
+        <v>17</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>75</v>
+      </c>
+      <c r="AQ4" s="7">
+        <v>87</v>
+      </c>
+      <c r="AR4" s="7">
+        <v>30</v>
+      </c>
+      <c r="AS4" s="7">
+        <v>57</v>
+      </c>
+      <c r="AT4" s="7">
+        <v>151</v>
+      </c>
+      <c r="AU4" s="7">
+        <v>35</v>
+      </c>
+      <c r="AV4" s="7">
+        <v>116</v>
+      </c>
+      <c r="AW4" s="7">
+        <v>231</v>
+      </c>
+      <c r="AX4" s="7">
+        <v>63</v>
+      </c>
+      <c r="AY4" s="7">
+        <v>168</v>
+      </c>
+      <c r="AZ4" s="7">
+        <v>54</v>
+      </c>
+      <c r="BA4" s="7">
+        <v>11</v>
+      </c>
+      <c r="BB4" s="7">
+        <v>43</v>
+      </c>
+      <c r="BC4" s="7">
+        <v>45</v>
+      </c>
+      <c r="BD4" s="7">
+        <v>10</v>
+      </c>
+      <c r="BE4" s="7">
+        <v>35</v>
+      </c>
+      <c r="BF4" s="7">
+        <v>94</v>
+      </c>
+      <c r="BG4" s="7">
+        <v>18</v>
+      </c>
+      <c r="BH4" s="7">
+        <v>76</v>
+      </c>
+      <c r="BI4" s="7">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="BJ4" s="7">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="BK4" s="7">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="BL4" s="7">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="BM4" s="7">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="BN4" s="7">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="BO4" s="7">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="BP4" s="7">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="BQ4" s="7">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="BR4" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="BS4" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="BT4" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="BU4" s="13">
+        <v>-0.2923</v>
+      </c>
+      <c r="BV4" s="13">
+        <v>-4.7600000000000003E-2</v>
+      </c>
+      <c r="BW4" s="13">
+        <v>-0.11700000000000001</v>
+      </c>
+      <c r="BX4" s="13">
+        <v>-0.38519999999999999</v>
+      </c>
+      <c r="BY4" s="13">
+        <v>1.5E-3</v>
+      </c>
+      <c r="BZ4" s="13">
+        <v>-0.16</v>
+      </c>
+      <c r="CA4" s="13">
+        <v>-0.30990000000000001</v>
+      </c>
+      <c r="CB4" s="13">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="CC4" s="13">
+        <v>-0.1066</v>
+      </c>
+      <c r="CD4" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="CE4" s="7">
+        <v>2.68</v>
+      </c>
+      <c r="CF4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="37">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="C5" s="37">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="E5" s="37">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="F5" s="37">
+        <v>0.71</v>
+      </c>
+      <c r="G5" s="37">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="H5" s="37">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="I5" s="37">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="J5" s="37">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="K5" s="37">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="L5" s="37">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="M5" s="37">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="N5" s="37">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="O5" s="37">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P5" s="37">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="Q5" s="37">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="R5" s="37">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="S5" s="37">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="T5" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y5" s="37">
+        <v>119</v>
+      </c>
+      <c r="Z5" s="37">
+        <v>14</v>
+      </c>
+      <c r="AA5" s="37">
+        <v>105</v>
+      </c>
+      <c r="AB5" s="37">
+        <v>36</v>
+      </c>
+      <c r="AC5" s="37">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="37">
+        <v>29</v>
+      </c>
+      <c r="AE5" s="37">
+        <v>156</v>
+      </c>
+      <c r="AF5" s="37">
+        <v>20</v>
+      </c>
+      <c r="AG5" s="37">
+        <v>136</v>
+      </c>
+      <c r="AH5" s="37">
+        <v>71</v>
+      </c>
+      <c r="AI5" s="37">
+        <v>16</v>
+      </c>
+      <c r="AJ5" s="37">
+        <v>55</v>
+      </c>
+      <c r="AK5" s="37">
+        <v>14</v>
+      </c>
+      <c r="AL5" s="37">
+        <v>5</v>
+      </c>
+      <c r="AM5" s="37">
+        <v>9</v>
+      </c>
+      <c r="AN5" s="37">
+        <v>87</v>
+      </c>
+      <c r="AO5" s="37">
+        <v>20</v>
+      </c>
+      <c r="AP5" s="37">
+        <v>67</v>
+      </c>
+      <c r="AQ5" s="37">
+        <v>60</v>
+      </c>
+      <c r="AR5" s="37">
+        <v>17</v>
+      </c>
+      <c r="AS5" s="37">
+        <v>43</v>
+      </c>
+      <c r="AT5" s="37">
+        <v>178</v>
+      </c>
+      <c r="AU5" s="37">
+        <v>42</v>
+      </c>
+      <c r="AV5" s="37">
+        <v>136</v>
+      </c>
+      <c r="AW5" s="37">
+        <v>236</v>
+      </c>
+      <c r="AX5" s="37">
+        <v>60</v>
+      </c>
+      <c r="AY5" s="37">
+        <v>176</v>
+      </c>
+      <c r="AZ5" s="37">
+        <v>50</v>
+      </c>
+      <c r="BA5" s="37">
+        <v>5</v>
+      </c>
+      <c r="BB5" s="37">
+        <v>45</v>
+      </c>
+      <c r="BC5" s="37">
+        <v>72</v>
+      </c>
+      <c r="BD5" s="37">
+        <v>15</v>
+      </c>
+      <c r="BE5" s="37">
+        <v>57</v>
+      </c>
+      <c r="BF5" s="37">
+        <v>121</v>
+      </c>
+      <c r="BG5" s="37">
+        <v>21</v>
+      </c>
+      <c r="BH5" s="37">
+        <v>100</v>
+      </c>
+      <c r="BI5" s="37">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="BJ5" s="37">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="BK5" s="37">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="BL5" s="37">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="BM5" s="37">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="BN5" s="37">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="BO5" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="BP5" s="37">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="BQ5" s="37">
+        <v>0.62</v>
+      </c>
+      <c r="BR5" s="37">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="BS5" s="37">
+        <v>0.65</v>
+      </c>
+      <c r="BT5" s="37">
+        <v>0.65</v>
+      </c>
+      <c r="BU5" s="37">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="BV5" s="37">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="BW5" s="37">
+        <v>-8.8499999999999995E-2</v>
+      </c>
+      <c r="BX5" s="37">
+        <v>-6.8199999999999997E-2</v>
+      </c>
+      <c r="BY5" s="37">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="BZ5" s="37">
+        <v>-9.3200000000000005E-2</v>
+      </c>
+      <c r="CA5" s="37">
+        <v>-1.9800000000000002E-2</v>
+      </c>
+      <c r="CB5" s="37">
+        <v>1.26E-2</v>
+      </c>
+      <c r="CC5" s="37">
+        <v>-5.7099999999999998E-2</v>
+      </c>
+      <c r="CD5" s="37">
+        <v>0.37</v>
+      </c>
+      <c r="CE5" s="37">
+        <v>0.35</v>
+      </c>
+      <c r="CF5" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="38">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="C6" s="38">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="D6" s="38">
+        <v>0.629</v>
+      </c>
+      <c r="E6" s="38">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="F6" s="38">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="G6" s="38">
+        <v>0.71</v>
+      </c>
+      <c r="H6" s="38">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="I6" s="38">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="J6" s="38">
+        <v>0.67</v>
+      </c>
+      <c r="K6" s="38">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="L6" s="38">
+        <v>0.442</v>
+      </c>
+      <c r="M6" s="38">
+        <v>0.371</v>
+      </c>
+      <c r="N6" s="38">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="O6" s="38">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="P6" s="38">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q6" s="38">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="R6" s="38">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="S6" s="38">
+        <v>0.33</v>
+      </c>
+      <c r="T6" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="U6" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="V6" s="38">
+        <v>0.45</v>
+      </c>
+      <c r="W6" s="38">
+        <v>256</v>
+      </c>
+      <c r="X6" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y6" s="38">
+        <v>132</v>
+      </c>
+      <c r="Z6" s="38">
+        <v>13</v>
+      </c>
+      <c r="AA6" s="38">
+        <v>119</v>
+      </c>
+      <c r="AB6" s="38">
+        <v>39</v>
+      </c>
+      <c r="AC6" s="38">
+        <v>8</v>
+      </c>
+      <c r="AD6" s="38">
+        <v>31</v>
+      </c>
+      <c r="AE6" s="38">
+        <v>175</v>
+      </c>
+      <c r="AF6" s="38">
+        <v>23</v>
+      </c>
+      <c r="AG6" s="38">
+        <v>152</v>
+      </c>
+      <c r="AH6" s="38">
+        <v>78</v>
+      </c>
+      <c r="AI6" s="38">
+        <v>17</v>
+      </c>
+      <c r="AJ6" s="38">
+        <v>61</v>
+      </c>
+      <c r="AK6" s="38">
+        <v>16</v>
+      </c>
+      <c r="AL6" s="38">
+        <v>4</v>
+      </c>
+      <c r="AM6" s="38">
+        <v>12</v>
+      </c>
+      <c r="AN6" s="38">
+        <v>92</v>
+      </c>
+      <c r="AO6" s="38">
+        <v>18</v>
+      </c>
+      <c r="AP6" s="38">
+        <v>74</v>
+      </c>
+      <c r="AQ6" s="38">
+        <v>53</v>
+      </c>
+      <c r="AR6" s="38">
+        <v>16</v>
+      </c>
+      <c r="AS6" s="38">
+        <v>37</v>
+      </c>
+      <c r="AT6" s="38">
+        <v>176</v>
+      </c>
+      <c r="AU6" s="38">
+        <v>43</v>
+      </c>
+      <c r="AV6" s="38">
+        <v>133</v>
+      </c>
+      <c r="AW6" s="38">
+        <v>231</v>
+      </c>
+      <c r="AX6" s="38">
+        <v>62</v>
+      </c>
+      <c r="AY6" s="38">
+        <v>169</v>
+      </c>
+      <c r="AZ6" s="38">
+        <v>37</v>
+      </c>
+      <c r="BA6" s="38">
+        <v>6</v>
+      </c>
+      <c r="BB6" s="38">
+        <v>31</v>
+      </c>
+      <c r="BC6" s="38">
+        <v>69</v>
+      </c>
+      <c r="BD6" s="38">
+        <v>14</v>
+      </c>
+      <c r="BE6" s="38">
+        <v>55</v>
+      </c>
+      <c r="BF6" s="38">
+        <v>102</v>
+      </c>
+      <c r="BG6" s="38">
+        <v>18</v>
+      </c>
+      <c r="BH6" s="38">
+        <v>84</v>
+      </c>
+      <c r="BI6" s="38">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="BJ6" s="38">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="BK6" s="38">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="BL6" s="38">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="BM6" s="38">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="BN6" s="38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="BO6" s="38">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="BP6" s="38">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="BQ6" s="38">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="BR6" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="BS6" s="38">
+        <v>0.65</v>
+      </c>
+      <c r="BT6" s="38">
+        <v>0.61</v>
+      </c>
+      <c r="BU6" s="38">
+        <v>-0.1091</v>
+      </c>
+      <c r="BV6" s="38">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="BW6" s="38">
+        <v>-8.3099999999999993E-2</v>
+      </c>
+      <c r="BX6" s="38">
+        <v>-0.1489</v>
+      </c>
+      <c r="BY6" s="38">
+        <v>-1.2200000000000001E-2</v>
+      </c>
+      <c r="BZ6" s="79">
+        <v>-0.13300000000000001</v>
+      </c>
+      <c r="CA6" s="38">
+        <v>-0.1082</v>
+      </c>
+      <c r="CB6" s="38">
+        <v>2.8E-3</v>
+      </c>
+      <c r="CC6" s="38">
+        <v>-8.1299999999999997E-2</v>
+      </c>
+      <c r="CD6" s="38">
+        <v>3.18</v>
+      </c>
+      <c r="CE6" s="38">
+        <v>3.09</v>
+      </c>
+      <c r="CF6" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="37"/>
+      <c r="AM7" s="37"/>
+      <c r="AN7" s="37"/>
+      <c r="AO7" s="37"/>
+      <c r="AP7" s="37"/>
+      <c r="AQ7" s="37"/>
+      <c r="AR7" s="37"/>
+      <c r="AS7" s="37"/>
+      <c r="AT7" s="37"/>
+      <c r="AU7" s="37"/>
+      <c r="AV7" s="37"/>
+      <c r="AW7" s="37"/>
+      <c r="AX7" s="37"/>
+      <c r="AY7" s="37"/>
+      <c r="AZ7" s="37"/>
+      <c r="BA7" s="37"/>
+      <c r="BB7" s="37"/>
+      <c r="BC7" s="37"/>
+      <c r="BD7" s="37"/>
+      <c r="BE7" s="37"/>
+      <c r="BF7" s="37"/>
+      <c r="BG7" s="37"/>
+      <c r="BH7" s="37"/>
+      <c r="BI7" s="37"/>
+      <c r="BJ7" s="37"/>
+      <c r="BK7" s="37"/>
+      <c r="BL7" s="37"/>
+      <c r="BM7" s="37"/>
+      <c r="BN7" s="37"/>
+      <c r="BO7" s="37"/>
+      <c r="BP7" s="37"/>
+      <c r="BQ7" s="37"/>
+      <c r="BR7" s="37"/>
+      <c r="BS7" s="37"/>
+      <c r="BT7" s="37"/>
+      <c r="BU7" s="37"/>
+      <c r="BV7" s="37"/>
+      <c r="BW7" s="37"/>
+      <c r="BX7" s="37"/>
+      <c r="BY7" s="37"/>
+      <c r="BZ7" s="37"/>
+      <c r="CA7" s="37"/>
+      <c r="CB7" s="37"/>
+      <c r="CC7" s="37"/>
+      <c r="CD7" s="37"/>
+      <c r="CE7" s="37"/>
+      <c r="CF7" s="37"/>
+    </row>
+    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38"/>
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="38"/>
+      <c r="AM8" s="38"/>
+      <c r="AN8" s="38"/>
+      <c r="AO8" s="38"/>
+      <c r="AP8" s="38"/>
+      <c r="AQ8" s="38"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="38"/>
+      <c r="AT8" s="38"/>
+      <c r="AU8" s="38"/>
+      <c r="AV8" s="38"/>
+      <c r="AW8" s="38"/>
+      <c r="AX8" s="38"/>
+      <c r="AY8" s="38"/>
+      <c r="AZ8" s="38"/>
+      <c r="BA8" s="38"/>
+      <c r="BB8" s="38"/>
+      <c r="BC8" s="38"/>
+      <c r="BD8" s="38"/>
+      <c r="BE8" s="38"/>
+      <c r="BF8" s="38"/>
+      <c r="BG8" s="38"/>
+      <c r="BH8" s="38"/>
+      <c r="BI8" s="38"/>
+      <c r="BJ8" s="38"/>
+      <c r="BK8" s="38"/>
+      <c r="BL8" s="38"/>
+      <c r="BM8" s="38"/>
+      <c r="BN8" s="38"/>
+      <c r="BO8" s="38"/>
+      <c r="BP8" s="38"/>
+      <c r="BQ8" s="38"/>
+      <c r="BR8" s="38"/>
+      <c r="BS8" s="38"/>
+      <c r="BT8" s="38"/>
+      <c r="BU8" s="38"/>
+      <c r="BV8" s="38"/>
+      <c r="BW8" s="38"/>
+      <c r="BX8" s="38"/>
+      <c r="BY8" s="38"/>
+      <c r="BZ8" s="38"/>
+      <c r="CA8" s="38"/>
+      <c r="CB8" s="38"/>
+      <c r="CC8" s="38"/>
+      <c r="CD8" s="38"/>
+      <c r="CE8" s="38"/>
+      <c r="CF8" s="38"/>
+    </row>
+    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="37"/>
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="37"/>
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="37"/>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="37"/>
+      <c r="AU9" s="37"/>
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="37"/>
+      <c r="AX9" s="37"/>
+      <c r="AY9" s="37"/>
+      <c r="AZ9" s="37"/>
+      <c r="BA9" s="37"/>
+      <c r="BB9" s="37"/>
+      <c r="BC9" s="37"/>
+      <c r="BD9" s="37"/>
+      <c r="BE9" s="37"/>
+      <c r="BF9" s="37"/>
+      <c r="BG9" s="37"/>
+      <c r="BH9" s="37"/>
+      <c r="BI9" s="37"/>
+      <c r="BJ9" s="37"/>
+      <c r="BK9" s="37"/>
+      <c r="BL9" s="37"/>
+      <c r="BM9" s="37"/>
+      <c r="BN9" s="37"/>
+      <c r="BO9" s="37"/>
+      <c r="BP9" s="37"/>
+      <c r="BQ9" s="37"/>
+      <c r="BR9" s="37"/>
+      <c r="BS9" s="37"/>
+      <c r="BT9" s="37"/>
+      <c r="BU9" s="37"/>
+      <c r="BV9" s="37"/>
+      <c r="BW9" s="37"/>
+      <c r="BX9" s="37"/>
+      <c r="BY9" s="37"/>
+      <c r="BZ9" s="37"/>
+      <c r="CA9" s="37"/>
+      <c r="CB9" s="37"/>
+      <c r="CC9" s="37"/>
+      <c r="CD9" s="37"/>
+      <c r="CE9" s="37"/>
+      <c r="CF9" s="37"/>
+    </row>
+    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="38"/>
+      <c r="AH10" s="38"/>
+      <c r="AI10" s="38"/>
+      <c r="AJ10" s="38"/>
+      <c r="AK10" s="38"/>
+      <c r="AL10" s="38"/>
+      <c r="AM10" s="38"/>
+      <c r="AN10" s="38"/>
+      <c r="AO10" s="38"/>
+      <c r="AP10" s="38"/>
+      <c r="AQ10" s="38"/>
+      <c r="AR10" s="38"/>
+      <c r="AS10" s="38"/>
+      <c r="AT10" s="38"/>
+      <c r="AU10" s="38"/>
+      <c r="AV10" s="38"/>
+      <c r="AW10" s="38"/>
+      <c r="AX10" s="38"/>
+      <c r="AY10" s="38"/>
+      <c r="AZ10" s="38"/>
+      <c r="BA10" s="38"/>
+      <c r="BB10" s="38"/>
+      <c r="BC10" s="38"/>
+      <c r="BD10" s="38"/>
+      <c r="BE10" s="38"/>
+      <c r="BF10" s="38"/>
+      <c r="BG10" s="38"/>
+      <c r="BH10" s="38"/>
+      <c r="BI10" s="38"/>
+      <c r="BJ10" s="38"/>
+      <c r="BK10" s="38"/>
+      <c r="BL10" s="38"/>
+      <c r="BM10" s="38"/>
+      <c r="BN10" s="38"/>
+      <c r="BO10" s="38"/>
+      <c r="BP10" s="38"/>
+      <c r="BQ10" s="38"/>
+      <c r="BR10" s="38"/>
+      <c r="BS10" s="38"/>
+      <c r="BT10" s="38"/>
+      <c r="BU10" s="38"/>
+      <c r="BV10" s="38"/>
+      <c r="BW10" s="38"/>
+      <c r="BX10" s="38"/>
+      <c r="BY10" s="38"/>
+      <c r="BZ10" s="38"/>
+      <c r="CA10" s="38"/>
+      <c r="CB10" s="38"/>
+      <c r="CC10" s="38"/>
+      <c r="CD10" s="38"/>
+      <c r="CE10" s="38"/>
+      <c r="CF10" s="38"/>
+    </row>
+    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+    </row>
+    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>-0.2923</v>
+      </c>
+      <c r="B14" s="13">
+        <v>-4.7600000000000003E-2</v>
+      </c>
+      <c r="C14" s="13">
+        <v>-0.11700000000000001</v>
+      </c>
+      <c r="D14" s="13">
+        <v>-0.38519999999999999</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F14" s="13">
+        <v>-0.16</v>
+      </c>
+      <c r="G14" s="13">
+        <v>-0.30990000000000001</v>
+      </c>
+      <c r="H14" s="13">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="I14" s="13">
+        <v>-1066</v>
+      </c>
+    </row>
+    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="BI1:BK1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="BF1:BH1"/>
+    <mergeCell ref="CA1:CA2"/>
+    <mergeCell ref="BL1:BN1"/>
+    <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="BR1:BR2"/>
+    <mergeCell ref="BS1:BS2"/>
+    <mergeCell ref="BT1:BT2"/>
+    <mergeCell ref="BU1:BU2"/>
+    <mergeCell ref="BV1:BV2"/>
+    <mergeCell ref="BW1:BW2"/>
+    <mergeCell ref="BX1:BX2"/>
+    <mergeCell ref="BY1:BY2"/>
+    <mergeCell ref="BZ1:BZ2"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="CB1:CB2"/>
+    <mergeCell ref="CC1:CC2"/>
+    <mergeCell ref="CD1:CD2"/>
+    <mergeCell ref="CE1:CE2"/>
+    <mergeCell ref="CF1:CF2"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D43789-1003-47D8-B7A4-FDE215F69927}">
+  <dimension ref="A2:R30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:N30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="48"/>
+    <col min="2" max="2" width="11.42578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="48"/>
+    <col min="4" max="4" width="17" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="48" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="48"/>
+    <col min="7" max="7" width="13.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="48" customWidth="1"/>
+    <col min="12" max="12" width="12" style="48" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="48" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="48" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="62"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="R2" s="80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="68"/>
+      <c r="K3" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="R3" s="80"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="47">
+        <v>1</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="47">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I4" s="83" t="s">
+        <v>166</v>
+      </c>
+      <c r="J4" s="47">
+        <v>128</v>
+      </c>
+      <c r="K4" s="47">
+        <v>100</v>
+      </c>
+      <c r="L4" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="R4" s="80"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="47">
+        <v>5</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="47">
+        <v>10</v>
+      </c>
+      <c r="F5" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="G5" s="47">
+        <v>1E-4</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="47">
+        <v>128</v>
+      </c>
+      <c r="K5" s="47">
+        <v>100</v>
+      </c>
+      <c r="L5" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="M5" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="R5" s="80"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="47">
+        <v>3</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="47">
+        <v>100</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L6" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="M6" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="R6" s="80"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="47">
+        <v>4</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="47">
+        <v>100</v>
+      </c>
+      <c r="F7" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47">
+        <v>128</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="R7" s="80"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="47">
+        <v>4</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="47">
+        <v>100</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47">
+        <v>128</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="R8" s="80"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="R9" s="80"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="52"/>
+      <c r="B10" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="R10" s="80"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="M11" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="R11" s="80"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="R12" s="80"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="52"/>
+      <c r="B13" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="R13" s="80"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="85" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="56"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="71"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="H18" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" s="86"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="N18" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="O18" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="P18" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q18" s="47" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="47">
+        <v>1</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="47">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H19" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" s="38">
+        <v>0</v>
+      </c>
+      <c r="K19" s="47">
+        <v>256</v>
+      </c>
+      <c r="L19" s="47">
+        <v>150</v>
+      </c>
+      <c r="M19" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="N19" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" s="38">
+        <v>70</v>
+      </c>
+      <c r="P19" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" s="38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="52"/>
+      <c r="B20" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="47">
+        <v>5</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="47">
+        <v>10</v>
+      </c>
+      <c r="F20" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="G20" s="83">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" s="47">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="K20" s="47">
+        <v>256</v>
+      </c>
+      <c r="L20" s="83">
+        <v>100</v>
+      </c>
+      <c r="M20" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="N20" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="O20" s="38">
+        <v>70</v>
+      </c>
+      <c r="P20" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q20" s="38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="52"/>
+      <c r="B21" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="47">
+        <v>3</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="47">
+        <v>100</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L21" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="M21" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="N21" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="O21" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="P21" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q21" s="38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="52"/>
+      <c r="B22" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="47">
+        <v>4</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="47">
+        <v>100</v>
+      </c>
+      <c r="F22" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47">
+        <v>256</v>
+      </c>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="38"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="52"/>
+      <c r="B23" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="47">
+        <v>4</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="47">
+        <v>100</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47">
+        <v>256</v>
+      </c>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="38"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="38"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="52"/>
+      <c r="B25" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="38"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="52"/>
+      <c r="B26" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="I26" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="N26" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="52"/>
+      <c r="B27" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="38"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="52"/>
+      <c r="B28" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="38"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A30:N30"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="R2:R13"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="K2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80701A8F-7759-45F4-A607-162CF246F76F}">
   <dimension ref="A1:BI39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6546,124 +9648,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="34" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="34" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="34" t="s">
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="56"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="39"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="38" t="s">
+      <c r="R1" s="60"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="34" t="s">
+      <c r="U1" s="60"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="34" t="s">
+      <c r="X1" s="56"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="34" t="s">
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="34" t="s">
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="34" t="s">
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="34" t="s">
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="34" t="s">
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="34" t="s">
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="31" t="s">
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="AV1" s="31" t="s">
+      <c r="AV1" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="AW1" s="32" t="s">
+      <c r="AW1" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="AX1" s="32" t="s">
+      <c r="AX1" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="AY1" s="32" t="s">
+      <c r="AY1" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AZ1" s="32" t="s">
+      <c r="AZ1" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="BA1" s="32" t="s">
+      <c r="BA1" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="BB1" s="32" t="s">
+      <c r="BB1" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="BC1" s="31" t="s">
+      <c r="BC1" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="BD1" s="31" t="s">
+      <c r="BD1" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="BF1" s="48" t="s">
+      <c r="BF1" s="72" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
+      <c r="A2" s="63"/>
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
@@ -6700,9 +9802,9 @@
       <c r="M2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
       <c r="Q2" s="22" t="s">
         <v>25</v>
       </c>
@@ -6793,20 +9895,20 @@
       <c r="AT2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="33"/>
-      <c r="AY2" s="33"/>
-      <c r="AZ2" s="33"/>
-      <c r="BA2" s="33"/>
-      <c r="BB2" s="33"/>
-      <c r="BC2" s="31"/>
-      <c r="BD2" s="31"/>
-      <c r="BF2" s="49"/>
+      <c r="AU2" s="52"/>
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="54"/>
+      <c r="BC2" s="52"/>
+      <c r="BD2" s="52"/>
+      <c r="BF2" s="73"/>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
@@ -6974,10 +10076,10 @@
       <c r="BD3" s="6">
         <v>2.7</v>
       </c>
-      <c r="BF3" s="49"/>
+      <c r="BF3" s="73"/>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="7">
@@ -7145,10 +10247,10 @@
       <c r="BD4" s="7">
         <v>4.2</v>
       </c>
-      <c r="BF4" s="49"/>
+      <c r="BF4" s="73"/>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2">
@@ -7316,10 +10418,10 @@
       <c r="BD5" s="6">
         <v>26.55</v>
       </c>
-      <c r="BF5" s="49"/>
+      <c r="BF5" s="73"/>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="7">
@@ -7487,7 +10589,7 @@
       <c r="BD6" s="9">
         <v>11.52</v>
       </c>
-      <c r="BF6" s="49"/>
+      <c r="BF6" s="73"/>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -7548,7 +10650,7 @@
       <c r="BB7" s="11"/>
       <c r="BC7" s="6"/>
       <c r="BD7" s="6"/>
-      <c r="BF7" s="49"/>
+      <c r="BF7" s="73"/>
     </row>
     <row r="8" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
@@ -7615,134 +10717,134 @@
       <c r="BB8" s="9"/>
       <c r="BC8" s="9"/>
       <c r="BD8" s="9"/>
-      <c r="BF8" s="50"/>
+      <c r="BF8" s="74"/>
     </row>
     <row r="11" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="34" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="34" t="s">
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="34" t="s">
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="46" t="s">
+      <c r="L12" s="56"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="O12" s="46" t="s">
+      <c r="O12" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="31" t="s">
+      <c r="P12" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="31" t="s">
+      <c r="Q12" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="R12" s="31" t="s">
+      <c r="R12" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="38" t="s">
+      <c r="S12" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="T12" s="39"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="38" t="s">
+      <c r="T12" s="60"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="W12" s="39"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="34" t="s">
+      <c r="W12" s="60"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="34" t="s">
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="34" t="s">
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="34" t="s">
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="AI12" s="35"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="34" t="s">
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="36"/>
-      <c r="AN12" s="34" t="s">
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="57"/>
+      <c r="AN12" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="AO12" s="35"/>
-      <c r="AP12" s="36"/>
-      <c r="AQ12" s="34" t="s">
+      <c r="AO12" s="56"/>
+      <c r="AP12" s="57"/>
+      <c r="AQ12" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="AR12" s="35"/>
-      <c r="AS12" s="36"/>
-      <c r="AT12" s="34" t="s">
+      <c r="AR12" s="56"/>
+      <c r="AS12" s="57"/>
+      <c r="AT12" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="AU12" s="35"/>
-      <c r="AV12" s="36"/>
-      <c r="AW12" s="31" t="s">
+      <c r="AU12" s="56"/>
+      <c r="AV12" s="57"/>
+      <c r="AW12" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="AX12" s="31" t="s">
+      <c r="AX12" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="AY12" s="32" t="s">
+      <c r="AY12" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="AZ12" s="32" t="s">
+      <c r="AZ12" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="BA12" s="32" t="s">
+      <c r="BA12" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="BB12" s="32" t="s">
+      <c r="BB12" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="BC12" s="32" t="s">
+      <c r="BC12" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="BD12" s="32" t="s">
+      <c r="BD12" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="BE12" s="31" t="s">
+      <c r="BE12" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="BF12" s="31" t="s">
+      <c r="BF12" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="BH12" s="51" t="s">
+      <c r="BH12" s="75" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="25" t="s">
         <v>25</v>
       </c>
@@ -7779,11 +10881,11 @@
       <c r="M13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
       <c r="S13" s="25" t="s">
         <v>25</v>
       </c>
@@ -7874,374 +10976,374 @@
       <c r="AV13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AW13" s="31"/>
-      <c r="AX13" s="31"/>
-      <c r="AY13" s="33"/>
-      <c r="AZ13" s="33"/>
-      <c r="BA13" s="33"/>
-      <c r="BB13" s="33"/>
-      <c r="BC13" s="33"/>
-      <c r="BD13" s="33"/>
-      <c r="BE13" s="31"/>
-      <c r="BF13" s="31"/>
-      <c r="BH13" s="52"/>
+      <c r="AW13" s="52"/>
+      <c r="AX13" s="52"/>
+      <c r="AY13" s="54"/>
+      <c r="AZ13" s="54"/>
+      <c r="BA13" s="54"/>
+      <c r="BB13" s="54"/>
+      <c r="BC13" s="54"/>
+      <c r="BD13" s="54"/>
+      <c r="BE13" s="52"/>
+      <c r="BF13" s="52"/>
+      <c r="BH13" s="76"/>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="58">
+      <c r="B14" s="37">
         <v>0.61299999999999999</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="37">
         <v>0.55800000000000005</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="37">
         <v>0.625</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="37">
         <v>0.7</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="37">
         <v>0.72499999999999998</v>
       </c>
-      <c r="G14" s="58">
+      <c r="G14" s="37">
         <v>0.69299999999999995</v>
       </c>
-      <c r="H14" s="58">
+      <c r="H14" s="37">
         <v>0.38700000000000001</v>
       </c>
-      <c r="I14" s="58">
+      <c r="I14" s="37">
         <v>0.442</v>
       </c>
-      <c r="J14" s="58">
+      <c r="J14" s="37">
         <v>0.375</v>
       </c>
-      <c r="K14" s="58">
+      <c r="K14" s="37">
         <v>0.3</v>
       </c>
-      <c r="L14" s="58">
+      <c r="L14" s="37">
         <v>0.27500000000000002</v>
       </c>
-      <c r="M14" s="58">
+      <c r="M14" s="37">
         <v>0.307</v>
       </c>
-      <c r="N14" s="58">
+      <c r="N14" s="37">
         <v>0</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="P14" s="58" t="s">
+      <c r="P14" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="Q14" s="58" t="s">
+      <c r="Q14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="R14" s="58" t="s">
+      <c r="R14" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="S14" s="58">
+      <c r="S14" s="37">
         <v>133</v>
       </c>
-      <c r="T14" s="58">
+      <c r="T14" s="37">
         <v>15</v>
       </c>
-      <c r="U14" s="58">
+      <c r="U14" s="37">
         <v>118</v>
       </c>
-      <c r="V14" s="58">
+      <c r="V14" s="37">
         <v>35</v>
       </c>
-      <c r="W14" s="58">
+      <c r="W14" s="37">
         <v>7</v>
       </c>
-      <c r="X14" s="58">
+      <c r="X14" s="37">
         <v>28</v>
       </c>
-      <c r="Y14" s="58">
+      <c r="Y14" s="37">
         <v>80</v>
       </c>
-      <c r="Z14" s="58">
+      <c r="Z14" s="37">
         <v>19</v>
       </c>
-      <c r="AA14" s="58">
+      <c r="AA14" s="37">
         <v>61</v>
       </c>
-      <c r="AB14" s="58">
+      <c r="AB14" s="37">
         <v>17</v>
       </c>
-      <c r="AC14" s="58">
+      <c r="AC14" s="37">
         <v>4</v>
       </c>
-      <c r="AD14" s="58">
+      <c r="AD14" s="37">
         <v>13</v>
       </c>
-      <c r="AE14" s="58">
+      <c r="AE14" s="37">
         <v>51</v>
       </c>
-      <c r="AF14" s="58">
+      <c r="AF14" s="37">
         <v>14</v>
       </c>
-      <c r="AG14" s="58">
+      <c r="AG14" s="37">
         <v>37</v>
       </c>
-      <c r="AH14" s="58">
+      <c r="AH14" s="37">
         <v>175</v>
       </c>
-      <c r="AI14" s="58">
+      <c r="AI14" s="37">
         <v>43</v>
       </c>
-      <c r="AJ14" s="58">
+      <c r="AJ14" s="37">
         <v>132</v>
       </c>
-      <c r="AK14" s="58">
+      <c r="AK14" s="37">
         <v>36</v>
       </c>
-      <c r="AL14" s="58">
+      <c r="AL14" s="37">
         <v>4</v>
       </c>
-      <c r="AM14" s="58">
+      <c r="AM14" s="37">
         <v>32</v>
       </c>
-      <c r="AN14" s="58">
+      <c r="AN14" s="37">
         <v>73</v>
       </c>
-      <c r="AO14" s="58">
+      <c r="AO14" s="37">
         <v>15</v>
       </c>
-      <c r="AP14" s="58">
+      <c r="AP14" s="37">
         <v>58</v>
       </c>
-      <c r="AQ14" s="58">
+      <c r="AQ14" s="37">
         <v>0.69599999999999995</v>
       </c>
-      <c r="AR14" s="58">
+      <c r="AR14" s="37">
         <v>0.56599999999999995</v>
       </c>
-      <c r="AS14" s="58">
+      <c r="AS14" s="37">
         <v>0.71699999999999997</v>
       </c>
-      <c r="AT14" s="58">
+      <c r="AT14" s="37">
         <v>0.438</v>
       </c>
-      <c r="AU14" s="58">
+      <c r="AU14" s="37">
         <v>0.42399999999999999</v>
       </c>
-      <c r="AV14" s="58">
+      <c r="AV14" s="37">
         <v>0.441</v>
       </c>
-      <c r="AW14" s="58">
+      <c r="AW14" s="37">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX14" s="58">
+      <c r="AX14" s="37">
         <v>0.63</v>
       </c>
-      <c r="AY14" s="58">
+      <c r="AY14" s="37">
         <v>2.8E-3</v>
       </c>
-      <c r="AZ14" s="58">
+      <c r="AZ14" s="37">
         <v>-7.4000000000000003E-3</v>
       </c>
-      <c r="BA14" s="58">
+      <c r="BA14" s="37">
         <v>-6.7900000000000002E-2</v>
       </c>
-      <c r="BB14" s="58">
+      <c r="BB14" s="37">
         <v>-1.8100000000000002E-2</v>
       </c>
-      <c r="BC14" s="58">
+      <c r="BC14" s="37">
         <v>-2.1899999999999999E-2</v>
       </c>
-      <c r="BD14" s="58">
+      <c r="BD14" s="37">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="BE14" s="58">
+      <c r="BE14" s="37">
         <v>10.25</v>
       </c>
-      <c r="BF14" s="58">
+      <c r="BF14" s="37">
         <v>4.6399999999999997</v>
       </c>
-      <c r="BG14" s="55"/>
-      <c r="BH14" s="52"/>
+      <c r="BG14" s="34"/>
+      <c r="BH14" s="76"/>
       <c r="BI14" s="30"/>
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="59">
+      <c r="B15" s="38">
         <v>0.62</v>
       </c>
-      <c r="C15" s="59">
+      <c r="C15" s="38">
         <v>0.53800000000000003</v>
       </c>
-      <c r="D15" s="59">
+      <c r="D15" s="38">
         <v>0.63700000000000001</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="38">
         <v>0.73299999999999998</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="38">
         <v>0.72499999999999998</v>
       </c>
-      <c r="G15" s="59">
+      <c r="G15" s="38">
         <v>0.73599999999999999</v>
       </c>
-      <c r="H15" s="59">
+      <c r="H15" s="38">
         <v>0.38</v>
       </c>
-      <c r="I15" s="59">
+      <c r="I15" s="38">
         <v>0.46200000000000002</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="38">
         <v>0.36299999999999999</v>
       </c>
-      <c r="K15" s="59">
+      <c r="K15" s="38">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L15" s="59">
+      <c r="L15" s="38">
         <v>0.27500000000000002</v>
       </c>
-      <c r="M15" s="59">
+      <c r="M15" s="38">
         <v>0.26400000000000001</v>
       </c>
-      <c r="N15" s="59">
+      <c r="N15" s="38">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="O15" s="59" t="s">
+      <c r="O15" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="P15" s="59" t="s">
+      <c r="P15" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="Q15" s="59">
+      <c r="Q15" s="38">
         <v>0.45</v>
       </c>
-      <c r="R15" s="59" t="s">
+      <c r="R15" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="S15" s="59">
+      <c r="S15" s="38">
         <v>133</v>
       </c>
-      <c r="T15" s="59">
+      <c r="T15" s="38">
         <v>15</v>
       </c>
-      <c r="U15" s="59">
+      <c r="U15" s="38">
         <v>118</v>
       </c>
-      <c r="V15" s="59">
+      <c r="V15" s="38">
         <v>50</v>
       </c>
-      <c r="W15" s="59">
+      <c r="W15" s="38">
         <v>10</v>
       </c>
-      <c r="X15" s="59">
+      <c r="X15" s="38">
         <v>40</v>
       </c>
-      <c r="Y15" s="59">
+      <c r="Y15" s="38">
         <v>78</v>
       </c>
-      <c r="Z15" s="59">
+      <c r="Z15" s="38">
         <v>20</v>
       </c>
-      <c r="AA15" s="59">
+      <c r="AA15" s="38">
         <v>58</v>
       </c>
-      <c r="AB15" s="59">
+      <c r="AB15" s="38">
         <v>22</v>
       </c>
-      <c r="AC15" s="59">
+      <c r="AC15" s="38">
         <v>7</v>
       </c>
-      <c r="AD15" s="59">
+      <c r="AD15" s="38">
         <v>15</v>
       </c>
-      <c r="AE15" s="59">
+      <c r="AE15" s="38">
         <v>53</v>
       </c>
-      <c r="AF15" s="59">
+      <c r="AF15" s="38">
         <v>13</v>
       </c>
-      <c r="AG15" s="59">
+      <c r="AG15" s="38">
         <v>40</v>
       </c>
-      <c r="AH15" s="59">
+      <c r="AH15" s="38">
         <v>170</v>
       </c>
-      <c r="AI15" s="59">
+      <c r="AI15" s="38">
         <v>40</v>
       </c>
-      <c r="AJ15" s="59">
+      <c r="AJ15" s="38">
         <v>130</v>
       </c>
-      <c r="AK15" s="59">
+      <c r="AK15" s="38">
         <v>36</v>
       </c>
-      <c r="AL15" s="59">
+      <c r="AL15" s="38">
         <v>4</v>
       </c>
-      <c r="AM15" s="59">
+      <c r="AM15" s="38">
         <v>32</v>
       </c>
-      <c r="AN15" s="59">
+      <c r="AN15" s="38">
         <v>58</v>
       </c>
-      <c r="AO15" s="59">
+      <c r="AO15" s="38">
         <v>12</v>
       </c>
-      <c r="AP15" s="59">
+      <c r="AP15" s="38">
         <v>46</v>
       </c>
-      <c r="AQ15" s="59">
+      <c r="AQ15" s="38">
         <v>0.7</v>
       </c>
-      <c r="AR15" s="59">
+      <c r="AR15" s="38">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AS15" s="59">
+      <c r="AS15" s="38">
         <v>0.72399999999999998</v>
       </c>
-      <c r="AT15" s="59">
+      <c r="AT15" s="38">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AU15" s="59">
+      <c r="AU15" s="38">
         <v>0.51300000000000001</v>
       </c>
-      <c r="AV15" s="59">
+      <c r="AV15" s="38">
         <v>0.56699999999999995</v>
       </c>
-      <c r="AW15" s="59">
+      <c r="AW15" s="38">
         <v>0.5</v>
       </c>
-      <c r="AX15" s="59">
+      <c r="AX15" s="38">
         <v>0.5</v>
       </c>
-      <c r="AY15" s="59">
+      <c r="AY15" s="38">
         <v>2.8E-3</v>
       </c>
-      <c r="AZ15" s="59">
+      <c r="AZ15" s="38">
         <v>-1.06E-2</v>
       </c>
-      <c r="BA15" s="59">
+      <c r="BA15" s="38">
         <v>-3.6600000000000001E-2</v>
       </c>
-      <c r="BB15" s="59">
+      <c r="BB15" s="38">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="BC15" s="59">
+      <c r="BC15" s="38">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="BD15" s="59">
+      <c r="BD15" s="38">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="BE15" s="59">
+      <c r="BE15" s="38">
         <v>12</v>
       </c>
-      <c r="BF15" s="59">
+      <c r="BF15" s="38">
         <v>6.6</v>
       </c>
       <c r="BG15" s="29"/>
-      <c r="BH15" s="52"/>
+      <c r="BH15" s="76"/>
       <c r="BI15" s="30"/>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
@@ -8311,7 +11413,7 @@
       <c r="BD16" s="11"/>
       <c r="BE16" s="6"/>
       <c r="BF16" s="6"/>
-      <c r="BH16" s="52"/>
+      <c r="BH16" s="76"/>
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
@@ -8380,7 +11482,7 @@
       <c r="BD17" s="12"/>
       <c r="BE17" s="9"/>
       <c r="BF17" s="9"/>
-      <c r="BH17" s="52"/>
+      <c r="BH17" s="76"/>
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
@@ -8449,7 +11551,7 @@
       <c r="BD18" s="11"/>
       <c r="BE18" s="6"/>
       <c r="BF18" s="6"/>
-      <c r="BH18" s="52"/>
+      <c r="BH18" s="76"/>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
@@ -8518,7 +11620,7 @@
       <c r="BD19" s="9"/>
       <c r="BE19" s="9"/>
       <c r="BF19" s="9"/>
-      <c r="BH19" s="52"/>
+      <c r="BH19" s="76"/>
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
@@ -8587,7 +11689,7 @@
       <c r="BD20" s="11"/>
       <c r="BE20" s="6"/>
       <c r="BF20" s="6"/>
-      <c r="BH20" s="52"/>
+      <c r="BH20" s="76"/>
     </row>
     <row r="21" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
@@ -8656,130 +11758,205 @@
       <c r="BD21" s="9"/>
       <c r="BE21" s="9"/>
       <c r="BF21" s="9"/>
-      <c r="BH21" s="53"/>
+      <c r="BH21" s="77"/>
+    </row>
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>63</v>
-      </c>
+      <c r="A26" s="78"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <v>-0.47089999999999999</v>
-      </c>
-      <c r="B28" s="11">
-        <v>-0.1903</v>
-      </c>
-      <c r="C28" s="11">
-        <v>-0.53969999999999996</v>
-      </c>
-      <c r="D28" s="11">
-        <v>-6.59E-2</v>
-      </c>
-      <c r="E28" s="11">
-        <v>-0.48060000000000003</v>
-      </c>
-      <c r="F28" s="11">
-        <v>-8.7099999999999997E-2</v>
-      </c>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>-0.38490000000000002</v>
-      </c>
-      <c r="B29" s="13">
-        <v>4.5499999999999999E-2</v>
-      </c>
-      <c r="C29" s="13">
-        <v>-0.45600000000000002</v>
-      </c>
-      <c r="D29" s="13">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E29" s="13">
-        <v>-0.38150000000000001</v>
-      </c>
-      <c r="F29" s="13">
-        <v>3.1699999999999999E-2</v>
-      </c>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
     </row>
     <row r="30" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
-        <v>-0.27229999999999999</v>
-      </c>
-      <c r="B30" s="11">
-        <v>-0.111</v>
-      </c>
-      <c r="C30" s="11">
-        <v>-0.32569999999999999</v>
-      </c>
-      <c r="D30" s="11">
-        <v>-4.99E-2</v>
-      </c>
-      <c r="E30" s="11">
-        <v>-0.249</v>
-      </c>
-      <c r="F30" s="11">
-        <v>-5.4300000000000001E-2</v>
-      </c>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
-        <v>-0.4642</v>
-      </c>
-      <c r="B31" s="12">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="C31" s="12">
-        <v>-0.50339999999999996</v>
-      </c>
-      <c r="D31" s="12">
-        <v>2.2800000000000001E-2</v>
-      </c>
-      <c r="E31" s="12">
-        <v>-0.4365</v>
-      </c>
-      <c r="F31" s="12">
-        <v>3.78E-2</v>
-      </c>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
-      <c r="I33" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -8810,17 +11987,20 @@
     <mergeCell ref="AB12:AD12"/>
     <mergeCell ref="AE12:AG12"/>
     <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="AZ1:AZ2"/>
+    <mergeCell ref="BB1:BB2"/>
     <mergeCell ref="S12:U12"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="Q1:S1"/>
@@ -8836,9 +12016,6 @@
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="AZ1:AZ2"/>
-    <mergeCell ref="BB1:BB2"/>
     <mergeCell ref="BD1:BD2"/>
     <mergeCell ref="AW1:AW2"/>
     <mergeCell ref="AY1:AY2"/>

--- a/experiments/compas/results/all_results.xlsx
+++ b/experiments/compas/results/all_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\compas\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58271FB1-B395-412D-B23A-07047F8D51CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B616F67B-596F-4EAD-B08D-926DA6003BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="1185" yWindow="1980" windowWidth="24960" windowHeight="14055" activeTab="3" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="compas-cfl" sheetId="4" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="161">
   <si>
     <t>Model</t>
   </si>
@@ -533,6 +533,15 @@
   </si>
   <si>
     <t>h: .0008, 1: .009, 2:.003</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -725,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -865,10 +874,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -878,15 +896,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -904,17 +913,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -925,7 +931,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1287,27 +1299,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="55" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="51" t="s">
         <v>12</v>
       </c>
       <c r="J1" s="59" t="s">
@@ -1315,27 +1327,27 @@
       </c>
       <c r="K1" s="60"/>
       <c r="L1" s="61"/>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="51" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="51" t="s">
+      <c r="Q1" s="55"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="52"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="51" t="s">
+      <c r="T1" s="55"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="52"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="54" t="s">
+      <c r="W1" s="55"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="51" t="s">
         <v>23</v>
       </c>
       <c r="Z1" s="57" t="s">
@@ -1347,12 +1359,12 @@
       <c r="AB1" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="54" t="s">
+      <c r="AC1" s="51" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="63"/>
       <c r="B2" s="19" t="s">
         <v>19</v>
       </c>
@@ -1362,11 +1374,11 @@
       <c r="D2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="19" t="s">
         <v>19</v>
       </c>
@@ -1412,11 +1424,11 @@
       <c r="X2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="54"/>
+      <c r="Y2" s="51"/>
       <c r="Z2" s="58"/>
       <c r="AA2" s="58"/>
       <c r="AB2" s="58"/>
-      <c r="AC2" s="54"/>
+      <c r="AC2" s="51"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -1965,6 +1977,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
@@ -1978,10 +1994,6 @@
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2036,29 +2048,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="51" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="55" t="s">
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="51" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="59" t="s">
@@ -2071,50 +2083,50 @@
       </c>
       <c r="P1" s="60"/>
       <c r="Q1" s="61"/>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="52"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="51" t="s">
+      <c r="S1" s="55"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="52"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="51" t="s">
+      <c r="V1" s="55"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="51" t="s">
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="51" t="s">
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="51" t="s">
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="51" t="s">
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="51" t="s">
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="54" t="s">
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="54" t="s">
+      <c r="AQ1" s="51" t="s">
         <v>39</v>
       </c>
       <c r="AR1" s="57" t="s">
@@ -2135,15 +2147,15 @@
       <c r="AW1" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="54" t="s">
+      <c r="AX1" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="54" t="s">
+      <c r="AY1" s="51" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="63"/>
       <c r="B2" s="19" t="s">
         <v>19</v>
       </c>
@@ -2162,10 +2174,10 @@
       <c r="G2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="19" t="s">
         <v>19</v>
       </c>
@@ -2256,16 +2268,16 @@
       <c r="AO2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="54"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
       <c r="AR2" s="58"/>
       <c r="AS2" s="58"/>
       <c r="AT2" s="58"/>
       <c r="AU2" s="58"/>
       <c r="AV2" s="58"/>
       <c r="AW2" s="58"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
     </row>
     <row r="3" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -2998,34 +3010,34 @@
       <c r="AY8" s="26"/>
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="51" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="51" t="s">
+      <c r="F11" s="55"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="55" t="s">
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="54" t="s">
+      <c r="L11" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="54" t="s">
+      <c r="M11" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="54" t="s">
+      <c r="N11" s="51" t="s">
         <v>12</v>
       </c>
       <c r="O11" s="59" t="s">
@@ -3043,73 +3055,73 @@
       </c>
       <c r="V11" s="60"/>
       <c r="W11" s="61"/>
-      <c r="X11" s="51" t="s">
+      <c r="X11" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="51" t="s">
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="51" t="s">
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="51" t="s">
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="51" t="s">
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="AK11" s="52"/>
-      <c r="AL11" s="53"/>
-      <c r="AM11" s="51" t="s">
+      <c r="AK11" s="55"/>
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="AN11" s="52"/>
-      <c r="AO11" s="53"/>
-      <c r="AP11" s="51" t="s">
+      <c r="AN11" s="55"/>
+      <c r="AO11" s="56"/>
+      <c r="AP11" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="AQ11" s="52"/>
-      <c r="AR11" s="53"/>
-      <c r="AS11" s="51" t="s">
+      <c r="AQ11" s="55"/>
+      <c r="AR11" s="56"/>
+      <c r="AS11" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="AT11" s="52"/>
-      <c r="AU11" s="53"/>
-      <c r="AV11" s="51" t="s">
+      <c r="AT11" s="55"/>
+      <c r="AU11" s="56"/>
+      <c r="AV11" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="AW11" s="52"/>
-      <c r="AX11" s="53"/>
-      <c r="AY11" s="51" t="s">
+      <c r="AW11" s="55"/>
+      <c r="AX11" s="56"/>
+      <c r="AY11" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="AZ11" s="52"/>
-      <c r="BA11" s="53"/>
-      <c r="BB11" s="51" t="s">
+      <c r="AZ11" s="55"/>
+      <c r="BA11" s="56"/>
+      <c r="BB11" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="BC11" s="52"/>
-      <c r="BD11" s="53"/>
-      <c r="BE11" s="51" t="s">
+      <c r="BC11" s="55"/>
+      <c r="BD11" s="56"/>
+      <c r="BE11" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="BF11" s="52"/>
-      <c r="BG11" s="53"/>
-      <c r="BH11" s="54" t="s">
+      <c r="BF11" s="55"/>
+      <c r="BG11" s="56"/>
+      <c r="BH11" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="BI11" s="54" t="s">
+      <c r="BI11" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="BJ11" s="55" t="s">
+      <c r="BJ11" s="52" t="s">
         <v>67</v>
       </c>
       <c r="BK11" s="57" t="s">
@@ -3139,18 +3151,18 @@
       <c r="BS11" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="BT11" s="54" t="s">
+      <c r="BT11" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="BU11" s="54" t="s">
+      <c r="BU11" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="BV11" s="54" t="s">
+      <c r="BV11" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="19" t="s">
         <v>19</v>
       </c>
@@ -3178,10 +3190,10 @@
       <c r="J12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="56"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
       <c r="O12" s="19" t="s">
         <v>19</v>
       </c>
@@ -3317,9 +3329,9 @@
       <c r="BG12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="BH12" s="54"/>
-      <c r="BI12" s="54"/>
-      <c r="BJ12" s="56"/>
+      <c r="BH12" s="51"/>
+      <c r="BI12" s="51"/>
+      <c r="BJ12" s="53"/>
       <c r="BK12" s="58"/>
       <c r="BL12" s="58"/>
       <c r="BM12" s="58"/>
@@ -3329,9 +3341,9 @@
       <c r="BQ12" s="58"/>
       <c r="BR12" s="58"/>
       <c r="BS12" s="58"/>
-      <c r="BT12" s="54"/>
-      <c r="BU12" s="54"/>
-      <c r="BV12" s="54"/>
+      <c r="BT12" s="51"/>
+      <c r="BU12" s="51"/>
+      <c r="BV12" s="51"/>
     </row>
     <row r="13" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
@@ -4431,40 +4443,21 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="BV11:BV12"/>
-    <mergeCell ref="BK11:BK12"/>
-    <mergeCell ref="BL11:BL12"/>
-    <mergeCell ref="BM11:BM12"/>
-    <mergeCell ref="BN11:BN12"/>
-    <mergeCell ref="BO11:BO12"/>
-    <mergeCell ref="BP11:BP12"/>
-    <mergeCell ref="BQ11:BQ12"/>
-    <mergeCell ref="BR11:BR12"/>
-    <mergeCell ref="BS11:BS12"/>
-    <mergeCell ref="BT11:BT12"/>
-    <mergeCell ref="BU11:BU12"/>
-    <mergeCell ref="BJ11:BJ12"/>
-    <mergeCell ref="AG11:AI11"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="AM11:AO11"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="AS11:AU11"/>
-    <mergeCell ref="AV11:AX11"/>
-    <mergeCell ref="AY11:BA11"/>
-    <mergeCell ref="BB11:BD11"/>
-    <mergeCell ref="BE11:BG11"/>
-    <mergeCell ref="BH11:BH12"/>
-    <mergeCell ref="BI11:BI12"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
     <mergeCell ref="AV1:AV2"/>
     <mergeCell ref="AW1:AW2"/>
     <mergeCell ref="AX1:AX2"/>
@@ -4481,21 +4474,40 @@
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="BJ11:BJ12"/>
+    <mergeCell ref="AG11:AI11"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="AM11:AO11"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="AS11:AU11"/>
+    <mergeCell ref="AV11:AX11"/>
+    <mergeCell ref="AY11:BA11"/>
+    <mergeCell ref="BB11:BD11"/>
+    <mergeCell ref="BE11:BG11"/>
+    <mergeCell ref="BH11:BH12"/>
+    <mergeCell ref="BI11:BI12"/>
+    <mergeCell ref="BV11:BV12"/>
+    <mergeCell ref="BK11:BK12"/>
+    <mergeCell ref="BL11:BL12"/>
+    <mergeCell ref="BM11:BM12"/>
+    <mergeCell ref="BN11:BN12"/>
+    <mergeCell ref="BO11:BO12"/>
+    <mergeCell ref="BP11:BP12"/>
+    <mergeCell ref="BQ11:BQ12"/>
+    <mergeCell ref="BR11:BR12"/>
+    <mergeCell ref="BS11:BS12"/>
+    <mergeCell ref="BT11:BT12"/>
+    <mergeCell ref="BU11:BU12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -4504,10 +4516,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D74B599-10D3-4569-8FD7-5A56CD4EBC72}">
-  <dimension ref="A1:CE18"/>
+  <dimension ref="A1:BV18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BK5" sqref="BK5:BP5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BR5" activeCellId="7" sqref="B5 E5 BK5 BL5 BN5 BO5 BQ5 BR5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4559,34 +4571,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="51" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="55" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="51" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="59" t="s">
@@ -4604,73 +4616,73 @@
       </c>
       <c r="V1" s="60"/>
       <c r="W1" s="61"/>
-      <c r="X1" s="51" t="s">
+      <c r="X1" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="51" t="s">
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="51" t="s">
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="51" t="s">
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="51" t="s">
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="51" t="s">
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="51" t="s">
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="51" t="s">
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="51" t="s">
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="51" t="s">
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="53"/>
-      <c r="BB1" s="51" t="s">
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="BC1" s="52"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="51" t="s">
+      <c r="BC1" s="55"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="BF1" s="52"/>
-      <c r="BG1" s="53"/>
-      <c r="BH1" s="54" t="s">
+      <c r="BF1" s="55"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="BI1" s="54" t="s">
+      <c r="BI1" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="BJ1" s="55" t="s">
+      <c r="BJ1" s="52" t="s">
         <v>97</v>
       </c>
       <c r="BK1" s="57" t="s">
@@ -4700,18 +4712,18 @@
       <c r="BS1" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="BT1" s="54" t="s">
+      <c r="BT1" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="BU1" s="54" t="s">
+      <c r="BU1" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="BV1" s="54" t="s">
+      <c r="BV1" s="51" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="63"/>
       <c r="B2" s="20" t="s">
         <v>19</v>
       </c>
@@ -4739,10 +4751,10 @@
       <c r="J2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="56"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
       <c r="O2" s="20" t="s">
         <v>19</v>
       </c>
@@ -4878,9 +4890,9 @@
       <c r="BG2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="BH2" s="54"/>
-      <c r="BI2" s="54"/>
-      <c r="BJ2" s="56"/>
+      <c r="BH2" s="51"/>
+      <c r="BI2" s="51"/>
+      <c r="BJ2" s="53"/>
       <c r="BK2" s="58"/>
       <c r="BL2" s="58"/>
       <c r="BM2" s="58"/>
@@ -4890,9 +4902,9 @@
       <c r="BQ2" s="58"/>
       <c r="BR2" s="58"/>
       <c r="BS2" s="58"/>
-      <c r="BT2" s="54"/>
-      <c r="BU2" s="54"/>
-      <c r="BV2" s="54"/>
+      <c r="BT2" s="51"/>
+      <c r="BU2" s="51"/>
+      <c r="BV2" s="51"/>
     </row>
     <row r="3" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -6188,17 +6200,23 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="BR1:BR2"/>
+    <mergeCell ref="BS1:BS2"/>
+    <mergeCell ref="BM1:BM2"/>
+    <mergeCell ref="BN1:BN2"/>
+    <mergeCell ref="BO1:BO2"/>
+    <mergeCell ref="BP1:BP2"/>
     <mergeCell ref="BT1:BT2"/>
     <mergeCell ref="BU1:BU2"/>
     <mergeCell ref="BV1:BV2"/>
@@ -6215,26 +6233,20 @@
     <mergeCell ref="BJ1:BJ2"/>
     <mergeCell ref="BK1:BK2"/>
     <mergeCell ref="BL1:BL2"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="BR1:BR2"/>
-    <mergeCell ref="BS1:BS2"/>
-    <mergeCell ref="BM1:BM2"/>
-    <mergeCell ref="BN1:BN2"/>
-    <mergeCell ref="BO1:BO2"/>
-    <mergeCell ref="BP1:BP2"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6245,7 +6257,7 @@
   <dimension ref="A1:BC36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6261,26 +6273,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="51" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="54" t="s">
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="51" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="59" t="s">
@@ -6293,50 +6305,50 @@
       </c>
       <c r="O1" s="60"/>
       <c r="P1" s="61"/>
-      <c r="Q1" s="51" t="s">
+      <c r="Q1" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="52"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="51" t="s">
+      <c r="R1" s="55"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="52"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="51" t="s">
+      <c r="U1" s="55"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="51" t="s">
+      <c r="X1" s="55"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="51" t="s">
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="51" t="s">
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="51" t="s">
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="54" t="s">
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="54" t="s">
+      <c r="AP1" s="51" t="s">
         <v>39</v>
       </c>
       <c r="AQ1" s="57" t="s">
@@ -6357,10 +6369,10 @@
       <c r="AV1" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" s="54" t="s">
+      <c r="AW1" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="54" t="s">
+      <c r="AX1" s="51" t="s">
         <v>47</v>
       </c>
       <c r="AY1" s="32"/>
@@ -6370,7 +6382,7 @@
       <c r="BC1" s="32"/>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="63"/>
       <c r="B2" s="14" t="s">
         <v>19</v>
       </c>
@@ -6389,9 +6401,9 @@
       <c r="G2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
       <c r="K2" s="14" t="s">
         <v>19</v>
       </c>
@@ -6482,16 +6494,16 @@
       <c r="AN2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
       <c r="AQ2" s="58"/>
       <c r="AR2" s="58"/>
       <c r="AS2" s="58"/>
       <c r="AT2" s="58"/>
       <c r="AU2" s="58"/>
       <c r="AV2" s="58"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
       <c r="AY2" s="32"/>
       <c r="AZ2" s="45"/>
       <c r="BA2" s="32"/>
@@ -7625,83 +7637,94 @@
       <c r="G16" s="32"/>
       <c r="H16" s="35"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="32"/>
       <c r="H17" s="35"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="32"/>
       <c r="H18" s="35"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
       <c r="G19" s="32"/>
       <c r="H19" s="35"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
-      <c r="B20" s="25">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="C20" s="25">
-        <v>0.71299999999999997</v>
-      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="32"/>
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
       <c r="G20" s="48"/>
       <c r="H20" s="35"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="50">
+        <v>1</v>
+      </c>
+      <c r="C21" s="50">
+        <v>2</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>160</v>
+      </c>
       <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
+      <c r="F21" s="48" t="s">
+        <v>159</v>
+      </c>
       <c r="G21" s="48"/>
-      <c r="H21" s="35"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="25">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="D22" s="25">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="C22" s="25">
+      <c r="E22" s="25">
         <v>-1.9E-2</v>
       </c>
-      <c r="D22" s="25">
-        <v>-8.8499999999999995E-2</v>
-      </c>
-      <c r="E22" s="25">
+      <c r="F22" s="25">
         <v>-6.8199999999999997E-2</v>
       </c>
-      <c r="F22" s="25">
+      <c r="G22" s="25">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="G22" s="25">
-        <v>-9.3200000000000005E-2</v>
-      </c>
-      <c r="H22" s="35"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="25">
+        <v>-1.9800000000000002E-2</v>
+      </c>
+      <c r="I22" s="25">
+        <v>1.26E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="35"/>
       <c r="C23" s="32"/>
@@ -7711,7 +7734,7 @@
       <c r="G23" s="32"/>
       <c r="H23" s="35"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="35"/>
       <c r="C24" s="32"/>
@@ -7721,7 +7744,7 @@
       <c r="G24" s="32"/>
       <c r="H24" s="35"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="35"/>
       <c r="C25" s="32"/>
@@ -7731,7 +7754,7 @@
       <c r="G25" s="32"/>
       <c r="H25" s="35"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -7741,7 +7764,7 @@
       <c r="G26" s="32"/>
       <c r="H26" s="35"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -7751,7 +7774,7 @@
       <c r="G27" s="32"/>
       <c r="H27" s="35"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -7761,7 +7784,7 @@
       <c r="G28" s="32"/>
       <c r="H28" s="35"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -7770,20 +7793,20 @@
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -7814,16 +7837,26 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="26">
+    <mergeCell ref="AP1:AP2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AS1:AS2"/>
+    <mergeCell ref="AU1:AU2"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="E1:G1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AT1:AT2"/>
     <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="K1:M1"/>
@@ -7831,22 +7864,6 @@
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="AX1:AX2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AS1:AS2"/>
-    <mergeCell ref="AU1:AU2"/>
-    <mergeCell ref="AW1:AW2"/>
-    <mergeCell ref="AP1:AP2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AI1:AK1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7882,8 +7899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D43789-1003-47D8-B7A4-FDE215F69927}">
   <dimension ref="A2:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7908,46 +7925,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="55" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="40"/>
       <c r="O2" s="40"/>
-      <c r="R2" s="65" t="s">
+      <c r="R2" s="68" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="30" t="s">
         <v>127</v>
       </c>
@@ -7957,7 +7974,7 @@
       <c r="I3" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="J3" s="56"/>
+      <c r="J3" s="53"/>
       <c r="K3" s="30" t="s">
         <v>127</v>
       </c>
@@ -7969,10 +7986,10 @@
       </c>
       <c r="N3" s="40"/>
       <c r="O3" s="40"/>
-      <c r="R3" s="65"/>
+      <c r="R3" s="68"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="51" t="s">
         <v>114</v>
       </c>
       <c r="B4" s="30" t="s">
@@ -8013,10 +8030,10 @@
       </c>
       <c r="N4" s="42"/>
       <c r="O4" s="42"/>
-      <c r="R4" s="65"/>
+      <c r="R4" s="68"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="30" t="s">
         <v>16</v>
       </c>
@@ -8055,10 +8072,10 @@
       </c>
       <c r="N5" s="42"/>
       <c r="O5" s="42"/>
-      <c r="R5" s="65"/>
+      <c r="R5" s="68"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="30" t="s">
         <v>118</v>
       </c>
@@ -8069,7 +8086,7 @@
         <v>124</v>
       </c>
       <c r="E6" s="30">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>122</v>
@@ -8097,10 +8114,10 @@
       </c>
       <c r="N6" s="42"/>
       <c r="O6" s="42"/>
-      <c r="R6" s="65"/>
+      <c r="R6" s="68"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="30" t="s">
         <v>117</v>
       </c>
@@ -8135,10 +8152,10 @@
       <c r="M7" s="30"/>
       <c r="N7" s="42"/>
       <c r="O7" s="42"/>
-      <c r="R7" s="65"/>
+      <c r="R7" s="68"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="30" t="s">
         <v>119</v>
       </c>
@@ -8168,10 +8185,10 @@
       <c r="M8" s="30"/>
       <c r="N8" s="42"/>
       <c r="O8" s="42"/>
-      <c r="R8" s="65"/>
+      <c r="R8" s="68"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="51" t="s">
         <v>116</v>
       </c>
       <c r="B9" s="30" t="s">
@@ -8190,10 +8207,10 @@
       <c r="M9" s="30"/>
       <c r="N9" s="42"/>
       <c r="O9" s="42"/>
-      <c r="R9" s="65"/>
+      <c r="R9" s="68"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="30" t="s">
         <v>16</v>
       </c>
@@ -8210,10 +8227,10 @@
       <c r="M10" s="30"/>
       <c r="N10" s="42"/>
       <c r="O10" s="42"/>
-      <c r="R10" s="65"/>
+      <c r="R10" s="68"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="30" t="s">
         <v>118</v>
       </c>
@@ -8246,10 +8263,10 @@
       </c>
       <c r="N11" s="42"/>
       <c r="O11" s="42"/>
-      <c r="R11" s="65"/>
+      <c r="R11" s="68"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="30" t="s">
         <v>117</v>
       </c>
@@ -8266,10 +8283,10 @@
       <c r="M12" s="30"/>
       <c r="N12" s="42"/>
       <c r="O12" s="42"/>
-      <c r="R12" s="65"/>
+      <c r="R12" s="68"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="30" t="s">
         <v>119</v>
       </c>
@@ -8286,70 +8303,70 @@
       <c r="M13" s="30"/>
       <c r="N13" s="42"/>
       <c r="O13" s="42"/>
-      <c r="R13" s="65"/>
+      <c r="R13" s="68"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="67" t="s">
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="K17" s="55" t="s">
+      <c r="K17" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="L17" s="51" t="s">
+      <c r="L17" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="52"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="62" t="s">
+      <c r="M17" s="55"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="63"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="70"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="30" t="s">
         <v>127</v>
       </c>
@@ -8359,8 +8376,8 @@
       <c r="I18" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="J18" s="68"/>
-      <c r="K18" s="56"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="53"/>
       <c r="L18" s="30" t="s">
         <v>127</v>
       </c>
@@ -8381,7 +8398,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="51" t="s">
         <v>114</v>
       </c>
       <c r="B19" s="30" t="s">
@@ -8434,7 +8451,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="30" t="s">
         <v>16</v>
       </c>
@@ -8485,7 +8502,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="30" t="s">
         <v>118</v>
       </c>
@@ -8536,7 +8553,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="30" t="s">
         <v>117</v>
       </c>
@@ -8569,7 +8586,7 @@
       <c r="Q22" s="26"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="30" t="s">
         <v>119</v>
       </c>
@@ -8600,7 +8617,7 @@
       <c r="Q23" s="26"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="51" t="s">
         <v>116</v>
       </c>
       <c r="B24" s="30" t="s">
@@ -8623,7 +8640,7 @@
       <c r="Q24" s="26"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="30" t="s">
         <v>16</v>
       </c>
@@ -8644,7 +8661,7 @@
       <c r="Q25" s="26"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="30" t="s">
         <v>118</v>
       </c>
@@ -8683,7 +8700,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="30" t="s">
         <v>117</v>
       </c>
@@ -8704,7 +8721,7 @@
       <c r="Q27" s="26"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="30" t="s">
         <v>119</v>
       </c>
@@ -8725,25 +8742,34 @@
       <c r="Q28" s="26"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R2:R13"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="K17:K18"/>
     <mergeCell ref="A30:N30"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="B2:B3"/>
@@ -8760,15 +8786,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="R2:R13"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/experiments/compas/results/all_results.xlsx
+++ b/experiments/compas/results/all_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\compas\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F20C4E-B51F-4BA5-A7EB-C0C8B511E93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8348C0-4363-4B4E-8495-C8486A0358D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="707" activeTab="3" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="707" activeTab="2" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="compas-cfl" sheetId="4" r:id="rId1"/>
@@ -1698,21 +1698,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1740,12 +1740,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1755,30 +1788,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1788,35 +1803,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1824,74 +1857,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2241,14 +2241,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="131" t="s">
         <v>23</v>
       </c>
@@ -2269,26 +2269,26 @@
       </c>
       <c r="K1" s="136"/>
       <c r="L1" s="137"/>
-      <c r="M1" s="127" t="s">
+      <c r="M1" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="128"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="127" t="s">
+      <c r="N1" s="126"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="127" t="s">
+      <c r="Q1" s="126"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="128"/>
-      <c r="U1" s="129"/>
-      <c r="V1" s="127" t="s">
+      <c r="T1" s="126"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="128"/>
-      <c r="X1" s="129"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="127"/>
       <c r="Y1" s="130" t="s">
         <v>21</v>
       </c>
@@ -2306,7 +2306,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="126"/>
+      <c r="A2" s="129"/>
       <c r="B2" s="16" t="s">
         <v>17</v>
       </c>
@@ -2919,11 +2919,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
@@ -2936,6 +2931,11 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2992,19 +2992,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="127" t="s">
+      <c r="C1" s="126"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="128"/>
-      <c r="G1" s="129"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="127"/>
       <c r="H1" s="131" t="s">
         <v>22</v>
       </c>
@@ -3027,46 +3027,46 @@
       </c>
       <c r="P1" s="136"/>
       <c r="Q1" s="137"/>
-      <c r="R1" s="127" t="s">
+      <c r="R1" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="128"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="127" t="s">
+      <c r="S1" s="126"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="128"/>
-      <c r="W1" s="129"/>
-      <c r="X1" s="127" t="s">
+      <c r="V1" s="126"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="129"/>
-      <c r="AA1" s="127" t="s">
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="129"/>
-      <c r="AD1" s="127" t="s">
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="128"/>
-      <c r="AF1" s="129"/>
-      <c r="AG1" s="127" t="s">
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="128"/>
-      <c r="AI1" s="129"/>
-      <c r="AJ1" s="127" t="s">
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="127"/>
+      <c r="AJ1" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="128"/>
-      <c r="AL1" s="129"/>
-      <c r="AM1" s="127" t="s">
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="127"/>
+      <c r="AM1" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" s="128"/>
-      <c r="AO1" s="129"/>
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="127"/>
       <c r="AP1" s="130" t="s">
         <v>36</v>
       </c>
@@ -3099,7 +3099,7 @@
       </c>
     </row>
     <row r="2" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A2" s="126"/>
+      <c r="A2" s="129"/>
       <c r="B2" s="16" t="s">
         <v>17</v>
       </c>
@@ -3954,24 +3954,24 @@
       <c r="AY8" s="23"/>
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="127" t="s">
+      <c r="C11" s="126"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="128"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="127" t="s">
+      <c r="F11" s="126"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="128"/>
-      <c r="J11" s="129"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="127"/>
       <c r="K11" s="131" t="s">
         <v>22</v>
       </c>
@@ -3999,66 +3999,66 @@
       </c>
       <c r="V11" s="136"/>
       <c r="W11" s="137"/>
-      <c r="X11" s="127" t="s">
+      <c r="X11" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="129"/>
-      <c r="AA11" s="127" t="s">
+      <c r="Y11" s="126"/>
+      <c r="Z11" s="127"/>
+      <c r="AA11" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="AB11" s="128"/>
-      <c r="AC11" s="129"/>
-      <c r="AD11" s="127" t="s">
+      <c r="AB11" s="126"/>
+      <c r="AC11" s="127"/>
+      <c r="AD11" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="AE11" s="128"/>
-      <c r="AF11" s="129"/>
-      <c r="AG11" s="127" t="s">
+      <c r="AE11" s="126"/>
+      <c r="AF11" s="127"/>
+      <c r="AG11" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="AH11" s="128"/>
-      <c r="AI11" s="129"/>
-      <c r="AJ11" s="127" t="s">
+      <c r="AH11" s="126"/>
+      <c r="AI11" s="127"/>
+      <c r="AJ11" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="AK11" s="128"/>
-      <c r="AL11" s="129"/>
-      <c r="AM11" s="127" t="s">
+      <c r="AK11" s="126"/>
+      <c r="AL11" s="127"/>
+      <c r="AM11" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="AN11" s="128"/>
-      <c r="AO11" s="129"/>
-      <c r="AP11" s="127" t="s">
+      <c r="AN11" s="126"/>
+      <c r="AO11" s="127"/>
+      <c r="AP11" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="AQ11" s="128"/>
-      <c r="AR11" s="129"/>
-      <c r="AS11" s="127" t="s">
+      <c r="AQ11" s="126"/>
+      <c r="AR11" s="127"/>
+      <c r="AS11" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="AT11" s="128"/>
-      <c r="AU11" s="129"/>
-      <c r="AV11" s="127" t="s">
+      <c r="AT11" s="126"/>
+      <c r="AU11" s="127"/>
+      <c r="AV11" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="AW11" s="128"/>
-      <c r="AX11" s="129"/>
-      <c r="AY11" s="127" t="s">
+      <c r="AW11" s="126"/>
+      <c r="AX11" s="127"/>
+      <c r="AY11" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="AZ11" s="128"/>
-      <c r="BA11" s="129"/>
-      <c r="BB11" s="127" t="s">
+      <c r="AZ11" s="126"/>
+      <c r="BA11" s="127"/>
+      <c r="BB11" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="BC11" s="128"/>
-      <c r="BD11" s="129"/>
-      <c r="BE11" s="127" t="s">
+      <c r="BC11" s="126"/>
+      <c r="BD11" s="127"/>
+      <c r="BE11" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="BF11" s="128"/>
-      <c r="BG11" s="129"/>
+      <c r="BF11" s="126"/>
+      <c r="BG11" s="127"/>
       <c r="BH11" s="130" t="s">
         <v>36</v>
       </c>
@@ -4106,7 +4106,7 @@
       </c>
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A12" s="126"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="16" t="s">
         <v>17</v>
       </c>
@@ -5387,6 +5387,55 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="BV11:BV12"/>
+    <mergeCell ref="BK11:BK12"/>
+    <mergeCell ref="BL11:BL12"/>
+    <mergeCell ref="BM11:BM12"/>
+    <mergeCell ref="BN11:BN12"/>
+    <mergeCell ref="BO11:BO12"/>
+    <mergeCell ref="BP11:BP12"/>
+    <mergeCell ref="BQ11:BQ12"/>
+    <mergeCell ref="BR11:BR12"/>
+    <mergeCell ref="BS11:BS12"/>
+    <mergeCell ref="BT11:BT12"/>
+    <mergeCell ref="BU11:BU12"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="BJ11:BJ12"/>
+    <mergeCell ref="AG11:AI11"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="AM11:AO11"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="AS11:AU11"/>
+    <mergeCell ref="AV11:AX11"/>
+    <mergeCell ref="AY11:BA11"/>
+    <mergeCell ref="BB11:BD11"/>
+    <mergeCell ref="BE11:BG11"/>
+    <mergeCell ref="BH11:BH12"/>
+    <mergeCell ref="BI11:BI12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="AY1:AY2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="AP1:AP2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AS1:AS2"/>
+    <mergeCell ref="AT1:AT2"/>
+    <mergeCell ref="AU1:AU2"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:G11"/>
@@ -5403,55 +5452,6 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="AW1:AW2"/>
-    <mergeCell ref="AX1:AX2"/>
-    <mergeCell ref="AY1:AY2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="AP1:AP2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AS1:AS2"/>
-    <mergeCell ref="AT1:AT2"/>
-    <mergeCell ref="AU1:AU2"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="BJ11:BJ12"/>
-    <mergeCell ref="AG11:AI11"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="AM11:AO11"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="AS11:AU11"/>
-    <mergeCell ref="AV11:AX11"/>
-    <mergeCell ref="AY11:BA11"/>
-    <mergeCell ref="BB11:BD11"/>
-    <mergeCell ref="BE11:BG11"/>
-    <mergeCell ref="BH11:BH12"/>
-    <mergeCell ref="BI11:BI12"/>
-    <mergeCell ref="BV11:BV12"/>
-    <mergeCell ref="BK11:BK12"/>
-    <mergeCell ref="BL11:BL12"/>
-    <mergeCell ref="BM11:BM12"/>
-    <mergeCell ref="BN11:BN12"/>
-    <mergeCell ref="BO11:BO12"/>
-    <mergeCell ref="BP11:BP12"/>
-    <mergeCell ref="BQ11:BQ12"/>
-    <mergeCell ref="BR11:BR12"/>
-    <mergeCell ref="BS11:BS12"/>
-    <mergeCell ref="BT11:BT12"/>
-    <mergeCell ref="BU11:BU12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -5465,9 +5465,9 @@
   </sheetPr>
   <dimension ref="A1:BV23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BI24" sqref="BI24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5519,24 +5519,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="127" t="s">
+      <c r="C1" s="126"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="128"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="127" t="s">
+      <c r="F1" s="126"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="128"/>
-      <c r="J1" s="129"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="127"/>
       <c r="K1" s="131" t="s">
         <v>22</v>
       </c>
@@ -5564,66 +5564,66 @@
       </c>
       <c r="V1" s="136"/>
       <c r="W1" s="137"/>
-      <c r="X1" s="127" t="s">
+      <c r="X1" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="129"/>
-      <c r="AA1" s="127" t="s">
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="129"/>
-      <c r="AD1" s="127" t="s">
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" s="128"/>
-      <c r="AF1" s="129"/>
-      <c r="AG1" s="127" t="s">
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="128"/>
-      <c r="AI1" s="129"/>
-      <c r="AJ1" s="127" t="s">
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="127"/>
+      <c r="AJ1" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="128"/>
-      <c r="AL1" s="129"/>
-      <c r="AM1" s="127" t="s">
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="127"/>
+      <c r="AM1" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="AN1" s="128"/>
-      <c r="AO1" s="129"/>
-      <c r="AP1" s="127" t="s">
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="127"/>
+      <c r="AP1" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="AQ1" s="128"/>
-      <c r="AR1" s="129"/>
-      <c r="AS1" s="127" t="s">
+      <c r="AQ1" s="126"/>
+      <c r="AR1" s="127"/>
+      <c r="AS1" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="AT1" s="128"/>
-      <c r="AU1" s="129"/>
-      <c r="AV1" s="127" t="s">
+      <c r="AT1" s="126"/>
+      <c r="AU1" s="127"/>
+      <c r="AV1" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="AW1" s="128"/>
-      <c r="AX1" s="129"/>
-      <c r="AY1" s="127" t="s">
+      <c r="AW1" s="126"/>
+      <c r="AX1" s="127"/>
+      <c r="AY1" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="AZ1" s="128"/>
-      <c r="BA1" s="129"/>
-      <c r="BB1" s="127" t="s">
+      <c r="AZ1" s="126"/>
+      <c r="BA1" s="127"/>
+      <c r="BB1" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="BC1" s="128"/>
-      <c r="BD1" s="129"/>
-      <c r="BE1" s="127" t="s">
+      <c r="BC1" s="126"/>
+      <c r="BD1" s="127"/>
+      <c r="BE1" s="125" t="s">
         <v>90</v>
       </c>
-      <c r="BF1" s="128"/>
-      <c r="BG1" s="129"/>
+      <c r="BF1" s="126"/>
+      <c r="BG1" s="127"/>
       <c r="BH1" s="130" t="s">
         <v>36</v>
       </c>
@@ -5671,7 +5671,7 @@
       </c>
     </row>
     <row r="2" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A2" s="126"/>
+      <c r="A2" s="129"/>
       <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
@@ -7783,19 +7783,15 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="BP1:BP2"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="BT1:BT2"/>
     <mergeCell ref="BU1:BU2"/>
     <mergeCell ref="BV1:BV2"/>
@@ -7812,15 +7808,19 @@
     <mergeCell ref="BM1:BM2"/>
     <mergeCell ref="BN1:BN2"/>
     <mergeCell ref="BO1:BO2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="BP1:BP2"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7833,9 +7833,9 @@
   </sheetPr>
   <dimension ref="A1:BK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19:E24"/>
+      <selection pane="topRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7864,19 +7864,19 @@
       <c r="D1" s="117"/>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="127" t="s">
+      <c r="C2" s="126"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="128"/>
-      <c r="G2" s="129"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="127"/>
       <c r="H2" s="130" t="s">
         <v>2</v>
       </c>
@@ -7896,46 +7896,46 @@
       </c>
       <c r="O2" s="136"/>
       <c r="P2" s="137"/>
-      <c r="Q2" s="127" t="s">
+      <c r="Q2" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="128"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="127" t="s">
+      <c r="R2" s="126"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="128"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="127" t="s">
+      <c r="U2" s="126"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="127" t="s">
+      <c r="X2" s="126"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="127" t="s">
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="129"/>
-      <c r="AF2" s="127" t="s">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="129"/>
-      <c r="AI2" s="127" t="s">
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="127"/>
+      <c r="AI2" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" s="128"/>
-      <c r="AK2" s="129"/>
-      <c r="AL2" s="127" t="s">
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="127"/>
+      <c r="AL2" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="AM2" s="128"/>
-      <c r="AN2" s="129"/>
+      <c r="AM2" s="126"/>
+      <c r="AN2" s="127"/>
       <c r="AO2" s="130" t="s">
         <v>36</v>
       </c>
@@ -7973,7 +7973,7 @@
       <c r="BC2" s="29"/>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A3" s="126"/>
+      <c r="A3" s="129"/>
       <c r="B3" s="13" t="s">
         <v>17</v>
       </c>
@@ -9545,19 +9545,19 @@
       <c r="BK16" s="29"/>
     </row>
     <row r="17" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A17" s="125" t="s">
+      <c r="A17" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="127" t="s">
+      <c r="C17" s="126"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="128"/>
-      <c r="G17" s="129"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
       <c r="H17" s="130" t="s">
         <v>2</v>
       </c>
@@ -9577,46 +9577,46 @@
       </c>
       <c r="O17" s="136"/>
       <c r="P17" s="137"/>
-      <c r="Q17" s="127" t="s">
+      <c r="Q17" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="R17" s="128"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="127" t="s">
+      <c r="R17" s="126"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="U17" s="128"/>
-      <c r="V17" s="129"/>
-      <c r="W17" s="127" t="s">
+      <c r="U17" s="126"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="X17" s="128"/>
-      <c r="Y17" s="129"/>
-      <c r="Z17" s="127" t="s">
+      <c r="X17" s="126"/>
+      <c r="Y17" s="127"/>
+      <c r="Z17" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="AA17" s="128"/>
-      <c r="AB17" s="129"/>
-      <c r="AC17" s="127" t="s">
+      <c r="AA17" s="126"/>
+      <c r="AB17" s="127"/>
+      <c r="AC17" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="AD17" s="128"/>
-      <c r="AE17" s="129"/>
-      <c r="AF17" s="127" t="s">
+      <c r="AD17" s="126"/>
+      <c r="AE17" s="127"/>
+      <c r="AF17" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="AG17" s="128"/>
-      <c r="AH17" s="129"/>
-      <c r="AI17" s="127" t="s">
+      <c r="AG17" s="126"/>
+      <c r="AH17" s="127"/>
+      <c r="AI17" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="AJ17" s="128"/>
-      <c r="AK17" s="129"/>
-      <c r="AL17" s="127" t="s">
+      <c r="AJ17" s="126"/>
+      <c r="AK17" s="127"/>
+      <c r="AL17" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="AM17" s="128"/>
-      <c r="AN17" s="129"/>
+      <c r="AM17" s="126"/>
+      <c r="AN17" s="127"/>
       <c r="AO17" s="130" t="s">
         <v>36</v>
       </c>
@@ -9649,7 +9649,7 @@
       </c>
     </row>
     <row r="18" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A18" s="126"/>
+      <c r="A18" s="129"/>
       <c r="B18" s="49" t="s">
         <v>17</v>
       </c>
@@ -10809,19 +10809,19 @@
       <c r="BG26" s="116"/>
     </row>
     <row r="27" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A27" s="125" t="s">
+      <c r="A27" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="127" t="s">
+      <c r="B27" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="128"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="127" t="s">
+      <c r="C27" s="126"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="128"/>
-      <c r="G27" s="129"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="127"/>
       <c r="H27" s="130" t="s">
         <v>2</v>
       </c>
@@ -10841,46 +10841,46 @@
       </c>
       <c r="O27" s="136"/>
       <c r="P27" s="137"/>
-      <c r="Q27" s="127" t="s">
+      <c r="Q27" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="R27" s="128"/>
-      <c r="S27" s="129"/>
-      <c r="T27" s="127" t="s">
+      <c r="R27" s="126"/>
+      <c r="S27" s="127"/>
+      <c r="T27" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="U27" s="128"/>
-      <c r="V27" s="129"/>
-      <c r="W27" s="127" t="s">
+      <c r="U27" s="126"/>
+      <c r="V27" s="127"/>
+      <c r="W27" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="X27" s="128"/>
-      <c r="Y27" s="129"/>
-      <c r="Z27" s="127" t="s">
+      <c r="X27" s="126"/>
+      <c r="Y27" s="127"/>
+      <c r="Z27" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="AA27" s="128"/>
-      <c r="AB27" s="129"/>
-      <c r="AC27" s="127" t="s">
+      <c r="AA27" s="126"/>
+      <c r="AB27" s="127"/>
+      <c r="AC27" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="AD27" s="128"/>
-      <c r="AE27" s="129"/>
-      <c r="AF27" s="127" t="s">
+      <c r="AD27" s="126"/>
+      <c r="AE27" s="127"/>
+      <c r="AF27" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="AG27" s="128"/>
-      <c r="AH27" s="129"/>
-      <c r="AI27" s="127" t="s">
+      <c r="AG27" s="126"/>
+      <c r="AH27" s="127"/>
+      <c r="AI27" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="AJ27" s="128"/>
-      <c r="AK27" s="129"/>
-      <c r="AL27" s="127" t="s">
+      <c r="AJ27" s="126"/>
+      <c r="AK27" s="127"/>
+      <c r="AL27" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="AM27" s="128"/>
-      <c r="AN27" s="129"/>
+      <c r="AM27" s="126"/>
+      <c r="AN27" s="127"/>
       <c r="AO27" s="130" t="s">
         <v>36</v>
       </c>
@@ -10913,7 +10913,7 @@
       </c>
     </row>
     <row r="28" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A28" s="126"/>
+      <c r="A28" s="129"/>
       <c r="B28" s="49" t="s">
         <v>17</v>
       </c>
@@ -13278,17 +13278,58 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="AX27:AX28"/>
-    <mergeCell ref="AS27:AS28"/>
-    <mergeCell ref="AT27:AT28"/>
-    <mergeCell ref="AU27:AU28"/>
-    <mergeCell ref="AV27:AV28"/>
-    <mergeCell ref="AW27:AW28"/>
-    <mergeCell ref="AL27:AN27"/>
-    <mergeCell ref="AO27:AO28"/>
-    <mergeCell ref="AP27:AP28"/>
-    <mergeCell ref="AQ27:AQ28"/>
-    <mergeCell ref="AR27:AR28"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AI17:AK17"/>
+    <mergeCell ref="AL17:AN17"/>
+    <mergeCell ref="AO17:AO18"/>
+    <mergeCell ref="AP17:AP18"/>
+    <mergeCell ref="AQ17:AQ18"/>
+    <mergeCell ref="AR17:AR18"/>
+    <mergeCell ref="AS17:AS18"/>
+    <mergeCell ref="AT17:AT18"/>
+    <mergeCell ref="AU17:AU18"/>
+    <mergeCell ref="AV17:AV18"/>
+    <mergeCell ref="AW17:AW18"/>
     <mergeCell ref="AX17:AX18"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:D27"/>
@@ -13305,58 +13346,17 @@
     <mergeCell ref="AC27:AE27"/>
     <mergeCell ref="AF27:AH27"/>
     <mergeCell ref="AI27:AK27"/>
-    <mergeCell ref="AS17:AS18"/>
-    <mergeCell ref="AT17:AT18"/>
-    <mergeCell ref="AU17:AU18"/>
-    <mergeCell ref="AV17:AV18"/>
-    <mergeCell ref="AW17:AW18"/>
-    <mergeCell ref="AL17:AN17"/>
-    <mergeCell ref="AO17:AO18"/>
-    <mergeCell ref="AP17:AP18"/>
-    <mergeCell ref="AQ17:AQ18"/>
-    <mergeCell ref="AR17:AR18"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AI17:AK17"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AL27:AN27"/>
+    <mergeCell ref="AO27:AO28"/>
+    <mergeCell ref="AP27:AP28"/>
+    <mergeCell ref="AQ27:AQ28"/>
+    <mergeCell ref="AR27:AR28"/>
+    <mergeCell ref="AX27:AX28"/>
+    <mergeCell ref="AS27:AS28"/>
+    <mergeCell ref="AT27:AT28"/>
+    <mergeCell ref="AU27:AU28"/>
+    <mergeCell ref="AV27:AV28"/>
+    <mergeCell ref="AW27:AW28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -13444,55 +13444,55 @@
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="143" t="s">
+      <c r="E2" s="154" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="143" t="s">
+      <c r="F2" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="140" t="s">
+      <c r="G2" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="126"/>
-      <c r="I2" s="157" t="s">
+      <c r="H2" s="129"/>
+      <c r="I2" s="146" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="143" t="s">
+      <c r="J2" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="140" t="s">
+      <c r="K2" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="126"/>
-      <c r="M2" s="156"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="140"/>
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
       <c r="R2" s="75"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
       <c r="G3" s="54" t="s">
         <v>110</v>
       </c>
       <c r="H3" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="150"/>
-      <c r="J3" s="144"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="145"/>
       <c r="K3" s="54" t="s">
         <v>110</v>
       </c>
@@ -13507,7 +13507,7 @@
       <c r="R3" s="75"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="141" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="72" t="s">
@@ -13551,7 +13551,7 @@
       <c r="R4" s="75"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="146"/>
+      <c r="A5" s="142"/>
       <c r="B5" s="73" t="s">
         <v>14</v>
       </c>
@@ -13594,7 +13594,7 @@
       <c r="R5" s="75"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="146"/>
+      <c r="A6" s="142"/>
       <c r="B6" s="73" t="s">
         <v>102</v>
       </c>
@@ -13636,7 +13636,7 @@
       <c r="R6" s="75"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="146"/>
+      <c r="A7" s="142"/>
       <c r="B7" s="46" t="s">
         <v>101</v>
       </c>
@@ -13676,7 +13676,7 @@
       <c r="R7" s="75"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="147"/>
+      <c r="A8" s="143"/>
       <c r="B8" s="74" t="s">
         <v>103</v>
       </c>
@@ -13716,7 +13716,7 @@
       <c r="R8" s="75"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="148" t="s">
+      <c r="A9" s="155" t="s">
         <v>100</v>
       </c>
       <c r="B9" s="45" t="s">
@@ -13738,7 +13738,7 @@
       <c r="R9" s="75"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="146"/>
+      <c r="A10" s="142"/>
       <c r="B10" s="27" t="s">
         <v>14</v>
       </c>
@@ -13758,7 +13758,7 @@
       <c r="R10" s="75"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="146"/>
+      <c r="A11" s="142"/>
       <c r="B11" s="27" t="s">
         <v>102</v>
       </c>
@@ -13792,7 +13792,7 @@
       <c r="R11" s="75"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="146"/>
+      <c r="A12" s="142"/>
       <c r="B12" s="27" t="s">
         <v>101</v>
       </c>
@@ -13812,7 +13812,7 @@
       <c r="R12" s="75"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
+      <c r="A13" s="143"/>
       <c r="B13" s="54" t="s">
         <v>103</v>
       </c>
@@ -13833,21 +13833,21 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="151" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
       <c r="P15" s="38"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13869,57 +13869,57 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="65"/>
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="158" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="155" t="s">
+      <c r="C17" s="144" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="155" t="s">
+      <c r="D17" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="155" t="s">
+      <c r="E17" s="144" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="155" t="s">
+      <c r="F17" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="151" t="s">
+      <c r="G17" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="152"/>
-      <c r="I17" s="149" t="s">
+      <c r="H17" s="157"/>
+      <c r="I17" s="156" t="s">
         <v>117</v>
       </c>
-      <c r="J17" s="155" t="s">
+      <c r="J17" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="151" t="s">
+      <c r="K17" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="158"/>
-      <c r="M17" s="151" t="s">
+      <c r="L17" s="149"/>
+      <c r="M17" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="159"/>
+      <c r="N17" s="150"/>
       <c r="O17" s="110"/>
       <c r="P17" s="38"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="66"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
       <c r="G18" s="54" t="s">
         <v>110</v>
       </c>
       <c r="H18" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="I18" s="150"/>
-      <c r="J18" s="144"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="145"/>
       <c r="K18" s="54" t="s">
         <v>110</v>
       </c>
@@ -13935,7 +13935,7 @@
       <c r="O18" s="110"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="145" t="s">
+      <c r="A19" s="141" t="s">
         <v>98</v>
       </c>
       <c r="B19" s="70" t="s">
@@ -13979,7 +13979,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="146"/>
+      <c r="A20" s="142"/>
       <c r="B20" s="71" t="s">
         <v>54</v>
       </c>
@@ -14021,7 +14021,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="146"/>
+      <c r="A21" s="142"/>
       <c r="B21" s="71" t="s">
         <v>102</v>
       </c>
@@ -14063,7 +14063,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="146"/>
+      <c r="A22" s="142"/>
       <c r="B22" s="8" t="s">
         <v>134</v>
       </c>
@@ -14105,7 +14105,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="147"/>
+      <c r="A23" s="143"/>
       <c r="B23" s="60" t="s">
         <v>135</v>
       </c>
@@ -14147,7 +14147,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="145" t="s">
+      <c r="A24" s="141" t="s">
         <v>100</v>
       </c>
       <c r="B24" s="45" t="s">
@@ -14167,7 +14167,7 @@
       <c r="N24" s="45"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="146"/>
+      <c r="A25" s="142"/>
       <c r="B25" s="27" t="s">
         <v>14</v>
       </c>
@@ -14185,7 +14185,7 @@
       <c r="N25" s="27"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="146"/>
+      <c r="A26" s="142"/>
       <c r="B26" s="27" t="s">
         <v>102</v>
       </c>
@@ -14215,7 +14215,7 @@
       <c r="N26" s="27"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="146"/>
+      <c r="A27" s="142"/>
       <c r="B27" s="27" t="s">
         <v>101</v>
       </c>
@@ -14233,7 +14233,7 @@
       <c r="N27" s="27"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="147"/>
+      <c r="A28" s="143"/>
       <c r="B28" s="54" t="s">
         <v>103</v>
       </c>
@@ -14252,33 +14252,24 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="139" t="s">
+      <c r="A30" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="139"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="139"/>
-      <c r="L30" s="139"/>
-      <c r="M30" s="139"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="151"/>
+      <c r="M30" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
     <mergeCell ref="A30:M30"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="B2:B3"/>
@@ -14295,6 +14286,15 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="A15:M15"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -14324,10 +14324,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="160" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="185"/>
+      <c r="B1" s="160"/>
       <c r="C1" s="61"/>
       <c r="D1" s="61"/>
       <c r="E1" s="61"/>
@@ -14340,36 +14340,36 @@
       <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="180"/>
-      <c r="E2" s="179" t="s">
+      <c r="D2" s="183"/>
+      <c r="E2" s="182" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="180"/>
-      <c r="G2" s="181" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="182"/>
-      <c r="I2" s="181" t="s">
+      <c r="H2" s="185"/>
+      <c r="I2" s="184" t="s">
         <v>180</v>
       </c>
-      <c r="J2" s="182"/>
-      <c r="K2" s="181" t="s">
+      <c r="J2" s="185"/>
+      <c r="K2" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="183"/>
+      <c r="L2" s="186"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="187"/>
-      <c r="B3" s="143"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="154"/>
       <c r="C3" s="130" t="s">
         <v>182</v>
       </c>
@@ -14389,11 +14389,11 @@
       <c r="K3" s="130" t="s">
         <v>182</v>
       </c>
-      <c r="L3" s="184"/>
+      <c r="L3" s="175"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="188"/>
-      <c r="B4" s="144"/>
+      <c r="A4" s="166"/>
+      <c r="B4" s="145"/>
       <c r="C4" s="93" t="s">
         <v>183</v>
       </c>
@@ -14426,7 +14426,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="161" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="79" t="s">
@@ -14464,33 +14464,33 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
+      <c r="A6" s="162"/>
       <c r="B6" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="165">
+      <c r="C6" s="176">
         <v>0.67800000000000005</v>
       </c>
-      <c r="D6" s="166"/>
-      <c r="E6" s="165">
+      <c r="D6" s="177"/>
+      <c r="E6" s="176">
         <v>0.624</v>
       </c>
-      <c r="F6" s="166"/>
-      <c r="G6" s="160">
+      <c r="F6" s="177"/>
+      <c r="G6" s="172">
         <v>-0.33439999999999998</v>
       </c>
-      <c r="H6" s="167"/>
-      <c r="I6" s="160">
+      <c r="H6" s="173"/>
+      <c r="I6" s="172">
         <v>-0.27529999999999999</v>
       </c>
-      <c r="J6" s="167"/>
-      <c r="K6" s="160">
+      <c r="J6" s="173"/>
+      <c r="K6" s="172">
         <v>-0.24887999999999999</v>
       </c>
-      <c r="L6" s="161"/>
+      <c r="L6" s="174"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="164"/>
+      <c r="A7" s="163"/>
       <c r="B7" s="52" t="s">
         <v>126</v>
       </c>
@@ -14526,77 +14526,77 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="161" t="s">
         <v>147</v>
       </c>
       <c r="B8" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="168">
+      <c r="C8" s="170">
         <v>0.64</v>
       </c>
-      <c r="D8" s="169"/>
-      <c r="E8" s="168">
+      <c r="D8" s="171"/>
+      <c r="E8" s="170">
         <v>0.54900000000000004</v>
       </c>
-      <c r="F8" s="169"/>
-      <c r="G8" s="168">
+      <c r="F8" s="171"/>
+      <c r="G8" s="170">
         <v>-2.98E-2</v>
       </c>
-      <c r="H8" s="169"/>
-      <c r="I8" s="168">
+      <c r="H8" s="171"/>
+      <c r="I8" s="170">
         <v>-6.7199999999999996E-2</v>
       </c>
-      <c r="J8" s="169"/>
-      <c r="K8" s="168">
+      <c r="J8" s="171"/>
+      <c r="K8" s="170">
         <v>-5.4100000000000002E-2</v>
       </c>
-      <c r="L8" s="170"/>
+      <c r="L8" s="187"/>
     </row>
     <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
+      <c r="A9" s="162"/>
       <c r="B9" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="171"/>
-      <c r="L9" s="173"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="168"/>
+      <c r="L9" s="188"/>
     </row>
     <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="163"/>
+      <c r="A10" s="162"/>
       <c r="B10" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="165">
+      <c r="C10" s="176">
         <v>0.64300000000000002</v>
       </c>
-      <c r="D10" s="166"/>
-      <c r="E10" s="165">
+      <c r="D10" s="177"/>
+      <c r="E10" s="176">
         <v>0.58199999999999996</v>
       </c>
-      <c r="F10" s="166"/>
-      <c r="G10" s="160">
+      <c r="F10" s="177"/>
+      <c r="G10" s="172">
         <v>-0.1447</v>
       </c>
-      <c r="H10" s="167"/>
-      <c r="I10" s="160">
+      <c r="H10" s="173"/>
+      <c r="I10" s="172">
         <v>-8.6900000000000005E-2</v>
       </c>
-      <c r="J10" s="167"/>
-      <c r="K10" s="160">
+      <c r="J10" s="173"/>
+      <c r="K10" s="172">
         <v>-6.6500000000000004E-2</v>
       </c>
-      <c r="L10" s="161"/>
+      <c r="L10" s="174"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="164"/>
+      <c r="A11" s="163"/>
       <c r="B11" s="52" t="s">
         <v>126</v>
       </c>
@@ -14632,77 +14632,77 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="162" t="s">
+      <c r="A12" s="161" t="s">
         <v>148</v>
       </c>
       <c r="B12" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="168">
+      <c r="C12" s="170">
         <v>0.63200000000000001</v>
       </c>
-      <c r="D12" s="169"/>
-      <c r="E12" s="168">
+      <c r="D12" s="171"/>
+      <c r="E12" s="170">
         <v>0.499</v>
       </c>
-      <c r="F12" s="169"/>
-      <c r="G12" s="168">
+      <c r="F12" s="171"/>
+      <c r="G12" s="170">
         <v>-8.4500000000000006E-2</v>
       </c>
-      <c r="H12" s="169"/>
-      <c r="I12" s="168">
+      <c r="H12" s="171"/>
+      <c r="I12" s="170">
         <v>-9.7299999999999998E-2</v>
       </c>
-      <c r="J12" s="169"/>
-      <c r="K12" s="168">
+      <c r="J12" s="171"/>
+      <c r="K12" s="170">
         <v>-8.7800000000000003E-2</v>
       </c>
-      <c r="L12" s="170"/>
+      <c r="L12" s="187"/>
     </row>
     <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="163"/>
+      <c r="A13" s="162"/>
       <c r="B13" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="173"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="168"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="168"/>
+      <c r="L13" s="188"/>
     </row>
     <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="163"/>
+      <c r="A14" s="162"/>
       <c r="B14" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="165">
+      <c r="C14" s="176">
         <v>0.64200000000000002</v>
       </c>
-      <c r="D14" s="166"/>
-      <c r="E14" s="165">
+      <c r="D14" s="177"/>
+      <c r="E14" s="176">
         <v>0.58599999999999997</v>
       </c>
-      <c r="F14" s="166"/>
-      <c r="G14" s="160">
+      <c r="F14" s="177"/>
+      <c r="G14" s="172">
         <v>-0.1288</v>
       </c>
-      <c r="H14" s="167"/>
-      <c r="I14" s="160">
+      <c r="H14" s="173"/>
+      <c r="I14" s="172">
         <v>-7.0400000000000004E-2</v>
       </c>
-      <c r="J14" s="167"/>
-      <c r="K14" s="160">
+      <c r="J14" s="173"/>
+      <c r="K14" s="172">
         <v>-5.0200000000000002E-2</v>
       </c>
-      <c r="L14" s="161"/>
+      <c r="L14" s="174"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="164"/>
+      <c r="A15" s="163"/>
       <c r="B15" s="52" t="s">
         <v>126</v>
       </c>
@@ -14738,7 +14738,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="163" t="s">
+      <c r="A16" s="162" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="79" t="s">
@@ -14780,30 +14780,30 @@
       <c r="S16" s="43"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="163"/>
+      <c r="A17" s="162"/>
       <c r="B17" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="165">
+      <c r="C17" s="176">
         <v>0.66500000000000004</v>
       </c>
-      <c r="D17" s="166"/>
-      <c r="E17" s="165">
+      <c r="D17" s="177"/>
+      <c r="E17" s="176">
         <v>0.623</v>
       </c>
-      <c r="F17" s="166"/>
-      <c r="G17" s="160">
+      <c r="F17" s="177"/>
+      <c r="G17" s="172">
         <v>-0.1022</v>
       </c>
-      <c r="H17" s="167"/>
-      <c r="I17" s="160">
+      <c r="H17" s="173"/>
+      <c r="I17" s="172">
         <v>-7.9000000000000001E-2</v>
       </c>
-      <c r="J17" s="167"/>
-      <c r="K17" s="160">
+      <c r="J17" s="173"/>
+      <c r="K17" s="172">
         <v>-4.5199999999999997E-2</v>
       </c>
-      <c r="L17" s="161"/>
+      <c r="L17" s="174"/>
       <c r="P17" s="43"/>
       <c r="Q17" s="43"/>
       <c r="R17" s="43"/>
@@ -14813,7 +14813,7 @@
       <c r="V17" s="43"/>
     </row>
     <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="164"/>
+      <c r="A18" s="163"/>
       <c r="B18" s="53" t="s">
         <v>126</v>
       </c>
@@ -14856,22 +14856,22 @@
       <c r="V18" s="43"/>
     </row>
     <row r="19" spans="1:22" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="162" t="s">
+      <c r="A19" s="161" t="s">
         <v>185</v>
       </c>
       <c r="B19" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="168"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="168"/>
-      <c r="J19" s="169"/>
-      <c r="K19" s="168"/>
-      <c r="L19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="171"/>
+      <c r="K19" s="170"/>
+      <c r="L19" s="187"/>
       <c r="P19" s="43"/>
       <c r="Q19" s="43"/>
       <c r="R19" s="43"/>
@@ -14881,20 +14881,20 @@
       <c r="V19" s="43"/>
     </row>
     <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="163"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="127"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="172"/>
-      <c r="K20" s="171"/>
-      <c r="L20" s="173"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="169"/>
+      <c r="K20" s="168"/>
+      <c r="L20" s="188"/>
       <c r="P20" s="43"/>
       <c r="Q20" s="43"/>
       <c r="R20" s="43"/>
@@ -14904,30 +14904,30 @@
       <c r="V20" s="43"/>
     </row>
     <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="163"/>
+      <c r="A21" s="162"/>
       <c r="B21" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="165">
+      <c r="C21" s="176">
         <v>0.66300000000000003</v>
       </c>
-      <c r="D21" s="166"/>
-      <c r="E21" s="165">
+      <c r="D21" s="177"/>
+      <c r="E21" s="176">
         <v>0.60499999999999998</v>
       </c>
-      <c r="F21" s="166"/>
-      <c r="G21" s="160">
+      <c r="F21" s="177"/>
+      <c r="G21" s="172">
         <v>-0.28460000000000002</v>
       </c>
-      <c r="H21" s="167"/>
-      <c r="I21" s="160">
+      <c r="H21" s="173"/>
+      <c r="I21" s="172">
         <v>-0.1593</v>
       </c>
-      <c r="J21" s="167"/>
-      <c r="K21" s="160">
+      <c r="J21" s="173"/>
+      <c r="K21" s="172">
         <v>-0.14910000000000001</v>
       </c>
-      <c r="L21" s="161"/>
+      <c r="L21" s="174"/>
       <c r="P21" s="43"/>
       <c r="Q21" s="43"/>
       <c r="R21" s="43"/>
@@ -14937,7 +14937,7 @@
       <c r="V21" s="43"/>
     </row>
     <row r="22" spans="1:22" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="164"/>
+      <c r="A22" s="163"/>
       <c r="B22" s="52" t="s">
         <v>126</v>
       </c>
@@ -14960,22 +14960,22 @@
       <c r="V22" s="43"/>
     </row>
     <row r="23" spans="1:22" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="161" t="s">
         <v>186</v>
       </c>
       <c r="B23" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="168"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="168"/>
-      <c r="L23" s="170"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="170"/>
+      <c r="L23" s="187"/>
       <c r="P23" s="43"/>
       <c r="Q23" s="43"/>
       <c r="R23" s="43"/>
@@ -14985,20 +14985,20 @@
       <c r="V23" s="43"/>
     </row>
     <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="163"/>
+      <c r="A24" s="162"/>
       <c r="B24" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="127"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="171"/>
-      <c r="L24" s="173"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="168"/>
+      <c r="J24" s="169"/>
+      <c r="K24" s="168"/>
+      <c r="L24" s="188"/>
       <c r="P24" s="43"/>
       <c r="Q24" s="43"/>
       <c r="R24" s="43"/>
@@ -15008,30 +15008,30 @@
       <c r="V24" s="43"/>
     </row>
     <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="163"/>
+      <c r="A25" s="162"/>
       <c r="B25" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="165">
+      <c r="C25" s="176">
         <v>0.64700000000000002</v>
       </c>
-      <c r="D25" s="166"/>
-      <c r="E25" s="165">
+      <c r="D25" s="177"/>
+      <c r="E25" s="176">
         <v>0.56399999999999995</v>
       </c>
-      <c r="F25" s="166"/>
-      <c r="G25" s="160">
+      <c r="F25" s="177"/>
+      <c r="G25" s="172">
         <v>-0.2656</v>
       </c>
-      <c r="H25" s="167"/>
-      <c r="I25" s="160">
+      <c r="H25" s="173"/>
+      <c r="I25" s="172">
         <v>-0.1154</v>
       </c>
-      <c r="J25" s="167"/>
-      <c r="K25" s="160">
+      <c r="J25" s="173"/>
+      <c r="K25" s="172">
         <v>-0.1148</v>
       </c>
-      <c r="L25" s="161"/>
+      <c r="L25" s="174"/>
       <c r="P25" s="43"/>
       <c r="Q25" s="43"/>
       <c r="R25" s="43"/>
@@ -15041,7 +15041,7 @@
       <c r="V25" s="43"/>
     </row>
     <row r="26" spans="1:22" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="164"/>
+      <c r="A26" s="163"/>
       <c r="B26" s="52" t="s">
         <v>126</v>
       </c>
@@ -15064,7 +15064,7 @@
       <c r="V26" s="43"/>
     </row>
     <row r="27" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="163" t="s">
+      <c r="A27" s="162" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="79" t="s">
@@ -15109,30 +15109,30 @@
       <c r="V27" s="43"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="163"/>
+      <c r="A28" s="162"/>
       <c r="B28" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="165">
+      <c r="C28" s="176">
         <v>0.66800000000000004</v>
       </c>
-      <c r="D28" s="166"/>
-      <c r="E28" s="165">
+      <c r="D28" s="177"/>
+      <c r="E28" s="176">
         <v>0.64</v>
       </c>
-      <c r="F28" s="166"/>
-      <c r="G28" s="160">
+      <c r="F28" s="177"/>
+      <c r="G28" s="172">
         <v>-0.14879999999999999</v>
       </c>
-      <c r="H28" s="167"/>
-      <c r="I28" s="160">
+      <c r="H28" s="173"/>
+      <c r="I28" s="172">
         <v>-0.1207</v>
       </c>
-      <c r="J28" s="167"/>
-      <c r="K28" s="160">
+      <c r="J28" s="173"/>
+      <c r="K28" s="172">
         <v>-8.6999999999999994E-2</v>
       </c>
-      <c r="L28" s="161"/>
+      <c r="L28" s="174"/>
       <c r="R28" s="43"/>
       <c r="S28" s="43"/>
       <c r="T28" s="43"/>
@@ -15140,7 +15140,7 @@
       <c r="V28" s="43"/>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="164"/>
+      <c r="A29" s="163"/>
       <c r="B29" s="53" t="s">
         <v>126</v>
       </c>
@@ -15181,32 +15181,32 @@
       <c r="V29" s="43"/>
     </row>
     <row r="30" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="163" t="s">
+      <c r="A30" s="162" t="s">
         <v>187</v>
       </c>
       <c r="B30" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="165">
+      <c r="C30" s="176">
         <v>0.66700000000000004</v>
       </c>
-      <c r="D30" s="166"/>
-      <c r="E30" s="165">
+      <c r="D30" s="177"/>
+      <c r="E30" s="176">
         <v>0.63600000000000001</v>
       </c>
-      <c r="F30" s="166"/>
-      <c r="G30" s="160">
+      <c r="F30" s="177"/>
+      <c r="G30" s="172">
         <v>-8.3099999999999993E-2</v>
       </c>
-      <c r="H30" s="167"/>
-      <c r="I30" s="160">
+      <c r="H30" s="173"/>
+      <c r="I30" s="172">
         <v>-2.3900000000000001E-2</v>
       </c>
-      <c r="J30" s="167"/>
-      <c r="K30" s="160">
+      <c r="J30" s="173"/>
+      <c r="K30" s="172">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="L30" s="161"/>
+      <c r="L30" s="174"/>
       <c r="R30" s="43"/>
       <c r="S30" s="43"/>
       <c r="T30" s="43"/>
@@ -15214,7 +15214,7 @@
       <c r="V30" s="43"/>
     </row>
     <row r="31" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="164"/>
+      <c r="A31" s="163"/>
       <c r="B31" s="53" t="s">
         <v>126</v>
       </c>
@@ -15255,7 +15255,7 @@
       <c r="V31" s="43"/>
     </row>
     <row r="32" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="162" t="s">
+      <c r="A32" s="161" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="79" t="s">
@@ -15298,30 +15298,30 @@
       <c r="V32" s="43"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="163"/>
+      <c r="A33" s="162"/>
       <c r="B33" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="165">
+      <c r="C33" s="176">
         <v>0.69</v>
       </c>
-      <c r="D33" s="166"/>
-      <c r="E33" s="165">
+      <c r="D33" s="177"/>
+      <c r="E33" s="176">
         <v>0.66500000000000004</v>
       </c>
-      <c r="F33" s="166"/>
-      <c r="G33" s="160">
+      <c r="F33" s="177"/>
+      <c r="G33" s="172">
         <v>-0.21329999999999999</v>
       </c>
-      <c r="H33" s="167"/>
-      <c r="I33" s="160">
+      <c r="H33" s="173"/>
+      <c r="I33" s="172">
         <v>-0.20979999999999999</v>
       </c>
-      <c r="J33" s="167"/>
-      <c r="K33" s="160">
+      <c r="J33" s="173"/>
+      <c r="K33" s="172">
         <v>-0.16619999999999999</v>
       </c>
-      <c r="L33" s="161"/>
+      <c r="L33" s="174"/>
       <c r="R33" s="43"/>
       <c r="S33" s="81"/>
       <c r="T33" s="81"/>
@@ -15329,7 +15329,7 @@
       <c r="V33" s="43"/>
     </row>
     <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="164"/>
+      <c r="A34" s="163"/>
       <c r="B34" s="53" t="s">
         <v>126</v>
       </c>
@@ -15370,32 +15370,32 @@
       <c r="V34" s="43"/>
     </row>
     <row r="35" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162" t="s">
+      <c r="A35" s="161" t="s">
         <v>149</v>
       </c>
       <c r="B35" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="174">
+      <c r="C35" s="180">
         <v>0.65800000000000003</v>
       </c>
-      <c r="D35" s="175"/>
-      <c r="E35" s="174">
+      <c r="D35" s="181"/>
+      <c r="E35" s="180">
         <v>0.58699999999999997</v>
       </c>
-      <c r="F35" s="175"/>
-      <c r="G35" s="174">
+      <c r="F35" s="181"/>
+      <c r="G35" s="180">
         <v>-6.8699999999999997E-2</v>
       </c>
-      <c r="H35" s="175"/>
-      <c r="I35" s="168">
+      <c r="H35" s="181"/>
+      <c r="I35" s="170">
         <v>-9.4200000000000006E-2</v>
       </c>
-      <c r="J35" s="169"/>
-      <c r="K35" s="174">
+      <c r="J35" s="171"/>
+      <c r="K35" s="180">
         <v>-8.1000000000000003E-2</v>
       </c>
-      <c r="L35" s="176"/>
+      <c r="L35" s="189"/>
       <c r="R35" s="43"/>
       <c r="S35" s="43"/>
       <c r="T35" s="43"/>
@@ -15403,20 +15403,20 @@
       <c r="V35" s="43"/>
     </row>
     <row r="36" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="189"/>
+      <c r="A36" s="167"/>
       <c r="B36" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="127"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="177"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="177"/>
-      <c r="J36" s="178"/>
-      <c r="K36" s="171"/>
-      <c r="L36" s="173"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="179"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="179"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="179"/>
+      <c r="K36" s="168"/>
+      <c r="L36" s="188"/>
       <c r="R36" s="43"/>
       <c r="S36" s="43"/>
       <c r="T36" s="43"/>
@@ -15424,30 +15424,30 @@
       <c r="V36" s="43"/>
     </row>
     <row r="37" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="189"/>
+      <c r="A37" s="167"/>
       <c r="B37" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="165">
+      <c r="C37" s="176">
         <v>0.55700000000000005</v>
       </c>
-      <c r="D37" s="166"/>
-      <c r="E37" s="165">
+      <c r="D37" s="177"/>
+      <c r="E37" s="176">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="F37" s="166"/>
-      <c r="G37" s="160">
+      <c r="F37" s="177"/>
+      <c r="G37" s="172">
         <v>-5.5100000000000003E-2</v>
       </c>
-      <c r="H37" s="167"/>
-      <c r="I37" s="160">
+      <c r="H37" s="173"/>
+      <c r="I37" s="172">
         <v>-3.1300000000000001E-2</v>
       </c>
-      <c r="J37" s="167"/>
-      <c r="K37" s="160">
+      <c r="J37" s="173"/>
+      <c r="K37" s="172">
         <v>-3.1699999999999999E-2</v>
       </c>
-      <c r="L37" s="161"/>
+      <c r="L37" s="174"/>
       <c r="R37" s="43"/>
       <c r="S37" s="43"/>
       <c r="T37" s="43"/>
@@ -15455,7 +15455,7 @@
       <c r="V37" s="43"/>
     </row>
     <row r="38" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="164"/>
+      <c r="A38" s="163"/>
       <c r="B38" s="58" t="s">
         <v>126</v>
       </c>
@@ -15491,77 +15491,77 @@
       </c>
     </row>
     <row r="39" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="162" t="s">
+      <c r="A39" s="161" t="s">
         <v>150</v>
       </c>
       <c r="B39" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="C39" s="174">
+      <c r="C39" s="180">
         <v>0.64700000000000002</v>
       </c>
-      <c r="D39" s="175"/>
-      <c r="E39" s="174">
+      <c r="D39" s="181"/>
+      <c r="E39" s="180">
         <v>0.54200000000000004</v>
       </c>
-      <c r="F39" s="175"/>
-      <c r="G39" s="174">
+      <c r="F39" s="181"/>
+      <c r="G39" s="180">
         <v>-2.9100000000000001E-2</v>
       </c>
-      <c r="H39" s="175"/>
-      <c r="I39" s="168">
+      <c r="H39" s="181"/>
+      <c r="I39" s="170">
         <v>-7.8399999999999997E-2</v>
       </c>
-      <c r="J39" s="169"/>
-      <c r="K39" s="174">
+      <c r="J39" s="171"/>
+      <c r="K39" s="180">
         <v>-6.3700000000000007E-2</v>
       </c>
-      <c r="L39" s="176"/>
+      <c r="L39" s="189"/>
     </row>
     <row r="40" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="189"/>
+      <c r="A40" s="167"/>
       <c r="B40" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="127"/>
-      <c r="D40" s="129"/>
-      <c r="E40" s="177"/>
-      <c r="F40" s="178"/>
-      <c r="G40" s="177"/>
-      <c r="H40" s="178"/>
-      <c r="I40" s="177"/>
-      <c r="J40" s="178"/>
-      <c r="K40" s="171"/>
-      <c r="L40" s="173"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="178"/>
+      <c r="F40" s="179"/>
+      <c r="G40" s="178"/>
+      <c r="H40" s="179"/>
+      <c r="I40" s="178"/>
+      <c r="J40" s="179"/>
+      <c r="K40" s="168"/>
+      <c r="L40" s="188"/>
     </row>
     <row r="41" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="189"/>
+      <c r="A41" s="167"/>
       <c r="B41" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="165">
+      <c r="C41" s="176">
         <v>0.53800000000000003</v>
       </c>
-      <c r="D41" s="166"/>
-      <c r="E41" s="165">
+      <c r="D41" s="177"/>
+      <c r="E41" s="176">
         <v>0</v>
       </c>
-      <c r="F41" s="166"/>
-      <c r="G41" s="160">
+      <c r="F41" s="177"/>
+      <c r="G41" s="172">
         <v>0</v>
       </c>
-      <c r="H41" s="167"/>
-      <c r="I41" s="160">
+      <c r="H41" s="173"/>
+      <c r="I41" s="172">
         <v>0</v>
       </c>
-      <c r="J41" s="167"/>
-      <c r="K41" s="160">
+      <c r="J41" s="173"/>
+      <c r="K41" s="172">
         <v>0</v>
       </c>
-      <c r="L41" s="161"/>
+      <c r="L41" s="174"/>
     </row>
     <row r="42" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="164"/>
+      <c r="A42" s="163"/>
       <c r="B42" s="58" t="s">
         <v>126</v>
       </c>
@@ -15597,7 +15597,7 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="163" t="s">
+      <c r="A43" s="162" t="s">
         <v>54</v>
       </c>
       <c r="B43" s="79" t="s">
@@ -15635,33 +15635,33 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="163"/>
+      <c r="A44" s="162"/>
       <c r="B44" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="165">
+      <c r="C44" s="176">
         <v>0.68</v>
       </c>
-      <c r="D44" s="166"/>
-      <c r="E44" s="165">
+      <c r="D44" s="177"/>
+      <c r="E44" s="176">
         <v>0.621</v>
       </c>
-      <c r="F44" s="166"/>
-      <c r="G44" s="160">
+      <c r="F44" s="177"/>
+      <c r="G44" s="172">
         <v>-0.12130000000000001</v>
       </c>
-      <c r="H44" s="167"/>
-      <c r="I44" s="160">
+      <c r="H44" s="173"/>
+      <c r="I44" s="172">
         <v>-0.12609999999999999</v>
       </c>
-      <c r="J44" s="167"/>
-      <c r="K44" s="160">
+      <c r="J44" s="173"/>
+      <c r="K44" s="172">
         <v>-8.4199999999999997E-2</v>
       </c>
-      <c r="L44" s="161"/>
+      <c r="L44" s="174"/>
     </row>
     <row r="45" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="164"/>
+      <c r="A45" s="163"/>
       <c r="B45" s="53" t="s">
         <v>126</v>
       </c>
@@ -15697,73 +15697,73 @@
       </c>
     </row>
     <row r="46" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="162" t="s">
+      <c r="A46" s="161" t="s">
         <v>188</v>
       </c>
       <c r="B46" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="168"/>
-      <c r="D46" s="169"/>
-      <c r="E46" s="168"/>
-      <c r="F46" s="169"/>
-      <c r="G46" s="168"/>
-      <c r="H46" s="169"/>
-      <c r="I46" s="168"/>
-      <c r="J46" s="169"/>
-      <c r="K46" s="168"/>
-      <c r="L46" s="170"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="170"/>
+      <c r="F46" s="171"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="171"/>
+      <c r="I46" s="170"/>
+      <c r="J46" s="171"/>
+      <c r="K46" s="170"/>
+      <c r="L46" s="187"/>
     </row>
     <row r="47" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="163"/>
+      <c r="A47" s="162"/>
       <c r="B47" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="127"/>
-      <c r="D47" s="129"/>
-      <c r="E47" s="171"/>
-      <c r="F47" s="172"/>
-      <c r="G47" s="171"/>
-      <c r="H47" s="172"/>
-      <c r="I47" s="171"/>
-      <c r="J47" s="172"/>
-      <c r="K47" s="171"/>
-      <c r="L47" s="173"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="168"/>
+      <c r="F47" s="169"/>
+      <c r="G47" s="168"/>
+      <c r="H47" s="169"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="169"/>
+      <c r="K47" s="168"/>
+      <c r="L47" s="188"/>
       <c r="T47" s="23"/>
       <c r="U47" s="23"/>
       <c r="V47" s="23"/>
       <c r="W47" s="23"/>
     </row>
     <row r="48" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="163"/>
+      <c r="A48" s="162"/>
       <c r="B48" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="165">
+      <c r="C48" s="176">
         <v>0.53800000000000003</v>
       </c>
-      <c r="D48" s="166"/>
-      <c r="E48" s="165">
+      <c r="D48" s="177"/>
+      <c r="E48" s="176">
         <v>0</v>
       </c>
-      <c r="F48" s="166"/>
-      <c r="G48" s="160">
+      <c r="F48" s="177"/>
+      <c r="G48" s="172">
         <v>0</v>
       </c>
-      <c r="H48" s="167"/>
-      <c r="I48" s="160">
+      <c r="H48" s="173"/>
+      <c r="I48" s="172">
         <v>0</v>
       </c>
-      <c r="J48" s="167"/>
-      <c r="K48" s="160">
+      <c r="J48" s="173"/>
+      <c r="K48" s="172">
         <v>0</v>
       </c>
-      <c r="L48" s="161"/>
+      <c r="L48" s="174"/>
       <c r="M48" s="38"/>
       <c r="R48" s="23"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="164"/>
+      <c r="A49" s="163"/>
       <c r="B49" s="52" t="s">
         <v>126</v>
       </c>
@@ -15780,67 +15780,67 @@
       <c r="M49" s="38"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="162" t="s">
+      <c r="A50" s="161" t="s">
         <v>189</v>
       </c>
       <c r="B50" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="168"/>
-      <c r="D50" s="169"/>
-      <c r="E50" s="168"/>
-      <c r="F50" s="169"/>
-      <c r="G50" s="168"/>
-      <c r="H50" s="169"/>
-      <c r="I50" s="168"/>
-      <c r="J50" s="169"/>
-      <c r="K50" s="168"/>
-      <c r="L50" s="170"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="171"/>
+      <c r="E50" s="170"/>
+      <c r="F50" s="171"/>
+      <c r="G50" s="170"/>
+      <c r="H50" s="171"/>
+      <c r="I50" s="170"/>
+      <c r="J50" s="171"/>
+      <c r="K50" s="170"/>
+      <c r="L50" s="187"/>
     </row>
     <row r="51" spans="1:13" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="163"/>
+      <c r="A51" s="162"/>
       <c r="B51" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="127"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="171"/>
-      <c r="F51" s="172"/>
-      <c r="G51" s="171"/>
-      <c r="H51" s="172"/>
-      <c r="I51" s="171"/>
-      <c r="J51" s="172"/>
-      <c r="K51" s="171"/>
-      <c r="L51" s="173"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="168"/>
+      <c r="F51" s="169"/>
+      <c r="G51" s="168"/>
+      <c r="H51" s="169"/>
+      <c r="I51" s="168"/>
+      <c r="J51" s="169"/>
+      <c r="K51" s="168"/>
+      <c r="L51" s="188"/>
     </row>
     <row r="52" spans="1:13" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="163"/>
+      <c r="A52" s="162"/>
       <c r="B52" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="165">
+      <c r="C52" s="176">
         <v>0.53800000000000003</v>
       </c>
-      <c r="D52" s="166"/>
-      <c r="E52" s="165">
+      <c r="D52" s="177"/>
+      <c r="E52" s="176">
         <v>0</v>
       </c>
-      <c r="F52" s="166"/>
-      <c r="G52" s="160">
+      <c r="F52" s="177"/>
+      <c r="G52" s="172">
         <v>0</v>
       </c>
-      <c r="H52" s="167"/>
-      <c r="I52" s="160">
+      <c r="H52" s="173"/>
+      <c r="I52" s="172">
         <v>0</v>
       </c>
-      <c r="J52" s="167"/>
-      <c r="K52" s="160">
+      <c r="J52" s="173"/>
+      <c r="K52" s="172">
         <v>0</v>
       </c>
-      <c r="L52" s="161"/>
+      <c r="L52" s="174"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="164"/>
+      <c r="A53" s="163"/>
       <c r="B53" s="52" t="s">
         <v>126</v>
       </c>
@@ -15856,7 +15856,7 @@
       <c r="L53" s="55"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="163" t="s">
+      <c r="A54" s="162" t="s">
         <v>191</v>
       </c>
       <c r="B54" s="79" t="s">
@@ -15894,33 +15894,33 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="163"/>
+      <c r="A55" s="162"/>
       <c r="B55" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C55" s="165">
+      <c r="C55" s="176">
         <v>0.67700000000000005</v>
       </c>
-      <c r="D55" s="166"/>
-      <c r="E55" s="165">
+      <c r="D55" s="177"/>
+      <c r="E55" s="176">
         <v>0.67</v>
       </c>
-      <c r="F55" s="166"/>
-      <c r="G55" s="160">
+      <c r="F55" s="177"/>
+      <c r="G55" s="172">
         <v>-9.0399999999999994E-2</v>
       </c>
-      <c r="H55" s="167"/>
-      <c r="I55" s="160">
+      <c r="H55" s="173"/>
+      <c r="I55" s="172">
         <v>-0.12130000000000001</v>
       </c>
-      <c r="J55" s="167"/>
-      <c r="K55" s="160">
+      <c r="J55" s="173"/>
+      <c r="K55" s="172">
         <v>-7.2099999999999997E-2</v>
       </c>
-      <c r="L55" s="161"/>
+      <c r="L55" s="174"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="164"/>
+      <c r="A56" s="163"/>
       <c r="B56" s="53" t="s">
         <v>126</v>
       </c>
@@ -15956,35 +15956,35 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="163" t="s">
+      <c r="A57" s="162" t="s">
         <v>190</v>
       </c>
       <c r="B57" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="165">
+      <c r="C57" s="176">
         <v>0.67500000000000004</v>
       </c>
-      <c r="D57" s="166"/>
-      <c r="E57" s="165">
+      <c r="D57" s="177"/>
+      <c r="E57" s="176">
         <v>0.61099999999999999</v>
       </c>
-      <c r="F57" s="166"/>
-      <c r="G57" s="160">
+      <c r="F57" s="177"/>
+      <c r="G57" s="172">
         <v>-0.16159999999999999</v>
       </c>
-      <c r="H57" s="167"/>
-      <c r="I57" s="160">
+      <c r="H57" s="173"/>
+      <c r="I57" s="172">
         <v>-0.15709999999999999</v>
       </c>
-      <c r="J57" s="167"/>
-      <c r="K57" s="160">
+      <c r="J57" s="173"/>
+      <c r="K57" s="172">
         <v>-0.11890000000000001</v>
       </c>
-      <c r="L57" s="161"/>
+      <c r="L57" s="174"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="164"/>
+      <c r="A58" s="163"/>
       <c r="B58" s="53" t="s">
         <v>126</v>
       </c>
@@ -16022,15 +16022,159 @@
     <row r="59" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="I6:J6"/>
@@ -16055,162 +16199,18 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A35:A38"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/experiments/compas/results/all_results.xlsx
+++ b/experiments/compas/results/all_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\compas\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171CCB01-2EAA-4D75-A7C4-463FD2409C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63CCCDB-B10A-495D-AFA9-AEA673D55246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="707" activeTab="6" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="707" activeTab="3" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="compas-cfl" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="180">
   <si>
     <t>Model</t>
   </si>
@@ -302,18 +302,6 @@
     <t>Accuracy Global</t>
   </si>
   <si>
-    <t>TP Global</t>
-  </si>
-  <si>
-    <t>FP Global</t>
-  </si>
-  <si>
-    <t>TN Global</t>
-  </si>
-  <si>
-    <t>FN Global</t>
-  </si>
-  <si>
     <t>F1 Global</t>
   </si>
   <si>
@@ -395,12 +383,6 @@
     <t>Centralized</t>
   </si>
   <si>
-    <t>LR - HN + dp</t>
-  </si>
-  <si>
-    <t>NN - HN + dp</t>
-  </si>
-  <si>
     <t>LR + same dp (50)</t>
   </si>
   <si>
@@ -413,39 +395,12 @@
     <t>NN + same dp (100)</t>
   </si>
   <si>
-    <t>1: 40, 2: 2</t>
-  </si>
-  <si>
     <t>clients: .003</t>
   </si>
   <si>
-    <t>client: 25, global: 5</t>
-  </si>
-  <si>
-    <t>clients:50, global:5</t>
-  </si>
-  <si>
-    <t>clients: 50, global: 5</t>
-  </si>
-  <si>
-    <t>clients: 20, global: 5</t>
-  </si>
-  <si>
-    <t>1: 45, 2: 5</t>
-  </si>
-  <si>
     <t>1: .007, 2: .002</t>
   </si>
   <si>
-    <t>1: 11, 2: .25</t>
-  </si>
-  <si>
-    <t>1: eo(45), 2: dp(2)</t>
-  </si>
-  <si>
-    <t>1: dp(40), 2: eo(.25)</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPD </t>
   </si>
   <si>
@@ -552,6 +507,81 @@
   </si>
   <si>
     <t>10 min 4 sec</t>
+  </si>
+  <si>
+    <t>h: 1e-4, c: 5e-4</t>
+  </si>
+  <si>
+    <t>.7368</t>
+  </si>
+  <si>
+    <t>.5455</t>
+  </si>
+  <si>
+    <t>.6824</t>
+  </si>
+  <si>
+    <t>7 min 48 sec</t>
+  </si>
+  <si>
+    <t>LR + fair</t>
+  </si>
+  <si>
+    <t>NN + fair</t>
+  </si>
+  <si>
+    <t>LR - HN + fair</t>
+  </si>
+  <si>
+    <t>NN - HN + fair</t>
+  </si>
+  <si>
+    <t>dp:50, eo:75</t>
+  </si>
+  <si>
+    <t>.7042</t>
+  </si>
+  <si>
+    <t>.7404</t>
+  </si>
+  <si>
+    <t>7 min 49 sec</t>
+  </si>
+  <si>
+    <t>.7642</t>
+  </si>
+  <si>
+    <t>.7010</t>
+  </si>
+  <si>
+    <t>.7319</t>
+  </si>
+  <si>
+    <t>6 min 34 sec</t>
+  </si>
+  <si>
+    <t>.6941</t>
+  </si>
+  <si>
+    <t>.7382</t>
+  </si>
+  <si>
+    <t>6 min 55 sec</t>
+  </si>
+  <si>
+    <t>.7692</t>
+  </si>
+  <si>
+    <t>.6885</t>
+  </si>
+  <si>
+    <t>7 min 30 sec</t>
+  </si>
+  <si>
+    <t>Need to give update weight? Ie bigger local update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more weight? </t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1346,9 +1376,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1400,9 +1427,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1472,9 +1496,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1490,21 +1511,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1520,10 +1577,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1533,18 +1644,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1553,26 +1652,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1583,13 +1670,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1598,125 +1706,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2066,72 +2108,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="98" t="s">
+      <c r="C1" s="107"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="105" t="s">
+      <c r="J1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="106"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="100" t="s">
+      <c r="K1" s="115"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="101"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="100" t="s">
+      <c r="N1" s="107"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="100" t="s">
+      <c r="Q1" s="107"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="101"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="100" t="s">
+      <c r="T1" s="107"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="101"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="97" t="s">
+      <c r="W1" s="107"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="103" t="s">
+      <c r="Z1" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="103" t="s">
+      <c r="AA1" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="103" t="s">
+      <c r="AB1" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="97" t="s">
+      <c r="AC1" s="109" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="109"/>
+      <c r="A2" s="105"/>
       <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
@@ -2141,11 +2183,11 @@
       <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
       <c r="J2" s="12" t="s">
         <v>17</v>
       </c>
@@ -2191,11 +2233,11 @@
       <c r="X2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="97"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="109"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -2484,7 +2526,7 @@
         <v>28.5</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>11</v>
@@ -2744,6 +2786,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="S1:U1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="G1:G2"/>
@@ -2760,7 +2803,6 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2817,114 +2859,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="100" t="s">
+      <c r="C1" s="107"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="101"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="98" t="s">
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="K1" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="105" t="s">
+      <c r="L1" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="106"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="105" t="s">
+      <c r="M1" s="115"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="100" t="s">
+      <c r="P1" s="115"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="101"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="100" t="s">
+      <c r="S1" s="107"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="101"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="100" t="s">
+      <c r="V1" s="107"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="100" t="s">
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="101"/>
-      <c r="AC1" s="102"/>
-      <c r="AD1" s="100" t="s">
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="101"/>
-      <c r="AF1" s="102"/>
-      <c r="AG1" s="100" t="s">
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="102"/>
-      <c r="AJ1" s="100" t="s">
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="101"/>
-      <c r="AL1" s="102"/>
-      <c r="AM1" s="100" t="s">
+      <c r="AK1" s="107"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" s="101"/>
-      <c r="AO1" s="102"/>
-      <c r="AP1" s="97" t="s">
+      <c r="AN1" s="107"/>
+      <c r="AO1" s="108"/>
+      <c r="AP1" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="97" t="s">
+      <c r="AQ1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="103" t="s">
+      <c r="AR1" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" s="103" t="s">
+      <c r="AS1" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" s="103" t="s">
+      <c r="AT1" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" s="103" t="s">
+      <c r="AU1" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" s="103" t="s">
+      <c r="AV1" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" s="103" t="s">
+      <c r="AW1" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" s="97" t="s">
+      <c r="AX1" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" s="97" t="s">
+      <c r="AY1" s="109" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A2" s="109"/>
+      <c r="A2" s="105"/>
       <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
@@ -2943,10 +2985,10 @@
       <c r="G2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="99"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
       <c r="L2" s="12" t="s">
         <v>17</v>
       </c>
@@ -3037,16 +3079,16 @@
       <c r="AO2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="104"/>
-      <c r="AS2" s="104"/>
-      <c r="AT2" s="104"/>
-      <c r="AU2" s="104"/>
-      <c r="AV2" s="104"/>
-      <c r="AW2" s="104"/>
-      <c r="AX2" s="97"/>
-      <c r="AY2" s="97"/>
+      <c r="AP2" s="109"/>
+      <c r="AQ2" s="109"/>
+      <c r="AR2" s="113"/>
+      <c r="AS2" s="113"/>
+      <c r="AT2" s="113"/>
+      <c r="AU2" s="113"/>
+      <c r="AV2" s="113"/>
+      <c r="AW2" s="113"/>
+      <c r="AX2" s="109"/>
+      <c r="AY2" s="109"/>
     </row>
     <row r="3" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -3779,159 +3821,159 @@
       <c r="AY8" s="19"/>
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="100" t="s">
+      <c r="C11" s="107"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="100" t="s">
+      <c r="F11" s="107"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="98" t="s">
+      <c r="I11" s="107"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="97" t="s">
+      <c r="L11" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="97" t="s">
+      <c r="M11" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="97" t="s">
+      <c r="N11" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="105" t="s">
+      <c r="O11" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="107"/>
-      <c r="R11" s="105" t="s">
+      <c r="P11" s="115"/>
+      <c r="Q11" s="116"/>
+      <c r="R11" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="106"/>
-      <c r="T11" s="107"/>
-      <c r="U11" s="105" t="s">
+      <c r="S11" s="115"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="V11" s="106"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="100" t="s">
+      <c r="V11" s="115"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="101"/>
-      <c r="Z11" s="102"/>
-      <c r="AA11" s="100" t="s">
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="108"/>
+      <c r="AA11" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="AB11" s="101"/>
-      <c r="AC11" s="102"/>
-      <c r="AD11" s="100" t="s">
+      <c r="AB11" s="107"/>
+      <c r="AC11" s="108"/>
+      <c r="AD11" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="AE11" s="101"/>
-      <c r="AF11" s="102"/>
-      <c r="AG11" s="100" t="s">
+      <c r="AE11" s="107"/>
+      <c r="AF11" s="108"/>
+      <c r="AG11" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="AH11" s="101"/>
-      <c r="AI11" s="102"/>
-      <c r="AJ11" s="100" t="s">
+      <c r="AH11" s="107"/>
+      <c r="AI11" s="108"/>
+      <c r="AJ11" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="AK11" s="101"/>
-      <c r="AL11" s="102"/>
-      <c r="AM11" s="100" t="s">
+      <c r="AK11" s="107"/>
+      <c r="AL11" s="108"/>
+      <c r="AM11" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="AN11" s="101"/>
-      <c r="AO11" s="102"/>
-      <c r="AP11" s="100" t="s">
+      <c r="AN11" s="107"/>
+      <c r="AO11" s="108"/>
+      <c r="AP11" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="AQ11" s="101"/>
-      <c r="AR11" s="102"/>
-      <c r="AS11" s="100" t="s">
+      <c r="AQ11" s="107"/>
+      <c r="AR11" s="108"/>
+      <c r="AS11" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="AT11" s="101"/>
-      <c r="AU11" s="102"/>
-      <c r="AV11" s="100" t="s">
+      <c r="AT11" s="107"/>
+      <c r="AU11" s="108"/>
+      <c r="AV11" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="AW11" s="101"/>
-      <c r="AX11" s="102"/>
-      <c r="AY11" s="100" t="s">
+      <c r="AW11" s="107"/>
+      <c r="AX11" s="108"/>
+      <c r="AY11" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="AZ11" s="101"/>
-      <c r="BA11" s="102"/>
-      <c r="BB11" s="100" t="s">
+      <c r="AZ11" s="107"/>
+      <c r="BA11" s="108"/>
+      <c r="BB11" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="BC11" s="101"/>
-      <c r="BD11" s="102"/>
-      <c r="BE11" s="100" t="s">
+      <c r="BC11" s="107"/>
+      <c r="BD11" s="108"/>
+      <c r="BE11" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="BF11" s="101"/>
-      <c r="BG11" s="102"/>
-      <c r="BH11" s="97" t="s">
+      <c r="BF11" s="107"/>
+      <c r="BG11" s="108"/>
+      <c r="BH11" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="BI11" s="97" t="s">
+      <c r="BI11" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="BJ11" s="98" t="s">
+      <c r="BJ11" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="BK11" s="103" t="s">
+      <c r="BK11" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="BL11" s="103" t="s">
+      <c r="BL11" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="BM11" s="103" t="s">
+      <c r="BM11" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="BN11" s="103" t="s">
+      <c r="BN11" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="BO11" s="103" t="s">
+      <c r="BO11" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="BP11" s="103" t="s">
+      <c r="BP11" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="BQ11" s="103" t="s">
+      <c r="BQ11" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="BR11" s="103" t="s">
+      <c r="BR11" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="BS11" s="103" t="s">
+      <c r="BS11" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="BT11" s="97" t="s">
+      <c r="BT11" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="BU11" s="97" t="s">
+      <c r="BU11" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="BV11" s="97" t="s">
+      <c r="BV11" s="109" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
+      <c r="A12" s="105"/>
       <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
@@ -3959,10 +4001,10 @@
       <c r="J12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="99"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
       <c r="O12" s="12" t="s">
         <v>17</v>
       </c>
@@ -4098,21 +4140,21 @@
       <c r="BG12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="BH12" s="97"/>
-      <c r="BI12" s="97"/>
-      <c r="BJ12" s="99"/>
-      <c r="BK12" s="104"/>
-      <c r="BL12" s="104"/>
-      <c r="BM12" s="104"/>
-      <c r="BN12" s="104"/>
-      <c r="BO12" s="104"/>
-      <c r="BP12" s="104"/>
-      <c r="BQ12" s="104"/>
-      <c r="BR12" s="104"/>
-      <c r="BS12" s="104"/>
-      <c r="BT12" s="97"/>
-      <c r="BU12" s="97"/>
-      <c r="BV12" s="97"/>
+      <c r="BH12" s="109"/>
+      <c r="BI12" s="109"/>
+      <c r="BJ12" s="111"/>
+      <c r="BK12" s="113"/>
+      <c r="BL12" s="113"/>
+      <c r="BM12" s="113"/>
+      <c r="BN12" s="113"/>
+      <c r="BO12" s="113"/>
+      <c r="BP12" s="113"/>
+      <c r="BQ12" s="113"/>
+      <c r="BR12" s="113"/>
+      <c r="BS12" s="113"/>
+      <c r="BT12" s="109"/>
+      <c r="BU12" s="109"/>
+      <c r="BV12" s="109"/>
     </row>
     <row r="13" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
@@ -5212,6 +5254,55 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="BV11:BV12"/>
+    <mergeCell ref="BK11:BK12"/>
+    <mergeCell ref="BL11:BL12"/>
+    <mergeCell ref="BM11:BM12"/>
+    <mergeCell ref="BN11:BN12"/>
+    <mergeCell ref="BO11:BO12"/>
+    <mergeCell ref="BP11:BP12"/>
+    <mergeCell ref="BQ11:BQ12"/>
+    <mergeCell ref="BR11:BR12"/>
+    <mergeCell ref="BS11:BS12"/>
+    <mergeCell ref="BT11:BT12"/>
+    <mergeCell ref="BU11:BU12"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="BJ11:BJ12"/>
+    <mergeCell ref="AG11:AI11"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="AM11:AO11"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="AS11:AU11"/>
+    <mergeCell ref="AV11:AX11"/>
+    <mergeCell ref="AY11:BA11"/>
+    <mergeCell ref="BB11:BD11"/>
+    <mergeCell ref="BE11:BG11"/>
+    <mergeCell ref="BH11:BH12"/>
+    <mergeCell ref="BI11:BI12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="AY1:AY2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="AP1:AP2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AS1:AS2"/>
+    <mergeCell ref="AT1:AT2"/>
+    <mergeCell ref="AU1:AU2"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:G11"/>
@@ -5228,55 +5319,6 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="AW1:AW2"/>
-    <mergeCell ref="AX1:AX2"/>
-    <mergeCell ref="AY1:AY2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="AP1:AP2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AS1:AS2"/>
-    <mergeCell ref="AT1:AT2"/>
-    <mergeCell ref="AU1:AU2"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="BJ11:BJ12"/>
-    <mergeCell ref="AG11:AI11"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="AM11:AO11"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="AS11:AU11"/>
-    <mergeCell ref="AV11:AX11"/>
-    <mergeCell ref="AY11:BA11"/>
-    <mergeCell ref="BB11:BD11"/>
-    <mergeCell ref="BE11:BG11"/>
-    <mergeCell ref="BH11:BH12"/>
-    <mergeCell ref="BI11:BI12"/>
-    <mergeCell ref="BV11:BV12"/>
-    <mergeCell ref="BK11:BK12"/>
-    <mergeCell ref="BL11:BL12"/>
-    <mergeCell ref="BM11:BM12"/>
-    <mergeCell ref="BN11:BN12"/>
-    <mergeCell ref="BO11:BO12"/>
-    <mergeCell ref="BP11:BP12"/>
-    <mergeCell ref="BQ11:BQ12"/>
-    <mergeCell ref="BR11:BR12"/>
-    <mergeCell ref="BS11:BS12"/>
-    <mergeCell ref="BT11:BT12"/>
-    <mergeCell ref="BU11:BU12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -5288,215 +5330,66 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:BV23"/>
+  <dimension ref="A1:BV27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="3" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="3" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="3" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="59" width="6" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="100" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="101"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="100" t="s">
+      <c r="B1" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="101"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="98" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="97" t="s">
+      <c r="C1" s="107"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="106"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="105" t="s">
+      <c r="F1" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="V1" s="106"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" s="101"/>
-      <c r="AC1" s="102"/>
-      <c r="AD1" s="100" t="s">
+      <c r="G1" s="107"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" s="101"/>
-      <c r="AF1" s="102"/>
-      <c r="AG1" s="100" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="102"/>
-      <c r="AJ1" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK1" s="101"/>
-      <c r="AL1" s="102"/>
-      <c r="AM1" s="100" t="s">
+      <c r="J1" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="AN1" s="101"/>
-      <c r="AO1" s="102"/>
-      <c r="AP1" s="100" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ1" s="101"/>
-      <c r="AR1" s="102"/>
-      <c r="AS1" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT1" s="101"/>
-      <c r="AU1" s="102"/>
-      <c r="AV1" s="100" t="s">
+      <c r="K1" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="AW1" s="101"/>
-      <c r="AX1" s="102"/>
-      <c r="AY1" s="100" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ1" s="101"/>
-      <c r="BA1" s="102"/>
-      <c r="BB1" s="100" t="s">
-        <v>35</v>
-      </c>
-      <c r="BC1" s="101"/>
-      <c r="BD1" s="102"/>
-      <c r="BE1" s="100" t="s">
+      <c r="L1" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="BF1" s="101"/>
-      <c r="BG1" s="102"/>
-      <c r="BH1" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI1" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="BJ1" s="98" t="s">
+      <c r="M1" s="109" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="BK1" s="103" t="s">
-        <v>38</v>
-      </c>
-      <c r="BL1" s="103" t="s">
-        <v>39</v>
-      </c>
-      <c r="BM1" s="103" t="s">
-        <v>92</v>
-      </c>
-      <c r="BN1" s="103" t="s">
-        <v>40</v>
-      </c>
-      <c r="BO1" s="103" t="s">
-        <v>41</v>
-      </c>
-      <c r="BP1" s="103" t="s">
-        <v>93</v>
-      </c>
-      <c r="BQ1" s="103" t="s">
-        <v>42</v>
-      </c>
-      <c r="BR1" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="BS1" s="103" t="s">
-        <v>94</v>
-      </c>
-      <c r="BT1" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="BU1" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="BV1" s="97" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A2" s="109"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="105"/>
       <c r="B2" s="13" t="s">
         <v>17</v>
       </c>
@@ -5506,2146 +5399,287 @@
       <c r="D2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="109"/>
+      <c r="F2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="99"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AT2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AZ2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="BA2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="BB2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="BC2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="BD2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="BE2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="BF2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="BH2" s="97"/>
-      <c r="BI2" s="97"/>
-      <c r="BJ2" s="99"/>
-      <c r="BK2" s="104"/>
-      <c r="BL2" s="104"/>
-      <c r="BM2" s="104"/>
-      <c r="BN2" s="104"/>
-      <c r="BO2" s="104"/>
-      <c r="BP2" s="104"/>
-      <c r="BQ2" s="104"/>
-      <c r="BR2" s="104"/>
-      <c r="BS2" s="104"/>
-      <c r="BT2" s="97"/>
-      <c r="BU2" s="97"/>
-      <c r="BV2" s="97"/>
-    </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="I2" s="111"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="O3" s="1">
-        <v>104</v>
-      </c>
-      <c r="P3" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>99</v>
-      </c>
-      <c r="R3" s="1">
-        <v>44</v>
-      </c>
-      <c r="S3" s="1">
-        <v>8</v>
-      </c>
-      <c r="T3" s="1">
-        <v>36</v>
-      </c>
-      <c r="U3" s="1">
-        <v>160</v>
-      </c>
-      <c r="V3" s="1">
-        <v>12</v>
-      </c>
-      <c r="W3" s="1">
-        <v>148</v>
-      </c>
-      <c r="X3" s="1">
-        <v>39</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>38</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>20</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>16</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>76</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>9</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>67</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>92</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>60</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>172</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>43</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>129</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>247</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>71</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>176</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>65</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>14</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>51</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>64</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>14</v>
-      </c>
-      <c r="AU3" s="1">
-        <v>50</v>
-      </c>
-      <c r="AV3" s="1">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AW3" s="1">
-        <v>29</v>
-      </c>
-      <c r="AX3" s="1">
-        <v>88</v>
-      </c>
-      <c r="AY3" s="1">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="AZ3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BA3" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="BB3" s="1">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="BC3" s="1">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="BD3" s="1">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="BE3" s="1">
-        <v>0.624</v>
-      </c>
-      <c r="BF3" s="1">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="BG3" s="1">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="BH3" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="BI3" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="BJ3" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="BK3" s="10">
-        <v>-0.39679999999999999</v>
-      </c>
-      <c r="BL3" s="10">
-        <v>-5.5E-2</v>
-      </c>
-      <c r="BM3" s="10">
-        <v>-0.33439999999999998</v>
-      </c>
-      <c r="BN3" s="10">
-        <v>-0.437</v>
-      </c>
-      <c r="BO3" s="10">
-        <v>-5.1200000000000002E-2</v>
-      </c>
-      <c r="BP3" s="10">
-        <v>-0.27529999999999999</v>
-      </c>
-      <c r="BQ3" s="10">
-        <v>-0.37709999999999999</v>
-      </c>
-      <c r="BR3" s="10">
-        <v>-4.0099999999999997E-2</v>
-      </c>
-      <c r="BS3" s="10">
-        <v>-0.24887999999999999</v>
-      </c>
-      <c r="BT3" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="BU3" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="BV3" s="5">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="C4" s="39">
-        <v>0.75</v>
-      </c>
-      <c r="D4" s="39">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="E4" s="39">
-        <v>0.72</v>
-      </c>
-      <c r="F4" s="39">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="G4" s="39">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="H4" s="39">
-        <v>0.69</v>
-      </c>
-      <c r="I4" s="39">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="J4" s="39">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="M4" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="O4" s="39">
-        <v>120</v>
-      </c>
-      <c r="P4" s="39">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="39">
-        <v>111</v>
-      </c>
-      <c r="R4" s="39">
-        <v>42</v>
-      </c>
-      <c r="S4" s="39">
-        <v>7</v>
-      </c>
-      <c r="T4" s="39">
-        <v>35</v>
-      </c>
-      <c r="U4" s="39">
-        <v>185</v>
-      </c>
-      <c r="V4" s="39">
-        <v>20</v>
-      </c>
-      <c r="W4" s="39">
-        <v>165</v>
-      </c>
-      <c r="X4" s="39">
-        <v>49</v>
-      </c>
-      <c r="Y4" s="39">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="39">
-        <v>46</v>
-      </c>
-      <c r="AA4" s="39">
-        <v>18</v>
-      </c>
-      <c r="AB4" s="39">
-        <v>6</v>
-      </c>
-      <c r="AC4" s="39">
-        <v>12</v>
-      </c>
-      <c r="AD4" s="39">
-        <v>94</v>
-      </c>
-      <c r="AE4" s="39">
-        <v>16</v>
-      </c>
-      <c r="AF4" s="39">
-        <v>78</v>
-      </c>
-      <c r="AG4" s="39">
-        <v>82</v>
-      </c>
-      <c r="AH4" s="39">
-        <v>30</v>
-      </c>
-      <c r="AI4" s="39">
-        <v>52</v>
-      </c>
-      <c r="AJ4" s="39">
-        <v>174</v>
-      </c>
-      <c r="AK4" s="39">
-        <v>41</v>
-      </c>
-      <c r="AL4" s="39">
-        <v>133</v>
-      </c>
-      <c r="AM4" s="39">
-        <v>229</v>
-      </c>
-      <c r="AN4" s="39">
-        <v>64</v>
-      </c>
-      <c r="AO4" s="39">
-        <v>165</v>
-      </c>
-      <c r="AP4" s="39">
-        <v>49</v>
-      </c>
-      <c r="AQ4" s="39">
-        <v>10</v>
-      </c>
-      <c r="AR4" s="39">
-        <v>39</v>
-      </c>
-      <c r="AS4" s="39">
-        <v>66</v>
-      </c>
-      <c r="AT4" s="39">
-        <v>15</v>
-      </c>
-      <c r="AU4" s="39">
-        <v>51</v>
-      </c>
-      <c r="AV4" s="39">
-        <v>92</v>
-      </c>
-      <c r="AW4" s="39">
-        <v>21</v>
-      </c>
-      <c r="AX4" s="39">
-        <v>71</v>
-      </c>
-      <c r="AY4" s="39">
-        <v>0.71</v>
-      </c>
-      <c r="AZ4" s="39">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="BA4" s="39">
-        <v>0.72299999999999998</v>
-      </c>
-      <c r="BB4" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="BC4" s="39">
-        <v>0.4</v>
-      </c>
-      <c r="BD4" s="39">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="BE4" s="39">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="BF4" s="39">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="BG4" s="39">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="BH4" s="39">
-        <v>0.66</v>
-      </c>
-      <c r="BI4" s="39">
-        <v>0.67</v>
-      </c>
-      <c r="BJ4" s="39">
-        <v>0.68</v>
-      </c>
-      <c r="BK4" s="69">
-        <v>-0.26629999999999998</v>
-      </c>
-      <c r="BL4" s="69">
-        <v>-8.8800000000000004E-2</v>
-      </c>
-      <c r="BM4" s="69">
-        <v>-0.21329999999999999</v>
-      </c>
-      <c r="BN4" s="69">
-        <v>-0.40229999999999999</v>
-      </c>
-      <c r="BO4" s="69">
-        <v>-1.5100000000000001E-2</v>
-      </c>
-      <c r="BP4" s="69">
-        <v>-0.20979999999999999</v>
-      </c>
-      <c r="BQ4" s="69">
-        <v>-0.32240000000000002</v>
-      </c>
-      <c r="BR4" s="69">
-        <v>-2.1899999999999999E-2</v>
-      </c>
-      <c r="BS4" s="69">
-        <v>-0.16619999999999999</v>
-      </c>
-      <c r="BT4" s="39">
-        <v>5.52</v>
-      </c>
-      <c r="BU4" s="39">
-        <v>5.27</v>
-      </c>
-      <c r="BV4" s="6">
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="18">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="C5" s="18">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="E5" s="18">
-        <v>0.71</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="I5" s="18">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="J5" s="18">
-        <v>0.67</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
       <c r="O5" s="18">
-        <v>121</v>
-      </c>
-      <c r="P5" s="18">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="18">
-        <v>109</v>
-      </c>
-      <c r="R5" s="18">
-        <v>34</v>
-      </c>
-      <c r="S5" s="18">
-        <v>5</v>
-      </c>
-      <c r="T5" s="18">
-        <v>29</v>
-      </c>
-      <c r="U5" s="18">
-        <v>166</v>
-      </c>
-      <c r="V5" s="18">
-        <v>21</v>
-      </c>
-      <c r="W5" s="18">
-        <v>145</v>
-      </c>
-      <c r="X5" s="18">
-        <v>74</v>
-      </c>
-      <c r="Y5" s="18">
-        <v>17</v>
-      </c>
-      <c r="Z5" s="18">
-        <v>57</v>
-      </c>
-      <c r="AA5" s="18">
-        <v>13</v>
-      </c>
-      <c r="AB5" s="18">
-        <v>4</v>
-      </c>
-      <c r="AC5" s="18">
-        <v>9</v>
-      </c>
-      <c r="AD5" s="18">
-        <v>90</v>
-      </c>
-      <c r="AE5" s="18">
-        <v>23</v>
-      </c>
-      <c r="AF5" s="18">
-        <v>67</v>
-      </c>
-      <c r="AG5" s="18">
-        <v>57</v>
-      </c>
-      <c r="AH5" s="18">
-        <v>16</v>
-      </c>
-      <c r="AI5" s="18">
-        <v>41</v>
-      </c>
-      <c r="AJ5" s="18">
-        <v>179</v>
-      </c>
-      <c r="AK5" s="18">
-        <v>43</v>
-      </c>
-      <c r="AL5" s="18">
-        <v>136</v>
-      </c>
-      <c r="AM5" s="18">
-        <v>233</v>
-      </c>
-      <c r="AN5" s="18">
-        <v>57</v>
-      </c>
-      <c r="AO5" s="18">
-        <v>176</v>
-      </c>
-      <c r="AP5" s="18">
-        <v>48</v>
-      </c>
-      <c r="AQ5" s="18">
-        <v>7</v>
-      </c>
-      <c r="AR5" s="18">
-        <v>41</v>
-      </c>
-      <c r="AS5" s="18">
-        <v>74</v>
-      </c>
-      <c r="AT5" s="18">
-        <v>17</v>
-      </c>
-      <c r="AU5" s="18">
-        <v>57</v>
-      </c>
-      <c r="AV5" s="18">
-        <v>111</v>
-      </c>
-      <c r="AW5" s="18">
-        <v>20</v>
-      </c>
-      <c r="AX5" s="18">
-        <v>91</v>
-      </c>
-      <c r="AY5" s="18">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="AZ5" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="BA5" s="18">
-        <v>0.69</v>
-      </c>
-      <c r="BB5" s="18">
-        <v>0.439</v>
-      </c>
-      <c r="BC5" s="18">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="BD5" s="18">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="BE5" s="18">
-        <v>0.623</v>
-      </c>
-      <c r="BF5" s="18">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="BG5" s="18">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="BH5" s="18">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="BI5" s="18">
-        <v>0.63</v>
-      </c>
-      <c r="BJ5" s="18">
-        <v>0.65</v>
-      </c>
-      <c r="BK5" s="18">
-        <v>-9.5100000000000004E-2</v>
-      </c>
-      <c r="BL5" s="18">
-        <v>-0.1099</v>
-      </c>
-      <c r="BM5" s="18">
-        <v>-0.1022</v>
-      </c>
-      <c r="BN5" s="18">
-        <v>-0.11169999999999999</v>
-      </c>
-      <c r="BO5" s="18">
-        <v>-3.4099999999999998E-2</v>
-      </c>
-      <c r="BP5" s="18">
-        <v>-7.9000000000000001E-2</v>
-      </c>
-      <c r="BQ5" s="18">
-        <v>-8.0799999999999997E-2</v>
-      </c>
-      <c r="BR5" s="18">
-        <v>-4.3400000000000001E-2</v>
-      </c>
-      <c r="BS5" s="18">
-        <v>-4.5199999999999997E-2</v>
-      </c>
-      <c r="BT5" s="18">
-        <v>0.99</v>
-      </c>
-      <c r="BU5" s="18">
-        <v>0.92</v>
-      </c>
-      <c r="BV5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="50">
-        <v>0.61</v>
-      </c>
-      <c r="C6" s="19">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="D6" s="19">
-        <v>0.63700000000000001</v>
-      </c>
-      <c r="E6" s="50">
-        <v>0.72299999999999998</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0.71</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="H6" s="19">
-        <v>0.68</v>
-      </c>
-      <c r="I6" s="19">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="J6" s="19">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="M6" s="19">
-        <v>0.45</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>127</v>
-      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
       <c r="O6" s="19">
-        <v>147</v>
-      </c>
-      <c r="P6" s="19">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="19">
-        <v>130</v>
-      </c>
-      <c r="R6" s="19">
-        <v>43</v>
-      </c>
-      <c r="S6" s="19">
-        <v>8</v>
-      </c>
-      <c r="T6" s="19">
-        <v>35</v>
-      </c>
-      <c r="U6" s="19">
-        <v>157</v>
-      </c>
-      <c r="V6" s="19">
-        <v>19</v>
-      </c>
-      <c r="W6" s="19">
-        <v>138</v>
-      </c>
-      <c r="X6" s="19">
-        <v>95</v>
-      </c>
-      <c r="Y6" s="19">
-        <v>25</v>
-      </c>
-      <c r="Z6" s="19">
-        <v>70</v>
-      </c>
-      <c r="AA6" s="19">
-        <v>18</v>
-      </c>
-      <c r="AB6" s="19">
-        <v>6</v>
-      </c>
-      <c r="AC6" s="19">
-        <v>12</v>
-      </c>
-      <c r="AD6" s="19">
-        <v>72</v>
-      </c>
-      <c r="AE6" s="19">
-        <v>15</v>
-      </c>
-      <c r="AF6" s="19">
-        <v>57</v>
-      </c>
-      <c r="AG6" s="19">
-        <v>36</v>
-      </c>
-      <c r="AH6" s="19">
-        <v>8</v>
-      </c>
-      <c r="AI6" s="19">
-        <v>28</v>
-      </c>
-      <c r="AJ6" s="19">
-        <v>174</v>
-      </c>
-      <c r="AK6" s="19">
-        <v>41</v>
-      </c>
-      <c r="AL6" s="19">
-        <v>133</v>
-      </c>
-      <c r="AM6" s="19">
-        <v>251</v>
-      </c>
-      <c r="AN6" s="19">
-        <v>65</v>
-      </c>
-      <c r="AO6" s="19">
-        <v>186</v>
-      </c>
-      <c r="AP6" s="19">
-        <v>22</v>
-      </c>
-      <c r="AQ6" s="19">
-        <v>2</v>
-      </c>
-      <c r="AR6" s="19">
-        <v>20</v>
-      </c>
-      <c r="AS6" s="19">
-        <v>65</v>
-      </c>
-      <c r="AT6" s="19">
-        <v>14</v>
-      </c>
-      <c r="AU6" s="19">
-        <v>51</v>
-      </c>
-      <c r="AV6" s="19">
-        <v>120</v>
-      </c>
-      <c r="AW6" s="19">
-        <v>22</v>
-      </c>
-      <c r="AX6" s="19">
-        <v>98</v>
-      </c>
-      <c r="AY6" s="19">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="AZ6" s="19">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="BA6" s="19">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="BB6" s="19">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="BC6" s="19">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="BD6" s="19">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="BE6" s="19">
-        <v>0.621</v>
-      </c>
-      <c r="BF6" s="19">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="BG6" s="19">
-        <v>0.64</v>
-      </c>
-      <c r="BH6" s="19">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="BI6" s="19">
-        <v>0.65</v>
-      </c>
-      <c r="BJ6" s="19">
-        <v>0.63</v>
-      </c>
-      <c r="BK6" s="19">
-        <v>2.81E-2</v>
-      </c>
-      <c r="BL6" s="19">
-        <v>-4.3299999999999998E-2</v>
-      </c>
-      <c r="BM6" s="19">
-        <v>-0.12130000000000001</v>
-      </c>
-      <c r="BN6" s="19">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="BO6" s="19">
-        <v>-5.9999999999999995E-4</v>
-      </c>
-      <c r="BP6" s="30">
-        <v>-0.12609999999999999</v>
-      </c>
-      <c r="BQ6" s="19">
-        <v>3.5700000000000003E-2</v>
-      </c>
-      <c r="BR6" s="19">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="BS6" s="19">
-        <v>-8.4199999999999997E-2</v>
-      </c>
-      <c r="BT6" s="19">
-        <v>6</v>
-      </c>
-      <c r="BU6" s="19">
-        <v>6.16</v>
-      </c>
-      <c r="BV6" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="C7" s="18">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0.629</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="I7" s="18">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="J7" s="18">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="O7" s="18">
-        <v>158</v>
-      </c>
-      <c r="P7" s="18">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>140</v>
-      </c>
-      <c r="R7" s="18">
-        <v>28</v>
-      </c>
-      <c r="S7" s="18">
-        <v>4</v>
-      </c>
-      <c r="T7" s="18">
-        <v>24</v>
-      </c>
-      <c r="U7" s="18">
-        <v>177</v>
-      </c>
-      <c r="V7" s="18">
-        <v>21</v>
-      </c>
-      <c r="W7" s="18">
-        <v>156</v>
-      </c>
-      <c r="X7" s="18">
-        <v>109</v>
-      </c>
-      <c r="Y7" s="18">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="18">
-        <v>82</v>
-      </c>
-      <c r="AA7" s="18">
-        <v>10</v>
-      </c>
-      <c r="AB7" s="18">
-        <v>3</v>
-      </c>
-      <c r="AC7" s="18">
-        <v>7</v>
-      </c>
-      <c r="AD7" s="18">
-        <v>99</v>
-      </c>
-      <c r="AE7" s="18">
-        <v>23</v>
-      </c>
-      <c r="AF7" s="18">
-        <v>76</v>
-      </c>
-      <c r="AG7" s="18">
-        <v>22</v>
-      </c>
-      <c r="AH7" s="18">
-        <v>6</v>
-      </c>
-      <c r="AI7" s="18">
-        <v>16</v>
-      </c>
-      <c r="AJ7" s="18">
-        <v>182</v>
-      </c>
-      <c r="AK7" s="18">
-        <v>44</v>
-      </c>
-      <c r="AL7" s="18">
-        <v>138</v>
-      </c>
-      <c r="AM7" s="18">
-        <v>224</v>
-      </c>
-      <c r="AN7" s="18">
-        <v>57</v>
-      </c>
-      <c r="AO7" s="18">
-        <v>167</v>
-      </c>
-      <c r="AP7" s="18">
-        <v>11</v>
-      </c>
-      <c r="AQ7" s="18">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="18">
-        <v>10</v>
-      </c>
-      <c r="AS7" s="18">
-        <v>80</v>
-      </c>
-      <c r="AT7" s="18">
-        <v>18</v>
-      </c>
-      <c r="AU7" s="18">
-        <v>62</v>
-      </c>
-      <c r="AV7" s="18">
-        <v>100</v>
-      </c>
-      <c r="AW7" s="18">
-        <v>20</v>
-      </c>
-      <c r="AX7" s="18">
-        <v>80</v>
-      </c>
-      <c r="AY7" s="18">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="AZ7" s="18">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="BA7" s="18">
-        <v>0.753</v>
-      </c>
-      <c r="BB7" s="18">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="BC7" s="18">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="BD7" s="18">
-        <v>0.41</v>
-      </c>
-      <c r="BE7" s="18">
-        <v>0.64</v>
-      </c>
-      <c r="BF7" s="18">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="BG7" s="18">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="BH7" s="18">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="BI7" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="BJ7" s="18">
-        <v>0.63</v>
-      </c>
-      <c r="BK7" s="18">
-        <v>1.4E-2</v>
-      </c>
-      <c r="BL7" s="18">
-        <v>-9.7299999999999998E-2</v>
-      </c>
-      <c r="BM7" s="18">
-        <v>-0.14879999999999999</v>
-      </c>
-      <c r="BN7" s="18">
-        <v>-2.98E-2</v>
-      </c>
-      <c r="BO7" s="18">
-        <v>-3.27E-2</v>
-      </c>
-      <c r="BP7" s="18">
-        <v>-0.1207</v>
-      </c>
-      <c r="BQ7" s="18">
-        <v>-2.3E-3</v>
-      </c>
-      <c r="BR7" s="18">
-        <v>-4.0800000000000003E-2</v>
-      </c>
-      <c r="BS7" s="18">
-        <v>-8.6999999999999994E-2</v>
-      </c>
-      <c r="BT7" s="18">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="BU7" s="18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BV7" s="18"/>
-    </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="19">
-        <v>0.62</v>
-      </c>
-      <c r="C8" s="19">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="D8" s="19">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="E8" s="19">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="F8" s="19">
-        <v>0.71</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="H8" s="19">
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="I8" s="19">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="J8" s="19">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="L8" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="M8" s="19">
-        <v>0.45</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="O8" s="19">
-        <v>119</v>
-      </c>
-      <c r="P8" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="19">
-        <v>109</v>
-      </c>
-      <c r="R8" s="19">
-        <v>44</v>
-      </c>
-      <c r="S8" s="19">
-        <v>8</v>
-      </c>
-      <c r="T8" s="19">
-        <v>36</v>
-      </c>
-      <c r="U8" s="19">
-        <v>197</v>
-      </c>
-      <c r="V8" s="19">
-        <v>26</v>
-      </c>
-      <c r="W8" s="19">
-        <v>171</v>
-      </c>
-      <c r="X8" s="19">
-        <v>64</v>
-      </c>
-      <c r="Y8" s="19">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="19">
-        <v>54</v>
-      </c>
-      <c r="AA8" s="19">
-        <v>18</v>
-      </c>
-      <c r="AB8" s="19">
-        <v>6</v>
-      </c>
-      <c r="AC8" s="19">
-        <v>12</v>
-      </c>
-      <c r="AD8" s="19">
-        <v>114</v>
-      </c>
-      <c r="AE8" s="19">
-        <v>25</v>
-      </c>
-      <c r="AF8" s="19">
-        <v>89</v>
-      </c>
-      <c r="AG8" s="19">
-        <v>67</v>
-      </c>
-      <c r="AH8" s="19">
-        <v>23</v>
-      </c>
-      <c r="AI8" s="19">
-        <v>44</v>
-      </c>
-      <c r="AJ8" s="19">
-        <v>174</v>
-      </c>
-      <c r="AK8" s="19">
-        <v>41</v>
-      </c>
-      <c r="AL8" s="19">
-        <v>133</v>
-      </c>
-      <c r="AM8" s="19">
-        <v>209</v>
-      </c>
-      <c r="AN8" s="19">
-        <v>55</v>
-      </c>
-      <c r="AO8" s="19">
-        <v>154</v>
-      </c>
-      <c r="AP8" s="19">
-        <v>50</v>
-      </c>
-      <c r="AQ8" s="19">
-        <v>9</v>
-      </c>
-      <c r="AR8" s="19">
-        <v>41</v>
-      </c>
-      <c r="AS8" s="19">
-        <v>64</v>
-      </c>
-      <c r="AT8" s="19">
-        <v>14</v>
-      </c>
-      <c r="AU8" s="19">
-        <v>50</v>
-      </c>
-      <c r="AV8" s="19">
-        <v>80</v>
-      </c>
-      <c r="AW8" s="19">
-        <v>15</v>
-      </c>
-      <c r="AX8" s="19">
-        <v>65</v>
-      </c>
-      <c r="AY8" s="19">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="AZ8" s="19">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="BA8" s="19">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="BB8" s="19">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="BC8" s="19">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="BD8" s="19">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="BE8" s="19">
-        <v>0.67</v>
-      </c>
-      <c r="BF8" s="19">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="BG8" s="19">
-        <v>0.69</v>
-      </c>
-      <c r="BH8" s="19">
-        <v>0.61</v>
-      </c>
-      <c r="BI8" s="19">
-        <v>0.66</v>
-      </c>
-      <c r="BJ8" s="19">
-        <v>0.66</v>
-      </c>
-      <c r="BK8" s="19">
-        <v>-0.20039999999999999</v>
-      </c>
-      <c r="BL8" s="19">
-        <v>-5.5E-2</v>
-      </c>
-      <c r="BM8" s="19">
-        <v>-9.0399999999999994E-2</v>
-      </c>
-      <c r="BN8" s="19">
-        <v>-0.27260000000000001</v>
-      </c>
-      <c r="BO8" s="19">
-        <v>-4.8999999999999998E-3</v>
-      </c>
-      <c r="BP8" s="19">
-        <v>-0.12130000000000001</v>
-      </c>
-      <c r="BQ8" s="19">
-        <v>-0.22420000000000001</v>
-      </c>
-      <c r="BR8" s="19">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="BS8" s="19">
-        <v>-7.2099999999999997E-2</v>
-      </c>
-      <c r="BT8" s="19">
-        <v>6.55</v>
-      </c>
-      <c r="BU8" s="19">
-        <v>6.62</v>
-      </c>
-      <c r="BV8" s="19"/>
-    </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="C9" s="18">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="D9" s="18">
-        <v>0.629</v>
-      </c>
-      <c r="E9" s="18">
-        <v>0.71</v>
-      </c>
-      <c r="F9" s="18">
-        <v>0.71</v>
-      </c>
-      <c r="G9" s="18">
-        <v>0.71</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="I9" s="18">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="J9" s="18">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="O9" s="18">
-        <v>157</v>
-      </c>
-      <c r="P9" s="18">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>139</v>
-      </c>
-      <c r="R9" s="18">
-        <v>35</v>
-      </c>
-      <c r="S9" s="18">
-        <v>6</v>
-      </c>
-      <c r="T9" s="18">
-        <v>29</v>
-      </c>
-      <c r="U9" s="18">
-        <v>175</v>
-      </c>
-      <c r="V9" s="18">
-        <v>23</v>
-      </c>
-      <c r="W9" s="18">
-        <v>152</v>
-      </c>
-      <c r="X9" s="18">
-        <v>108</v>
-      </c>
-      <c r="Y9" s="18">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="18">
-        <v>81</v>
-      </c>
-      <c r="AA9" s="18">
-        <v>14</v>
-      </c>
-      <c r="AB9" s="18">
-        <v>4</v>
-      </c>
-      <c r="AC9" s="18">
-        <v>10</v>
-      </c>
-      <c r="AD9" s="18">
-        <v>98</v>
-      </c>
-      <c r="AE9" s="18">
-        <v>23</v>
-      </c>
-      <c r="AF9" s="18">
-        <v>75</v>
-      </c>
-      <c r="AG9" s="18">
-        <v>23</v>
-      </c>
-      <c r="AH9" s="18">
-        <v>6</v>
-      </c>
-      <c r="AI9" s="18">
-        <v>17</v>
-      </c>
-      <c r="AJ9" s="18">
-        <v>178</v>
-      </c>
-      <c r="AK9" s="18">
-        <v>43</v>
-      </c>
-      <c r="AL9" s="18">
-        <v>135</v>
-      </c>
-      <c r="AM9" s="18">
-        <v>225</v>
-      </c>
-      <c r="AN9" s="18">
-        <v>57</v>
-      </c>
-      <c r="AO9" s="18">
-        <v>168</v>
-      </c>
-      <c r="AP9" s="18">
-        <v>12</v>
-      </c>
-      <c r="AQ9" s="18">
-        <v>1</v>
-      </c>
-      <c r="AR9" s="18">
-        <v>11</v>
-      </c>
-      <c r="AS9" s="18">
-        <v>73</v>
-      </c>
-      <c r="AT9" s="18">
-        <v>16</v>
-      </c>
-      <c r="AU9" s="18">
-        <v>57</v>
-      </c>
-      <c r="AV9" s="18">
-        <v>102</v>
-      </c>
-      <c r="AW9" s="18">
-        <v>18</v>
-      </c>
-      <c r="AX9" s="18">
-        <v>84</v>
-      </c>
-      <c r="AY9" s="18">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="AZ9" s="18">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="BA9" s="18">
-        <v>0.751</v>
-      </c>
-      <c r="BB9" s="18">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="BC9" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="BD9" s="18">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="BE9" s="18">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="BF9" s="18">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="BG9" s="18">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="BH9" s="18">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="BI9" s="18">
-        <v>0.63</v>
-      </c>
-      <c r="BJ9" s="18">
-        <v>0.65</v>
-      </c>
-      <c r="BK9" s="18">
-        <v>2.07E-2</v>
-      </c>
-      <c r="BL9" s="18">
-        <v>-6.4500000000000002E-2</v>
-      </c>
-      <c r="BM9" s="18">
-        <v>-8.3099999999999993E-2</v>
-      </c>
-      <c r="BN9" s="18">
-        <v>-2.1700000000000001E-2</v>
-      </c>
-      <c r="BO9" s="18">
-        <v>-2.3900000000000001E-2</v>
-      </c>
-      <c r="BP9" s="18">
-        <v>-9.3700000000000006E-2</v>
-      </c>
-      <c r="BQ9" s="18">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="BR9" s="18">
-        <v>-2.4199999999999999E-2</v>
-      </c>
-      <c r="BS9" s="18">
-        <v>-5.21E-2</v>
-      </c>
-      <c r="BT9" s="18">
-        <v>1.04</v>
-      </c>
-      <c r="BU9" s="18">
-        <v>0.91</v>
-      </c>
-      <c r="BV9" s="18"/>
-    </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="19">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="C10" s="19">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="D10" s="19">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="E10" s="19">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="F10" s="19">
-        <v>0.71</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="H10" s="19">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="I10" s="19">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="J10" s="19">
-        <v>0.67</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="L10" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="M10" s="19">
-        <v>0.45</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="O10" s="19">
-        <v>141</v>
-      </c>
-      <c r="P10" s="19">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="19">
-        <v>126</v>
-      </c>
-      <c r="R10" s="19">
-        <v>46</v>
-      </c>
-      <c r="S10" s="19">
-        <v>9</v>
-      </c>
-      <c r="T10" s="19">
-        <v>37</v>
-      </c>
-      <c r="U10" s="19">
-        <v>153</v>
-      </c>
-      <c r="V10" s="19">
-        <v>17</v>
-      </c>
-      <c r="W10" s="19">
-        <v>136</v>
-      </c>
-      <c r="X10" s="19">
-        <v>88</v>
-      </c>
-      <c r="Y10" s="19">
-        <v>21</v>
-      </c>
-      <c r="Z10" s="19">
-        <v>67</v>
-      </c>
-      <c r="AA10" s="19">
-        <v>23</v>
-      </c>
-      <c r="AB10" s="19">
-        <v>7</v>
-      </c>
-      <c r="AC10" s="19">
-        <v>16</v>
-      </c>
-      <c r="AD10" s="19">
-        <v>71</v>
-      </c>
-      <c r="AE10" s="19">
-        <v>13</v>
-      </c>
-      <c r="AF10" s="19">
-        <v>58</v>
-      </c>
-      <c r="AG10" s="19">
-        <v>43</v>
-      </c>
-      <c r="AH10" s="19">
-        <v>12</v>
-      </c>
-      <c r="AI10" s="19">
-        <v>31</v>
-      </c>
-      <c r="AJ10" s="19">
-        <v>169</v>
-      </c>
-      <c r="AK10" s="19">
-        <v>40</v>
-      </c>
-      <c r="AL10" s="19">
-        <v>129</v>
-      </c>
-      <c r="AM10" s="19">
-        <v>252</v>
-      </c>
-      <c r="AN10" s="19">
-        <v>67</v>
-      </c>
-      <c r="AO10" s="19">
-        <v>185</v>
-      </c>
-      <c r="AP10" s="19">
-        <v>28</v>
-      </c>
-      <c r="AQ10" s="19">
-        <v>4</v>
-      </c>
-      <c r="AR10" s="19">
-        <v>24</v>
-      </c>
-      <c r="AS10" s="19">
-        <v>62</v>
-      </c>
-      <c r="AT10" s="19">
-        <v>13</v>
-      </c>
-      <c r="AU10" s="19">
-        <v>49</v>
-      </c>
-      <c r="AV10" s="19">
-        <v>124</v>
-      </c>
-      <c r="AW10" s="19">
-        <v>24</v>
-      </c>
-      <c r="AX10" s="19">
-        <v>100</v>
-      </c>
-      <c r="AY10" s="19">
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="AZ10" s="19">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="BA10" s="19">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="BB10" s="19">
-        <v>0.52</v>
-      </c>
-      <c r="BC10" s="19">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="BD10" s="19">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="BE10" s="19">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="BF10" s="19">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="BG10" s="19">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="BH10" s="19">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="BI10" s="19">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="BJ10" s="19">
-        <v>0.63</v>
-      </c>
-      <c r="BK10" s="19">
-        <v>-5.0500000000000003E-2</v>
-      </c>
-      <c r="BL10" s="19">
-        <v>-2.1100000000000001E-2</v>
-      </c>
-      <c r="BM10" s="19">
-        <v>-0.16159999999999999</v>
-      </c>
-      <c r="BN10" s="19">
-        <v>-8.5900000000000004E-2</v>
-      </c>
-      <c r="BO10" s="19">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="BP10" s="19">
-        <v>-0.15709999999999999</v>
-      </c>
-      <c r="BQ10" s="19">
-        <v>-4.8899999999999999E-2</v>
-      </c>
-      <c r="BR10" s="19">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="BS10" s="19">
-        <v>-0.11890000000000001</v>
-      </c>
-      <c r="BT10" s="19">
-        <v>6.12</v>
-      </c>
-      <c r="BU10" s="19">
-        <v>6.42</v>
-      </c>
-      <c r="BV10" s="19"/>
-    </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="25"/>
-    </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="25"/>
-    </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="25"/>
-    </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="25"/>
-    </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="B15" s="61"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="25"/>
-    </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-    </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-    </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-    </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-    </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-    </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-    </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="BL23">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="BM23">
-        <v>0.621</v>
-      </c>
-      <c r="BN23">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="BO23">
-        <v>0.64</v>
-      </c>
-      <c r="BP23">
-        <v>-0.12130000000000001</v>
-      </c>
-      <c r="BQ23">
-        <v>-0.12609999999999999</v>
-      </c>
-      <c r="BR23">
-        <v>-8.4199999999999997E-2</v>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="95" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="95" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="95" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="BP1:BP2"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="BT1:BT2"/>
-    <mergeCell ref="BU1:BU2"/>
-    <mergeCell ref="BV1:BV2"/>
-    <mergeCell ref="BQ1:BQ2"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BH2"/>
-    <mergeCell ref="BI1:BI2"/>
-    <mergeCell ref="BJ1:BJ2"/>
-    <mergeCell ref="BK1:BK2"/>
-    <mergeCell ref="BL1:BL2"/>
-    <mergeCell ref="BR1:BR2"/>
-    <mergeCell ref="BS1:BS2"/>
-    <mergeCell ref="BM1:BM2"/>
-    <mergeCell ref="BN1:BN2"/>
-    <mergeCell ref="BO1:BO2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:Q1"/>
+  <mergeCells count="11">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7658,13 +5692,13 @@
   </sheetPr>
   <dimension ref="A1:BR50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="9.28515625" style="28"/>
     <col min="8" max="17" width="9.28515625" style="28" customWidth="1"/>
     <col min="18" max="18" width="9.28515625" style="28"/>
@@ -7683,157 +5717,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163" t="s">
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163" t="s">
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163" t="s">
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="121"/>
+      <c r="Y1" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163" t="s">
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="121"/>
+      <c r="AB1" s="121"/>
+      <c r="AC1" s="121"/>
+      <c r="AD1" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="163"/>
-      <c r="AH1" s="163"/>
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="121"/>
+      <c r="AH1" s="121"/>
       <c r="AI1" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A2" s="167"/>
-      <c r="B2" s="166" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="160" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="161"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="160" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="161"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="160" t="s">
-        <v>154</v>
-      </c>
-      <c r="J2" s="161"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="160" t="s">
-        <v>155</v>
-      </c>
-      <c r="M2" s="161"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="166" t="s">
-        <v>151</v>
-      </c>
-      <c r="P2" s="166" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q2" s="166" t="s">
-        <v>153</v>
-      </c>
-      <c r="R2" s="166" t="s">
-        <v>154</v>
-      </c>
-      <c r="S2" s="169" t="s">
-        <v>155</v>
-      </c>
-      <c r="T2" s="166" t="s">
-        <v>151</v>
-      </c>
-      <c r="U2" s="166" t="s">
-        <v>152</v>
-      </c>
-      <c r="V2" s="166" t="s">
-        <v>153</v>
-      </c>
-      <c r="W2" s="166" t="s">
-        <v>154</v>
-      </c>
-      <c r="X2" s="169" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y2" s="166" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z2" s="166" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA2" s="166" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB2" s="166" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC2" s="169" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD2" s="166" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE2" s="166" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF2" s="166" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG2" s="166" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH2" s="169" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI2" s="166" t="s">
-        <v>151</v>
-      </c>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="62"/>
-      <c r="BA2" s="62"/>
-      <c r="BB2" s="62"/>
-      <c r="BC2" s="62"/>
-      <c r="BD2" s="62"/>
-      <c r="BH2" s="165"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="122" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="123"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="122" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="123"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="122" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="123"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="P2" s="117" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q2" s="117" t="s">
+        <v>138</v>
+      </c>
+      <c r="R2" s="117" t="s">
+        <v>139</v>
+      </c>
+      <c r="S2" s="119" t="s">
+        <v>140</v>
+      </c>
+      <c r="T2" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="U2" s="117" t="s">
+        <v>137</v>
+      </c>
+      <c r="V2" s="117" t="s">
+        <v>138</v>
+      </c>
+      <c r="W2" s="117" t="s">
+        <v>139</v>
+      </c>
+      <c r="X2" s="119" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y2" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z2" s="117" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA2" s="117" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB2" s="117" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC2" s="119" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD2" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE2" s="117" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF2" s="117" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG2" s="117" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH2" s="119" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI2" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="61"/>
+      <c r="BH2" s="100"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A3" s="168"/>
-      <c r="B3" s="168"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="118"/>
       <c r="C3" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
@@ -7842,7 +5876,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>15</v>
@@ -7851,7 +5885,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>15</v>
@@ -7860,7 +5894,7 @@
         <v>16</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>15</v>
@@ -7868,34 +5902,34 @@
       <c r="N3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="168"/>
-      <c r="Z3" s="168"/>
-      <c r="AA3" s="168"/>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="168"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="168"/>
-      <c r="AH3" s="170"/>
-      <c r="AI3" s="168"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
-      <c r="BB3" s="62"/>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="62"/>
-      <c r="BH3" s="165"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="120"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="120"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="120"/>
+      <c r="AD3" s="118"/>
+      <c r="AE3" s="118"/>
+      <c r="AF3" s="118"/>
+      <c r="AG3" s="118"/>
+      <c r="AH3" s="120"/>
+      <c r="AI3" s="118"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="61"/>
+      <c r="BA3" s="61"/>
+      <c r="BB3" s="61"/>
+      <c r="BC3" s="61"/>
+      <c r="BD3" s="61"/>
+      <c r="BH3" s="100"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -8005,15 +6039,15 @@
         <v>-0.38419999999999999</v>
       </c>
       <c r="AI4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="AY4" s="62"/>
-      <c r="AZ4" s="62"/>
-      <c r="BA4" s="62"/>
-      <c r="BB4" s="62"/>
-      <c r="BC4" s="62"/>
-      <c r="BD4" s="62"/>
-      <c r="BH4" s="165"/>
+        <v>148</v>
+      </c>
+      <c r="AY4" s="61"/>
+      <c r="AZ4" s="61"/>
+      <c r="BA4" s="61"/>
+      <c r="BB4" s="61"/>
+      <c r="BC4" s="61"/>
+      <c r="BD4" s="61"/>
+      <c r="BH4" s="100"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -8059,23 +6093,23 @@
         <v>0.6794</v>
       </c>
       <c r="O5" s="7">
-        <f t="shared" ref="O5:O9" si="0">AVERAGE(P5:S5)</f>
+        <f t="shared" ref="O5:O11" si="0">AVERAGE(P5:S5)</f>
         <v>0.71909999999999996</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="S5" s="7">
         <v>0.71909999999999996</v>
       </c>
       <c r="T5" s="7">
-        <f t="shared" ref="T5:T9" si="1">AVERAGE(U5:X5)</f>
+        <f t="shared" ref="T5:T11" si="1">AVERAGE(U5:X5)</f>
         <v>-0.43069999999999997</v>
       </c>
       <c r="U5" s="7">
@@ -8091,7 +6125,7 @@
         <v>-0.27479999999999999</v>
       </c>
       <c r="Y5" s="7">
-        <f t="shared" ref="Y5:Y9" si="2">AVERAGE(Z5:AC5)</f>
+        <f t="shared" ref="Y5:Y11" si="2">AVERAGE(Z5:AC5)</f>
         <v>-0.41462500000000002</v>
       </c>
       <c r="Z5" s="7">
@@ -8107,7 +6141,7 @@
         <v>-0.29630000000000001</v>
       </c>
       <c r="AD5" s="7">
-        <f t="shared" ref="AD5:AD9" si="3">AVERAGE(AE5:AH5)</f>
+        <f t="shared" ref="AD5:AD11" si="3">AVERAGE(AE5:AH5)</f>
         <v>-0.48835000000000001</v>
       </c>
       <c r="AE5" s="7">
@@ -8123,66 +6157,127 @@
         <v>-0.35909999999999997</v>
       </c>
       <c r="AI5" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="AY5" s="164"/>
-      <c r="AZ5" s="62"/>
-      <c r="BA5" s="62"/>
-      <c r="BB5" s="62"/>
-      <c r="BC5" s="62"/>
-      <c r="BD5" s="62"/>
-      <c r="BH5" s="165"/>
+        <v>149</v>
+      </c>
+      <c r="AY5" s="99"/>
+      <c r="AZ5" s="61"/>
+      <c r="BA5" s="61"/>
+      <c r="BB5" s="61"/>
+      <c r="BC5" s="61"/>
+      <c r="BD5" s="61"/>
+      <c r="BH5" s="100"/>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7" t="e">
+      <c r="B6" s="7">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.60529999999999995</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.4194</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.65290000000000004</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.61429999999999996</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.60760000000000003</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.40739999999999998</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0.64890000000000003</v>
+      </c>
+      <c r="O6" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="7" t="e">
+        <v>0.71819999999999995</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0.71819999999999995</v>
+      </c>
+      <c r="T6" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="7" t="e">
+        <v>1.1824999999999994E-2</v>
+      </c>
+      <c r="U6" s="8">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="V6" s="8">
+        <f>--0.1893</f>
+        <v>0.1893</v>
+      </c>
+      <c r="W6" s="8">
+        <v>-5.6300000000000003E-2</v>
+      </c>
+      <c r="X6" s="8">
+        <v>-3.6700000000000003E-2</v>
+      </c>
+      <c r="Y6" s="7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="7" t="e">
+        <v>-0.14877499999999999</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>-0.1268</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>-0.30719999999999997</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>-0.05</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>-0.1111</v>
+      </c>
+      <c r="AD6" s="7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
+        <v>-9.580000000000001E-2</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>-5.3900000000000003E-2</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>-0.18590000000000001</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>-8.9099999999999999E-2</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>-5.4300000000000001E-2</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>159</v>
+      </c>
       <c r="AJ6" s="15"/>
       <c r="AK6" s="15"/>
       <c r="AL6" s="15"/>
@@ -8206,7 +6301,7 @@
       <c r="BD6" s="15"/>
       <c r="BE6" s="15"/>
       <c r="BF6" s="15"/>
-      <c r="BH6" s="165"/>
+      <c r="BH6" s="100"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -8256,16 +6351,16 @@
         <v>0.42420000000000002</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="7">
         <v>0.42420000000000002</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="T7" s="7">
         <f t="shared" si="1"/>
@@ -8283,7 +6378,7 @@
       <c r="X7" s="8">
         <v>-1.6E-2</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="177">
         <f t="shared" si="2"/>
         <v>-5.9999999999999967E-3</v>
       </c>
@@ -8316,7 +6411,7 @@
         <v>-7.2700000000000001E-2</v>
       </c>
       <c r="AI7" s="8" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="AJ7" s="15"/>
       <c r="AK7" s="15"/>
@@ -8335,66 +6430,126 @@
       <c r="AX7" s="15"/>
       <c r="AY7" s="15"/>
       <c r="AZ7" s="15"/>
-      <c r="BA7" s="62"/>
-      <c r="BB7" s="62"/>
-      <c r="BC7" s="62"/>
-      <c r="BD7" s="62"/>
-      <c r="BE7" s="62"/>
-      <c r="BF7" s="62"/>
+      <c r="BA7" s="61"/>
+      <c r="BB7" s="61"/>
+      <c r="BC7" s="61"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="61"/>
+      <c r="BF7" s="61"/>
       <c r="BG7" s="15"/>
       <c r="BH7" s="15"/>
-      <c r="BJ7" s="165"/>
+      <c r="BJ7" s="100"/>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7" t="e">
+      <c r="B8" s="7">
+        <v>0.59730000000000005</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.61839999999999995</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.4516</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.66120000000000001</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.58220000000000005</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5680</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.5857</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.54169999999999996</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.5948</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.60129999999999995</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.40739999999999998</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0.64119999999999999</v>
+      </c>
+      <c r="O8" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7" t="e">
+        <v>0.50409999999999999</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0.50409999999999999</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="T8" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="7" t="e">
+        <v>-3.5249999999999997E-2</v>
+      </c>
+      <c r="U8" s="8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="8">
+        <v>-0.15759999999999999</v>
+      </c>
+      <c r="W8" s="8">
+        <v>-2.2499999999999999E-2</v>
+      </c>
+      <c r="X8" s="8">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="Y8" s="7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="7" t="e">
+        <v>-3.8250000000000006E-2</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>-0.23480000000000001</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="AD8" s="7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
+        <v>-5.1025000000000008E-2</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>-0.16950000000000001</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>-4.4499999999999998E-2</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="AI8" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="AJ8" s="15"/>
       <c r="AK8" s="15"/>
       <c r="AL8" s="15"/>
@@ -8420,58 +6575,118 @@
       <c r="BF8" s="15"/>
       <c r="BG8" s="15"/>
       <c r="BH8" s="15"/>
-      <c r="BJ8" s="165"/>
+      <c r="BJ8" s="100"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7" t="e">
+      <c r="B9" s="7">
+        <v>0.59230000000000005</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.63819999999999999</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.4839</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.67769999999999997</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.56159999999999999</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.5776</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.6139</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.37040000000000001</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0.66410000000000002</v>
+      </c>
+      <c r="O9" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7" t="e">
+        <v>0.61470000000000002</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0.77180000000000004</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0.45760000000000001</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="T9" s="177">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="7" t="e">
+        <v>-1.5750000000000007E-2</v>
+      </c>
+      <c r="U9" s="8">
+        <v>1.34E-2</v>
+      </c>
+      <c r="V9" s="8">
+        <v>-0.2</v>
+      </c>
+      <c r="W9" s="8">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="X9" s="8">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="Y9" s="7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="7" t="e">
+        <v>-2.0799999999999999E-2</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>-0.17680000000000001</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>4.41E-2</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AD9" s="177">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
+        <v>-3.5574999999999996E-2</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>-0.24079999999999999</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="AI9" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="AJ9" s="15"/>
       <c r="AK9" s="15"/>
       <c r="AL9" s="15"/>
@@ -8489,35 +6704,126 @@
       <c r="AX9" s="15"/>
       <c r="AY9" s="15"/>
       <c r="AZ9" s="15"/>
-      <c r="BA9" s="62"/>
-      <c r="BB9" s="62"/>
-      <c r="BC9" s="62"/>
-      <c r="BD9" s="62"/>
-      <c r="BE9" s="62"/>
-      <c r="BF9" s="62"/>
+      <c r="BA9" s="61"/>
+      <c r="BB9" s="61"/>
+      <c r="BC9" s="61"/>
+      <c r="BD9" s="61"/>
+      <c r="BE9" s="61"/>
+      <c r="BF9" s="61"/>
       <c r="BG9" s="15"/>
       <c r="BH9" s="15"/>
-      <c r="BJ9" s="165"/>
+      <c r="BJ9" s="100"/>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
+      <c r="A10" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="98">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="C10" s="98">
+        <v>0.60529999999999995</v>
+      </c>
+      <c r="D10" s="98">
+        <v>0.4194</v>
+      </c>
+      <c r="E10" s="98">
+        <v>0.65290000000000004</v>
+      </c>
+      <c r="F10" s="98">
+        <v>0.56850000000000001</v>
+      </c>
+      <c r="G10" s="98">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="H10" s="98">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="I10" s="98">
+        <v>0.62860000000000005</v>
+      </c>
+      <c r="J10" s="98">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="K10" s="98">
+        <v>0.63790000000000002</v>
+      </c>
+      <c r="L10" s="98">
+        <v>0.6139</v>
+      </c>
+      <c r="M10" s="98">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="N10" s="98">
+        <v>0.64890000000000003</v>
+      </c>
+      <c r="O10" s="98">
+        <f t="shared" si="0"/>
+        <v>0.60030000000000006</v>
+      </c>
+      <c r="P10" s="98">
+        <v>0.73909999999999998</v>
+      </c>
+      <c r="Q10" s="98">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="T10" s="98">
+        <f t="shared" si="1"/>
+        <v>-6.2550000000000008E-2</v>
+      </c>
+      <c r="U10" s="8">
+        <v>-6.7500000000000004E-2</v>
+      </c>
+      <c r="V10" s="8">
+        <v>-0.15090000000000001</v>
+      </c>
+      <c r="W10" s="8">
+        <v>-5.3199999999999997E-2</v>
+      </c>
+      <c r="X10" s="8">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="Y10" s="98">
+        <f t="shared" si="2"/>
+        <v>-8.2850000000000007E-2</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>-0.13930000000000001</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>-0.17680000000000001</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>-6.4699999999999994E-2</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="AD10" s="98">
+        <f t="shared" si="3"/>
+        <v>-8.9025000000000007E-2</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>-7.0400000000000004E-2</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>-0.17710000000000001</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>-8.9099999999999999E-2</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>-1.95E-2</v>
+      </c>
+      <c r="AI10" s="8" t="s">
+        <v>174</v>
+      </c>
       <c r="AJ10" s="15"/>
       <c r="AK10" s="15"/>
       <c r="AL10" s="15"/>
@@ -8543,38 +6849,153 @@
       <c r="BF10" s="15"/>
       <c r="BG10" s="15"/>
       <c r="BH10" s="15"/>
-      <c r="BJ10" s="165"/>
+      <c r="BJ10" s="100"/>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="P11" s="71"/>
-      <c r="R11" s="71"/>
+      <c r="A11" s="98" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="98">
+        <v>0.59730000000000005</v>
+      </c>
+      <c r="C11" s="98">
+        <v>0.66469999999999996</v>
+      </c>
+      <c r="D11" s="98">
+        <v>0.4839</v>
+      </c>
+      <c r="E11" s="98">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="F11" s="98">
+        <v>0.56159999999999999</v>
+      </c>
+      <c r="G11" s="98">
+        <v>0.7319</v>
+      </c>
+      <c r="H11" s="98">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="I11" s="98">
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="J11" s="98">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="98">
+        <v>0.61209999999999998</v>
+      </c>
+      <c r="L11" s="98">
+        <v>0.58860000000000001</v>
+      </c>
+      <c r="M11" s="98">
+        <v>0.37040000000000001</v>
+      </c>
+      <c r="N11" s="98">
+        <v>0.63360000000000005</v>
+      </c>
+      <c r="O11" s="98">
+        <f t="shared" si="0"/>
+        <v>0.49525000000000002</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q11" s="98">
+        <v>0.25580000000000003</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="S11" s="98">
+        <v>0.73470000000000002</v>
+      </c>
+      <c r="T11" s="98">
+        <f t="shared" si="1"/>
+        <v>-2.4874999999999998E-2</v>
+      </c>
+      <c r="U11" s="98">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="V11" s="98">
+        <v>-8.8599999999999998E-2</v>
+      </c>
+      <c r="W11" s="98">
+        <v>-8.4099999999999994E-2</v>
+      </c>
+      <c r="X11" s="98">
+        <v>-7.7999999999999996E-3</v>
+      </c>
+      <c r="Y11" s="98">
+        <f t="shared" si="2"/>
+        <v>-5.8224999999999999E-2</v>
+      </c>
+      <c r="Z11" s="98">
+        <v>0.05</v>
+      </c>
+      <c r="AA11" s="98">
+        <v>-0.15939999999999999</v>
+      </c>
+      <c r="AB11" s="98">
+        <v>-0.1235</v>
+      </c>
+      <c r="AC11" s="98">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="98">
+        <f t="shared" si="3"/>
+        <v>-3.9925000000000002E-2</v>
+      </c>
+      <c r="AE11" s="98">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="AF11" s="98">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="AG11" s="98">
+        <v>-0.10059999999999999</v>
+      </c>
+      <c r="AH11" s="98">
+        <v>-2.18E-2</v>
+      </c>
+      <c r="AI11" s="98" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="P12" s="71"/>
-      <c r="R12" s="71"/>
+      <c r="P12" s="69"/>
+      <c r="R12" s="69"/>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="P13" s="71"/>
-      <c r="R13" s="71"/>
+      <c r="P13" s="69"/>
+      <c r="R13" s="69"/>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="P14" s="71"/>
-      <c r="R14" s="71"/>
+      <c r="P14" s="69"/>
+      <c r="R14" s="69"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
+      <c r="C16" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+    </row>
+    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="C17" s="28" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.25">
       <c r="S18" s="15"/>
@@ -8583,25 +7004,25 @@
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
-      <c r="AY18" s="62"/>
-      <c r="AZ18" s="62"/>
-      <c r="BA18" s="62"/>
-      <c r="BB18" s="62"/>
-      <c r="BC18" s="62"/>
-      <c r="BD18" s="62"/>
+      <c r="AY18" s="61"/>
+      <c r="AZ18" s="61"/>
+      <c r="BA18" s="61"/>
+      <c r="BB18" s="61"/>
+      <c r="BC18" s="61"/>
+      <c r="BD18" s="61"/>
     </row>
     <row r="19" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="AY19" s="62"/>
-      <c r="AZ19" s="62"/>
-      <c r="BA19" s="62"/>
-      <c r="BB19" s="62"/>
-      <c r="BC19" s="62"/>
-      <c r="BD19" s="62"/>
+      <c r="AY19" s="61"/>
+      <c r="AZ19" s="61"/>
+      <c r="BA19" s="61"/>
+      <c r="BB19" s="61"/>
+      <c r="BC19" s="61"/>
+      <c r="BD19" s="61"/>
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
       <c r="S20" s="15"/>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
@@ -8634,19 +7055,19 @@
       <c r="AV20" s="15"/>
       <c r="AW20" s="15"/>
       <c r="AX20" s="15"/>
-      <c r="AY20" s="62"/>
-      <c r="AZ20" s="62"/>
-      <c r="BA20" s="62"/>
-      <c r="BB20" s="62"/>
-      <c r="BC20" s="62"/>
-      <c r="BD20" s="62"/>
+      <c r="AY20" s="61"/>
+      <c r="AZ20" s="61"/>
+      <c r="BA20" s="61"/>
+      <c r="BB20" s="61"/>
+      <c r="BC20" s="61"/>
+      <c r="BD20" s="61"/>
       <c r="BE20" s="15"/>
       <c r="BF20" s="15"/>
     </row>
     <row r="21" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
@@ -8689,10 +7110,10 @@
       <c r="BF21" s="15"/>
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="P22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
+      <c r="P22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
@@ -8725,18 +7146,18 @@
       <c r="AX22" s="15"/>
       <c r="AY22" s="15"/>
       <c r="AZ22" s="15"/>
-      <c r="BA22" s="62"/>
-      <c r="BB22" s="62"/>
-      <c r="BC22" s="62"/>
-      <c r="BD22" s="62"/>
-      <c r="BE22" s="62"/>
-      <c r="BF22" s="62"/>
+      <c r="BA22" s="61"/>
+      <c r="BB22" s="61"/>
+      <c r="BC22" s="61"/>
+      <c r="BD22" s="61"/>
+      <c r="BE22" s="61"/>
+      <c r="BF22" s="61"/>
     </row>
     <row r="23" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="P23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
+      <c r="P23" s="69"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="69"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
@@ -8777,23 +7198,23 @@
       <c r="BF23" s="15"/>
     </row>
     <row r="24" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="P24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="BH24" s="62"/>
+      <c r="P24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="BH24" s="61"/>
     </row>
     <row r="25" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="P25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="BH25" s="62"/>
+      <c r="P25" s="69"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="BH25" s="61"/>
     </row>
     <row r="26" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
       <c r="X26" s="15"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
@@ -8839,7 +7260,7 @@
       <c r="BN26" s="15"/>
     </row>
     <row r="27" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
+      <c r="A27" s="61"/>
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.25">
       <c r="S28" s="15"/>
@@ -8848,25 +7269,27 @@
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
-      <c r="AY28" s="62"/>
-      <c r="AZ28" s="62"/>
-      <c r="BA28" s="62"/>
-      <c r="BB28" s="62"/>
-      <c r="BC28" s="62"/>
-      <c r="BD28" s="62"/>
+      <c r="AY28" s="61"/>
+      <c r="AZ28" s="61"/>
+      <c r="BA28" s="61"/>
+      <c r="BB28" s="61"/>
+      <c r="BC28" s="61"/>
+      <c r="BD28" s="61"/>
     </row>
     <row r="29" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="AY29" s="62"/>
-      <c r="AZ29" s="62"/>
-      <c r="BA29" s="62"/>
-      <c r="BB29" s="62"/>
-      <c r="BC29" s="62"/>
-      <c r="BD29" s="62"/>
+      <c r="W29" s="174"/>
+      <c r="X29" s="174"/>
+      <c r="AY29" s="61"/>
+      <c r="AZ29" s="61"/>
+      <c r="BA29" s="61"/>
+      <c r="BB29" s="61"/>
+      <c r="BC29" s="61"/>
+      <c r="BD29" s="61"/>
     </row>
     <row r="30" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="69"/>
       <c r="S30" s="15"/>
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
@@ -8899,19 +7322,19 @@
       <c r="AV30" s="15"/>
       <c r="AW30" s="15"/>
       <c r="AX30" s="15"/>
-      <c r="AY30" s="62"/>
-      <c r="AZ30" s="62"/>
-      <c r="BA30" s="62"/>
-      <c r="BB30" s="62"/>
-      <c r="BC30" s="62"/>
-      <c r="BD30" s="62"/>
+      <c r="AY30" s="61"/>
+      <c r="AZ30" s="61"/>
+      <c r="BA30" s="61"/>
+      <c r="BB30" s="61"/>
+      <c r="BC30" s="61"/>
+      <c r="BD30" s="61"/>
       <c r="BE30" s="15"/>
       <c r="BF30" s="15"/>
     </row>
     <row r="31" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
       <c r="S31" s="15"/>
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
@@ -8954,10 +7377,10 @@
       <c r="BF31" s="15"/>
     </row>
     <row r="32" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="P32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
+      <c r="P32" s="69"/>
+      <c r="R32" s="69"/>
+      <c r="S32" s="69"/>
+      <c r="T32" s="69"/>
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
       <c r="W32" s="15"/>
@@ -8990,18 +7413,18 @@
       <c r="AX32" s="15"/>
       <c r="AY32" s="15"/>
       <c r="AZ32" s="15"/>
-      <c r="BA32" s="62"/>
-      <c r="BB32" s="62"/>
-      <c r="BC32" s="62"/>
-      <c r="BD32" s="62"/>
-      <c r="BE32" s="62"/>
-      <c r="BF32" s="62"/>
+      <c r="BA32" s="61"/>
+      <c r="BB32" s="61"/>
+      <c r="BC32" s="61"/>
+      <c r="BD32" s="61"/>
+      <c r="BE32" s="61"/>
+      <c r="BF32" s="61"/>
     </row>
     <row r="33" spans="16:70" x14ac:dyDescent="0.25">
-      <c r="P33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
+      <c r="P33" s="69"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69"/>
+      <c r="T33" s="69"/>
       <c r="U33" s="15"/>
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
@@ -9042,27 +7465,27 @@
       <c r="BF33" s="15"/>
     </row>
     <row r="34" spans="16:70" x14ac:dyDescent="0.25">
-      <c r="P34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="BH34" s="62"/>
+      <c r="P34" s="69"/>
+      <c r="R34" s="69"/>
+      <c r="S34" s="69"/>
+      <c r="U34" s="69"/>
+      <c r="BH34" s="61"/>
     </row>
     <row r="35" spans="16:70" x14ac:dyDescent="0.25">
-      <c r="P35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
-      <c r="U35" s="71"/>
-      <c r="BH35" s="62"/>
+      <c r="P35" s="69"/>
+      <c r="R35" s="69"/>
+      <c r="S35" s="69"/>
+      <c r="U35" s="69"/>
+      <c r="BH35" s="61"/>
     </row>
     <row r="37" spans="16:70" x14ac:dyDescent="0.25">
-      <c r="AY37" s="62"/>
-      <c r="AZ37" s="62"/>
-      <c r="BA37" s="62"/>
-      <c r="BB37" s="62"/>
-      <c r="BC37" s="62"/>
-      <c r="BD37" s="62"/>
-      <c r="BF37" s="62"/>
+      <c r="AY37" s="61"/>
+      <c r="AZ37" s="61"/>
+      <c r="BA37" s="61"/>
+      <c r="BB37" s="61"/>
+      <c r="BC37" s="61"/>
+      <c r="BD37" s="61"/>
+      <c r="BF37" s="61"/>
     </row>
     <row r="38" spans="16:70" x14ac:dyDescent="0.25">
       <c r="AY38" s="15"/>
@@ -9071,16 +7494,16 @@
       <c r="BB38" s="15"/>
       <c r="BC38" s="15"/>
       <c r="BD38" s="15"/>
-      <c r="BF38" s="62"/>
+      <c r="BF38" s="61"/>
     </row>
     <row r="39" spans="16:70" x14ac:dyDescent="0.25">
       <c r="AY39" s="15"/>
       <c r="AZ39" s="15"/>
-      <c r="BA39" s="62"/>
-      <c r="BB39" s="62"/>
-      <c r="BC39" s="62"/>
-      <c r="BD39" s="62"/>
-      <c r="BF39" s="62"/>
+      <c r="BA39" s="61"/>
+      <c r="BB39" s="61"/>
+      <c r="BC39" s="61"/>
+      <c r="BD39" s="61"/>
+      <c r="BF39" s="61"/>
     </row>
     <row r="40" spans="16:70" x14ac:dyDescent="0.25">
       <c r="AY40" s="15"/>
@@ -9089,12 +7512,12 @@
       <c r="BB40" s="15"/>
       <c r="BC40" s="15"/>
       <c r="BD40" s="15"/>
-      <c r="BF40" s="62"/>
+      <c r="BF40" s="61"/>
     </row>
     <row r="44" spans="16:70" x14ac:dyDescent="0.25">
-      <c r="U44" s="71"/>
-      <c r="V44" s="71"/>
-      <c r="W44" s="71"/>
+      <c r="U44" s="69"/>
+      <c r="V44" s="69"/>
+      <c r="W44" s="69"/>
       <c r="X44" s="15"/>
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
@@ -9132,20 +7555,20 @@
       <c r="BF44" s="15"/>
       <c r="BG44" s="15"/>
       <c r="BH44" s="15"/>
-      <c r="BI44" s="62"/>
-      <c r="BJ44" s="62"/>
-      <c r="BK44" s="62"/>
-      <c r="BL44" s="62"/>
-      <c r="BM44" s="62"/>
-      <c r="BN44" s="62"/>
+      <c r="BI44" s="61"/>
+      <c r="BJ44" s="61"/>
+      <c r="BK44" s="61"/>
+      <c r="BL44" s="61"/>
+      <c r="BM44" s="61"/>
+      <c r="BN44" s="61"/>
       <c r="BO44" s="15"/>
       <c r="BP44" s="15"/>
-      <c r="BR44" s="165"/>
+      <c r="BR44" s="100"/>
     </row>
     <row r="45" spans="16:70" x14ac:dyDescent="0.25">
-      <c r="U45" s="71"/>
-      <c r="V45" s="71"/>
-      <c r="W45" s="71"/>
+      <c r="U45" s="69"/>
+      <c r="V45" s="69"/>
+      <c r="W45" s="69"/>
       <c r="X45" s="15"/>
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
@@ -9191,12 +7614,12 @@
       <c r="BN45" s="15"/>
       <c r="BO45" s="15"/>
       <c r="BP45" s="15"/>
-      <c r="BR45" s="165"/>
+      <c r="BR45" s="100"/>
     </row>
     <row r="46" spans="16:70" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U46" s="71"/>
-      <c r="V46" s="71"/>
-      <c r="W46" s="71"/>
+      <c r="U46" s="69"/>
+      <c r="V46" s="69"/>
+      <c r="W46" s="69"/>
       <c r="X46" s="15"/>
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
@@ -9234,20 +7657,20 @@
       <c r="BF46" s="15"/>
       <c r="BG46" s="15"/>
       <c r="BH46" s="15"/>
-      <c r="BI46" s="62"/>
-      <c r="BJ46" s="62"/>
-      <c r="BK46" s="62"/>
-      <c r="BL46" s="62"/>
-      <c r="BM46" s="62"/>
-      <c r="BN46" s="62"/>
+      <c r="BI46" s="61"/>
+      <c r="BJ46" s="61"/>
+      <c r="BK46" s="61"/>
+      <c r="BL46" s="61"/>
+      <c r="BM46" s="61"/>
+      <c r="BN46" s="61"/>
       <c r="BO46" s="15"/>
       <c r="BP46" s="15"/>
-      <c r="BR46" s="165"/>
+      <c r="BR46" s="100"/>
     </row>
     <row r="47" spans="16:70" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U47" s="71"/>
-      <c r="V47" s="71"/>
-      <c r="W47" s="71"/>
+      <c r="U47" s="69"/>
+      <c r="V47" s="69"/>
+      <c r="W47" s="69"/>
       <c r="X47" s="15"/>
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
@@ -9293,30 +7716,24 @@
       <c r="BN47" s="15"/>
       <c r="BO47" s="15"/>
       <c r="BP47" s="15"/>
-      <c r="BR47" s="165"/>
+      <c r="BR47" s="100"/>
     </row>
     <row r="48" spans="16:70" x14ac:dyDescent="0.25">
-      <c r="U48" s="71"/>
+      <c r="U48" s="69"/>
     </row>
     <row r="49" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U49" s="71"/>
+      <c r="U49" s="69"/>
     </row>
     <row r="50" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U50" s="71"/>
+      <c r="U50" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y1:AC1"/>
     <mergeCell ref="AD1:AH1"/>
     <mergeCell ref="C2:E2"/>
@@ -9333,11 +7750,17 @@
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -9385,8 +7808,8 @@
   </sheetPr>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9401,7 +7824,7 @@
     <col min="8" max="8" width="9.85546875" style="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" style="24" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="24" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="24" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="24"/>
@@ -9419,90 +7842,90 @@
       <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="112" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="137" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="139" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="139" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="139" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="112" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="112" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="122" t="s">
+      <c r="G2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="123" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="122" t="s">
+      <c r="H2" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="155" t="s">
+      <c r="I2" s="129" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="133" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
-      <c r="O2" s="57"/>
+      <c r="O2" s="56"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="156"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="134"/>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
-      <c r="O3" s="57"/>
+      <c r="O3" s="56"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="157" t="s">
+      <c r="A4" s="126" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="97" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="37">
         <v>1</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="I4" s="37">
         <v>256</v>
       </c>
-      <c r="J4" s="154" t="s">
-        <v>160</v>
+      <c r="J4" s="96" t="s">
+        <v>145</v>
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
-      <c r="O4" s="57"/>
+      <c r="O4" s="56"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
+      <c r="A5" s="127"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
@@ -9510,7 +7933,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E5" s="23">
         <v>10</v>
@@ -9519,123 +7942,123 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="I5" s="27">
         <v>256</v>
       </c>
-      <c r="J5" s="96" t="s">
-        <v>150</v>
+      <c r="J5" s="93" t="s">
+        <v>135</v>
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-      <c r="O5" s="57"/>
+      <c r="O5" s="56"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="115"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C6" s="23">
         <v>3</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E6" s="23">
         <v>50</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" s="96" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="J6" s="93" t="s">
+        <v>102</v>
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
-      <c r="O6" s="57"/>
+      <c r="O6" s="56"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="115"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="38" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C7" s="23">
         <v>4</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E7" s="23">
         <v>100</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="J7" s="96" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="J7" s="93" t="s">
+        <v>102</v>
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-      <c r="O7" s="57"/>
+      <c r="O7" s="56"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="116"/>
-      <c r="B8" s="56" t="s">
-        <v>103</v>
+      <c r="A8" s="128"/>
+      <c r="B8" s="55" t="s">
+        <v>99</v>
       </c>
       <c r="C8" s="44">
         <v>4</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E8" s="44">
         <v>100</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I8" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" s="54" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>102</v>
       </c>
       <c r="K8" s="35"/>
       <c r="L8" s="32"/>
-      <c r="O8" s="57"/>
+      <c r="O8" s="56"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="117" t="s">
-        <v>100</v>
+      <c r="A9" s="140" t="s">
+        <v>96</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>2</v>
@@ -9647,13 +8070,13 @@
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
-      <c r="J9" s="55"/>
+      <c r="J9" s="54"/>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
-      <c r="O9" s="57"/>
+      <c r="O9" s="56"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="115"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="23" t="s">
         <v>14</v>
       </c>
@@ -9664,90 +8087,90 @@
       <c r="G10" s="23"/>
       <c r="H10" s="36"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="96"/>
+      <c r="J10" s="93"/>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>
-      <c r="O10" s="57"/>
+      <c r="O10" s="56"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" s="96" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="J11" s="93" t="s">
+        <v>102</v>
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
-      <c r="O11" s="57"/>
+      <c r="O11" s="56"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
+      <c r="A12" s="127"/>
       <c r="B12" s="23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="96" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="J12" s="93" t="s">
+        <v>102</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
-      <c r="O12" s="57"/>
+      <c r="O12" s="56"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="116"/>
+      <c r="A13" s="128"/>
       <c r="B13" s="44" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
       <c r="G13" s="44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H13" s="44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I13" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="54" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>102</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
-      <c r="O13" s="57"/>
+      <c r="O13" s="56"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -9778,222 +8201,226 @@
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="120" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="122" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="142" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="129" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="122" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="122" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="122" t="s">
+      <c r="F17" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="122" t="s">
+      <c r="G17" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="118" t="s">
-        <v>109</v>
-      </c>
-      <c r="I17" s="122" t="s">
+      <c r="H17" s="141" t="s">
         <v>105</v>
       </c>
-      <c r="J17" s="122" t="s">
+      <c r="I17" s="129" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="158" t="s">
+      <c r="K17" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="91"/>
+      <c r="L17" s="89"/>
       <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
-      <c r="B18" s="121"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="159"/>
-      <c r="L18" s="91"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="89"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="114" t="s">
-        <v>98</v>
+      <c r="A19" s="126" t="s">
+        <v>94</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="C19" s="37">
         <v>1</v>
       </c>
-      <c r="D19" s="94" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="94" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="94" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="94"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="94">
+      <c r="D19" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="103">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I19" s="91">
         <v>256</v>
       </c>
-      <c r="J19" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="K19" s="92">
-        <v>50</v>
+      <c r="J19" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="K19" s="175" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="115"/>
+      <c r="A20" s="127"/>
       <c r="B20" s="7" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="C20" s="23">
         <v>3</v>
       </c>
-      <c r="D20" s="93" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="93">
+      <c r="D20" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="90">
         <v>10</v>
       </c>
-      <c r="F20" s="93">
+      <c r="F20" s="90">
         <v>0.5</v>
       </c>
-      <c r="G20" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="H20" s="173">
+      <c r="G20" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" s="103">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I20" s="93">
+      <c r="I20" s="90">
         <v>256</v>
       </c>
-      <c r="J20" s="93" t="s">
-        <v>150</v>
-      </c>
-      <c r="K20" s="96">
-        <v>50</v>
+      <c r="J20" s="90" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="176" t="s">
+        <v>164</v>
       </c>
       <c r="L20" s="32"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="115"/>
+      <c r="A21" s="127"/>
       <c r="B21" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C21" s="23">
         <v>3</v>
       </c>
-      <c r="D21" s="93" t="s">
-        <v>147</v>
-      </c>
-      <c r="E21" s="93">
+      <c r="D21" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="90">
         <v>50</v>
       </c>
-      <c r="F21" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="J21" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="K21" s="96" t="s">
-        <v>106</v>
+      <c r="F21" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="93" t="s">
+        <v>102</v>
       </c>
       <c r="L21" s="32"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="115"/>
+      <c r="A22" s="127"/>
       <c r="B22" s="7" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="C22" s="23">
         <v>4</v>
       </c>
-      <c r="D22" s="93" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="93">
+      <c r="D22" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="90">
         <v>100</v>
       </c>
-      <c r="F22" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="J22" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="K22" s="171" t="s">
-        <v>106</v>
+      <c r="F22" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="K22" s="101" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="116"/>
+      <c r="A23" s="128"/>
       <c r="B23" s="48" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="C23" s="44">
         <v>4</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E23" s="44">
         <v>100</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="95" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="G23" s="92" t="s">
+        <v>102</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I23" s="44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J23" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="K23" s="172" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="K23" s="102" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="114" t="s">
-        <v>100</v>
+      <c r="A24" s="126" t="s">
+        <v>96</v>
       </c>
       <c r="B24" s="37" t="s">
         <v>2</v>
@@ -10006,10 +8433,10 @@
       <c r="H24" s="37"/>
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
-      <c r="K24" s="55"/>
+      <c r="K24" s="54"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="115"/>
+      <c r="A25" s="127"/>
       <c r="B25" s="23" t="s">
         <v>14</v>
       </c>
@@ -10021,83 +8448,83 @@
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
-      <c r="K25" s="96"/>
+      <c r="K25" s="93"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="115"/>
+      <c r="A26" s="127"/>
       <c r="B26" s="23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="K26" s="96" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="K26" s="93" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="115"/>
+      <c r="A27" s="127"/>
       <c r="B27" s="23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="K27" s="96" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="K27" s="93" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="116"/>
+      <c r="A28" s="128"/>
       <c r="B28" s="44" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C28" s="44"/>
       <c r="D28" s="44"/>
       <c r="E28" s="44"/>
       <c r="F28" s="44"/>
       <c r="G28" s="44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J28" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="K28" s="54" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="K28" s="53" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -10115,16 +8542,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -10132,12 +8555,16 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -10157,17 +8584,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="70" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="8.7109375" style="63" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="63"/>
+    <col min="1" max="1" width="13.140625" style="68" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="8.7109375" style="62" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="149" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="149"/>
+      <c r="A1" s="144" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="144"/>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
       <c r="E1" s="49"/>
@@ -10180,159 +8607,159 @@
       <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="164" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="165"/>
+      <c r="E2" s="164" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="165"/>
+      <c r="G2" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="167"/>
+      <c r="I2" s="166" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="167"/>
+      <c r="K2" s="166" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="170"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="149"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" s="155"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="150"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="74" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="145" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="147"/>
-      <c r="E2" s="146" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="147"/>
-      <c r="G2" s="143" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="144"/>
-      <c r="I2" s="143" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" s="144"/>
-      <c r="K2" s="143" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="145"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="151"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="L3" s="148"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="152"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="I4" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="J4" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="K4" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="L4" s="76" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="85">
+      <c r="C5" s="83">
         <v>0.63300000000000001</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="59">
         <v>0.71299999999999997</v>
       </c>
-      <c r="E5" s="88">
+      <c r="E5" s="86">
         <v>0.66700000000000004</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="57">
         <v>0.5</v>
       </c>
-      <c r="G5" s="59">
+      <c r="G5" s="58">
         <v>-0.43680000000000002</v>
       </c>
-      <c r="H5" s="85">
+      <c r="H5" s="83">
         <v>-0.1004</v>
       </c>
-      <c r="I5" s="86">
+      <c r="I5" s="84">
         <v>-0.4864</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="67">
         <v>-5.1200000000000002E-2</v>
       </c>
-      <c r="K5" s="86">
+      <c r="K5" s="84">
         <v>-0.43809999999999999</v>
       </c>
-      <c r="L5" s="75">
+      <c r="L5" s="73">
         <v>-5.2200000000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
+      <c r="A6" s="146"/>
       <c r="B6" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="129">
+        <v>108</v>
+      </c>
+      <c r="C6" s="156">
         <v>0.67800000000000005</v>
       </c>
-      <c r="D6" s="130"/>
-      <c r="E6" s="129">
+      <c r="D6" s="157"/>
+      <c r="E6" s="156">
         <v>0.624</v>
       </c>
-      <c r="F6" s="130"/>
-      <c r="G6" s="124">
+      <c r="F6" s="157"/>
+      <c r="G6" s="152">
         <v>-0.33439999999999998</v>
       </c>
-      <c r="H6" s="131"/>
-      <c r="I6" s="124">
+      <c r="H6" s="153"/>
+      <c r="I6" s="152">
         <v>-0.27529999999999999</v>
       </c>
-      <c r="J6" s="131"/>
-      <c r="K6" s="124">
+      <c r="J6" s="153"/>
+      <c r="K6" s="152">
         <v>-0.24887999999999999</v>
       </c>
-      <c r="L6" s="125"/>
+      <c r="L6" s="154"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="128"/>
+      <c r="A7" s="147"/>
       <c r="B7" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C7" s="42">
         <v>0.64700000000000002</v>
@@ -10358,7 +8785,7 @@
       <c r="J7" s="43">
         <v>-3.1699999999999999E-2</v>
       </c>
-      <c r="K7" s="72">
+      <c r="K7" s="70">
         <v>-0.42180000000000001</v>
       </c>
       <c r="L7" s="45">
@@ -10366,79 +8793,79 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="126" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="132">
+      <c r="A8" s="145" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="158">
         <v>0.64</v>
       </c>
-      <c r="D8" s="133"/>
-      <c r="E8" s="132">
+      <c r="D8" s="159"/>
+      <c r="E8" s="158">
         <v>0.54900000000000004</v>
       </c>
-      <c r="F8" s="133"/>
-      <c r="G8" s="132">
+      <c r="F8" s="159"/>
+      <c r="G8" s="158">
         <v>-2.98E-2</v>
       </c>
-      <c r="H8" s="133"/>
-      <c r="I8" s="132">
+      <c r="H8" s="159"/>
+      <c r="I8" s="158">
         <v>-6.7199999999999996E-2</v>
       </c>
-      <c r="J8" s="133"/>
-      <c r="K8" s="132">
+      <c r="J8" s="159"/>
+      <c r="K8" s="158">
         <v>-5.4100000000000002E-2</v>
       </c>
-      <c r="L8" s="134"/>
+      <c r="L8" s="171"/>
     </row>
     <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="127"/>
-      <c r="B9" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="136"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="137"/>
+      <c r="A9" s="146"/>
+      <c r="B9" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="106"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="168"/>
+      <c r="L9" s="172"/>
     </row>
     <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="127"/>
+      <c r="A10" s="146"/>
       <c r="B10" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="129">
+        <v>108</v>
+      </c>
+      <c r="C10" s="156">
         <v>0.64300000000000002</v>
       </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="129">
+      <c r="D10" s="157"/>
+      <c r="E10" s="156">
         <v>0.58199999999999996</v>
       </c>
-      <c r="F10" s="130"/>
-      <c r="G10" s="124">
+      <c r="F10" s="157"/>
+      <c r="G10" s="152">
         <v>-0.1447</v>
       </c>
-      <c r="H10" s="131"/>
-      <c r="I10" s="124">
+      <c r="H10" s="153"/>
+      <c r="I10" s="152">
         <v>-8.6900000000000005E-2</v>
       </c>
-      <c r="J10" s="131"/>
-      <c r="K10" s="124">
+      <c r="J10" s="153"/>
+      <c r="K10" s="152">
         <v>-6.6500000000000004E-2</v>
       </c>
-      <c r="L10" s="125"/>
+      <c r="L10" s="154"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="128"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C11" s="42">
         <v>0.61699999999999999</v>
@@ -10464,7 +8891,7 @@
       <c r="J11" s="43">
         <v>-3.73E-2</v>
       </c>
-      <c r="K11" s="72">
+      <c r="K11" s="70">
         <v>-0.1203</v>
       </c>
       <c r="L11" s="45">
@@ -10472,79 +8899,79 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="126" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="132">
+      <c r="A12" s="145" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="158">
         <v>0.63200000000000001</v>
       </c>
-      <c r="D12" s="133"/>
-      <c r="E12" s="132">
+      <c r="D12" s="159"/>
+      <c r="E12" s="158">
         <v>0.499</v>
       </c>
-      <c r="F12" s="133"/>
-      <c r="G12" s="132">
+      <c r="F12" s="159"/>
+      <c r="G12" s="158">
         <v>-8.4500000000000006E-2</v>
       </c>
-      <c r="H12" s="133"/>
-      <c r="I12" s="132">
+      <c r="H12" s="159"/>
+      <c r="I12" s="158">
         <v>-9.7299999999999998E-2</v>
       </c>
-      <c r="J12" s="133"/>
-      <c r="K12" s="132">
+      <c r="J12" s="159"/>
+      <c r="K12" s="158">
         <v>-8.7800000000000003E-2</v>
       </c>
-      <c r="L12" s="134"/>
+      <c r="L12" s="171"/>
     </row>
     <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="127"/>
-      <c r="B13" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="137"/>
+      <c r="A13" s="146"/>
+      <c r="B13" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="106"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="168"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="168"/>
+      <c r="L13" s="172"/>
     </row>
     <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="127"/>
+      <c r="A14" s="146"/>
       <c r="B14" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="129">
+        <v>108</v>
+      </c>
+      <c r="C14" s="156">
         <v>0.64200000000000002</v>
       </c>
-      <c r="D14" s="130"/>
-      <c r="E14" s="129">
+      <c r="D14" s="157"/>
+      <c r="E14" s="156">
         <v>0.58599999999999997</v>
       </c>
-      <c r="F14" s="130"/>
-      <c r="G14" s="124">
+      <c r="F14" s="157"/>
+      <c r="G14" s="152">
         <v>-0.1288</v>
       </c>
-      <c r="H14" s="131"/>
-      <c r="I14" s="124">
+      <c r="H14" s="153"/>
+      <c r="I14" s="152">
         <v>-7.0400000000000004E-2</v>
       </c>
-      <c r="J14" s="131"/>
-      <c r="K14" s="124">
+      <c r="J14" s="153"/>
+      <c r="K14" s="152">
         <v>-5.0200000000000002E-2</v>
       </c>
-      <c r="L14" s="125"/>
+      <c r="L14" s="154"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="128"/>
+      <c r="A15" s="147"/>
       <c r="B15" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C15" s="42">
         <v>0.63</v>
@@ -10570,7 +8997,7 @@
       <c r="J15" s="43">
         <v>-1.7100000000000001E-2</v>
       </c>
-      <c r="K15" s="72">
+      <c r="K15" s="70">
         <v>-1.84E-2</v>
       </c>
       <c r="L15" s="45">
@@ -10578,40 +9005,40 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="127" t="s">
+      <c r="A16" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="82">
+      <c r="B16" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="80">
         <v>0.59</v>
       </c>
-      <c r="D16" s="66">
+      <c r="D16" s="65">
         <v>0.71299999999999997</v>
       </c>
-      <c r="E16" s="77">
+      <c r="E16" s="75">
         <v>0.66100000000000003</v>
       </c>
-      <c r="F16" s="87">
+      <c r="F16" s="85">
         <v>0.45600000000000002</v>
       </c>
-      <c r="G16" s="87">
+      <c r="G16" s="85">
         <v>-8.8400000000000006E-2</v>
       </c>
-      <c r="H16" s="78">
+      <c r="H16" s="76">
         <v>-7.6100000000000001E-2</v>
       </c>
-      <c r="I16" s="87">
+      <c r="I16" s="85">
         <v>-0.1076</v>
       </c>
-      <c r="J16" s="78">
+      <c r="J16" s="76">
         <v>-2.8199999999999999E-2</v>
       </c>
-      <c r="K16" s="87">
+      <c r="K16" s="85">
         <v>-7.7499999999999999E-2</v>
       </c>
-      <c r="L16" s="79">
+      <c r="L16" s="77">
         <v>-0.03</v>
       </c>
       <c r="P16" s="35"/>
@@ -10620,30 +9047,30 @@
       <c r="S16" s="35"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="127"/>
+      <c r="A17" s="146"/>
       <c r="B17" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="129">
+        <v>108</v>
+      </c>
+      <c r="C17" s="156">
         <v>0.66500000000000004</v>
       </c>
-      <c r="D17" s="130"/>
-      <c r="E17" s="129">
+      <c r="D17" s="157"/>
+      <c r="E17" s="156">
         <v>0.623</v>
       </c>
-      <c r="F17" s="130"/>
-      <c r="G17" s="124">
+      <c r="F17" s="157"/>
+      <c r="G17" s="152">
         <v>-0.1022</v>
       </c>
-      <c r="H17" s="131"/>
-      <c r="I17" s="124">
+      <c r="H17" s="153"/>
+      <c r="I17" s="152">
         <v>-7.9000000000000001E-2</v>
       </c>
-      <c r="J17" s="131"/>
-      <c r="K17" s="124">
+      <c r="J17" s="153"/>
+      <c r="K17" s="152">
         <v>-4.5199999999999997E-2</v>
       </c>
-      <c r="L17" s="125"/>
+      <c r="L17" s="154"/>
       <c r="P17" s="35"/>
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
@@ -10653,9 +9080,9 @@
       <c r="V17" s="35"/>
     </row>
     <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="128"/>
+      <c r="A18" s="147"/>
       <c r="B18" s="43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C18" s="42">
         <v>0.59699999999999998</v>
@@ -10669,22 +9096,22 @@
       <c r="F18" s="43">
         <v>0.43099999999999999</v>
       </c>
-      <c r="G18" s="67">
+      <c r="G18" s="66">
         <v>-8.8400000000000006E-2</v>
       </c>
-      <c r="H18" s="67">
+      <c r="H18" s="66">
         <v>-9.8299999999999998E-2</v>
       </c>
       <c r="I18" s="43">
         <v>-9.9599999999999994E-2</v>
       </c>
-      <c r="J18" s="67">
+      <c r="J18" s="66">
         <v>-2.5399999999999999E-2</v>
       </c>
-      <c r="K18" s="72">
+      <c r="K18" s="70">
         <v>-6.7199999999999996E-2</v>
       </c>
-      <c r="L18" s="89">
+      <c r="L18" s="87">
         <v>-3.4200000000000001E-2</v>
       </c>
       <c r="P18" s="35"/>
@@ -10696,22 +9123,22 @@
       <c r="V18" s="35"/>
     </row>
     <row r="19" spans="1:22" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="126" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="132"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="134"/>
+      <c r="A19" s="145" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="158"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="171"/>
       <c r="P19" s="35"/>
       <c r="Q19" s="35"/>
       <c r="R19" s="35"/>
@@ -10721,20 +9148,20 @@
       <c r="V19" s="35"/>
     </row>
     <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="127"/>
-      <c r="B20" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="137"/>
+      <c r="A20" s="146"/>
+      <c r="B20" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="106"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="169"/>
+      <c r="K20" s="168"/>
+      <c r="L20" s="172"/>
       <c r="P20" s="35"/>
       <c r="Q20" s="35"/>
       <c r="R20" s="35"/>
@@ -10744,30 +9171,30 @@
       <c r="V20" s="35"/>
     </row>
     <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="127"/>
+      <c r="A21" s="146"/>
       <c r="B21" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="129">
+        <v>108</v>
+      </c>
+      <c r="C21" s="156">
         <v>0.66300000000000003</v>
       </c>
-      <c r="D21" s="130"/>
-      <c r="E21" s="129">
+      <c r="D21" s="157"/>
+      <c r="E21" s="156">
         <v>0.60499999999999998</v>
       </c>
-      <c r="F21" s="130"/>
-      <c r="G21" s="124">
+      <c r="F21" s="157"/>
+      <c r="G21" s="152">
         <v>-0.28460000000000002</v>
       </c>
-      <c r="H21" s="131"/>
-      <c r="I21" s="124">
+      <c r="H21" s="153"/>
+      <c r="I21" s="152">
         <v>-0.1593</v>
       </c>
-      <c r="J21" s="131"/>
-      <c r="K21" s="124">
+      <c r="J21" s="153"/>
+      <c r="K21" s="152">
         <v>-0.14910000000000001</v>
       </c>
-      <c r="L21" s="125"/>
+      <c r="L21" s="154"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="35"/>
@@ -10777,9 +9204,9 @@
       <c r="V21" s="35"/>
     </row>
     <row r="22" spans="1:22" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="128"/>
+      <c r="A22" s="147"/>
       <c r="B22" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="43"/>
@@ -10789,7 +9216,7 @@
       <c r="H22" s="43"/>
       <c r="I22" s="43"/>
       <c r="J22" s="43"/>
-      <c r="K22" s="72"/>
+      <c r="K22" s="70"/>
       <c r="L22" s="45"/>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
@@ -10800,22 +9227,22 @@
       <c r="V22" s="35"/>
     </row>
     <row r="23" spans="1:22" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="126" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="132"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="133"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="134"/>
+      <c r="A23" s="145" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="158"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="158"/>
+      <c r="L23" s="171"/>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
@@ -10825,20 +9252,20 @@
       <c r="V23" s="35"/>
     </row>
     <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="127"/>
-      <c r="B24" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="100"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="137"/>
+      <c r="A24" s="146"/>
+      <c r="B24" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="106"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="168"/>
+      <c r="J24" s="169"/>
+      <c r="K24" s="168"/>
+      <c r="L24" s="172"/>
       <c r="P24" s="35"/>
       <c r="Q24" s="35"/>
       <c r="R24" s="35"/>
@@ -10848,30 +9275,30 @@
       <c r="V24" s="35"/>
     </row>
     <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="127"/>
+      <c r="A25" s="146"/>
       <c r="B25" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="129">
+        <v>108</v>
+      </c>
+      <c r="C25" s="156">
         <v>0.64700000000000002</v>
       </c>
-      <c r="D25" s="130"/>
-      <c r="E25" s="129">
+      <c r="D25" s="157"/>
+      <c r="E25" s="156">
         <v>0.56399999999999995</v>
       </c>
-      <c r="F25" s="130"/>
-      <c r="G25" s="124">
+      <c r="F25" s="157"/>
+      <c r="G25" s="152">
         <v>-0.2656</v>
       </c>
-      <c r="H25" s="131"/>
-      <c r="I25" s="124">
+      <c r="H25" s="153"/>
+      <c r="I25" s="152">
         <v>-0.1154</v>
       </c>
-      <c r="J25" s="131"/>
-      <c r="K25" s="124">
+      <c r="J25" s="153"/>
+      <c r="K25" s="152">
         <v>-0.1148</v>
       </c>
-      <c r="L25" s="125"/>
+      <c r="L25" s="154"/>
       <c r="P25" s="35"/>
       <c r="Q25" s="35"/>
       <c r="R25" s="35"/>
@@ -10881,9 +9308,9 @@
       <c r="V25" s="35"/>
     </row>
     <row r="26" spans="1:22" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="128"/>
+      <c r="A26" s="147"/>
       <c r="B26" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="43"/>
@@ -10893,7 +9320,7 @@
       <c r="H26" s="43"/>
       <c r="I26" s="43"/>
       <c r="J26" s="43"/>
-      <c r="K26" s="72"/>
+      <c r="K26" s="70"/>
       <c r="L26" s="45"/>
       <c r="P26" s="35"/>
       <c r="Q26" s="35"/>
@@ -10904,40 +9331,40 @@
       <c r="V26" s="35"/>
     </row>
     <row r="27" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="127" t="s">
+      <c r="A27" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="82">
+      <c r="B27" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="80">
         <v>0.55300000000000005</v>
       </c>
-      <c r="D27" s="66">
+      <c r="D27" s="65">
         <v>0.69699999999999995</v>
       </c>
-      <c r="E27" s="87">
+      <c r="E27" s="85">
         <v>0.71199999999999997</v>
       </c>
-      <c r="F27" s="78">
+      <c r="F27" s="76">
         <v>0.38900000000000001</v>
       </c>
-      <c r="G27" s="87">
+      <c r="G27" s="85">
         <v>0.02</v>
       </c>
-      <c r="H27" s="78">
+      <c r="H27" s="76">
         <v>-0.1089</v>
       </c>
-      <c r="I27" s="87">
+      <c r="I27" s="85">
         <v>1.21E-2</v>
       </c>
-      <c r="J27" s="78">
+      <c r="J27" s="76">
         <v>-4.5699999999999998E-2</v>
       </c>
-      <c r="K27" s="77">
+      <c r="K27" s="75">
         <v>0.01</v>
       </c>
-      <c r="L27" s="84">
+      <c r="L27" s="82">
         <v>-5.3600000000000002E-2</v>
       </c>
       <c r="P27" s="35"/>
@@ -10949,30 +9376,30 @@
       <c r="V27" s="35"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="127"/>
+      <c r="A28" s="146"/>
       <c r="B28" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="129">
+        <v>108</v>
+      </c>
+      <c r="C28" s="156">
         <v>0.66800000000000004</v>
       </c>
-      <c r="D28" s="130"/>
-      <c r="E28" s="129">
+      <c r="D28" s="157"/>
+      <c r="E28" s="156">
         <v>0.64</v>
       </c>
-      <c r="F28" s="130"/>
-      <c r="G28" s="124">
+      <c r="F28" s="157"/>
+      <c r="G28" s="152">
         <v>-0.14879999999999999</v>
       </c>
-      <c r="H28" s="131"/>
-      <c r="I28" s="124">
+      <c r="H28" s="153"/>
+      <c r="I28" s="152">
         <v>-0.1207</v>
       </c>
-      <c r="J28" s="131"/>
-      <c r="K28" s="124">
+      <c r="J28" s="153"/>
+      <c r="K28" s="152">
         <v>-8.6999999999999994E-2</v>
       </c>
-      <c r="L28" s="125"/>
+      <c r="L28" s="154"/>
       <c r="R28" s="35"/>
       <c r="S28" s="35"/>
       <c r="T28" s="35"/>
@@ -10980,9 +9407,9 @@
       <c r="V28" s="35"/>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="128"/>
+      <c r="A29" s="147"/>
       <c r="B29" s="43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C29" s="42">
         <v>0.623</v>
@@ -10996,22 +9423,22 @@
       <c r="F29" s="43">
         <v>0.375</v>
       </c>
-      <c r="G29" s="67">
+      <c r="G29" s="66">
         <v>-2.53E-2</v>
       </c>
-      <c r="H29" s="67">
+      <c r="H29" s="66">
         <v>-8.5599999999999996E-2</v>
       </c>
-      <c r="I29" s="67">
+      <c r="I29" s="66">
         <v>-7.0400000000000004E-2</v>
       </c>
-      <c r="J29" s="67">
+      <c r="J29" s="66">
         <v>-2.41E-2</v>
       </c>
-      <c r="K29" s="90">
+      <c r="K29" s="88">
         <v>-3.1600000000000003E-2</v>
       </c>
-      <c r="L29" s="89">
+      <c r="L29" s="87">
         <v>-3.1600000000000003E-2</v>
       </c>
       <c r="R29" s="35"/>
@@ -11021,32 +9448,32 @@
       <c r="V29" s="35"/>
     </row>
     <row r="30" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="127" t="s">
-        <v>141</v>
+      <c r="A30" s="146" t="s">
+        <v>126</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="129">
+        <v>108</v>
+      </c>
+      <c r="C30" s="156">
         <v>0.66700000000000004</v>
       </c>
-      <c r="D30" s="130"/>
-      <c r="E30" s="129">
+      <c r="D30" s="157"/>
+      <c r="E30" s="156">
         <v>0.63600000000000001</v>
       </c>
-      <c r="F30" s="130"/>
-      <c r="G30" s="124">
+      <c r="F30" s="157"/>
+      <c r="G30" s="152">
         <v>-8.3099999999999993E-2</v>
       </c>
-      <c r="H30" s="131"/>
-      <c r="I30" s="124">
+      <c r="H30" s="153"/>
+      <c r="I30" s="152">
         <v>-2.3900000000000001E-2</v>
       </c>
-      <c r="J30" s="131"/>
-      <c r="K30" s="124">
+      <c r="J30" s="153"/>
+      <c r="K30" s="152">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="L30" s="125"/>
+      <c r="L30" s="154"/>
       <c r="R30" s="35"/>
       <c r="S30" s="35"/>
       <c r="T30" s="35"/>
@@ -11054,9 +9481,9 @@
       <c r="V30" s="35"/>
     </row>
     <row r="31" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="128"/>
+      <c r="A31" s="147"/>
       <c r="B31" s="43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C31" s="42">
         <v>0.59699999999999998</v>
@@ -11082,7 +9509,7 @@
       <c r="J31" s="43">
         <v>-5.4399999999999997E-2</v>
       </c>
-      <c r="K31" s="72">
+      <c r="K31" s="70">
         <v>-0.1003</v>
       </c>
       <c r="L31" s="45">
@@ -11095,40 +9522,40 @@
       <c r="V31" s="35"/>
     </row>
     <row r="32" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="126" t="s">
+      <c r="A32" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="59">
+      <c r="B32" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="58">
         <v>0.66700000000000004</v>
       </c>
-      <c r="D32" s="82">
+      <c r="D32" s="80">
         <v>0.66500000000000004</v>
       </c>
-      <c r="E32" s="83">
+      <c r="E32" s="81">
         <v>0.68200000000000005</v>
       </c>
-      <c r="F32" s="51">
+      <c r="F32" s="50">
         <v>0.54600000000000004</v>
       </c>
-      <c r="G32" s="83">
+      <c r="G32" s="81">
         <v>-0.4168</v>
       </c>
-      <c r="H32" s="51">
+      <c r="H32" s="50">
         <v>0.1036</v>
       </c>
-      <c r="I32" s="80">
+      <c r="I32" s="78">
         <v>-0.39860000000000001</v>
       </c>
-      <c r="J32" s="83">
+      <c r="J32" s="81">
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="K32" s="73">
+      <c r="K32" s="71">
         <v>-0.34150000000000003</v>
       </c>
-      <c r="L32" s="84">
+      <c r="L32" s="82">
         <v>9.2399999999999996E-2</v>
       </c>
       <c r="R32" s="35"/>
@@ -11138,40 +9565,40 @@
       <c r="V32" s="35"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="127"/>
+      <c r="A33" s="146"/>
       <c r="B33" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="129">
+        <v>108</v>
+      </c>
+      <c r="C33" s="156">
         <v>0.69</v>
       </c>
-      <c r="D33" s="130"/>
-      <c r="E33" s="129">
+      <c r="D33" s="157"/>
+      <c r="E33" s="156">
         <v>0.66500000000000004</v>
       </c>
-      <c r="F33" s="130"/>
-      <c r="G33" s="124">
+      <c r="F33" s="157"/>
+      <c r="G33" s="152">
         <v>-0.21329999999999999</v>
       </c>
-      <c r="H33" s="131"/>
-      <c r="I33" s="124">
+      <c r="H33" s="153"/>
+      <c r="I33" s="152">
         <v>-0.20979999999999999</v>
       </c>
-      <c r="J33" s="131"/>
-      <c r="K33" s="124">
+      <c r="J33" s="153"/>
+      <c r="K33" s="152">
         <v>-0.16619999999999999</v>
       </c>
-      <c r="L33" s="125"/>
+      <c r="L33" s="154"/>
       <c r="R33" s="35"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="61"/>
       <c r="V33" s="35"/>
     </row>
     <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="128"/>
+      <c r="A34" s="147"/>
       <c r="B34" s="43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C34" s="43">
         <v>0.68700000000000006</v>
@@ -11197,7 +9624,7 @@
       <c r="J34" s="43">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="K34" s="72">
+      <c r="K34" s="70">
         <v>-0.34250000000000003</v>
       </c>
       <c r="L34" s="45">
@@ -11210,32 +9637,32 @@
       <c r="V34" s="35"/>
     </row>
     <row r="35" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="126" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="138">
+      <c r="A35" s="145" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="162">
         <v>0.65800000000000003</v>
       </c>
-      <c r="D35" s="140"/>
-      <c r="E35" s="138">
+      <c r="D35" s="163"/>
+      <c r="E35" s="162">
         <v>0.58699999999999997</v>
       </c>
-      <c r="F35" s="140"/>
-      <c r="G35" s="138">
+      <c r="F35" s="163"/>
+      <c r="G35" s="162">
         <v>-6.8699999999999997E-2</v>
       </c>
-      <c r="H35" s="140"/>
-      <c r="I35" s="132">
+      <c r="H35" s="163"/>
+      <c r="I35" s="158">
         <v>-9.4200000000000006E-2</v>
       </c>
-      <c r="J35" s="133"/>
-      <c r="K35" s="138">
+      <c r="J35" s="159"/>
+      <c r="K35" s="162">
         <v>-8.1000000000000003E-2</v>
       </c>
-      <c r="L35" s="139"/>
+      <c r="L35" s="173"/>
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
       <c r="T35" s="35"/>
@@ -11243,20 +9670,20 @@
       <c r="V35" s="35"/>
     </row>
     <row r="36" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="153"/>
-      <c r="B36" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="100"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="142"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="142"/>
-      <c r="K36" s="135"/>
-      <c r="L36" s="137"/>
+      <c r="A36" s="151"/>
+      <c r="B36" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="106"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="168"/>
+      <c r="L36" s="172"/>
       <c r="R36" s="35"/>
       <c r="S36" s="35"/>
       <c r="T36" s="35"/>
@@ -11264,30 +9691,30 @@
       <c r="V36" s="35"/>
     </row>
     <row r="37" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="153"/>
+      <c r="A37" s="151"/>
       <c r="B37" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="129">
+        <v>108</v>
+      </c>
+      <c r="C37" s="156">
         <v>0.55700000000000005</v>
       </c>
-      <c r="D37" s="130"/>
-      <c r="E37" s="129">
+      <c r="D37" s="157"/>
+      <c r="E37" s="156">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="F37" s="130"/>
-      <c r="G37" s="124">
+      <c r="F37" s="157"/>
+      <c r="G37" s="152">
         <v>-5.5100000000000003E-2</v>
       </c>
-      <c r="H37" s="131"/>
-      <c r="I37" s="124">
+      <c r="H37" s="153"/>
+      <c r="I37" s="152">
         <v>-3.1300000000000001E-2</v>
       </c>
-      <c r="J37" s="131"/>
-      <c r="K37" s="124">
+      <c r="J37" s="153"/>
+      <c r="K37" s="152">
         <v>-3.1699999999999999E-2</v>
       </c>
-      <c r="L37" s="125"/>
+      <c r="L37" s="154"/>
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
       <c r="T37" s="35"/>
@@ -11295,9 +9722,9 @@
       <c r="V37" s="35"/>
     </row>
     <row r="38" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="128"/>
+      <c r="A38" s="147"/>
       <c r="B38" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C38" s="46">
         <v>0.56299999999999994</v>
@@ -11323,7 +9750,7 @@
       <c r="J38" s="43">
         <v>0</v>
       </c>
-      <c r="K38" s="72">
+      <c r="K38" s="70">
         <v>0</v>
       </c>
       <c r="L38" s="45">
@@ -11331,79 +9758,79 @@
       </c>
     </row>
     <row r="39" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="126" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39" s="64" t="s">
+      <c r="A39" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="138">
+      <c r="B39" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="162">
         <v>0.64700000000000002</v>
       </c>
-      <c r="D39" s="140"/>
-      <c r="E39" s="138">
+      <c r="D39" s="163"/>
+      <c r="E39" s="162">
         <v>0.54200000000000004</v>
       </c>
-      <c r="F39" s="140"/>
-      <c r="G39" s="138">
+      <c r="F39" s="163"/>
+      <c r="G39" s="162">
         <v>-2.9100000000000001E-2</v>
       </c>
-      <c r="H39" s="140"/>
-      <c r="I39" s="132">
+      <c r="H39" s="163"/>
+      <c r="I39" s="158">
         <v>-7.8399999999999997E-2</v>
       </c>
-      <c r="J39" s="133"/>
-      <c r="K39" s="138">
+      <c r="J39" s="159"/>
+      <c r="K39" s="162">
         <v>-6.3700000000000007E-2</v>
       </c>
-      <c r="L39" s="139"/>
+      <c r="L39" s="173"/>
     </row>
     <row r="40" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="153"/>
-      <c r="B40" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="100"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="141"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="141"/>
-      <c r="J40" s="142"/>
-      <c r="K40" s="135"/>
-      <c r="L40" s="137"/>
+      <c r="A40" s="151"/>
+      <c r="B40" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="106"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="161"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="161"/>
+      <c r="K40" s="168"/>
+      <c r="L40" s="172"/>
     </row>
     <row r="41" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="153"/>
+      <c r="A41" s="151"/>
       <c r="B41" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="129">
+        <v>108</v>
+      </c>
+      <c r="C41" s="156">
         <v>0.53800000000000003</v>
       </c>
-      <c r="D41" s="130"/>
-      <c r="E41" s="129">
+      <c r="D41" s="157"/>
+      <c r="E41" s="156">
         <v>0</v>
       </c>
-      <c r="F41" s="130"/>
-      <c r="G41" s="124">
+      <c r="F41" s="157"/>
+      <c r="G41" s="152">
         <v>0</v>
       </c>
-      <c r="H41" s="131"/>
-      <c r="I41" s="124">
+      <c r="H41" s="153"/>
+      <c r="I41" s="152">
         <v>0</v>
       </c>
-      <c r="J41" s="131"/>
-      <c r="K41" s="124">
+      <c r="J41" s="153"/>
+      <c r="K41" s="152">
         <v>0</v>
       </c>
-      <c r="L41" s="125"/>
+      <c r="L41" s="154"/>
     </row>
     <row r="42" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="128"/>
+      <c r="A42" s="147"/>
       <c r="B42" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C42" s="46">
         <v>0.56299999999999994</v>
@@ -11429,7 +9856,7 @@
       <c r="J42" s="43">
         <v>0</v>
       </c>
-      <c r="K42" s="72">
+      <c r="K42" s="70">
         <v>0</v>
       </c>
       <c r="L42" s="45">
@@ -11437,73 +9864,73 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="127" t="s">
+      <c r="A43" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="65">
+      <c r="B43" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="64">
         <v>0.58299999999999996</v>
       </c>
-      <c r="D43" s="82">
+      <c r="D43" s="80">
         <v>0.71299999999999997</v>
       </c>
-      <c r="E43" s="81">
+      <c r="E43" s="79">
         <v>0.64600000000000002</v>
       </c>
-      <c r="F43" s="83">
+      <c r="F43" s="81">
         <v>0.46899999999999997</v>
       </c>
-      <c r="G43" s="81">
+      <c r="G43" s="79">
         <v>-0.2263</v>
       </c>
-      <c r="H43" s="83">
+      <c r="H43" s="81">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="I43" s="81">
+      <c r="I43" s="79">
         <v>-0.2301</v>
       </c>
-      <c r="J43" s="83">
+      <c r="J43" s="81">
         <v>1.09E-2</v>
       </c>
-      <c r="K43" s="77">
+      <c r="K43" s="75">
         <v>-0.20699999999999999</v>
       </c>
-      <c r="L43" s="84">
+      <c r="L43" s="82">
         <v>2.2700000000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="127"/>
+      <c r="A44" s="146"/>
       <c r="B44" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="129">
+        <v>108</v>
+      </c>
+      <c r="C44" s="156">
         <v>0.68</v>
       </c>
-      <c r="D44" s="130"/>
-      <c r="E44" s="129">
+      <c r="D44" s="157"/>
+      <c r="E44" s="156">
         <v>0.621</v>
       </c>
-      <c r="F44" s="130"/>
-      <c r="G44" s="124">
+      <c r="F44" s="157"/>
+      <c r="G44" s="152">
         <v>-0.12130000000000001</v>
       </c>
-      <c r="H44" s="131"/>
-      <c r="I44" s="124">
+      <c r="H44" s="153"/>
+      <c r="I44" s="152">
         <v>-0.12609999999999999</v>
       </c>
-      <c r="J44" s="131"/>
-      <c r="K44" s="124">
+      <c r="J44" s="153"/>
+      <c r="K44" s="152">
         <v>-8.4199999999999997E-2</v>
       </c>
-      <c r="L44" s="125"/>
+      <c r="L44" s="154"/>
     </row>
     <row r="45" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="128"/>
+      <c r="A45" s="147"/>
       <c r="B45" s="43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C45" s="43">
         <v>0.58699999999999997</v>
@@ -11517,95 +9944,95 @@
       <c r="F45" s="43">
         <v>0.48599999999999999</v>
       </c>
-      <c r="G45" s="67">
+      <c r="G45" s="66">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="H45" s="67">
+      <c r="H45" s="66">
         <v>-3.1699999999999999E-2</v>
       </c>
-      <c r="I45" s="67">
+      <c r="I45" s="66">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="J45" s="67">
+      <c r="J45" s="66">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="K45" s="90">
+      <c r="K45" s="88">
         <v>2.3900000000000001E-2</v>
       </c>
-      <c r="L45" s="89">
+      <c r="L45" s="87">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="126" t="s">
-        <v>142</v>
-      </c>
-      <c r="B46" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="132"/>
-      <c r="D46" s="133"/>
-      <c r="E46" s="132"/>
-      <c r="F46" s="133"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="133"/>
-      <c r="K46" s="132"/>
-      <c r="L46" s="134"/>
+      <c r="A46" s="145" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="158"/>
+      <c r="D46" s="159"/>
+      <c r="E46" s="158"/>
+      <c r="F46" s="159"/>
+      <c r="G46" s="158"/>
+      <c r="H46" s="159"/>
+      <c r="I46" s="158"/>
+      <c r="J46" s="159"/>
+      <c r="K46" s="158"/>
+      <c r="L46" s="171"/>
     </row>
     <row r="47" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="127"/>
-      <c r="B47" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="100"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="135"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="135"/>
-      <c r="H47" s="136"/>
-      <c r="I47" s="135"/>
-      <c r="J47" s="136"/>
-      <c r="K47" s="135"/>
-      <c r="L47" s="137"/>
+      <c r="A47" s="146"/>
+      <c r="B47" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="106"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="168"/>
+      <c r="F47" s="169"/>
+      <c r="G47" s="168"/>
+      <c r="H47" s="169"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="169"/>
+      <c r="K47" s="168"/>
+      <c r="L47" s="172"/>
       <c r="T47" s="19"/>
       <c r="U47" s="19"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
     </row>
     <row r="48" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="127"/>
+      <c r="A48" s="146"/>
       <c r="B48" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="129">
+        <v>108</v>
+      </c>
+      <c r="C48" s="156">
         <v>0.53800000000000003</v>
       </c>
-      <c r="D48" s="130"/>
-      <c r="E48" s="129">
+      <c r="D48" s="157"/>
+      <c r="E48" s="156">
         <v>0</v>
       </c>
-      <c r="F48" s="130"/>
-      <c r="G48" s="124">
+      <c r="F48" s="157"/>
+      <c r="G48" s="152">
         <v>0</v>
       </c>
-      <c r="H48" s="131"/>
-      <c r="I48" s="124">
+      <c r="H48" s="153"/>
+      <c r="I48" s="152">
         <v>0</v>
       </c>
-      <c r="J48" s="131"/>
-      <c r="K48" s="124">
+      <c r="J48" s="153"/>
+      <c r="K48" s="152">
         <v>0</v>
       </c>
-      <c r="L48" s="125"/>
+      <c r="L48" s="154"/>
       <c r="M48" s="32"/>
       <c r="R48" s="19"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="128"/>
+      <c r="A49" s="147"/>
       <c r="B49" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C49" s="42"/>
       <c r="D49" s="43"/>
@@ -11615,74 +10042,74 @@
       <c r="H49" s="43"/>
       <c r="I49" s="43"/>
       <c r="J49" s="43"/>
-      <c r="K49" s="72"/>
+      <c r="K49" s="70"/>
       <c r="L49" s="45"/>
       <c r="M49" s="32"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="126" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" s="132"/>
-      <c r="D50" s="133"/>
-      <c r="E50" s="132"/>
-      <c r="F50" s="133"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="133"/>
-      <c r="K50" s="132"/>
-      <c r="L50" s="134"/>
+      <c r="A50" s="145" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="158"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="158"/>
+      <c r="F50" s="159"/>
+      <c r="G50" s="158"/>
+      <c r="H50" s="159"/>
+      <c r="I50" s="158"/>
+      <c r="J50" s="159"/>
+      <c r="K50" s="158"/>
+      <c r="L50" s="171"/>
     </row>
     <row r="51" spans="1:13" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="127"/>
-      <c r="B51" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="100"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="135"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="135"/>
-      <c r="H51" s="136"/>
-      <c r="I51" s="135"/>
-      <c r="J51" s="136"/>
-      <c r="K51" s="135"/>
-      <c r="L51" s="137"/>
+      <c r="A51" s="146"/>
+      <c r="B51" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="106"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="168"/>
+      <c r="F51" s="169"/>
+      <c r="G51" s="168"/>
+      <c r="H51" s="169"/>
+      <c r="I51" s="168"/>
+      <c r="J51" s="169"/>
+      <c r="K51" s="168"/>
+      <c r="L51" s="172"/>
     </row>
     <row r="52" spans="1:13" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="127"/>
+      <c r="A52" s="146"/>
       <c r="B52" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="129">
+        <v>108</v>
+      </c>
+      <c r="C52" s="156">
         <v>0.53800000000000003</v>
       </c>
-      <c r="D52" s="130"/>
-      <c r="E52" s="129">
+      <c r="D52" s="157"/>
+      <c r="E52" s="156">
         <v>0</v>
       </c>
-      <c r="F52" s="130"/>
-      <c r="G52" s="124">
+      <c r="F52" s="157"/>
+      <c r="G52" s="152">
         <v>0</v>
       </c>
-      <c r="H52" s="131"/>
-      <c r="I52" s="124">
+      <c r="H52" s="153"/>
+      <c r="I52" s="152">
         <v>0</v>
       </c>
-      <c r="J52" s="131"/>
-      <c r="K52" s="124">
+      <c r="J52" s="153"/>
+      <c r="K52" s="152">
         <v>0</v>
       </c>
-      <c r="L52" s="125"/>
+      <c r="L52" s="154"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="128"/>
+      <c r="A53" s="147"/>
       <c r="B53" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C53" s="42"/>
       <c r="D53" s="43"/>
@@ -11692,77 +10119,77 @@
       <c r="H53" s="43"/>
       <c r="I53" s="43"/>
       <c r="J53" s="43"/>
-      <c r="K53" s="72"/>
+      <c r="K53" s="70"/>
       <c r="L53" s="45"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="127" t="s">
-        <v>145</v>
-      </c>
-      <c r="B54" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="82">
+      <c r="A54" s="146" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="80">
         <v>0.60699999999999998</v>
       </c>
-      <c r="D54" s="66">
+      <c r="D54" s="65">
         <v>0.71699999999999997</v>
       </c>
-      <c r="E54" s="77">
+      <c r="E54" s="75">
         <v>0.67400000000000004</v>
       </c>
-      <c r="F54" s="87">
+      <c r="F54" s="85">
         <v>0.503</v>
       </c>
-      <c r="G54" s="77">
+      <c r="G54" s="75">
         <v>-0.27960000000000002</v>
       </c>
-      <c r="H54" s="87">
+      <c r="H54" s="85">
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="I54" s="77">
+      <c r="I54" s="75">
         <v>-0.2432</v>
       </c>
-      <c r="J54" s="87">
+      <c r="J54" s="85">
         <v>4.7199999999999999E-2</v>
       </c>
-      <c r="K54" s="77">
+      <c r="K54" s="75">
         <v>-0.2185</v>
       </c>
-      <c r="L54" s="84">
+      <c r="L54" s="82">
         <v>6.5100000000000005E-2</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="127"/>
+      <c r="A55" s="146"/>
       <c r="B55" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="129">
+        <v>108</v>
+      </c>
+      <c r="C55" s="156">
         <v>0.67700000000000005</v>
       </c>
-      <c r="D55" s="130"/>
-      <c r="E55" s="129">
+      <c r="D55" s="157"/>
+      <c r="E55" s="156">
         <v>0.67</v>
       </c>
-      <c r="F55" s="130"/>
-      <c r="G55" s="124">
+      <c r="F55" s="157"/>
+      <c r="G55" s="152">
         <v>-9.0399999999999994E-2</v>
       </c>
-      <c r="H55" s="131"/>
-      <c r="I55" s="124">
+      <c r="H55" s="153"/>
+      <c r="I55" s="152">
         <v>-0.12130000000000001</v>
       </c>
-      <c r="J55" s="131"/>
-      <c r="K55" s="124">
+      <c r="J55" s="153"/>
+      <c r="K55" s="152">
         <v>-7.2099999999999997E-2</v>
       </c>
-      <c r="L55" s="125"/>
+      <c r="L55" s="154"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="128"/>
+      <c r="A56" s="147"/>
       <c r="B56" s="43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C56" s="42">
         <v>0.58299999999999996</v>
@@ -11776,57 +10203,57 @@
       <c r="F56" s="43">
         <v>0.503</v>
       </c>
-      <c r="G56" s="67">
+      <c r="G56" s="66">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="H56" s="67">
+      <c r="H56" s="66">
         <v>-6.6600000000000006E-2</v>
       </c>
-      <c r="I56" s="67">
+      <c r="I56" s="66">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="J56" s="67">
+      <c r="J56" s="66">
         <v>-6.1999999999999998E-3</v>
       </c>
-      <c r="K56" s="90">
+      <c r="K56" s="88">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="L56" s="89">
+      <c r="L56" s="87">
         <v>-1.03E-2</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="127" t="s">
-        <v>144</v>
+      <c r="A57" s="146" t="s">
+        <v>129</v>
       </c>
       <c r="B57" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="129">
+        <v>108</v>
+      </c>
+      <c r="C57" s="156">
         <v>0.67500000000000004</v>
       </c>
-      <c r="D57" s="130"/>
-      <c r="E57" s="129">
+      <c r="D57" s="157"/>
+      <c r="E57" s="156">
         <v>0.61099999999999999</v>
       </c>
-      <c r="F57" s="130"/>
-      <c r="G57" s="124">
+      <c r="F57" s="157"/>
+      <c r="G57" s="152">
         <v>-0.16159999999999999</v>
       </c>
-      <c r="H57" s="131"/>
-      <c r="I57" s="124">
+      <c r="H57" s="153"/>
+      <c r="I57" s="152">
         <v>-0.15709999999999999</v>
       </c>
-      <c r="J57" s="131"/>
-      <c r="K57" s="124">
+      <c r="J57" s="153"/>
+      <c r="K57" s="152">
         <v>-0.11890000000000001</v>
       </c>
-      <c r="L57" s="125"/>
+      <c r="L57" s="154"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="128"/>
+      <c r="A58" s="147"/>
       <c r="B58" s="43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C58" s="42">
         <v>0.56299999999999994</v>
@@ -11840,40 +10267,181 @@
       <c r="F58" s="43">
         <v>0.503</v>
       </c>
-      <c r="G58" s="67">
+      <c r="G58" s="66">
         <v>0</v>
       </c>
-      <c r="H58" s="67">
+      <c r="H58" s="66">
         <v>-6.6600000000000006E-2</v>
       </c>
-      <c r="I58" s="67">
+      <c r="I58" s="66">
         <v>0</v>
       </c>
-      <c r="J58" s="67">
+      <c r="J58" s="66">
         <v>-6.1999999999999998E-3</v>
       </c>
-      <c r="K58" s="90">
+      <c r="K58" s="88">
         <v>0</v>
       </c>
-      <c r="L58" s="89">
+      <c r="L58" s="87">
         <v>-1.03E-2</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="G6:H6"/>
@@ -11898,159 +10466,18 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/experiments/compas/results/all_results.xlsx
+++ b/experiments/compas/results/all_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancarey\PycharmProjects\adaptive-hypernets\experiments\compas\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alycia\Documents\adaptive-hypernets\experiments\compas\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63CCCDB-B10A-495D-AFA9-AEA673D55246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B67BB88-F6AD-4928-87FD-38AFE1234B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="707" activeTab="3" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
+    <workbookView xWindow="1152" yWindow="1836" windowWidth="17280" windowHeight="8964" tabRatio="707" firstSheet="2" activeTab="2" xr2:uid="{4524E15B-8C05-4645-AAC7-9D29869D5525}"/>
   </bookViews>
   <sheets>
     <sheet name="compas-cfl" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="180">
   <si>
     <t>Model</t>
   </si>
@@ -305,9 +305,6 @@
     <t>F1 Global</t>
   </si>
   <si>
-    <t>AUC Global</t>
-  </si>
-  <si>
     <t>EOD Global</t>
   </si>
   <si>
@@ -395,12 +392,6 @@
     <t>NN + same dp (100)</t>
   </si>
   <si>
-    <t>clients: .003</t>
-  </si>
-  <si>
-    <t>1: .007, 2: .002</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPD </t>
   </si>
   <si>
@@ -582,6 +573,15 @@
   </si>
   <si>
     <t xml:space="preserve">more weight? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Time </t>
+  </si>
+  <si>
+    <t>1 min 15 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7  min </t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1508,12 +1508,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1538,21 +1532,33 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1577,6 +1583,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1589,9 +1598,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1613,63 +1619,129 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1682,84 +1754,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2083,32 +2078,32 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" customWidth="1"/>
-    <col min="27" max="27" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.33203125" customWidth="1"/>
+    <col min="27" max="27" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="106" t="s">
@@ -2116,26 +2111,26 @@
       </c>
       <c r="C1" s="107"/>
       <c r="D1" s="108"/>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="110" t="s">
+      <c r="F1" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="109" t="s">
+      <c r="G1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="109" t="s">
+      <c r="I1" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="114" t="s">
+      <c r="J1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="115"/>
-      <c r="L1" s="116"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="118"/>
       <c r="M1" s="106" t="s">
         <v>4</v>
       </c>
@@ -2156,24 +2151,24 @@
       </c>
       <c r="W1" s="107"/>
       <c r="X1" s="108"/>
-      <c r="Y1" s="109" t="s">
+      <c r="Y1" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="112" t="s">
+      <c r="Z1" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="112" t="s">
+      <c r="AA1" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="112" t="s">
+      <c r="AB1" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="109" t="s">
+      <c r="AC1" s="111" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="105"/>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A2" s="110"/>
       <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
@@ -2183,11 +2178,11 @@
       <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
       <c r="J2" s="12" t="s">
         <v>17</v>
       </c>
@@ -2233,13 +2228,13 @@
       <c r="X2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="109"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="111"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
@@ -2328,7 +2323,7 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
@@ -2417,7 +2412,7 @@
         <v>10.74</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>53</v>
       </c>
@@ -2506,7 +2501,7 @@
         <v>12.67</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>54</v>
       </c>
@@ -2526,7 +2521,7 @@
         <v>28.5</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>11</v>
@@ -2595,7 +2590,7 @@
         <v>9.91</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>67</v>
       </c>
@@ -2692,7 +2687,7 @@
       <c r="AH7" s="34"/>
       <c r="AI7" s="34"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>68</v>
       </c>
@@ -2781,16 +2776,11 @@
         <v>15.53</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
@@ -2803,6 +2793,11 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2820,46 +2815,46 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" style="21" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="21" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" style="21" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="21" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="19" width="9.140625" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="43" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="48" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="54" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.109375" customWidth="1"/>
+    <col min="20" max="20" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="43" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="48" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="54" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="3" bestFit="1" customWidth="1"/>
-    <col min="60" max="68" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="81" max="83" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="68" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="81" max="83" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="106" t="s">
@@ -2872,28 +2867,28 @@
       </c>
       <c r="F1" s="107"/>
       <c r="G1" s="108"/>
-      <c r="H1" s="110" t="s">
+      <c r="H1" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="109" t="s">
+      <c r="I1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="109" t="s">
+      <c r="J1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="109" t="s">
+      <c r="K1" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="114" t="s">
+      <c r="L1" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="114" t="s">
+      <c r="M1" s="117"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="116"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="118"/>
       <c r="R1" s="106" t="s">
         <v>28</v>
       </c>
@@ -2934,39 +2929,39 @@
       </c>
       <c r="AN1" s="107"/>
       <c r="AO1" s="108"/>
-      <c r="AP1" s="109" t="s">
+      <c r="AP1" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="109" t="s">
+      <c r="AQ1" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="112" t="s">
+      <c r="AR1" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" s="112" t="s">
+      <c r="AS1" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" s="112" t="s">
+      <c r="AT1" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" s="112" t="s">
+      <c r="AU1" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" s="112" t="s">
+      <c r="AV1" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" s="112" t="s">
+      <c r="AW1" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" s="109" t="s">
+      <c r="AX1" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" s="109" t="s">
+      <c r="AY1" s="111" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A2" s="105"/>
+    <row r="2" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A2" s="110"/>
       <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
@@ -2985,10 +2980,10 @@
       <c r="G2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="111"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
       <c r="L2" s="12" t="s">
         <v>17</v>
       </c>
@@ -3079,18 +3074,18 @@
       <c r="AO2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AP2" s="109"/>
-      <c r="AQ2" s="109"/>
-      <c r="AR2" s="113"/>
-      <c r="AS2" s="113"/>
-      <c r="AT2" s="113"/>
-      <c r="AU2" s="113"/>
-      <c r="AV2" s="113"/>
-      <c r="AW2" s="113"/>
-      <c r="AX2" s="109"/>
-      <c r="AY2" s="109"/>
-    </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="AP2" s="111"/>
+      <c r="AQ2" s="111"/>
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="115"/>
+      <c r="AT2" s="115"/>
+      <c r="AU2" s="115"/>
+      <c r="AV2" s="115"/>
+      <c r="AW2" s="115"/>
+      <c r="AX2" s="111"/>
+      <c r="AY2" s="111"/>
+    </row>
+    <row r="3" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
@@ -3245,7 +3240,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
@@ -3400,7 +3395,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="5" spans="1:74" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:74" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>53</v>
       </c>
@@ -3555,7 +3550,7 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:74" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:74" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>54</v>
       </c>
@@ -3710,7 +3705,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>67</v>
       </c>
@@ -3765,7 +3760,7 @@
       <c r="AX7" s="18"/>
       <c r="AY7" s="18"/>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>68</v>
       </c>
@@ -3820,8 +3815,8 @@
       <c r="AX8" s="19"/>
       <c r="AY8" s="19"/>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A11" s="104" t="s">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A11" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -3839,33 +3834,33 @@
       </c>
       <c r="I11" s="107"/>
       <c r="J11" s="108"/>
-      <c r="K11" s="110" t="s">
+      <c r="K11" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="109" t="s">
+      <c r="L11" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="109" t="s">
+      <c r="M11" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="109" t="s">
+      <c r="N11" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="114" t="s">
+      <c r="O11" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="115"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="114" t="s">
+      <c r="P11" s="117"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="115"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="114" t="s">
+      <c r="S11" s="117"/>
+      <c r="T11" s="118"/>
+      <c r="U11" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="V11" s="115"/>
-      <c r="W11" s="116"/>
+      <c r="V11" s="117"/>
+      <c r="W11" s="118"/>
       <c r="X11" s="106" t="s">
         <v>28</v>
       </c>
@@ -3926,54 +3921,54 @@
       </c>
       <c r="BF11" s="107"/>
       <c r="BG11" s="108"/>
-      <c r="BH11" s="109" t="s">
+      <c r="BH11" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="BI11" s="109" t="s">
+      <c r="BI11" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="BJ11" s="110" t="s">
+      <c r="BJ11" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="BK11" s="112" t="s">
+      <c r="BK11" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="BL11" s="112" t="s">
+      <c r="BL11" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="BM11" s="112" t="s">
+      <c r="BM11" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="BN11" s="112" t="s">
+      <c r="BN11" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="BO11" s="112" t="s">
+      <c r="BO11" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="BP11" s="112" t="s">
+      <c r="BP11" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="BQ11" s="112" t="s">
+      <c r="BQ11" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="BR11" s="112" t="s">
+      <c r="BR11" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="BS11" s="112" t="s">
+      <c r="BS11" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="BT11" s="109" t="s">
+      <c r="BT11" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="BU11" s="109" t="s">
+      <c r="BU11" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="BV11" s="109" t="s">
+      <c r="BV11" s="111" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A12" s="105"/>
+    <row r="12" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A12" s="110"/>
       <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
@@ -4001,10 +3996,10 @@
       <c r="J12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="111"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
       <c r="O12" s="12" t="s">
         <v>17</v>
       </c>
@@ -4140,23 +4135,23 @@
       <c r="BG12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="BH12" s="109"/>
-      <c r="BI12" s="109"/>
-      <c r="BJ12" s="111"/>
-      <c r="BK12" s="113"/>
-      <c r="BL12" s="113"/>
-      <c r="BM12" s="113"/>
-      <c r="BN12" s="113"/>
-      <c r="BO12" s="113"/>
-      <c r="BP12" s="113"/>
-      <c r="BQ12" s="113"/>
-      <c r="BR12" s="113"/>
-      <c r="BS12" s="113"/>
-      <c r="BT12" s="109"/>
-      <c r="BU12" s="109"/>
-      <c r="BV12" s="109"/>
-    </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BH12" s="111"/>
+      <c r="BI12" s="111"/>
+      <c r="BJ12" s="113"/>
+      <c r="BK12" s="115"/>
+      <c r="BL12" s="115"/>
+      <c r="BM12" s="115"/>
+      <c r="BN12" s="115"/>
+      <c r="BO12" s="115"/>
+      <c r="BP12" s="115"/>
+      <c r="BQ12" s="115"/>
+      <c r="BR12" s="115"/>
+      <c r="BS12" s="115"/>
+      <c r="BT12" s="111"/>
+      <c r="BU12" s="111"/>
+      <c r="BV12" s="111"/>
+    </row>
+    <row r="13" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>2</v>
       </c>
@@ -4380,7 +4375,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>14</v>
       </c>
@@ -4604,7 +4599,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:74" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:74" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>53</v>
       </c>
@@ -4828,7 +4823,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:74" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:74" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>54</v>
       </c>
@@ -5052,7 +5047,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="17" spans="1:74" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:74" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>67</v>
       </c>
@@ -5130,7 +5125,7 @@
       <c r="BU17" s="18"/>
       <c r="BV17" s="18"/>
     </row>
-    <row r="18" spans="1:74" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:74" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>68</v>
       </c>
@@ -5208,7 +5203,7 @@
       <c r="BU18" s="19"/>
       <c r="BV18" s="19"/>
     </row>
-    <row r="20" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -5219,7 +5214,7 @@
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -5230,7 +5225,7 @@
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
     </row>
-    <row r="22" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -5241,7 +5236,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="26"/>
@@ -5254,18 +5249,43 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="BV11:BV12"/>
-    <mergeCell ref="BK11:BK12"/>
-    <mergeCell ref="BL11:BL12"/>
-    <mergeCell ref="BM11:BM12"/>
-    <mergeCell ref="BN11:BN12"/>
-    <mergeCell ref="BO11:BO12"/>
-    <mergeCell ref="BP11:BP12"/>
-    <mergeCell ref="BQ11:BQ12"/>
-    <mergeCell ref="BR11:BR12"/>
-    <mergeCell ref="BS11:BS12"/>
-    <mergeCell ref="BT11:BT12"/>
-    <mergeCell ref="BU11:BU12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="AW1:AW2"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="AY1:AY2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="AP1:AP2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AS1:AS2"/>
+    <mergeCell ref="AT1:AT2"/>
+    <mergeCell ref="AU1:AU2"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:Q11"/>
     <mergeCell ref="R11:T11"/>
     <mergeCell ref="U11:W11"/>
     <mergeCell ref="X11:Z11"/>
@@ -5282,43 +5302,18 @@
     <mergeCell ref="BE11:BG11"/>
     <mergeCell ref="BH11:BH12"/>
     <mergeCell ref="BI11:BI12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="AW1:AW2"/>
-    <mergeCell ref="AX1:AX2"/>
-    <mergeCell ref="AY1:AY2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="AP1:AP2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AS1:AS2"/>
-    <mergeCell ref="AT1:AT2"/>
-    <mergeCell ref="AU1:AU2"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="BV11:BV12"/>
+    <mergeCell ref="BK11:BK12"/>
+    <mergeCell ref="BL11:BL12"/>
+    <mergeCell ref="BM11:BM12"/>
+    <mergeCell ref="BN11:BN12"/>
+    <mergeCell ref="BO11:BO12"/>
+    <mergeCell ref="BP11:BP12"/>
+    <mergeCell ref="BQ11:BQ12"/>
+    <mergeCell ref="BR11:BR12"/>
+    <mergeCell ref="BS11:BS12"/>
+    <mergeCell ref="BT11:BT12"/>
+    <mergeCell ref="BU11:BU12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -5330,27 +5325,27 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:BV27"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="106" t="s">
@@ -5358,7 +5353,7 @@
       </c>
       <c r="C1" s="107"/>
       <c r="D1" s="108"/>
-      <c r="E1" s="109" t="s">
+      <c r="E1" s="111" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="106" t="s">
@@ -5366,30 +5361,24 @@
       </c>
       <c r="G1" s="107"/>
       <c r="H1" s="108"/>
-      <c r="I1" s="110" t="s">
+      <c r="I1" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="112" t="s">
+      <c r="J1" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="112" t="s">
+      <c r="K1" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="112" t="s">
+      <c r="L1" s="111" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="109" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="109" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="105"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="110"/>
       <c r="B2" s="13" t="s">
         <v>17</v>
       </c>
@@ -5399,7 +5388,7 @@
       <c r="D2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="109"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="13" t="s">
         <v>17</v>
       </c>
@@ -5409,69 +5398,103 @@
       <c r="H2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="111"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="5">
+      <c r="B3" s="2">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="I3" s="10">
+        <v>-0.36249999999999999</v>
+      </c>
+      <c r="J3" s="10">
+        <v>-0.37590000000000001</v>
+      </c>
+      <c r="K3" s="10">
+        <v>-0.32519999999999999</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="6">
+      <c r="B4" s="39">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="C4" s="39">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="E4" s="40">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F4" s="39">
+        <v>0.627</v>
+      </c>
+      <c r="G4" s="39">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="H4" s="39">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="I4" s="67">
+        <v>-0.28299999999999997</v>
+      </c>
+      <c r="J4" s="67">
+        <v>-0.33079999999999998</v>
+      </c>
+      <c r="K4" s="67">
+        <v>-0.27879999999999999</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="1" t="s">
-        <v>117</v>
+      <c r="E5" s="1">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
@@ -5480,44 +5503,40 @@
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18">
+      <c r="M5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
-      <c r="E6" s="19" t="s">
-        <v>118</v>
+      <c r="E6" s="19">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19">
+      <c r="M6" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="1" t="s">
-        <v>117</v>
+      <c r="E7" s="1">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
@@ -5527,18 +5546,16 @@
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="60" t="s">
-        <v>118</v>
+      <c r="E8" s="60">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -5548,18 +5565,16 @@
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="1" t="s">
-        <v>117</v>
+      <c r="E9" s="1">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -5569,18 +5584,16 @@
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="60" t="s">
-        <v>118</v>
+      <c r="E10" s="60">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -5590,96 +5603,105 @@
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="25"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="25"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
       <c r="B15" s="61"/>
       <c r="C15" s="29"/>
       <c r="D15" s="25"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
       <c r="D16" s="25"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="25"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" s="25"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" s="25"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="25"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="95" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="94" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E26" s="95" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="95" t="s">
-        <v>150</v>
-      </c>
+      <c r="D22" s="176"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="176"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D23" s="176"/>
+      <c r="E23" s="176"/>
+      <c r="F23" s="176"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="176"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="176"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D25" s="176"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="176"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D26" s="176"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="176"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D27" s="176"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="176"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D28" s="176"/>
+      <c r="E28" s="176"/>
+      <c r="F28" s="176"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="9">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:I2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5692,168 +5714,168 @@
   </sheetPr>
   <dimension ref="A1:BR50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9.28515625" style="28"/>
-    <col min="8" max="17" width="9.28515625" style="28" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="28"/>
-    <col min="19" max="21" width="9.28515625" style="28" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" style="28"/>
-    <col min="23" max="23" width="9.28515625" style="28" customWidth="1"/>
-    <col min="24" max="34" width="9.28515625" style="28"/>
-    <col min="35" max="35" width="11.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="36" max="56" width="9.28515625" style="28"/>
-    <col min="57" max="58" width="9.28515625" style="28" customWidth="1"/>
-    <col min="59" max="59" width="9.28515625" style="28"/>
-    <col min="60" max="60" width="9.28515625" style="28" customWidth="1"/>
-    <col min="61" max="64" width="9.28515625" style="28"/>
-    <col min="65" max="68" width="9.28515625" style="28" customWidth="1"/>
-    <col min="69" max="16384" width="9.28515625" style="28"/>
+    <col min="1" max="1" width="12.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.33203125" style="28"/>
+    <col min="8" max="17" width="9.33203125" style="28" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" style="28"/>
+    <col min="19" max="21" width="9.33203125" style="28" customWidth="1"/>
+    <col min="22" max="22" width="9.33203125" style="28"/>
+    <col min="23" max="23" width="9.33203125" style="28" customWidth="1"/>
+    <col min="24" max="34" width="9.33203125" style="28"/>
+    <col min="35" max="35" width="11.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="36" max="56" width="9.33203125" style="28"/>
+    <col min="57" max="58" width="9.33203125" style="28" customWidth="1"/>
+    <col min="59" max="59" width="9.33203125" style="28"/>
+    <col min="60" max="60" width="9.33203125" style="28" customWidth="1"/>
+    <col min="61" max="64" width="9.33203125" style="28"/>
+    <col min="65" max="68" width="9.33203125" style="28" customWidth="1"/>
+    <col min="69" max="16384" width="9.33203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121" t="s">
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121" t="s">
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121" t="s">
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="121"/>
-      <c r="AD1" s="121" t="s">
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="119"/>
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="119"/>
+      <c r="AD1" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="121"/>
-      <c r="AH1" s="121"/>
+      <c r="AE1" s="119"/>
+      <c r="AF1" s="119"/>
+      <c r="AG1" s="119"/>
+      <c r="AH1" s="119"/>
       <c r="AI1" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A2" s="125"/>
-      <c r="B2" s="117" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A2" s="127"/>
+      <c r="B2" s="120" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="124" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="125"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="124" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="125"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="124" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="J2" s="125"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="124" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="122" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="123"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="122" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="123"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="122" t="s">
-        <v>140</v>
-      </c>
-      <c r="M2" s="123"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="117" t="s">
+      <c r="M2" s="125"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="120" t="s">
+        <v>133</v>
+      </c>
+      <c r="P2" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q2" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="R2" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="P2" s="117" t="s">
+      <c r="S2" s="122" t="s">
         <v>137</v>
       </c>
-      <c r="Q2" s="117" t="s">
-        <v>138</v>
-      </c>
-      <c r="R2" s="117" t="s">
-        <v>139</v>
-      </c>
-      <c r="S2" s="119" t="s">
-        <v>140</v>
-      </c>
-      <c r="T2" s="117" t="s">
+      <c r="T2" s="120" t="s">
+        <v>133</v>
+      </c>
+      <c r="U2" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="V2" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="W2" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="U2" s="117" t="s">
+      <c r="X2" s="122" t="s">
         <v>137</v>
       </c>
-      <c r="V2" s="117" t="s">
-        <v>138</v>
-      </c>
-      <c r="W2" s="117" t="s">
-        <v>139</v>
-      </c>
-      <c r="X2" s="119" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y2" s="117" t="s">
+      <c r="Y2" s="120" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z2" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA2" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB2" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="Z2" s="117" t="s">
+      <c r="AC2" s="122" t="s">
         <v>137</v>
       </c>
-      <c r="AA2" s="117" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB2" s="117" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC2" s="119" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD2" s="117" t="s">
+      <c r="AD2" s="120" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE2" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF2" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG2" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="AE2" s="117" t="s">
+      <c r="AH2" s="122" t="s">
         <v>137</v>
       </c>
-      <c r="AF2" s="117" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG2" s="117" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH2" s="119" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI2" s="117" t="s">
-        <v>136</v>
+      <c r="AI2" s="120" t="s">
+        <v>133</v>
       </c>
       <c r="AY2" s="61"/>
       <c r="AZ2" s="61"/>
@@ -5861,13 +5883,13 @@
       <c r="BB2" s="61"/>
       <c r="BC2" s="61"/>
       <c r="BD2" s="61"/>
-      <c r="BH2" s="100"/>
-    </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A3" s="118"/>
-      <c r="B3" s="118"/>
+      <c r="BH2" s="98"/>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
       <c r="C3" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
@@ -5876,7 +5898,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>15</v>
@@ -5885,7 +5907,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>15</v>
@@ -5894,7 +5916,7 @@
         <v>16</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>15</v>
@@ -5902,36 +5924,36 @@
       <c r="N3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="118"/>
-      <c r="V3" s="118"/>
-      <c r="W3" s="118"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="118"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="118"/>
-      <c r="AC3" s="120"/>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="118"/>
-      <c r="AG3" s="118"/>
-      <c r="AH3" s="120"/>
-      <c r="AI3" s="118"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="123"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121"/>
+      <c r="W3" s="121"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="121"/>
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="123"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="123"/>
+      <c r="AI3" s="121"/>
       <c r="AY3" s="61"/>
       <c r="AZ3" s="61"/>
       <c r="BA3" s="61"/>
       <c r="BB3" s="61"/>
       <c r="BC3" s="61"/>
       <c r="BD3" s="61"/>
-      <c r="BH3" s="100"/>
-    </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BH3" s="98"/>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -6039,7 +6061,7 @@
         <v>-0.38419999999999999</v>
       </c>
       <c r="AI4" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AY4" s="61"/>
       <c r="AZ4" s="61"/>
@@ -6047,9 +6069,9 @@
       <c r="BB4" s="61"/>
       <c r="BC4" s="61"/>
       <c r="BD4" s="61"/>
-      <c r="BH4" s="100"/>
-    </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BH4" s="98"/>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -6097,13 +6119,13 @@
         <v>0.71909999999999996</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="S5" s="7">
         <v>0.71909999999999996</v>
@@ -6157,17 +6179,17 @@
         <v>-0.35909999999999997</v>
       </c>
       <c r="AI5" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AY5" s="99"/>
+        <v>146</v>
+      </c>
+      <c r="AY5" s="97"/>
       <c r="AZ5" s="61"/>
       <c r="BA5" s="61"/>
       <c r="BB5" s="61"/>
       <c r="BC5" s="61"/>
       <c r="BD5" s="61"/>
-      <c r="BH5" s="100"/>
-    </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BH5" s="98"/>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>53</v>
       </c>
@@ -6215,13 +6237,13 @@
         <v>0.71819999999999995</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S6" s="8">
         <v>0.71819999999999995</v>
@@ -6276,7 +6298,7 @@
         <v>-5.4300000000000001E-2</v>
       </c>
       <c r="AI6" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AJ6" s="15"/>
       <c r="AK6" s="15"/>
@@ -6301,9 +6323,9 @@
       <c r="BD6" s="15"/>
       <c r="BE6" s="15"/>
       <c r="BF6" s="15"/>
-      <c r="BH6" s="100"/>
-    </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BH6" s="98"/>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>54</v>
       </c>
@@ -6351,16 +6373,16 @@
         <v>0.42420000000000002</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7">
         <v>0.42420000000000002</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="T7" s="7">
         <f t="shared" si="1"/>
@@ -6378,7 +6400,7 @@
       <c r="X7" s="8">
         <v>-1.6E-2</v>
       </c>
-      <c r="Y7" s="177">
+      <c r="Y7" s="105">
         <f t="shared" si="2"/>
         <v>-5.9999999999999967E-3</v>
       </c>
@@ -6411,7 +6433,7 @@
         <v>-7.2700000000000001E-2</v>
       </c>
       <c r="AI7" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AJ7" s="15"/>
       <c r="AK7" s="15"/>
@@ -6438,9 +6460,9 @@
       <c r="BF7" s="61"/>
       <c r="BG7" s="15"/>
       <c r="BH7" s="15"/>
-      <c r="BJ7" s="100"/>
-    </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BJ7" s="98"/>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>67</v>
       </c>
@@ -6488,16 +6510,16 @@
         <v>0.50409999999999999</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q8" s="7">
         <v>0.50409999999999999</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="T8" s="7">
         <f t="shared" si="1"/>
@@ -6548,7 +6570,7 @@
         <v>9.9000000000000008E-3</v>
       </c>
       <c r="AI8" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AJ8" s="15"/>
       <c r="AK8" s="15"/>
@@ -6575,9 +6597,9 @@
       <c r="BF8" s="15"/>
       <c r="BG8" s="15"/>
       <c r="BH8" s="15"/>
-      <c r="BJ8" s="100"/>
-    </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BJ8" s="98"/>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>68</v>
       </c>
@@ -6631,12 +6653,12 @@
         <v>0.45760000000000001</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="T9" s="177">
+        <v>163</v>
+      </c>
+      <c r="T9" s="105">
         <f t="shared" si="1"/>
         <v>-1.5750000000000007E-2</v>
       </c>
@@ -6668,7 +6690,7 @@
       <c r="AC9" s="8">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="AD9" s="177">
+      <c r="AD9" s="105">
         <f t="shared" si="3"/>
         <v>-3.5574999999999996E-2</v>
       </c>
@@ -6685,7 +6707,7 @@
         <v>5.4600000000000003E-2</v>
       </c>
       <c r="AI9" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AJ9" s="15"/>
       <c r="AK9" s="15"/>
@@ -6712,68 +6734,68 @@
       <c r="BF9" s="61"/>
       <c r="BG9" s="15"/>
       <c r="BH9" s="15"/>
-      <c r="BJ9" s="100"/>
-    </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A10" s="98" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="98">
+      <c r="BJ9" s="98"/>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A10" s="96" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="96">
         <v>0.60399999999999998</v>
       </c>
-      <c r="C10" s="98">
+      <c r="C10" s="96">
         <v>0.60529999999999995</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="96">
         <v>0.4194</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="96">
         <v>0.65290000000000004</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="96">
         <v>0.56850000000000001</v>
       </c>
-      <c r="G10" s="98">
+      <c r="G10" s="96">
         <v>0.71430000000000005</v>
       </c>
-      <c r="H10" s="98">
+      <c r="H10" s="96">
         <v>0.54400000000000004</v>
       </c>
-      <c r="I10" s="98">
+      <c r="I10" s="96">
         <v>0.62860000000000005</v>
       </c>
-      <c r="J10" s="98">
+      <c r="J10" s="96">
         <v>0.58330000000000004</v>
       </c>
-      <c r="K10" s="98">
+      <c r="K10" s="96">
         <v>0.63790000000000002</v>
       </c>
-      <c r="L10" s="98">
+      <c r="L10" s="96">
         <v>0.6139</v>
       </c>
-      <c r="M10" s="98">
+      <c r="M10" s="96">
         <v>0.44440000000000002</v>
       </c>
-      <c r="N10" s="98">
+      <c r="N10" s="96">
         <v>0.64890000000000003</v>
       </c>
-      <c r="O10" s="98">
+      <c r="O10" s="96">
         <f t="shared" si="0"/>
         <v>0.60030000000000006</v>
       </c>
-      <c r="P10" s="98">
+      <c r="P10" s="96">
         <v>0.73909999999999998</v>
       </c>
-      <c r="Q10" s="98">
+      <c r="Q10" s="96">
         <v>0.46150000000000002</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="T10" s="98">
+        <v>170</v>
+      </c>
+      <c r="T10" s="96">
         <f t="shared" si="1"/>
         <v>-6.2550000000000008E-2</v>
       </c>
@@ -6789,7 +6811,7 @@
       <c r="X10" s="8">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="Y10" s="98">
+      <c r="Y10" s="96">
         <f t="shared" si="2"/>
         <v>-8.2850000000000007E-2</v>
       </c>
@@ -6805,7 +6827,7 @@
       <c r="AC10" s="8">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="AD10" s="98">
+      <c r="AD10" s="96">
         <f t="shared" si="3"/>
         <v>-8.9025000000000007E-2</v>
       </c>
@@ -6822,7 +6844,7 @@
         <v>-1.95E-2</v>
       </c>
       <c r="AI10" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AJ10" s="15"/>
       <c r="AK10" s="15"/>
@@ -6849,134 +6871,134 @@
       <c r="BF10" s="15"/>
       <c r="BG10" s="15"/>
       <c r="BH10" s="15"/>
-      <c r="BJ10" s="100"/>
-    </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A11" s="98" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="98">
+      <c r="BJ10" s="98"/>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A11" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="96">
         <v>0.59730000000000005</v>
       </c>
-      <c r="C11" s="98">
+      <c r="C11" s="96">
         <v>0.66469999999999996</v>
       </c>
-      <c r="D11" s="98">
+      <c r="D11" s="96">
         <v>0.4839</v>
       </c>
-      <c r="E11" s="98">
+      <c r="E11" s="96">
         <v>0.68600000000000005</v>
       </c>
-      <c r="F11" s="98">
+      <c r="F11" s="96">
         <v>0.56159999999999999</v>
       </c>
-      <c r="G11" s="98">
+      <c r="G11" s="96">
         <v>0.7319</v>
       </c>
-      <c r="H11" s="98">
+      <c r="H11" s="96">
         <v>0.52800000000000002</v>
       </c>
-      <c r="I11" s="98">
+      <c r="I11" s="96">
         <v>0.59289999999999998</v>
       </c>
-      <c r="J11" s="98">
+      <c r="J11" s="96">
         <v>0.5</v>
       </c>
-      <c r="K11" s="98">
+      <c r="K11" s="96">
         <v>0.61209999999999998</v>
       </c>
-      <c r="L11" s="98">
+      <c r="L11" s="96">
         <v>0.58860000000000001</v>
       </c>
-      <c r="M11" s="98">
+      <c r="M11" s="96">
         <v>0.37040000000000001</v>
       </c>
-      <c r="N11" s="98">
+      <c r="N11" s="96">
         <v>0.63360000000000005</v>
       </c>
-      <c r="O11" s="98">
+      <c r="O11" s="96">
         <f t="shared" si="0"/>
         <v>0.49525000000000002</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q11" s="98">
+        <v>172</v>
+      </c>
+      <c r="Q11" s="96">
         <v>0.25580000000000003</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="S11" s="98">
+        <v>173</v>
+      </c>
+      <c r="S11" s="96">
         <v>0.73470000000000002</v>
       </c>
-      <c r="T11" s="98">
+      <c r="T11" s="96">
         <f t="shared" si="1"/>
         <v>-2.4874999999999998E-2</v>
       </c>
-      <c r="U11" s="98">
+      <c r="U11" s="96">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="V11" s="98">
+      <c r="V11" s="96">
         <v>-8.8599999999999998E-2</v>
       </c>
-      <c r="W11" s="98">
+      <c r="W11" s="96">
         <v>-8.4099999999999994E-2</v>
       </c>
-      <c r="X11" s="98">
+      <c r="X11" s="96">
         <v>-7.7999999999999996E-3</v>
       </c>
-      <c r="Y11" s="98">
+      <c r="Y11" s="96">
         <f t="shared" si="2"/>
         <v>-5.8224999999999999E-2</v>
       </c>
-      <c r="Z11" s="98">
+      <c r="Z11" s="96">
         <v>0.05</v>
       </c>
-      <c r="AA11" s="98">
+      <c r="AA11" s="96">
         <v>-0.15939999999999999</v>
       </c>
-      <c r="AB11" s="98">
+      <c r="AB11" s="96">
         <v>-0.1235</v>
       </c>
-      <c r="AC11" s="98">
+      <c r="AC11" s="96">
         <v>0</v>
       </c>
-      <c r="AD11" s="98">
+      <c r="AD11" s="96">
         <f t="shared" si="3"/>
         <v>-3.9925000000000002E-2</v>
       </c>
-      <c r="AE11" s="98">
+      <c r="AE11" s="96">
         <v>5.8700000000000002E-2</v>
       </c>
-      <c r="AF11" s="98">
+      <c r="AF11" s="96">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="AG11" s="98">
+      <c r="AG11" s="96">
         <v>-0.10059999999999999</v>
       </c>
-      <c r="AH11" s="98">
+      <c r="AH11" s="96">
         <v>-2.18E-2</v>
       </c>
-      <c r="AI11" s="98" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="AI11" s="96" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="P12" s="69"/>
       <c r="R12" s="69"/>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="P13" s="69"/>
       <c r="R13" s="69"/>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="P14" s="69"/>
       <c r="R14" s="69"/>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="C16" s="28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H16" s="61"/>
       <c r="I16" s="61"/>
@@ -6992,12 +7014,12 @@
       <c r="S16" s="61"/>
       <c r="T16" s="61"/>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.3">
       <c r="C17" s="28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:66" x14ac:dyDescent="0.3">
       <c r="S18" s="15"/>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
@@ -7011,7 +7033,7 @@
       <c r="BC18" s="61"/>
       <c r="BD18" s="61"/>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.3">
       <c r="AY19" s="61"/>
       <c r="AZ19" s="61"/>
       <c r="BA19" s="61"/>
@@ -7019,7 +7041,7 @@
       <c r="BC19" s="61"/>
       <c r="BD19" s="61"/>
     </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.3">
       <c r="P20" s="69"/>
       <c r="Q20" s="69"/>
       <c r="R20" s="69"/>
@@ -7064,7 +7086,7 @@
       <c r="BE20" s="15"/>
       <c r="BF20" s="15"/>
     </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.3">
       <c r="P21" s="69"/>
       <c r="Q21" s="69"/>
       <c r="R21" s="69"/>
@@ -7109,7 +7131,7 @@
       <c r="BE21" s="15"/>
       <c r="BF21" s="15"/>
     </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.3">
       <c r="P22" s="69"/>
       <c r="R22" s="69"/>
       <c r="S22" s="69"/>
@@ -7153,7 +7175,7 @@
       <c r="BE22" s="61"/>
       <c r="BF22" s="61"/>
     </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.3">
       <c r="P23" s="69"/>
       <c r="R23" s="69"/>
       <c r="S23" s="69"/>
@@ -7197,21 +7219,21 @@
       <c r="BE23" s="15"/>
       <c r="BF23" s="15"/>
     </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:66" x14ac:dyDescent="0.3">
       <c r="P24" s="69"/>
       <c r="R24" s="69"/>
       <c r="S24" s="69"/>
       <c r="U24" s="69"/>
       <c r="BH24" s="61"/>
     </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:66" x14ac:dyDescent="0.3">
       <c r="P25" s="69"/>
       <c r="R25" s="69"/>
       <c r="S25" s="69"/>
       <c r="U25" s="69"/>
       <c r="BH25" s="61"/>
     </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:66" x14ac:dyDescent="0.3">
       <c r="U26" s="69"/>
       <c r="V26" s="69"/>
       <c r="W26" s="69"/>
@@ -7259,10 +7281,10 @@
       <c r="BM26" s="15"/>
       <c r="BN26" s="15"/>
     </row>
-    <row r="27" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A27" s="61"/>
     </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:66" x14ac:dyDescent="0.3">
       <c r="S28" s="15"/>
       <c r="T28" s="15"/>
       <c r="U28" s="15"/>
@@ -7276,9 +7298,9 @@
       <c r="BC28" s="61"/>
       <c r="BD28" s="61"/>
     </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="W29" s="174"/>
-      <c r="X29" s="174"/>
+    <row r="29" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="W29" s="102"/>
+      <c r="X29" s="102"/>
       <c r="AY29" s="61"/>
       <c r="AZ29" s="61"/>
       <c r="BA29" s="61"/>
@@ -7286,7 +7308,7 @@
       <c r="BC29" s="61"/>
       <c r="BD29" s="61"/>
     </row>
-    <row r="30" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:66" x14ac:dyDescent="0.3">
       <c r="P30" s="69"/>
       <c r="Q30" s="69"/>
       <c r="R30" s="69"/>
@@ -7331,7 +7353,7 @@
       <c r="BE30" s="15"/>
       <c r="BF30" s="15"/>
     </row>
-    <row r="31" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:66" x14ac:dyDescent="0.3">
       <c r="P31" s="69"/>
       <c r="Q31" s="69"/>
       <c r="R31" s="69"/>
@@ -7376,7 +7398,7 @@
       <c r="BE31" s="15"/>
       <c r="BF31" s="15"/>
     </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" x14ac:dyDescent="0.3">
       <c r="P32" s="69"/>
       <c r="R32" s="69"/>
       <c r="S32" s="69"/>
@@ -7420,7 +7442,7 @@
       <c r="BE32" s="61"/>
       <c r="BF32" s="61"/>
     </row>
-    <row r="33" spans="16:70" x14ac:dyDescent="0.25">
+    <row r="33" spans="16:70" x14ac:dyDescent="0.3">
       <c r="P33" s="69"/>
       <c r="R33" s="69"/>
       <c r="S33" s="69"/>
@@ -7464,21 +7486,21 @@
       <c r="BE33" s="15"/>
       <c r="BF33" s="15"/>
     </row>
-    <row r="34" spans="16:70" x14ac:dyDescent="0.25">
+    <row r="34" spans="16:70" x14ac:dyDescent="0.3">
       <c r="P34" s="69"/>
       <c r="R34" s="69"/>
       <c r="S34" s="69"/>
       <c r="U34" s="69"/>
       <c r="BH34" s="61"/>
     </row>
-    <row r="35" spans="16:70" x14ac:dyDescent="0.25">
+    <row r="35" spans="16:70" x14ac:dyDescent="0.3">
       <c r="P35" s="69"/>
       <c r="R35" s="69"/>
       <c r="S35" s="69"/>
       <c r="U35" s="69"/>
       <c r="BH35" s="61"/>
     </row>
-    <row r="37" spans="16:70" x14ac:dyDescent="0.25">
+    <row r="37" spans="16:70" x14ac:dyDescent="0.3">
       <c r="AY37" s="61"/>
       <c r="AZ37" s="61"/>
       <c r="BA37" s="61"/>
@@ -7487,7 +7509,7 @@
       <c r="BD37" s="61"/>
       <c r="BF37" s="61"/>
     </row>
-    <row r="38" spans="16:70" x14ac:dyDescent="0.25">
+    <row r="38" spans="16:70" x14ac:dyDescent="0.3">
       <c r="AY38" s="15"/>
       <c r="AZ38" s="15"/>
       <c r="BA38" s="15"/>
@@ -7496,7 +7518,7 @@
       <c r="BD38" s="15"/>
       <c r="BF38" s="61"/>
     </row>
-    <row r="39" spans="16:70" x14ac:dyDescent="0.25">
+    <row r="39" spans="16:70" x14ac:dyDescent="0.3">
       <c r="AY39" s="15"/>
       <c r="AZ39" s="15"/>
       <c r="BA39" s="61"/>
@@ -7505,7 +7527,7 @@
       <c r="BD39" s="61"/>
       <c r="BF39" s="61"/>
     </row>
-    <row r="40" spans="16:70" x14ac:dyDescent="0.25">
+    <row r="40" spans="16:70" x14ac:dyDescent="0.3">
       <c r="AY40" s="15"/>
       <c r="AZ40" s="15"/>
       <c r="BA40" s="15"/>
@@ -7514,7 +7536,7 @@
       <c r="BD40" s="15"/>
       <c r="BF40" s="61"/>
     </row>
-    <row r="44" spans="16:70" x14ac:dyDescent="0.25">
+    <row r="44" spans="16:70" x14ac:dyDescent="0.3">
       <c r="U44" s="69"/>
       <c r="V44" s="69"/>
       <c r="W44" s="69"/>
@@ -7563,9 +7585,9 @@
       <c r="BN44" s="61"/>
       <c r="BO44" s="15"/>
       <c r="BP44" s="15"/>
-      <c r="BR44" s="100"/>
-    </row>
-    <row r="45" spans="16:70" x14ac:dyDescent="0.25">
+      <c r="BR44" s="98"/>
+    </row>
+    <row r="45" spans="16:70" x14ac:dyDescent="0.3">
       <c r="U45" s="69"/>
       <c r="V45" s="69"/>
       <c r="W45" s="69"/>
@@ -7614,9 +7636,9 @@
       <c r="BN45" s="15"/>
       <c r="BO45" s="15"/>
       <c r="BP45" s="15"/>
-      <c r="BR45" s="100"/>
-    </row>
-    <row r="46" spans="16:70" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BR45" s="98"/>
+    </row>
+    <row r="46" spans="16:70" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="U46" s="69"/>
       <c r="V46" s="69"/>
       <c r="W46" s="69"/>
@@ -7665,9 +7687,9 @@
       <c r="BN46" s="61"/>
       <c r="BO46" s="15"/>
       <c r="BP46" s="15"/>
-      <c r="BR46" s="100"/>
-    </row>
-    <row r="47" spans="16:70" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BR46" s="98"/>
+    </row>
+    <row r="47" spans="16:70" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="U47" s="69"/>
       <c r="V47" s="69"/>
       <c r="W47" s="69"/>
@@ -7716,24 +7738,30 @@
       <c r="BN47" s="15"/>
       <c r="BO47" s="15"/>
       <c r="BP47" s="15"/>
-      <c r="BR47" s="100"/>
-    </row>
-    <row r="48" spans="16:70" x14ac:dyDescent="0.25">
+      <c r="BR47" s="98"/>
+    </row>
+    <row r="48" spans="16:70" x14ac:dyDescent="0.3">
       <c r="U48" s="69"/>
     </row>
-    <row r="49" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U49" s="69"/>
     </row>
-    <row r="50" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U50" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="Y1:AC1"/>
     <mergeCell ref="AD1:AH1"/>
     <mergeCell ref="C2:E2"/>
@@ -7750,17 +7778,11 @@
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7778,7 +7800,7 @@
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7795,7 +7817,7 @@
       <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7808,29 +7830,29 @@
   </sheetPr>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G20"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="24"/>
-    <col min="2" max="2" width="12.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="24"/>
-    <col min="4" max="4" width="21.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="24"/>
+    <col min="2" max="2" width="12.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="24"/>
+    <col min="4" max="4" width="21.109375" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="24" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="24"/>
-    <col min="7" max="7" width="23.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="24"/>
+    <col min="7" max="7" width="23.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="24" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="24"/>
+    <col min="14" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
@@ -7841,91 +7863,91 @@
       <c r="I1" s="49"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51"/>
-      <c r="B2" s="137" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="139" t="s">
+      <c r="B2" s="140" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="142" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="142" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="142" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="142" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="136" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="139" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="139" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="139" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="129" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="131" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="129" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" s="133" t="s">
+      <c r="J2" s="144" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
       <c r="O2" s="56"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="51"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="134"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="145"/>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
       <c r="O3" s="56"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="126" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="97" t="s">
+    <row r="4" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="128" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="95" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="37">
         <v>1</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I4" s="37">
         <v>256</v>
       </c>
-      <c r="J4" s="96" t="s">
-        <v>145</v>
+      <c r="J4" s="94" t="s">
+        <v>142</v>
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
       <c r="O4" s="56"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="127"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="129"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
@@ -7933,7 +7955,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E5" s="23">
         <v>10</v>
@@ -7942,123 +7964,123 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I5" s="27">
         <v>256</v>
       </c>
       <c r="J5" s="93" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
       <c r="O5" s="56"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="129"/>
       <c r="B6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="23">
         <v>3</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E6" s="23">
         <v>50</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J6" s="93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
       <c r="O6" s="56"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="127"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="129"/>
       <c r="B7" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="23">
         <v>4</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E7" s="23">
         <v>100</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J7" s="93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
       <c r="O7" s="56"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="128"/>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="130"/>
       <c r="B8" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="44">
         <v>4</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E8" s="44">
         <v>100</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I8" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K8" s="35"/>
       <c r="L8" s="32"/>
       <c r="O8" s="56"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="140" t="s">
-        <v>96</v>
+    <row r="9" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="131" t="s">
+        <v>95</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>2</v>
@@ -8075,8 +8097,8 @@
       <c r="L9" s="32"/>
       <c r="O9" s="56"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="127"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="129"/>
       <c r="B10" s="23" t="s">
         <v>14</v>
       </c>
@@ -8093,87 +8115,87 @@
       <c r="M10" s="32"/>
       <c r="O10" s="56"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="127"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="129"/>
       <c r="B11" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J11" s="93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
       <c r="O11" s="56"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="127"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="129"/>
       <c r="B12" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J12" s="93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
       <c r="O12" s="56"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="128"/>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="130"/>
       <c r="B13" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
       <c r="G13" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H13" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I13" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
       <c r="O13" s="56"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="34"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -8186,7 +8208,7 @@
       <c r="J15" s="34"/>
       <c r="M15" s="32"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
       <c r="D16" s="49"/>
@@ -8200,100 +8222,100 @@
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="51"/>
-      <c r="B17" s="142" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="129" t="s">
+      <c r="B17" s="134" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="136" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="136" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="136" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="136" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="132" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="129" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="129" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="141" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="129" t="s">
-        <v>101</v>
-      </c>
-      <c r="J17" s="129" t="s">
+      <c r="J17" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="135" t="s">
+      <c r="K17" s="138" t="s">
         <v>66</v>
       </c>
       <c r="L17" s="89"/>
       <c r="M17" s="32"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="52"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="136"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="139"/>
       <c r="L18" s="89"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="126" t="s">
-        <v>94</v>
+    <row r="19" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="128" t="s">
+        <v>93</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C19" s="37">
         <v>1</v>
       </c>
       <c r="D19" s="91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19" s="91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F19" s="91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G19" s="91" t="s">
-        <v>155</v>
-      </c>
-      <c r="H19" s="103">
+        <v>152</v>
+      </c>
+      <c r="H19" s="101">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="I19" s="91">
         <v>256</v>
       </c>
       <c r="J19" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K19" s="175" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="127"/>
+        <v>142</v>
+      </c>
+      <c r="K19" s="103" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="129"/>
       <c r="B20" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C20" s="23">
         <v>3</v>
       </c>
       <c r="D20" s="90" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E20" s="90">
         <v>10</v>
@@ -8302,125 +8324,125 @@
         <v>0.5</v>
       </c>
       <c r="G20" s="91" t="s">
-        <v>150</v>
-      </c>
-      <c r="H20" s="103">
+        <v>147</v>
+      </c>
+      <c r="H20" s="101">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="I20" s="90">
         <v>256</v>
       </c>
       <c r="J20" s="90" t="s">
-        <v>135</v>
-      </c>
-      <c r="K20" s="176" t="s">
-        <v>164</v>
+        <v>132</v>
+      </c>
+      <c r="K20" s="104" t="s">
+        <v>161</v>
       </c>
       <c r="L20" s="32"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="127"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="129"/>
       <c r="B21" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="23">
         <v>3</v>
       </c>
       <c r="D21" s="90" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E21" s="90">
         <v>50</v>
       </c>
       <c r="F21" s="90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G21" s="90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H21" s="90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I21" s="90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J21" s="90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K21" s="93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L21" s="32"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="127"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="129"/>
       <c r="B22" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C22" s="23">
         <v>4</v>
       </c>
       <c r="D22" s="90" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E22" s="90">
         <v>100</v>
       </c>
       <c r="F22" s="90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G22" s="90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H22" s="90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I22" s="90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J22" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="K22" s="101" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="128"/>
+        <v>101</v>
+      </c>
+      <c r="K22" s="99" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="130"/>
       <c r="B23" s="48" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C23" s="44">
         <v>4</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E23" s="44">
         <v>100</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G23" s="92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I23" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J23" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="K23" s="102" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="126" t="s">
-        <v>96</v>
+        <v>101</v>
+      </c>
+      <c r="K23" s="100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="128" t="s">
+        <v>95</v>
       </c>
       <c r="B24" s="37" t="s">
         <v>2</v>
@@ -8435,8 +8457,8 @@
       <c r="J24" s="37"/>
       <c r="K24" s="54"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="127"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="129"/>
       <c r="B25" s="23" t="s">
         <v>14</v>
       </c>
@@ -8450,85 +8472,85 @@
       <c r="J25" s="23"/>
       <c r="K25" s="93"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="127"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="129"/>
       <c r="B26" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K26" s="93" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="127"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="129"/>
       <c r="B27" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K27" s="93" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="128"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="130"/>
       <c r="B28" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="44"/>
       <c r="D28" s="44"/>
       <c r="E28" s="44"/>
       <c r="F28" s="44"/>
       <c r="G28" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J28" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K28" s="53" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="34"/>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
@@ -8542,12 +8564,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I17:I18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -8560,11 +8581,12 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -8582,19 +8604,19 @@
       <selection activeCell="G31" sqref="G31:L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="68" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="8.7109375" style="62" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="62"/>
+    <col min="1" max="1" width="13.109375" style="68" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="8.6640625" style="62" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="144" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="144"/>
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="171" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="171"/>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
       <c r="E1" s="49"/>
@@ -8606,98 +8628,98 @@
       <c r="K1" s="49"/>
       <c r="L1" s="49"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+    <row r="2" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="129" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="164" t="s">
+      <c r="B2" s="136" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="165"/>
-      <c r="E2" s="164" t="s">
+      <c r="D2" s="169"/>
+      <c r="E2" s="168" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="169"/>
+      <c r="G2" s="165" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="166"/>
+      <c r="I2" s="165" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="166"/>
+      <c r="K2" s="165" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="167"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="173"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" s="170"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="174"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="165"/>
-      <c r="G2" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="167"/>
-      <c r="I2" s="166" t="s">
+      <c r="E4" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="J2" s="167"/>
-      <c r="K2" s="166" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="170"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="149"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="109" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109" t="s">
-        <v>121</v>
-      </c>
-      <c r="L3" s="155"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="150"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="72" t="s">
-        <v>122</v>
-      </c>
       <c r="F4" s="72" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G4" s="72" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H4" s="72" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I4" s="72" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J4" s="72" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K4" s="72" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L4" s="74" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="145" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="148" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="83">
         <v>0.63300000000000001</v>
@@ -8730,36 +8752,36 @@
         <v>-5.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="146"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="149"/>
       <c r="B6" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="151">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="D6" s="152"/>
+      <c r="E6" s="151">
+        <v>0.624</v>
+      </c>
+      <c r="F6" s="152"/>
+      <c r="G6" s="146">
+        <v>-0.33439999999999998</v>
+      </c>
+      <c r="H6" s="153"/>
+      <c r="I6" s="146">
+        <v>-0.27529999999999999</v>
+      </c>
+      <c r="J6" s="153"/>
+      <c r="K6" s="146">
+        <v>-0.24887999999999999</v>
+      </c>
+      <c r="L6" s="147"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="150"/>
+      <c r="B7" s="42" t="s">
         <v>108</v>
-      </c>
-      <c r="C6" s="156">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="156">
-        <v>0.624</v>
-      </c>
-      <c r="F6" s="157"/>
-      <c r="G6" s="152">
-        <v>-0.33439999999999998</v>
-      </c>
-      <c r="H6" s="153"/>
-      <c r="I6" s="152">
-        <v>-0.27529999999999999</v>
-      </c>
-      <c r="J6" s="153"/>
-      <c r="K6" s="152">
-        <v>-0.24887999999999999</v>
-      </c>
-      <c r="L6" s="154"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="147"/>
-      <c r="B7" s="42" t="s">
-        <v>109</v>
       </c>
       <c r="C7" s="42">
         <v>0.64700000000000002</v>
@@ -8792,80 +8814,80 @@
         <v>-1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="145" t="s">
-        <v>113</v>
+    <row r="8" spans="1:19" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="148" t="s">
+        <v>112</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="158">
+        <v>111</v>
+      </c>
+      <c r="C8" s="154">
         <v>0.64</v>
       </c>
-      <c r="D8" s="159"/>
-      <c r="E8" s="158">
+      <c r="D8" s="155"/>
+      <c r="E8" s="154">
         <v>0.54900000000000004</v>
       </c>
-      <c r="F8" s="159"/>
-      <c r="G8" s="158">
+      <c r="F8" s="155"/>
+      <c r="G8" s="154">
         <v>-2.98E-2</v>
       </c>
-      <c r="H8" s="159"/>
-      <c r="I8" s="158">
+      <c r="H8" s="155"/>
+      <c r="I8" s="154">
         <v>-6.7199999999999996E-2</v>
       </c>
-      <c r="J8" s="159"/>
-      <c r="K8" s="158">
+      <c r="J8" s="155"/>
+      <c r="K8" s="154">
         <v>-5.4100000000000002E-2</v>
       </c>
-      <c r="L8" s="171"/>
-    </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="146"/>
+      <c r="L8" s="156"/>
+    </row>
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="149"/>
       <c r="B9" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="106"/>
       <c r="D9" s="108"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="169"/>
-      <c r="K9" s="168"/>
-      <c r="L9" s="172"/>
-    </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="146"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="159"/>
+    </row>
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="149"/>
       <c r="B10" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="151">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D10" s="152"/>
+      <c r="E10" s="151">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="F10" s="152"/>
+      <c r="G10" s="146">
+        <v>-0.1447</v>
+      </c>
+      <c r="H10" s="153"/>
+      <c r="I10" s="146">
+        <v>-8.6900000000000005E-2</v>
+      </c>
+      <c r="J10" s="153"/>
+      <c r="K10" s="146">
+        <v>-6.6500000000000004E-2</v>
+      </c>
+      <c r="L10" s="147"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="150"/>
+      <c r="B11" s="42" t="s">
         <v>108</v>
-      </c>
-      <c r="C10" s="156">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="D10" s="157"/>
-      <c r="E10" s="156">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="F10" s="157"/>
-      <c r="G10" s="152">
-        <v>-0.1447</v>
-      </c>
-      <c r="H10" s="153"/>
-      <c r="I10" s="152">
-        <v>-8.6900000000000005E-2</v>
-      </c>
-      <c r="J10" s="153"/>
-      <c r="K10" s="152">
-        <v>-6.6500000000000004E-2</v>
-      </c>
-      <c r="L10" s="154"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="147"/>
-      <c r="B11" s="42" t="s">
-        <v>109</v>
       </c>
       <c r="C11" s="42">
         <v>0.61699999999999999</v>
@@ -8898,80 +8920,80 @@
         <v>-4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="145" t="s">
-        <v>114</v>
+    <row r="12" spans="1:19" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="148" t="s">
+        <v>113</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="158">
+        <v>111</v>
+      </c>
+      <c r="C12" s="154">
         <v>0.63200000000000001</v>
       </c>
-      <c r="D12" s="159"/>
-      <c r="E12" s="158">
+      <c r="D12" s="155"/>
+      <c r="E12" s="154">
         <v>0.499</v>
       </c>
-      <c r="F12" s="159"/>
-      <c r="G12" s="158">
+      <c r="F12" s="155"/>
+      <c r="G12" s="154">
         <v>-8.4500000000000006E-2</v>
       </c>
-      <c r="H12" s="159"/>
-      <c r="I12" s="158">
+      <c r="H12" s="155"/>
+      <c r="I12" s="154">
         <v>-9.7299999999999998E-2</v>
       </c>
-      <c r="J12" s="159"/>
-      <c r="K12" s="158">
+      <c r="J12" s="155"/>
+      <c r="K12" s="154">
         <v>-8.7800000000000003E-2</v>
       </c>
-      <c r="L12" s="171"/>
-    </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="146"/>
+      <c r="L12" s="156"/>
+    </row>
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="149"/>
       <c r="B13" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="106"/>
       <c r="D13" s="108"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="168"/>
-      <c r="J13" s="169"/>
-      <c r="K13" s="168"/>
-      <c r="L13" s="172"/>
-    </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="146"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="157"/>
+      <c r="L13" s="159"/>
+    </row>
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="149"/>
       <c r="B14" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="151">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="D14" s="152"/>
+      <c r="E14" s="151">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="F14" s="152"/>
+      <c r="G14" s="146">
+        <v>-0.1288</v>
+      </c>
+      <c r="H14" s="153"/>
+      <c r="I14" s="146">
+        <v>-7.0400000000000004E-2</v>
+      </c>
+      <c r="J14" s="153"/>
+      <c r="K14" s="146">
+        <v>-5.0200000000000002E-2</v>
+      </c>
+      <c r="L14" s="147"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="150"/>
+      <c r="B15" s="42" t="s">
         <v>108</v>
-      </c>
-      <c r="C14" s="156">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="D14" s="157"/>
-      <c r="E14" s="156">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="F14" s="157"/>
-      <c r="G14" s="152">
-        <v>-0.1288</v>
-      </c>
-      <c r="H14" s="153"/>
-      <c r="I14" s="152">
-        <v>-7.0400000000000004E-2</v>
-      </c>
-      <c r="J14" s="153"/>
-      <c r="K14" s="152">
-        <v>-5.0200000000000002E-2</v>
-      </c>
-      <c r="L14" s="154"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="147"/>
-      <c r="B15" s="42" t="s">
-        <v>109</v>
       </c>
       <c r="C15" s="42">
         <v>0.63</v>
@@ -9004,12 +9026,12 @@
         <v>-3.27E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="146" t="s">
+    <row r="16" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="149" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="80">
         <v>0.59</v>
@@ -9046,31 +9068,31 @@
       <c r="R16" s="35"/>
       <c r="S16" s="35"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="146"/>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="149"/>
       <c r="B17" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="156">
+        <v>107</v>
+      </c>
+      <c r="C17" s="151">
         <v>0.66500000000000004</v>
       </c>
-      <c r="D17" s="157"/>
-      <c r="E17" s="156">
+      <c r="D17" s="152"/>
+      <c r="E17" s="151">
         <v>0.623</v>
       </c>
-      <c r="F17" s="157"/>
-      <c r="G17" s="152">
+      <c r="F17" s="152"/>
+      <c r="G17" s="146">
         <v>-0.1022</v>
       </c>
       <c r="H17" s="153"/>
-      <c r="I17" s="152">
+      <c r="I17" s="146">
         <v>-7.9000000000000001E-2</v>
       </c>
       <c r="J17" s="153"/>
-      <c r="K17" s="152">
+      <c r="K17" s="146">
         <v>-4.5199999999999997E-2</v>
       </c>
-      <c r="L17" s="154"/>
+      <c r="L17" s="147"/>
       <c r="P17" s="35"/>
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
@@ -9079,10 +9101,10 @@
       <c r="U17" s="35"/>
       <c r="V17" s="35"/>
     </row>
-    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="147"/>
+    <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="150"/>
       <c r="B18" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="42">
         <v>0.59699999999999998</v>
@@ -9122,23 +9144,23 @@
       <c r="U18" s="35"/>
       <c r="V18" s="35"/>
     </row>
-    <row r="19" spans="1:22" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="145" t="s">
-        <v>124</v>
+    <row r="19" spans="1:22" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="148" t="s">
+        <v>121</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="158"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="171"/>
+        <v>111</v>
+      </c>
+      <c r="C19" s="154"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="156"/>
       <c r="P19" s="35"/>
       <c r="Q19" s="35"/>
       <c r="R19" s="35"/>
@@ -9147,21 +9169,21 @@
       <c r="U19" s="35"/>
       <c r="V19" s="35"/>
     </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="146"/>
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="149"/>
       <c r="B20" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="106"/>
       <c r="D20" s="108"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="169"/>
-      <c r="K20" s="168"/>
-      <c r="L20" s="172"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="158"/>
+      <c r="K20" s="157"/>
+      <c r="L20" s="159"/>
       <c r="P20" s="35"/>
       <c r="Q20" s="35"/>
       <c r="R20" s="35"/>
@@ -9170,31 +9192,31 @@
       <c r="U20" s="35"/>
       <c r="V20" s="35"/>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="146"/>
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="149"/>
       <c r="B21" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="156">
+        <v>107</v>
+      </c>
+      <c r="C21" s="151">
         <v>0.66300000000000003</v>
       </c>
-      <c r="D21" s="157"/>
-      <c r="E21" s="156">
+      <c r="D21" s="152"/>
+      <c r="E21" s="151">
         <v>0.60499999999999998</v>
       </c>
-      <c r="F21" s="157"/>
-      <c r="G21" s="152">
+      <c r="F21" s="152"/>
+      <c r="G21" s="146">
         <v>-0.28460000000000002</v>
       </c>
       <c r="H21" s="153"/>
-      <c r="I21" s="152">
+      <c r="I21" s="146">
         <v>-0.1593</v>
       </c>
       <c r="J21" s="153"/>
-      <c r="K21" s="152">
+      <c r="K21" s="146">
         <v>-0.14910000000000001</v>
       </c>
-      <c r="L21" s="154"/>
+      <c r="L21" s="147"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="35"/>
@@ -9203,10 +9225,10 @@
       <c r="U21" s="35"/>
       <c r="V21" s="35"/>
     </row>
-    <row r="22" spans="1:22" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="147"/>
+    <row r="22" spans="1:22" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="150"/>
       <c r="B22" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="43"/>
@@ -9226,23 +9248,23 @@
       <c r="U22" s="35"/>
       <c r="V22" s="35"/>
     </row>
-    <row r="23" spans="1:22" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="145" t="s">
-        <v>125</v>
+    <row r="23" spans="1:22" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="148" t="s">
+        <v>122</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="158"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="159"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="171"/>
+        <v>111</v>
+      </c>
+      <c r="C23" s="154"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="156"/>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
@@ -9251,21 +9273,21 @@
       <c r="U23" s="35"/>
       <c r="V23" s="35"/>
     </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="146"/>
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="149"/>
       <c r="B24" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="106"/>
       <c r="D24" s="108"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="169"/>
-      <c r="K24" s="168"/>
-      <c r="L24" s="172"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="158"/>
+      <c r="K24" s="157"/>
+      <c r="L24" s="159"/>
       <c r="P24" s="35"/>
       <c r="Q24" s="35"/>
       <c r="R24" s="35"/>
@@ -9274,31 +9296,31 @@
       <c r="U24" s="35"/>
       <c r="V24" s="35"/>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="146"/>
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="149"/>
       <c r="B25" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="156">
+        <v>107</v>
+      </c>
+      <c r="C25" s="151">
         <v>0.64700000000000002</v>
       </c>
-      <c r="D25" s="157"/>
-      <c r="E25" s="156">
+      <c r="D25" s="152"/>
+      <c r="E25" s="151">
         <v>0.56399999999999995</v>
       </c>
-      <c r="F25" s="157"/>
-      <c r="G25" s="152">
+      <c r="F25" s="152"/>
+      <c r="G25" s="146">
         <v>-0.2656</v>
       </c>
       <c r="H25" s="153"/>
-      <c r="I25" s="152">
+      <c r="I25" s="146">
         <v>-0.1154</v>
       </c>
       <c r="J25" s="153"/>
-      <c r="K25" s="152">
+      <c r="K25" s="146">
         <v>-0.1148</v>
       </c>
-      <c r="L25" s="154"/>
+      <c r="L25" s="147"/>
       <c r="P25" s="35"/>
       <c r="Q25" s="35"/>
       <c r="R25" s="35"/>
@@ -9307,10 +9329,10 @@
       <c r="U25" s="35"/>
       <c r="V25" s="35"/>
     </row>
-    <row r="26" spans="1:22" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="147"/>
+    <row r="26" spans="1:22" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="150"/>
       <c r="B26" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="43"/>
@@ -9330,12 +9352,12 @@
       <c r="U26" s="35"/>
       <c r="V26" s="35"/>
     </row>
-    <row r="27" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="146" t="s">
+    <row r="27" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="149" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" s="80">
         <v>0.55300000000000005</v>
@@ -9375,41 +9397,41 @@
       <c r="U27" s="35"/>
       <c r="V27" s="35"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="146"/>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="149"/>
       <c r="B28" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="156">
+        <v>107</v>
+      </c>
+      <c r="C28" s="151">
         <v>0.66800000000000004</v>
       </c>
-      <c r="D28" s="157"/>
-      <c r="E28" s="156">
+      <c r="D28" s="152"/>
+      <c r="E28" s="151">
         <v>0.64</v>
       </c>
-      <c r="F28" s="157"/>
-      <c r="G28" s="152">
+      <c r="F28" s="152"/>
+      <c r="G28" s="146">
         <v>-0.14879999999999999</v>
       </c>
       <c r="H28" s="153"/>
-      <c r="I28" s="152">
+      <c r="I28" s="146">
         <v>-0.1207</v>
       </c>
       <c r="J28" s="153"/>
-      <c r="K28" s="152">
+      <c r="K28" s="146">
         <v>-8.6999999999999994E-2</v>
       </c>
-      <c r="L28" s="154"/>
+      <c r="L28" s="147"/>
       <c r="R28" s="35"/>
       <c r="S28" s="35"/>
       <c r="T28" s="35"/>
       <c r="U28" s="35"/>
       <c r="V28" s="35"/>
     </row>
-    <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="147"/>
+    <row r="29" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="150"/>
       <c r="B29" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="42">
         <v>0.623</v>
@@ -9447,43 +9469,43 @@
       <c r="U29" s="35"/>
       <c r="V29" s="35"/>
     </row>
-    <row r="30" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="146" t="s">
-        <v>126</v>
+    <row r="30" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="149" t="s">
+        <v>123</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="156">
+        <v>107</v>
+      </c>
+      <c r="C30" s="151">
         <v>0.66700000000000004</v>
       </c>
-      <c r="D30" s="157"/>
-      <c r="E30" s="156">
+      <c r="D30" s="152"/>
+      <c r="E30" s="151">
         <v>0.63600000000000001</v>
       </c>
-      <c r="F30" s="157"/>
-      <c r="G30" s="152">
+      <c r="F30" s="152"/>
+      <c r="G30" s="146">
         <v>-8.3099999999999993E-2</v>
       </c>
       <c r="H30" s="153"/>
-      <c r="I30" s="152">
+      <c r="I30" s="146">
         <v>-2.3900000000000001E-2</v>
       </c>
       <c r="J30" s="153"/>
-      <c r="K30" s="152">
+      <c r="K30" s="146">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="L30" s="154"/>
+      <c r="L30" s="147"/>
       <c r="R30" s="35"/>
       <c r="S30" s="35"/>
       <c r="T30" s="35"/>
       <c r="U30" s="35"/>
       <c r="V30" s="35"/>
     </row>
-    <row r="31" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="147"/>
+    <row r="31" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="150"/>
       <c r="B31" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="42">
         <v>0.59699999999999998</v>
@@ -9521,12 +9543,12 @@
       <c r="U31" s="35"/>
       <c r="V31" s="35"/>
     </row>
-    <row r="32" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="145" t="s">
+    <row r="32" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="148" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C32" s="58">
         <v>0.66700000000000004</v>
@@ -9564,41 +9586,41 @@
       <c r="U32" s="35"/>
       <c r="V32" s="35"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="146"/>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" s="149"/>
       <c r="B33" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="156">
+        <v>107</v>
+      </c>
+      <c r="C33" s="151">
         <v>0.69</v>
       </c>
-      <c r="D33" s="157"/>
-      <c r="E33" s="156">
+      <c r="D33" s="152"/>
+      <c r="E33" s="151">
         <v>0.66500000000000004</v>
       </c>
-      <c r="F33" s="157"/>
-      <c r="G33" s="152">
+      <c r="F33" s="152"/>
+      <c r="G33" s="146">
         <v>-0.21329999999999999</v>
       </c>
       <c r="H33" s="153"/>
-      <c r="I33" s="152">
+      <c r="I33" s="146">
         <v>-0.20979999999999999</v>
       </c>
       <c r="J33" s="153"/>
-      <c r="K33" s="152">
+      <c r="K33" s="146">
         <v>-0.16619999999999999</v>
       </c>
-      <c r="L33" s="154"/>
+      <c r="L33" s="147"/>
       <c r="R33" s="35"/>
       <c r="S33" s="61"/>
       <c r="T33" s="61"/>
       <c r="U33" s="61"/>
       <c r="V33" s="35"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="147"/>
+    <row r="34" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="150"/>
       <c r="B34" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C34" s="43">
         <v>0.68700000000000006</v>
@@ -9636,95 +9658,95 @@
       <c r="U34" s="35"/>
       <c r="V34" s="35"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="145" t="s">
-        <v>115</v>
+    <row r="35" spans="1:23" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="148" t="s">
+        <v>114</v>
       </c>
       <c r="B35" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="162">
+        <v>111</v>
+      </c>
+      <c r="C35" s="160">
         <v>0.65800000000000003</v>
       </c>
-      <c r="D35" s="163"/>
-      <c r="E35" s="162">
+      <c r="D35" s="162"/>
+      <c r="E35" s="160">
         <v>0.58699999999999997</v>
       </c>
-      <c r="F35" s="163"/>
-      <c r="G35" s="162">
+      <c r="F35" s="162"/>
+      <c r="G35" s="160">
         <v>-6.8699999999999997E-2</v>
       </c>
-      <c r="H35" s="163"/>
-      <c r="I35" s="158">
+      <c r="H35" s="162"/>
+      <c r="I35" s="154">
         <v>-9.4200000000000006E-2</v>
       </c>
-      <c r="J35" s="159"/>
-      <c r="K35" s="162">
+      <c r="J35" s="155"/>
+      <c r="K35" s="160">
         <v>-8.1000000000000003E-2</v>
       </c>
-      <c r="L35" s="173"/>
+      <c r="L35" s="161"/>
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
       <c r="T35" s="35"/>
       <c r="U35" s="35"/>
       <c r="V35" s="35"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="151"/>
+    <row r="36" spans="1:23" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="175"/>
       <c r="B36" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C36" s="106"/>
       <c r="D36" s="108"/>
-      <c r="E36" s="160"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="161"/>
-      <c r="K36" s="168"/>
-      <c r="L36" s="172"/>
+      <c r="E36" s="163"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="163"/>
+      <c r="H36" s="164"/>
+      <c r="I36" s="163"/>
+      <c r="J36" s="164"/>
+      <c r="K36" s="157"/>
+      <c r="L36" s="159"/>
       <c r="R36" s="35"/>
       <c r="S36" s="35"/>
       <c r="T36" s="35"/>
       <c r="U36" s="35"/>
       <c r="V36" s="35"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="151"/>
+    <row r="37" spans="1:23" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="175"/>
       <c r="B37" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="156">
+        <v>107</v>
+      </c>
+      <c r="C37" s="151">
         <v>0.55700000000000005</v>
       </c>
-      <c r="D37" s="157"/>
-      <c r="E37" s="156">
+      <c r="D37" s="152"/>
+      <c r="E37" s="151">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="F37" s="157"/>
-      <c r="G37" s="152">
+      <c r="F37" s="152"/>
+      <c r="G37" s="146">
         <v>-5.5100000000000003E-2</v>
       </c>
       <c r="H37" s="153"/>
-      <c r="I37" s="152">
+      <c r="I37" s="146">
         <v>-3.1300000000000001E-2</v>
       </c>
       <c r="J37" s="153"/>
-      <c r="K37" s="152">
+      <c r="K37" s="146">
         <v>-3.1699999999999999E-2</v>
       </c>
-      <c r="L37" s="154"/>
+      <c r="L37" s="147"/>
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
       <c r="T37" s="35"/>
       <c r="U37" s="35"/>
       <c r="V37" s="35"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="147"/>
+    <row r="38" spans="1:23" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="150"/>
       <c r="B38" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" s="46">
         <v>0.56299999999999994</v>
@@ -9757,80 +9779,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="145" t="s">
-        <v>116</v>
+    <row r="39" spans="1:23" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="148" t="s">
+        <v>115</v>
       </c>
       <c r="B39" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="162">
+        <v>111</v>
+      </c>
+      <c r="C39" s="160">
         <v>0.64700000000000002</v>
       </c>
-      <c r="D39" s="163"/>
-      <c r="E39" s="162">
+      <c r="D39" s="162"/>
+      <c r="E39" s="160">
         <v>0.54200000000000004</v>
       </c>
-      <c r="F39" s="163"/>
-      <c r="G39" s="162">
+      <c r="F39" s="162"/>
+      <c r="G39" s="160">
         <v>-2.9100000000000001E-2</v>
       </c>
-      <c r="H39" s="163"/>
-      <c r="I39" s="158">
+      <c r="H39" s="162"/>
+      <c r="I39" s="154">
         <v>-7.8399999999999997E-2</v>
       </c>
-      <c r="J39" s="159"/>
-      <c r="K39" s="162">
+      <c r="J39" s="155"/>
+      <c r="K39" s="160">
         <v>-6.3700000000000007E-2</v>
       </c>
-      <c r="L39" s="173"/>
-    </row>
-    <row r="40" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="151"/>
+      <c r="L39" s="161"/>
+    </row>
+    <row r="40" spans="1:23" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="175"/>
       <c r="B40" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C40" s="106"/>
       <c r="D40" s="108"/>
-      <c r="E40" s="160"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="160"/>
-      <c r="J40" s="161"/>
-      <c r="K40" s="168"/>
-      <c r="L40" s="172"/>
-    </row>
-    <row r="41" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="151"/>
+      <c r="E40" s="163"/>
+      <c r="F40" s="164"/>
+      <c r="G40" s="163"/>
+      <c r="H40" s="164"/>
+      <c r="I40" s="163"/>
+      <c r="J40" s="164"/>
+      <c r="K40" s="157"/>
+      <c r="L40" s="159"/>
+    </row>
+    <row r="41" spans="1:23" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="175"/>
       <c r="B41" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="151">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="D41" s="152"/>
+      <c r="E41" s="151">
+        <v>0</v>
+      </c>
+      <c r="F41" s="152"/>
+      <c r="G41" s="146">
+        <v>0</v>
+      </c>
+      <c r="H41" s="153"/>
+      <c r="I41" s="146">
+        <v>0</v>
+      </c>
+      <c r="J41" s="153"/>
+      <c r="K41" s="146">
+        <v>0</v>
+      </c>
+      <c r="L41" s="147"/>
+    </row>
+    <row r="42" spans="1:23" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="150"/>
+      <c r="B42" s="46" t="s">
         <v>108</v>
-      </c>
-      <c r="C41" s="156">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="D41" s="157"/>
-      <c r="E41" s="156">
-        <v>0</v>
-      </c>
-      <c r="F41" s="157"/>
-      <c r="G41" s="152">
-        <v>0</v>
-      </c>
-      <c r="H41" s="153"/>
-      <c r="I41" s="152">
-        <v>0</v>
-      </c>
-      <c r="J41" s="153"/>
-      <c r="K41" s="152">
-        <v>0</v>
-      </c>
-      <c r="L41" s="154"/>
-    </row>
-    <row r="42" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="147"/>
-      <c r="B42" s="46" t="s">
-        <v>109</v>
       </c>
       <c r="C42" s="46">
         <v>0.56299999999999994</v>
@@ -9863,12 +9885,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="146" t="s">
+    <row r="43" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="149" t="s">
         <v>54</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" s="64">
         <v>0.58299999999999996</v>
@@ -9901,36 +9923,36 @@
         <v>2.2700000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="146"/>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A44" s="149"/>
       <c r="B44" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="151">
+        <v>0.68</v>
+      </c>
+      <c r="D44" s="152"/>
+      <c r="E44" s="151">
+        <v>0.621</v>
+      </c>
+      <c r="F44" s="152"/>
+      <c r="G44" s="146">
+        <v>-0.12130000000000001</v>
+      </c>
+      <c r="H44" s="153"/>
+      <c r="I44" s="146">
+        <v>-0.12609999999999999</v>
+      </c>
+      <c r="J44" s="153"/>
+      <c r="K44" s="146">
+        <v>-8.4199999999999997E-2</v>
+      </c>
+      <c r="L44" s="147"/>
+    </row>
+    <row r="45" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="150"/>
+      <c r="B45" s="43" t="s">
         <v>108</v>
-      </c>
-      <c r="C44" s="156">
-        <v>0.68</v>
-      </c>
-      <c r="D44" s="157"/>
-      <c r="E44" s="156">
-        <v>0.621</v>
-      </c>
-      <c r="F44" s="157"/>
-      <c r="G44" s="152">
-        <v>-0.12130000000000001</v>
-      </c>
-      <c r="H44" s="153"/>
-      <c r="I44" s="152">
-        <v>-0.12609999999999999</v>
-      </c>
-      <c r="J44" s="153"/>
-      <c r="K44" s="152">
-        <v>-8.4199999999999997E-2</v>
-      </c>
-      <c r="L44" s="154"/>
-    </row>
-    <row r="45" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="147"/>
-      <c r="B45" s="43" t="s">
-        <v>109</v>
       </c>
       <c r="C45" s="43">
         <v>0.58699999999999997</v>
@@ -9963,76 +9985,76 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="145" t="s">
-        <v>127</v>
+    <row r="46" spans="1:23" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="148" t="s">
+        <v>124</v>
       </c>
       <c r="B46" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="158"/>
-      <c r="D46" s="159"/>
-      <c r="E46" s="158"/>
-      <c r="F46" s="159"/>
-      <c r="G46" s="158"/>
-      <c r="H46" s="159"/>
-      <c r="I46" s="158"/>
-      <c r="J46" s="159"/>
-      <c r="K46" s="158"/>
-      <c r="L46" s="171"/>
-    </row>
-    <row r="47" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="146"/>
+        <v>111</v>
+      </c>
+      <c r="C46" s="154"/>
+      <c r="D46" s="155"/>
+      <c r="E46" s="154"/>
+      <c r="F46" s="155"/>
+      <c r="G46" s="154"/>
+      <c r="H46" s="155"/>
+      <c r="I46" s="154"/>
+      <c r="J46" s="155"/>
+      <c r="K46" s="154"/>
+      <c r="L46" s="156"/>
+    </row>
+    <row r="47" spans="1:23" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="149"/>
       <c r="B47" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="106"/>
       <c r="D47" s="108"/>
-      <c r="E47" s="168"/>
-      <c r="F47" s="169"/>
-      <c r="G47" s="168"/>
-      <c r="H47" s="169"/>
-      <c r="I47" s="168"/>
-      <c r="J47" s="169"/>
-      <c r="K47" s="168"/>
-      <c r="L47" s="172"/>
+      <c r="E47" s="157"/>
+      <c r="F47" s="158"/>
+      <c r="G47" s="157"/>
+      <c r="H47" s="158"/>
+      <c r="I47" s="157"/>
+      <c r="J47" s="158"/>
+      <c r="K47" s="157"/>
+      <c r="L47" s="159"/>
       <c r="T47" s="19"/>
       <c r="U47" s="19"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="146"/>
+    <row r="48" spans="1:23" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="149"/>
       <c r="B48" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="156">
+        <v>107</v>
+      </c>
+      <c r="C48" s="151">
         <v>0.53800000000000003</v>
       </c>
-      <c r="D48" s="157"/>
-      <c r="E48" s="156">
+      <c r="D48" s="152"/>
+      <c r="E48" s="151">
         <v>0</v>
       </c>
-      <c r="F48" s="157"/>
-      <c r="G48" s="152">
+      <c r="F48" s="152"/>
+      <c r="G48" s="146">
         <v>0</v>
       </c>
       <c r="H48" s="153"/>
-      <c r="I48" s="152">
+      <c r="I48" s="146">
         <v>0</v>
       </c>
       <c r="J48" s="153"/>
-      <c r="K48" s="152">
+      <c r="K48" s="146">
         <v>0</v>
       </c>
-      <c r="L48" s="154"/>
+      <c r="L48" s="147"/>
       <c r="M48" s="32"/>
       <c r="R48" s="19"/>
     </row>
-    <row r="49" spans="1:13" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="147"/>
+    <row r="49" spans="1:13" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="150"/>
       <c r="B49" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C49" s="42"/>
       <c r="D49" s="43"/>
@@ -10046,70 +10068,70 @@
       <c r="L49" s="45"/>
       <c r="M49" s="32"/>
     </row>
-    <row r="50" spans="1:13" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="145" t="s">
-        <v>128</v>
+    <row r="50" spans="1:13" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="148" t="s">
+        <v>125</v>
       </c>
       <c r="B50" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="158"/>
-      <c r="D50" s="159"/>
-      <c r="E50" s="158"/>
-      <c r="F50" s="159"/>
-      <c r="G50" s="158"/>
-      <c r="H50" s="159"/>
-      <c r="I50" s="158"/>
-      <c r="J50" s="159"/>
-      <c r="K50" s="158"/>
-      <c r="L50" s="171"/>
-    </row>
-    <row r="51" spans="1:13" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="146"/>
+        <v>111</v>
+      </c>
+      <c r="C50" s="154"/>
+      <c r="D50" s="155"/>
+      <c r="E50" s="154"/>
+      <c r="F50" s="155"/>
+      <c r="G50" s="154"/>
+      <c r="H50" s="155"/>
+      <c r="I50" s="154"/>
+      <c r="J50" s="155"/>
+      <c r="K50" s="154"/>
+      <c r="L50" s="156"/>
+    </row>
+    <row r="51" spans="1:13" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="149"/>
       <c r="B51" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C51" s="106"/>
       <c r="D51" s="108"/>
-      <c r="E51" s="168"/>
-      <c r="F51" s="169"/>
-      <c r="G51" s="168"/>
-      <c r="H51" s="169"/>
-      <c r="I51" s="168"/>
-      <c r="J51" s="169"/>
-      <c r="K51" s="168"/>
-      <c r="L51" s="172"/>
-    </row>
-    <row r="52" spans="1:13" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="146"/>
+      <c r="E51" s="157"/>
+      <c r="F51" s="158"/>
+      <c r="G51" s="157"/>
+      <c r="H51" s="158"/>
+      <c r="I51" s="157"/>
+      <c r="J51" s="158"/>
+      <c r="K51" s="157"/>
+      <c r="L51" s="159"/>
+    </row>
+    <row r="52" spans="1:13" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="149"/>
       <c r="B52" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="151">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="D52" s="152"/>
+      <c r="E52" s="151">
+        <v>0</v>
+      </c>
+      <c r="F52" s="152"/>
+      <c r="G52" s="146">
+        <v>0</v>
+      </c>
+      <c r="H52" s="153"/>
+      <c r="I52" s="146">
+        <v>0</v>
+      </c>
+      <c r="J52" s="153"/>
+      <c r="K52" s="146">
+        <v>0</v>
+      </c>
+      <c r="L52" s="147"/>
+    </row>
+    <row r="53" spans="1:13" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="150"/>
+      <c r="B53" s="42" t="s">
         <v>108</v>
-      </c>
-      <c r="C52" s="156">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="D52" s="157"/>
-      <c r="E52" s="156">
-        <v>0</v>
-      </c>
-      <c r="F52" s="157"/>
-      <c r="G52" s="152">
-        <v>0</v>
-      </c>
-      <c r="H52" s="153"/>
-      <c r="I52" s="152">
-        <v>0</v>
-      </c>
-      <c r="J52" s="153"/>
-      <c r="K52" s="152">
-        <v>0</v>
-      </c>
-      <c r="L52" s="154"/>
-    </row>
-    <row r="53" spans="1:13" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="147"/>
-      <c r="B53" s="42" t="s">
-        <v>109</v>
       </c>
       <c r="C53" s="42"/>
       <c r="D53" s="43"/>
@@ -10122,12 +10144,12 @@
       <c r="K53" s="70"/>
       <c r="L53" s="45"/>
     </row>
-    <row r="54" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="146" t="s">
-        <v>130</v>
+    <row r="54" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="149" t="s">
+        <v>127</v>
       </c>
       <c r="B54" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C54" s="80">
         <v>0.60699999999999998</v>
@@ -10160,36 +10182,36 @@
         <v>6.5100000000000005E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="146"/>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="149"/>
       <c r="B55" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="151">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="D55" s="152"/>
+      <c r="E55" s="151">
+        <v>0.67</v>
+      </c>
+      <c r="F55" s="152"/>
+      <c r="G55" s="146">
+        <v>-9.0399999999999994E-2</v>
+      </c>
+      <c r="H55" s="153"/>
+      <c r="I55" s="146">
+        <v>-0.12130000000000001</v>
+      </c>
+      <c r="J55" s="153"/>
+      <c r="K55" s="146">
+        <v>-7.2099999999999997E-2</v>
+      </c>
+      <c r="L55" s="147"/>
+    </row>
+    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="150"/>
+      <c r="B56" s="43" t="s">
         <v>108</v>
-      </c>
-      <c r="C55" s="156">
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="D55" s="157"/>
-      <c r="E55" s="156">
-        <v>0.67</v>
-      </c>
-      <c r="F55" s="157"/>
-      <c r="G55" s="152">
-        <v>-9.0399999999999994E-2</v>
-      </c>
-      <c r="H55" s="153"/>
-      <c r="I55" s="152">
-        <v>-0.12130000000000001</v>
-      </c>
-      <c r="J55" s="153"/>
-      <c r="K55" s="152">
-        <v>-7.2099999999999997E-2</v>
-      </c>
-      <c r="L55" s="154"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="147"/>
-      <c r="B56" s="43" t="s">
-        <v>109</v>
       </c>
       <c r="C56" s="42">
         <v>0.58299999999999996</v>
@@ -10222,38 +10244,38 @@
         <v>-1.03E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="146" t="s">
-        <v>129</v>
+    <row r="57" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="149" t="s">
+        <v>126</v>
       </c>
       <c r="B57" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="151">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="D57" s="152"/>
+      <c r="E57" s="151">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="F57" s="152"/>
+      <c r="G57" s="146">
+        <v>-0.16159999999999999</v>
+      </c>
+      <c r="H57" s="153"/>
+      <c r="I57" s="146">
+        <v>-0.15709999999999999</v>
+      </c>
+      <c r="J57" s="153"/>
+      <c r="K57" s="146">
+        <v>-0.11890000000000001</v>
+      </c>
+      <c r="L57" s="147"/>
+    </row>
+    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="150"/>
+      <c r="B58" s="43" t="s">
         <v>108</v>
-      </c>
-      <c r="C57" s="156">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="D57" s="157"/>
-      <c r="E57" s="156">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="F57" s="157"/>
-      <c r="G57" s="152">
-        <v>-0.16159999999999999</v>
-      </c>
-      <c r="H57" s="153"/>
-      <c r="I57" s="152">
-        <v>-0.15709999999999999</v>
-      </c>
-      <c r="J57" s="153"/>
-      <c r="K57" s="152">
-        <v>-0.11890000000000001</v>
-      </c>
-      <c r="L57" s="154"/>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="147"/>
-      <c r="B58" s="43" t="s">
-        <v>109</v>
       </c>
       <c r="C58" s="42">
         <v>0.56299999999999994</v>
@@ -10286,9 +10308,174 @@
         <v>-1.03E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="189">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A57:A58"/>
@@ -10313,171 +10500,6 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
